--- a/Worksheets_BoDManual_YL.xlsx
+++ b/Worksheets_BoDManual_YL.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="RJ5a1XnoqQN+hCzdZE0qridFHG20nttOW+TDt/oSe+JdFc4KIKqKqiAHM3pcBAWIxLMjxAI/M6dyosq+sP8G6w==" workbookSaltValue="6pz3I+AFHSHDaA61UJu8SA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" tabRatio="760" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" tabRatio="760" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Welcome" sheetId="47" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="265">
   <si>
     <t>Female</t>
   </si>
@@ -1284,6 +1284,9 @@
   <si>
     <t xml:space="preserve">To view results for average burden, make sure the number of months with case and denominator are the same.
 </t>
+  </si>
+  <si>
+    <t>Step 1. Enter data:</t>
   </si>
 </sst>
 </file>
@@ -3456,7 +3459,7 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="107" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="627">
+  <cellXfs count="628">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5006,15 +5009,102 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5024,92 +5114,17 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5123,32 +5138,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5224,6 +5227,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -9022,7 +9028,7 @@
   </sheetPr>
   <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -9181,13 +9187,13 @@
         <v>238</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="580" t="str">
+      <c r="C9" s="581" t="str">
         <f>IF('W8'!G8&gt;0,"Yes","No. Please complete W8 first")</f>
         <v>No. Please complete W8 first</v>
       </c>
-      <c r="D9" s="580"/>
-      <c r="E9" s="580"/>
-      <c r="F9" s="580"/>
+      <c r="D9" s="581"/>
+      <c r="E9" s="581"/>
+      <c r="F9" s="581"/>
       <c r="G9" s="69"/>
       <c r="H9" s="69"/>
       <c r="I9" s="172"/>
@@ -9229,11 +9235,11 @@
       <c r="F11" s="174"/>
       <c r="G11" s="175"/>
       <c r="H11" s="175"/>
-      <c r="I11" s="595" t="s">
+      <c r="I11" s="599" t="s">
         <v>236</v>
       </c>
-      <c r="J11" s="595"/>
-      <c r="K11" s="595"/>
+      <c r="J11" s="599"/>
+      <c r="K11" s="599"/>
       <c r="L11" s="368"/>
       <c r="M11" s="367"/>
       <c r="N11" s="486"/>
@@ -9241,10 +9247,10 @@
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="459"/>
       <c r="B12" s="460"/>
-      <c r="C12" s="596" t="s">
+      <c r="C12" s="595" t="s">
         <v>250</v>
       </c>
-      <c r="D12" s="597"/>
+      <c r="D12" s="596"/>
       <c r="E12" s="485" t="s">
         <v>27</v>
       </c>
@@ -9263,26 +9269,26 @@
     <row r="13" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="176"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="598"/>
-      <c r="D13" s="599"/>
-      <c r="E13" s="554" t="s">
+      <c r="C13" s="597"/>
+      <c r="D13" s="598"/>
+      <c r="E13" s="572" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="554"/>
-      <c r="G13" s="554" t="s">
+      <c r="F13" s="572"/>
+      <c r="G13" s="572" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="554"/>
-      <c r="I13" s="556" t="s">
+      <c r="H13" s="572"/>
+      <c r="I13" s="585" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="552"/>
-      <c r="K13" s="552"/>
-      <c r="L13" s="556" t="s">
+      <c r="J13" s="582"/>
+      <c r="K13" s="582"/>
+      <c r="L13" s="585" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="552"/>
-      <c r="N13" s="557"/>
+      <c r="M13" s="582"/>
+      <c r="N13" s="586"/>
     </row>
     <row r="14" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="375" t="s">
@@ -9329,7 +9335,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="573" t="s">
+      <c r="A15" s="574" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -9373,7 +9379,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="573"/>
+      <c r="A16" s="574"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -9415,7 +9421,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="573"/>
+      <c r="A17" s="574"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -9457,7 +9463,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="573"/>
+      <c r="A18" s="574"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -9499,7 +9505,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="573"/>
+      <c r="A19" s="574"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -9541,7 +9547,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="573"/>
+      <c r="A20" s="574"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -9583,7 +9589,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="573"/>
+      <c r="A21" s="574"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -9625,7 +9631,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="573"/>
+      <c r="A22" s="574"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -9667,7 +9673,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="573"/>
+      <c r="A23" s="574"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -9709,7 +9715,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="573"/>
+      <c r="A24" s="574"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -9751,7 +9757,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="573"/>
+      <c r="A25" s="574"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -9793,7 +9799,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="574"/>
+      <c r="A26" s="575"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -9875,7 +9881,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="573" t="s">
+      <c r="A28" s="574" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -9919,7 +9925,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="573"/>
+      <c r="A29" s="574"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -9961,7 +9967,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="573"/>
+      <c r="A30" s="574"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -10003,7 +10009,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="573"/>
+      <c r="A31" s="574"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -10045,7 +10051,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="573"/>
+      <c r="A32" s="574"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -10087,7 +10093,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="573"/>
+      <c r="A33" s="574"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -10129,7 +10135,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="573"/>
+      <c r="A34" s="574"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -10171,7 +10177,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="573"/>
+      <c r="A35" s="574"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -10213,7 +10219,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="573"/>
+      <c r="A36" s="574"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -10255,7 +10261,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="573"/>
+      <c r="A37" s="574"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -10297,7 +10303,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="573"/>
+      <c r="A38" s="574"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -10339,7 +10345,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="573"/>
+      <c r="A39" s="574"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -10421,7 +10427,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="572" t="s">
+      <c r="A41" s="573" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -10465,7 +10471,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="573"/>
+      <c r="A42" s="574"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -10507,7 +10513,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="573"/>
+      <c r="A43" s="574"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -10549,7 +10555,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="573"/>
+      <c r="A44" s="574"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -10591,7 +10597,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="573"/>
+      <c r="A45" s="574"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -10633,7 +10639,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="573"/>
+      <c r="A46" s="574"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -10675,7 +10681,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="573"/>
+      <c r="A47" s="574"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -10717,7 +10723,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="573"/>
+      <c r="A48" s="574"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -10759,7 +10765,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="573"/>
+      <c r="A49" s="574"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -10801,7 +10807,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="573"/>
+      <c r="A50" s="574"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -10843,7 +10849,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="573"/>
+      <c r="A51" s="574"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -10885,7 +10891,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="574"/>
+      <c r="A52" s="575"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -10967,7 +10973,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="572" t="s">
+      <c r="A54" s="573" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -11011,7 +11017,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="573"/>
+      <c r="A55" s="574"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -11053,7 +11059,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="573"/>
+      <c r="A56" s="574"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -11095,7 +11101,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="573"/>
+      <c r="A57" s="574"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -11137,7 +11143,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="573"/>
+      <c r="A58" s="574"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -11179,7 +11185,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="573"/>
+      <c r="A59" s="574"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -11221,7 +11227,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="573"/>
+      <c r="A60" s="574"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -11263,7 +11269,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="573"/>
+      <c r="A61" s="574"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -11305,7 +11311,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="573"/>
+      <c r="A62" s="574"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -11347,7 +11353,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="573"/>
+      <c r="A63" s="574"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -11389,7 +11395,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="573"/>
+      <c r="A64" s="574"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -11431,7 +11437,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="574"/>
+      <c r="A65" s="575"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -11513,7 +11519,7 @@
       </c>
     </row>
     <row r="67" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="572" t="s">
+      <c r="A67" s="573" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -11557,7 +11563,7 @@
       </c>
     </row>
     <row r="68" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="573"/>
+      <c r="A68" s="574"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -11599,7 +11605,7 @@
       </c>
     </row>
     <row r="69" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="573"/>
+      <c r="A69" s="574"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -11641,7 +11647,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="573"/>
+      <c r="A70" s="574"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -11683,7 +11689,7 @@
       </c>
     </row>
     <row r="71" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="573"/>
+      <c r="A71" s="574"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -11725,7 +11731,7 @@
       </c>
     </row>
     <row r="72" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="573"/>
+      <c r="A72" s="574"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -11767,7 +11773,7 @@
       </c>
     </row>
     <row r="73" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="573"/>
+      <c r="A73" s="574"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -11809,7 +11815,7 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="573"/>
+      <c r="A74" s="574"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -11851,7 +11857,7 @@
       </c>
     </row>
     <row r="75" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="573"/>
+      <c r="A75" s="574"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -11893,7 +11899,7 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="573"/>
+      <c r="A76" s="574"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -11935,7 +11941,7 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="573"/>
+      <c r="A77" s="574"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -11977,7 +11983,7 @@
       </c>
     </row>
     <row r="78" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="575"/>
+      <c r="A78" s="576"/>
       <c r="B78" s="178" t="s">
         <v>17</v>
       </c>
@@ -12074,10 +12080,10 @@
       </c>
     </row>
     <row r="84" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G84" s="583" t="s">
+      <c r="G84" s="554" t="s">
         <v>237</v>
       </c>
-      <c r="H84" s="584"/>
+      <c r="H84" s="555"/>
       <c r="I84" s="489" t="str">
         <f>IF(COUNT(E15:E26)=J81, CONCATENATE(ROUND(SUM(E15:E26)*J81/J81/SUM(C15:C26)*100, 2), " (", ROUND(SUM(E15:E26)*J81/J81/SUM(C15:C26)*100/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*J81/J81/SUM(C15:C26)*100*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -12104,10 +12110,10 @@
       </c>
     </row>
     <row r="85" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G85" s="585" t="s">
+      <c r="G85" s="556" t="s">
         <v>21</v>
       </c>
-      <c r="H85" s="586"/>
+      <c r="H85" s="557"/>
       <c r="I85" s="492" t="str">
         <f>IF(COUNT(E28:E39)=J81, CONCATENATE(ROUND(SUM(E28:E39)*J81/J81/SUM(C28:C39)*100, 2), " (", ROUND(SUM(E28:E39)*J81/J81/SUM(C28:C39)*100/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*J81/J81/SUM(C28:C39)*100*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -12134,10 +12140,10 @@
       </c>
     </row>
     <row r="86" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G86" s="585" t="s">
+      <c r="G86" s="556" t="s">
         <v>22</v>
       </c>
-      <c r="H86" s="586"/>
+      <c r="H86" s="557"/>
       <c r="I86" s="492" t="str">
         <f>IF(COUNT(E41:E52)=J81, CONCATENATE(ROUND(SUM(E41:E52)*J81/J81/SUM(C41:C52)*100, 2), " (", ROUND(SUM(E41:E52)*J81/J81/SUM(C41:C52)*100/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*J81/J81/SUM(C41:C52)*100*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -12164,10 +12170,10 @@
       </c>
     </row>
     <row r="87" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G87" s="585" t="s">
+      <c r="G87" s="556" t="s">
         <v>23</v>
       </c>
-      <c r="H87" s="586"/>
+      <c r="H87" s="557"/>
       <c r="I87" s="492" t="str">
         <f>IF(COUNT(E54:E65)=J81, CONCATENATE(ROUND(SUM(E54:E65)*J81/J81/SUM(C54:C65)*100, 2), " (", ROUND(SUM(E54:E65)*J81/J81/SUM(C54:C65)*100/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*J81/J81/SUM(C54:C65)*100*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -12194,10 +12200,10 @@
       </c>
     </row>
     <row r="88" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G88" s="585" t="s">
+      <c r="G88" s="556" t="s">
         <v>3</v>
       </c>
-      <c r="H88" s="586"/>
+      <c r="H88" s="557"/>
       <c r="I88" s="492" t="str">
         <f>IF(COUNT(E67:E78)=J81, CONCATENATE(ROUND(SUM(E67:E78)*J81/J81/SUM(C67:C78)*100, 2), " (", ROUND(SUM(E67:E78)*J81/J81/SUM(C67:C78)*100/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*J81/J81/SUM(C67:C78)*100*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -12224,10 +12230,10 @@
       </c>
     </row>
     <row r="89" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G89" s="581" t="s">
+      <c r="G89" s="552" t="s">
         <v>1</v>
       </c>
-      <c r="H89" s="588"/>
+      <c r="H89" s="592"/>
       <c r="I89" s="519" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$J$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -12260,14 +12266,12 @@
     <protectedRange sqref="I84:N89" name="Range1_1_2_2"/>
   </protectedRanges>
   <mergeCells count="23">
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
     <mergeCell ref="G82:H83"/>
     <mergeCell ref="A67:A78"/>
     <mergeCell ref="I11:K11"/>
@@ -12277,12 +12281,14 @@
     <mergeCell ref="A28:A39"/>
     <mergeCell ref="A41:A52"/>
     <mergeCell ref="A54:A65"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
   </mergeCells>
   <conditionalFormatting sqref="A41:B52 A54:B65 A67:B78 G11 A12:C12 G13 C1:H2 C3:G3 C4:H7 E11 E12:G12 A13:B39 E13 A1:A10 C9:C10 D8:H8 G9:H9">
     <cfRule type="containsErrors" dxfId="230" priority="75">
@@ -12665,13 +12671,13 @@
         <v>238</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="580" t="str">
+      <c r="C9" s="581" t="str">
         <f>IF('W8'!G8&gt;0,"Yes","No. Please complete W8 first")</f>
         <v>No. Please complete W8 first</v>
       </c>
-      <c r="D9" s="580"/>
-      <c r="E9" s="580"/>
-      <c r="F9" s="580"/>
+      <c r="D9" s="581"/>
+      <c r="E9" s="581"/>
+      <c r="F9" s="581"/>
       <c r="G9" s="69"/>
       <c r="H9" s="69"/>
       <c r="I9" s="172"/>
@@ -12714,14 +12720,14 @@
       <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E11" s="589" t="s">
+      <c r="E11" s="593" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="589"/>
-      <c r="G11" s="589"/>
-      <c r="H11" s="589"/>
-      <c r="I11" s="589"/>
-      <c r="J11" s="589"/>
+      <c r="F11" s="593"/>
+      <c r="G11" s="593"/>
+      <c r="H11" s="593"/>
+      <c r="I11" s="593"/>
+      <c r="J11" s="593"/>
       <c r="K11" s="9" t="s">
         <v>236</v>
       </c>
@@ -12738,15 +12744,15 @@
     <row r="12" spans="1:20" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="459"/>
       <c r="B12" s="460"/>
-      <c r="C12" s="596" t="s">
+      <c r="C12" s="595" t="s">
         <v>250</v>
       </c>
-      <c r="D12" s="597"/>
-      <c r="E12" s="590" t="s">
+      <c r="D12" s="596"/>
+      <c r="E12" s="594" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="590"/>
-      <c r="G12" s="590"/>
+      <c r="F12" s="594"/>
+      <c r="G12" s="594"/>
       <c r="H12" s="190"/>
       <c r="I12" s="190"/>
       <c r="J12" s="190"/>
@@ -12766,35 +12772,35 @@
     <row r="13" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="176"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="598"/>
-      <c r="D13" s="599"/>
-      <c r="E13" s="554" t="s">
+      <c r="C13" s="597"/>
+      <c r="D13" s="598"/>
+      <c r="E13" s="572" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="554"/>
-      <c r="G13" s="554" t="s">
+      <c r="F13" s="572"/>
+      <c r="G13" s="572" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="554"/>
-      <c r="I13" s="554" t="s">
+      <c r="H13" s="572"/>
+      <c r="I13" s="572" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="554"/>
-      <c r="K13" s="556" t="s">
+      <c r="J13" s="572"/>
+      <c r="K13" s="585" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="552"/>
-      <c r="M13" s="552"/>
-      <c r="N13" s="593" t="s">
+      <c r="L13" s="582"/>
+      <c r="M13" s="582"/>
+      <c r="N13" s="587" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="554"/>
-      <c r="P13" s="594"/>
-      <c r="Q13" s="556" t="s">
+      <c r="O13" s="572"/>
+      <c r="P13" s="588"/>
+      <c r="Q13" s="585" t="s">
         <v>32</v>
       </c>
-      <c r="R13" s="552"/>
-      <c r="S13" s="557"/>
+      <c r="R13" s="582"/>
+      <c r="S13" s="586"/>
     </row>
     <row r="14" spans="1:20" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="375" t="s">
@@ -12856,7 +12862,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="573" t="s">
+      <c r="A15" s="574" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -12914,7 +12920,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="573"/>
+      <c r="A16" s="574"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -12970,7 +12976,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="573"/>
+      <c r="A17" s="574"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -13026,7 +13032,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="573"/>
+      <c r="A18" s="574"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -13082,7 +13088,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="573"/>
+      <c r="A19" s="574"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -13138,7 +13144,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="573"/>
+      <c r="A20" s="574"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -13194,7 +13200,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="573"/>
+      <c r="A21" s="574"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -13250,7 +13256,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="573"/>
+      <c r="A22" s="574"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -13306,7 +13312,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="573"/>
+      <c r="A23" s="574"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -13362,7 +13368,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="573"/>
+      <c r="A24" s="574"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -13418,7 +13424,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="573"/>
+      <c r="A25" s="574"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -13474,7 +13480,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="574"/>
+      <c r="A26" s="575"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -13585,7 +13591,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="573" t="s">
+      <c r="A28" s="574" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -13643,7 +13649,7 @@
       </c>
     </row>
     <row r="29" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="573"/>
+      <c r="A29" s="574"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -13699,7 +13705,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="573"/>
+      <c r="A30" s="574"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -13756,7 +13762,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="573"/>
+      <c r="A31" s="574"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -13813,7 +13819,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="573"/>
+      <c r="A32" s="574"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -13870,7 +13876,7 @@
       <c r="T32" s="7"/>
     </row>
     <row r="33" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="573"/>
+      <c r="A33" s="574"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -13927,7 +13933,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="573"/>
+      <c r="A34" s="574"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -13984,7 +13990,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="573"/>
+      <c r="A35" s="574"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -14041,7 +14047,7 @@
       <c r="T35" s="7"/>
     </row>
     <row r="36" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="573"/>
+      <c r="A36" s="574"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -14098,7 +14104,7 @@
       <c r="T36" s="7"/>
     </row>
     <row r="37" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="573"/>
+      <c r="A37" s="574"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -14155,7 +14161,7 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="573"/>
+      <c r="A38" s="574"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -14212,7 +14218,7 @@
       <c r="T38" s="7"/>
     </row>
     <row r="39" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="573"/>
+      <c r="A39" s="574"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -14325,7 +14331,7 @@
       <c r="T40" s="7"/>
     </row>
     <row r="41" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="572" t="s">
+      <c r="A41" s="573" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -14384,7 +14390,7 @@
       <c r="T41" s="7"/>
     </row>
     <row r="42" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="573"/>
+      <c r="A42" s="574"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -14441,7 +14447,7 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="573"/>
+      <c r="A43" s="574"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -14498,7 +14504,7 @@
       <c r="T43" s="7"/>
     </row>
     <row r="44" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="573"/>
+      <c r="A44" s="574"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -14555,7 +14561,7 @@
       <c r="T44" s="7"/>
     </row>
     <row r="45" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="573"/>
+      <c r="A45" s="574"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -14612,7 +14618,7 @@
       <c r="T45" s="7"/>
     </row>
     <row r="46" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="573"/>
+      <c r="A46" s="574"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -14669,7 +14675,7 @@
       <c r="T46" s="7"/>
     </row>
     <row r="47" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="573"/>
+      <c r="A47" s="574"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -14726,7 +14732,7 @@
       <c r="T47" s="7"/>
     </row>
     <row r="48" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="573"/>
+      <c r="A48" s="574"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -14783,7 +14789,7 @@
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="573"/>
+      <c r="A49" s="574"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -14840,7 +14846,7 @@
       <c r="T49" s="7"/>
     </row>
     <row r="50" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="573"/>
+      <c r="A50" s="574"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -14897,7 +14903,7 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="573"/>
+      <c r="A51" s="574"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -14954,7 +14960,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="574"/>
+      <c r="A52" s="575"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -15067,7 +15073,7 @@
       <c r="T53" s="7"/>
     </row>
     <row r="54" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="572" t="s">
+      <c r="A54" s="573" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -15126,7 +15132,7 @@
       <c r="T54" s="7"/>
     </row>
     <row r="55" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="573"/>
+      <c r="A55" s="574"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -15183,7 +15189,7 @@
       <c r="T55" s="7"/>
     </row>
     <row r="56" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="573"/>
+      <c r="A56" s="574"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -15240,7 +15246,7 @@
       <c r="T56" s="7"/>
     </row>
     <row r="57" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="573"/>
+      <c r="A57" s="574"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -15297,7 +15303,7 @@
       <c r="T57" s="7"/>
     </row>
     <row r="58" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="573"/>
+      <c r="A58" s="574"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -15354,7 +15360,7 @@
       <c r="T58" s="7"/>
     </row>
     <row r="59" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="573"/>
+      <c r="A59" s="574"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -15411,7 +15417,7 @@
       <c r="T59" s="7"/>
     </row>
     <row r="60" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="573"/>
+      <c r="A60" s="574"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -15468,7 +15474,7 @@
       <c r="T60" s="7"/>
     </row>
     <row r="61" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="573"/>
+      <c r="A61" s="574"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -15525,7 +15531,7 @@
       <c r="T61" s="7"/>
     </row>
     <row r="62" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="573"/>
+      <c r="A62" s="574"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -15582,7 +15588,7 @@
       <c r="T62" s="7"/>
     </row>
     <row r="63" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="573"/>
+      <c r="A63" s="574"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -15639,7 +15645,7 @@
       <c r="T63" s="7"/>
     </row>
     <row r="64" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="573"/>
+      <c r="A64" s="574"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -15696,7 +15702,7 @@
       <c r="T64" s="7"/>
     </row>
     <row r="65" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="574"/>
+      <c r="A65" s="575"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -15809,7 +15815,7 @@
       <c r="T66" s="7"/>
     </row>
     <row r="67" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="572" t="s">
+      <c r="A67" s="573" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -15868,7 +15874,7 @@
       <c r="T67" s="7"/>
     </row>
     <row r="68" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="573"/>
+      <c r="A68" s="574"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -15925,7 +15931,7 @@
       <c r="T68" s="7"/>
     </row>
     <row r="69" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="573"/>
+      <c r="A69" s="574"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -15982,7 +15988,7 @@
       <c r="T69" s="7"/>
     </row>
     <row r="70" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="573"/>
+      <c r="A70" s="574"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -16039,7 +16045,7 @@
       <c r="T70" s="7"/>
     </row>
     <row r="71" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="573"/>
+      <c r="A71" s="574"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -16096,7 +16102,7 @@
       <c r="T71" s="7"/>
     </row>
     <row r="72" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="573"/>
+      <c r="A72" s="574"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -16153,7 +16159,7 @@
       <c r="T72" s="7"/>
     </row>
     <row r="73" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="573"/>
+      <c r="A73" s="574"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -16210,7 +16216,7 @@
       <c r="T73" s="7"/>
     </row>
     <row r="74" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="573"/>
+      <c r="A74" s="574"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -16267,7 +16273,7 @@
       <c r="T74" s="7"/>
     </row>
     <row r="75" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="573"/>
+      <c r="A75" s="574"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -16324,7 +16330,7 @@
       <c r="T75" s="7"/>
     </row>
     <row r="76" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="573"/>
+      <c r="A76" s="574"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -16381,7 +16387,7 @@
       <c r="T76" s="7"/>
     </row>
     <row r="77" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="573"/>
+      <c r="A77" s="574"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -16438,7 +16444,7 @@
       <c r="T77" s="7"/>
     </row>
     <row r="78" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="575"/>
+      <c r="A78" s="576"/>
       <c r="B78" s="178" t="s">
         <v>17</v>
       </c>
@@ -16589,10 +16595,10 @@
       <c r="T83" s="10"/>
     </row>
     <row r="84" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I84" s="591" t="s">
+      <c r="I84" s="589" t="s">
         <v>237</v>
       </c>
-      <c r="J84" s="592"/>
+      <c r="J84" s="590"/>
       <c r="K84" s="490" t="str">
         <f>IF(COUNT(E15:E26)=$L$81, CONCATENATE(ROUND(SUM(E15:E26)*L81/L81/SUM(C15:C26)*100, 2), " (", ROUND(SUM(E15:E26)*L81/L81/SUM(C15:C26)*100/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*L81/L81/SUM(C15:C26)*100*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -16632,10 +16638,10 @@
       <c r="T84" s="10"/>
     </row>
     <row r="85" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I85" s="585" t="s">
+      <c r="I85" s="556" t="s">
         <v>21</v>
       </c>
-      <c r="J85" s="587"/>
+      <c r="J85" s="591"/>
       <c r="K85" s="493" t="str">
         <f>IF(COUNT(E28:E39)=$L$81, CONCATENATE(ROUND(SUM(E28:E39)*L81/L81/SUM(C28:C39)*100, 2), " (", ROUND(SUM(E28:E39)*L81/L81/SUM(C28:C39)*100/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*L81/L81/SUM(C28:C39)*100*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -16675,10 +16681,10 @@
       <c r="T85" s="10"/>
     </row>
     <row r="86" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I86" s="585" t="s">
+      <c r="I86" s="556" t="s">
         <v>22</v>
       </c>
-      <c r="J86" s="587"/>
+      <c r="J86" s="591"/>
       <c r="K86" s="493" t="str">
         <f>IF(COUNT(E41:E52)=$L$81, CONCATENATE(ROUND(SUM(E41:E52)*L81/L81/SUM(C41:C52)*100, 2), " (", ROUND(SUM(E41:E52)*L81/L81/SUM(C41:C52)*100/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*L81/L81/SUM(C41:C52)*100*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -16718,10 +16724,10 @@
       <c r="T86" s="10"/>
     </row>
     <row r="87" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I87" s="585" t="s">
+      <c r="I87" s="556" t="s">
         <v>23</v>
       </c>
-      <c r="J87" s="587"/>
+      <c r="J87" s="591"/>
       <c r="K87" s="493" t="str">
         <f>IF(COUNT(E54:E65)=$L$81, CONCATENATE(ROUND(SUM(E54:E65)*L81/L81/SUM(C54:C65)*100, 2), " (", ROUND(SUM(E54:E65)*L81/L81/SUM(C54:C65)*100/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*L81/L81/SUM(C54:C65)*100*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -16761,10 +16767,10 @@
       <c r="T87" s="10"/>
     </row>
     <row r="88" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I88" s="585" t="s">
+      <c r="I88" s="556" t="s">
         <v>3</v>
       </c>
-      <c r="J88" s="587"/>
+      <c r="J88" s="591"/>
       <c r="K88" s="493" t="str">
         <f>IF(COUNT(E67:E78)=$L$81, CONCATENATE(ROUND(SUM(E67:E78)*L81/L81/SUM(C67:C78)*100, 2), " (", ROUND(SUM(E67:E78)*L81/L81/SUM(C67:C78)*100/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*L81/L81/SUM(C67:C78)*100*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -16804,10 +16810,10 @@
       <c r="T88" s="10"/>
     </row>
     <row r="89" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I89" s="581" t="s">
+      <c r="I89" s="552" t="s">
         <v>1</v>
       </c>
-      <c r="J89" s="588"/>
+      <c r="J89" s="592"/>
       <c r="K89" s="519" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$L$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*L81/L81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*L81/L81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*L81/L81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -16864,16 +16870,11 @@
     <protectedRange sqref="K84:S89" name="Range1_1_2_2"/>
   </protectedRanges>
   <mergeCells count="27">
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="K12:S12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="I89:J89"/>
     <mergeCell ref="Q82:S82"/>
     <mergeCell ref="I84:J84"/>
     <mergeCell ref="N13:P13"/>
@@ -16886,11 +16887,16 @@
     <mergeCell ref="I82:J83"/>
     <mergeCell ref="K82:M82"/>
     <mergeCell ref="N82:P82"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="K12:S12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <conditionalFormatting sqref="A91:J1048576 T11 A80:I80 T1:XFD9 J90 A81:H81 H12:I12 E12 K83:M83 Q83:S83 U11:XFD1048576 T30:T1048576">
     <cfRule type="containsErrors" dxfId="193" priority="110">
@@ -17388,13 +17394,13 @@
         <v>238</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="580" t="str">
+      <c r="C9" s="581" t="str">
         <f>IF('W8'!G8&gt;0,"Yes","No. Please complete W8 first")</f>
         <v>No. Please complete W8 first</v>
       </c>
-      <c r="D9" s="580"/>
-      <c r="E9" s="580"/>
-      <c r="F9" s="580"/>
+      <c r="D9" s="581"/>
+      <c r="E9" s="581"/>
+      <c r="F9" s="581"/>
       <c r="G9" s="172"/>
       <c r="H9" s="19"/>
       <c r="I9" s="12"/>
@@ -17431,10 +17437,10 @@
     <row r="12" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="459"/>
       <c r="B12" s="460"/>
-      <c r="C12" s="596" t="s">
+      <c r="C12" s="595" t="s">
         <v>250</v>
       </c>
-      <c r="D12" s="597"/>
+      <c r="D12" s="596"/>
       <c r="E12" s="485" t="s">
         <v>27</v>
       </c>
@@ -17449,17 +17455,17 @@
     <row r="13" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="176"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="598"/>
-      <c r="D13" s="599"/>
-      <c r="E13" s="554" t="s">
+      <c r="C13" s="597"/>
+      <c r="D13" s="598"/>
+      <c r="E13" s="572" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="554"/>
-      <c r="G13" s="593" t="s">
+      <c r="F13" s="572"/>
+      <c r="G13" s="587" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="554"/>
-      <c r="I13" s="594"/>
+      <c r="H13" s="572"/>
+      <c r="I13" s="588"/>
     </row>
     <row r="14" spans="1:10" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="375" t="s">
@@ -17491,7 +17497,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="573" t="s">
+      <c r="A15" s="574" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -17521,7 +17527,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="573"/>
+      <c r="A16" s="574"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -17549,7 +17555,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="573"/>
+      <c r="A17" s="574"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -17577,7 +17583,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="573"/>
+      <c r="A18" s="574"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -17605,7 +17611,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="573"/>
+      <c r="A19" s="574"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -17633,7 +17639,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="573"/>
+      <c r="A20" s="574"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -17661,7 +17667,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="573"/>
+      <c r="A21" s="574"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -17689,7 +17695,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="573"/>
+      <c r="A22" s="574"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -17717,7 +17723,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="573"/>
+      <c r="A23" s="574"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -17745,7 +17751,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="573"/>
+      <c r="A24" s="574"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -17773,7 +17779,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="573"/>
+      <c r="A25" s="574"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -17801,7 +17807,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="574"/>
+      <c r="A26" s="575"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -17854,7 +17860,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="573" t="s">
+      <c r="A28" s="574" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -17884,7 +17890,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="573"/>
+      <c r="A29" s="574"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -17912,7 +17918,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="573"/>
+      <c r="A30" s="574"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -17941,7 +17947,7 @@
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="573"/>
+      <c r="A31" s="574"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -17970,7 +17976,7 @@
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="573"/>
+      <c r="A32" s="574"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -17999,7 +18005,7 @@
       <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="573"/>
+      <c r="A33" s="574"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -18028,7 +18034,7 @@
       <c r="J33" s="7"/>
     </row>
     <row r="34" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="573"/>
+      <c r="A34" s="574"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -18057,7 +18063,7 @@
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="573"/>
+      <c r="A35" s="574"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -18086,7 +18092,7 @@
       <c r="J35" s="7"/>
     </row>
     <row r="36" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="573"/>
+      <c r="A36" s="574"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -18115,7 +18121,7 @@
       <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="573"/>
+      <c r="A37" s="574"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -18144,7 +18150,7 @@
       <c r="J37" s="7"/>
     </row>
     <row r="38" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="573"/>
+      <c r="A38" s="574"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -18173,7 +18179,7 @@
       <c r="J38" s="7"/>
     </row>
     <row r="39" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="573"/>
+      <c r="A39" s="574"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -18228,7 +18234,7 @@
       <c r="J40" s="7"/>
     </row>
     <row r="41" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="572" t="s">
+      <c r="A41" s="573" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -18259,7 +18265,7 @@
       <c r="J41" s="7"/>
     </row>
     <row r="42" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="573"/>
+      <c r="A42" s="574"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -18288,7 +18294,7 @@
       <c r="J42" s="7"/>
     </row>
     <row r="43" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="573"/>
+      <c r="A43" s="574"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -18317,7 +18323,7 @@
       <c r="J43" s="7"/>
     </row>
     <row r="44" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="573"/>
+      <c r="A44" s="574"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -18346,7 +18352,7 @@
       <c r="J44" s="7"/>
     </row>
     <row r="45" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="573"/>
+      <c r="A45" s="574"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -18375,7 +18381,7 @@
       <c r="J45" s="7"/>
     </row>
     <row r="46" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="573"/>
+      <c r="A46" s="574"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -18404,7 +18410,7 @@
       <c r="J46" s="7"/>
     </row>
     <row r="47" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="573"/>
+      <c r="A47" s="574"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -18433,7 +18439,7 @@
       <c r="J47" s="7"/>
     </row>
     <row r="48" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="573"/>
+      <c r="A48" s="574"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -18462,7 +18468,7 @@
       <c r="J48" s="7"/>
     </row>
     <row r="49" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="573"/>
+      <c r="A49" s="574"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -18491,7 +18497,7 @@
       <c r="J49" s="7"/>
     </row>
     <row r="50" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="573"/>
+      <c r="A50" s="574"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -18520,7 +18526,7 @@
       <c r="J50" s="7"/>
     </row>
     <row r="51" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="573"/>
+      <c r="A51" s="574"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -18549,7 +18555,7 @@
       <c r="J51" s="7"/>
     </row>
     <row r="52" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="574"/>
+      <c r="A52" s="575"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -18604,7 +18610,7 @@
       <c r="J53" s="7"/>
     </row>
     <row r="54" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="572" t="s">
+      <c r="A54" s="573" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -18635,7 +18641,7 @@
       <c r="J54" s="7"/>
     </row>
     <row r="55" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="573"/>
+      <c r="A55" s="574"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -18664,7 +18670,7 @@
       <c r="J55" s="7"/>
     </row>
     <row r="56" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="573"/>
+      <c r="A56" s="574"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -18693,7 +18699,7 @@
       <c r="J56" s="7"/>
     </row>
     <row r="57" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="573"/>
+      <c r="A57" s="574"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -18722,7 +18728,7 @@
       <c r="J57" s="7"/>
     </row>
     <row r="58" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="573"/>
+      <c r="A58" s="574"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -18751,7 +18757,7 @@
       <c r="J58" s="7"/>
     </row>
     <row r="59" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="573"/>
+      <c r="A59" s="574"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -18780,7 +18786,7 @@
       <c r="J59" s="7"/>
     </row>
     <row r="60" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="573"/>
+      <c r="A60" s="574"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -18809,7 +18815,7 @@
       <c r="J60" s="7"/>
     </row>
     <row r="61" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="573"/>
+      <c r="A61" s="574"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -18838,7 +18844,7 @@
       <c r="J61" s="7"/>
     </row>
     <row r="62" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="573"/>
+      <c r="A62" s="574"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -18867,7 +18873,7 @@
       <c r="J62" s="7"/>
     </row>
     <row r="63" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="573"/>
+      <c r="A63" s="574"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -18896,7 +18902,7 @@
       <c r="J63" s="7"/>
     </row>
     <row r="64" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="573"/>
+      <c r="A64" s="574"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -18925,7 +18931,7 @@
       <c r="J64" s="7"/>
     </row>
     <row r="65" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="574"/>
+      <c r="A65" s="575"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -18980,7 +18986,7 @@
       <c r="J66" s="7"/>
     </row>
     <row r="67" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="572" t="s">
+      <c r="A67" s="573" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -19011,7 +19017,7 @@
       <c r="J67" s="7"/>
     </row>
     <row r="68" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="573"/>
+      <c r="A68" s="574"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -19040,7 +19046,7 @@
       <c r="J68" s="7"/>
     </row>
     <row r="69" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="573"/>
+      <c r="A69" s="574"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -19069,7 +19075,7 @@
       <c r="J69" s="7"/>
     </row>
     <row r="70" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="573"/>
+      <c r="A70" s="574"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -19098,7 +19104,7 @@
       <c r="J70" s="7"/>
     </row>
     <row r="71" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="573"/>
+      <c r="A71" s="574"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -19127,7 +19133,7 @@
       <c r="J71" s="7"/>
     </row>
     <row r="72" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="573"/>
+      <c r="A72" s="574"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -19156,7 +19162,7 @@
       <c r="J72" s="7"/>
     </row>
     <row r="73" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="573"/>
+      <c r="A73" s="574"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -19185,7 +19191,7 @@
       <c r="J73" s="7"/>
     </row>
     <row r="74" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="573"/>
+      <c r="A74" s="574"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -19214,7 +19220,7 @@
       <c r="J74" s="7"/>
     </row>
     <row r="75" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="573"/>
+      <c r="A75" s="574"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -19243,7 +19249,7 @@
       <c r="J75" s="7"/>
     </row>
     <row r="76" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="573"/>
+      <c r="A76" s="574"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -19272,7 +19278,7 @@
       <c r="J76" s="7"/>
     </row>
     <row r="77" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="573"/>
+      <c r="A77" s="574"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -19301,7 +19307,7 @@
       <c r="J77" s="7"/>
     </row>
     <row r="78" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="575"/>
+      <c r="A78" s="576"/>
       <c r="B78" s="178" t="s">
         <v>17</v>
       </c>
@@ -19380,10 +19386,10 @@
       <c r="J83" s="10"/>
     </row>
     <row r="84" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E84" s="583" t="s">
+      <c r="E84" s="554" t="s">
         <v>237</v>
       </c>
-      <c r="F84" s="584"/>
+      <c r="F84" s="555"/>
       <c r="G84" s="489" t="str">
         <f>IF(COUNT(E15:E26)=H81, CONCATENATE(ROUND(SUM(E15:E26)*H81/H81/SUM(C15:C26)*100, 2), " (", ROUND(SUM(E15:E26)*H81/H81/SUM(C15:C26)*100/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*H81/H81/SUM(C15:C26)*100*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -19399,10 +19405,10 @@
       <c r="J84" s="10"/>
     </row>
     <row r="85" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E85" s="585" t="s">
+      <c r="E85" s="556" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="586"/>
+      <c r="F85" s="557"/>
       <c r="G85" s="492" t="str">
         <f>IF(COUNT(E28:E39)=H81, CONCATENATE(ROUND(SUM(E28:E39)*H81/H81/SUM(C28:C39)*100, 2), " (", ROUND(SUM(E28:E39)*H81/H81/SUM(C28:C39)*100/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*H81/H81/SUM(C28:C39)*100*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -19418,10 +19424,10 @@
       <c r="J85" s="10"/>
     </row>
     <row r="86" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E86" s="585" t="s">
+      <c r="E86" s="556" t="s">
         <v>22</v>
       </c>
-      <c r="F86" s="586"/>
+      <c r="F86" s="557"/>
       <c r="G86" s="492" t="str">
         <f>IF(COUNT(E41:E52)=H81, CONCATENATE(ROUND(SUM(E41:E52)*H81/H81/SUM(C41:C52)*100, 2), " (", ROUND(SUM(E41:E52)*H81/H81/SUM(C41:C52)*100/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*H81/H81/SUM(C41:C52)*100*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -19437,10 +19443,10 @@
       <c r="J86" s="10"/>
     </row>
     <row r="87" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E87" s="585" t="s">
+      <c r="E87" s="556" t="s">
         <v>23</v>
       </c>
-      <c r="F87" s="586"/>
+      <c r="F87" s="557"/>
       <c r="G87" s="492" t="str">
         <f>IF(COUNT(E54:E65)=H81, CONCATENATE(ROUND(SUM(E54:E65)*H81/H81/SUM(C54:C65)*100, 2), " (", ROUND(SUM(E54:E65)*H81/H81/SUM(C54:C65)*100/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*H81/H81/SUM(C54:C65)*100*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -19456,10 +19462,10 @@
       <c r="J87" s="10"/>
     </row>
     <row r="88" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E88" s="585" t="s">
+      <c r="E88" s="556" t="s">
         <v>3</v>
       </c>
-      <c r="F88" s="586"/>
+      <c r="F88" s="557"/>
       <c r="G88" s="492" t="str">
         <f>IF(COUNT(E67:E78)=H81, CONCATENATE(ROUND(SUM(E67:E78)*H81/H81/SUM(C67:C78)*100, 2), " (", ROUND(SUM(E67:E78)*H81/H81/SUM(C67:C78)*100/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*H81/H81/SUM(C67:C78)*100*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -19475,10 +19481,10 @@
       <c r="J88" s="10"/>
     </row>
     <row r="89" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E89" s="581" t="s">
+      <c r="E89" s="552" t="s">
         <v>1</v>
       </c>
-      <c r="F89" s="582"/>
+      <c r="F89" s="553"/>
       <c r="G89" s="518" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$H$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*H81/H81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*H81/H81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*H81/H81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -19507,17 +19513,6 @@
     <protectedRange sqref="G41:I52 G54:I65 G67:I78 G28:I39 G84:I89 G15:I26" name="Range1_1_2"/>
   </protectedRanges>
   <mergeCells count="19">
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A15:A26"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="A41:A52"/>
-    <mergeCell ref="A54:A65"/>
-    <mergeCell ref="A67:A78"/>
     <mergeCell ref="E89:F89"/>
     <mergeCell ref="G82:I82"/>
     <mergeCell ref="E84:F84"/>
@@ -19526,6 +19521,17 @@
     <mergeCell ref="E87:F87"/>
     <mergeCell ref="E88:F88"/>
     <mergeCell ref="E82:F83"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="A41:A52"/>
+    <mergeCell ref="A54:A65"/>
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:I13"/>
   </mergeCells>
   <conditionalFormatting sqref="A91:F1048576 A41:B52 A54:B65 A67:B78 C1:F7 E11 E12:F12 A12:B39 E13 A1 G82 A80:F80 G83:I83 A81:D81 K11:XFD1048576 J11 J1:XFD9 J30:J1048576 A7">
     <cfRule type="containsErrors" dxfId="120" priority="42">
@@ -19873,13 +19879,13 @@
         <v>238</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="580" t="str">
+      <c r="C9" s="581" t="str">
         <f>IF('W8'!G8&gt;0,"Yes","No. Please complete W8 first")</f>
         <v>No. Please complete W8 first</v>
       </c>
-      <c r="D9" s="580"/>
-      <c r="E9" s="580"/>
-      <c r="F9" s="580"/>
+      <c r="D9" s="581"/>
+      <c r="E9" s="581"/>
+      <c r="F9" s="581"/>
       <c r="G9" s="69"/>
       <c r="H9" s="69"/>
       <c r="I9" s="172"/>
@@ -19921,11 +19927,11 @@
       <c r="F11" s="174"/>
       <c r="G11" s="175"/>
       <c r="H11" s="175"/>
-      <c r="I11" s="595" t="s">
+      <c r="I11" s="599" t="s">
         <v>236</v>
       </c>
-      <c r="J11" s="595"/>
-      <c r="K11" s="595"/>
+      <c r="J11" s="599"/>
+      <c r="K11" s="599"/>
       <c r="L11" s="368"/>
       <c r="M11" s="367"/>
       <c r="N11" s="486"/>
@@ -19933,10 +19939,10 @@
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="459"/>
       <c r="B12" s="460"/>
-      <c r="C12" s="596" t="s">
+      <c r="C12" s="595" t="s">
         <v>250</v>
       </c>
-      <c r="D12" s="597"/>
+      <c r="D12" s="596"/>
       <c r="E12" s="485" t="s">
         <v>27</v>
       </c>
@@ -19955,26 +19961,26 @@
     <row r="13" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="176"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="598"/>
-      <c r="D13" s="599"/>
-      <c r="E13" s="554" t="s">
+      <c r="C13" s="597"/>
+      <c r="D13" s="598"/>
+      <c r="E13" s="572" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="554"/>
-      <c r="G13" s="554" t="s">
+      <c r="F13" s="572"/>
+      <c r="G13" s="572" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="554"/>
-      <c r="I13" s="556" t="s">
+      <c r="H13" s="572"/>
+      <c r="I13" s="585" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="552"/>
-      <c r="K13" s="552"/>
-      <c r="L13" s="556" t="s">
+      <c r="J13" s="582"/>
+      <c r="K13" s="582"/>
+      <c r="L13" s="585" t="s">
         <v>34</v>
       </c>
-      <c r="M13" s="552"/>
-      <c r="N13" s="557"/>
+      <c r="M13" s="582"/>
+      <c r="N13" s="586"/>
     </row>
     <row r="14" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="375" t="s">
@@ -20021,7 +20027,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="573" t="s">
+      <c r="A15" s="574" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -20065,7 +20071,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="573"/>
+      <c r="A16" s="574"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -20107,7 +20113,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="573"/>
+      <c r="A17" s="574"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -20149,7 +20155,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="573"/>
+      <c r="A18" s="574"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -20191,7 +20197,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="573"/>
+      <c r="A19" s="574"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -20233,7 +20239,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="573"/>
+      <c r="A20" s="574"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -20275,7 +20281,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="573"/>
+      <c r="A21" s="574"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -20317,7 +20323,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="573"/>
+      <c r="A22" s="574"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -20359,7 +20365,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="573"/>
+      <c r="A23" s="574"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -20401,7 +20407,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="573"/>
+      <c r="A24" s="574"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -20443,7 +20449,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="573"/>
+      <c r="A25" s="574"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -20485,7 +20491,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="574"/>
+      <c r="A26" s="575"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -20567,7 +20573,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="573" t="s">
+      <c r="A28" s="574" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -20611,7 +20617,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="573"/>
+      <c r="A29" s="574"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -20653,7 +20659,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="573"/>
+      <c r="A30" s="574"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -20695,7 +20701,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="573"/>
+      <c r="A31" s="574"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -20737,7 +20743,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="573"/>
+      <c r="A32" s="574"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -20779,7 +20785,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="573"/>
+      <c r="A33" s="574"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -20821,7 +20827,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="573"/>
+      <c r="A34" s="574"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -20863,7 +20869,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="573"/>
+      <c r="A35" s="574"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -20905,7 +20911,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="573"/>
+      <c r="A36" s="574"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -20947,7 +20953,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="573"/>
+      <c r="A37" s="574"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -20989,7 +20995,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="573"/>
+      <c r="A38" s="574"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -21031,7 +21037,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="573"/>
+      <c r="A39" s="574"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -21113,7 +21119,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="572" t="s">
+      <c r="A41" s="573" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -21157,7 +21163,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="573"/>
+      <c r="A42" s="574"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -21199,7 +21205,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="573"/>
+      <c r="A43" s="574"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -21241,7 +21247,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="573"/>
+      <c r="A44" s="574"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -21283,7 +21289,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="573"/>
+      <c r="A45" s="574"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -21325,7 +21331,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="573"/>
+      <c r="A46" s="574"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -21367,7 +21373,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="573"/>
+      <c r="A47" s="574"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -21409,7 +21415,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="573"/>
+      <c r="A48" s="574"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -21451,7 +21457,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="573"/>
+      <c r="A49" s="574"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -21493,7 +21499,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="573"/>
+      <c r="A50" s="574"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -21535,7 +21541,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="573"/>
+      <c r="A51" s="574"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -21577,7 +21583,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="574"/>
+      <c r="A52" s="575"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -21659,7 +21665,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="572" t="s">
+      <c r="A54" s="573" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -21703,7 +21709,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="573"/>
+      <c r="A55" s="574"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -21745,7 +21751,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="573"/>
+      <c r="A56" s="574"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -21787,7 +21793,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="573"/>
+      <c r="A57" s="574"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -21829,7 +21835,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="573"/>
+      <c r="A58" s="574"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -21871,7 +21877,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="573"/>
+      <c r="A59" s="574"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -21913,7 +21919,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="573"/>
+      <c r="A60" s="574"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -21955,7 +21961,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="573"/>
+      <c r="A61" s="574"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -21997,7 +22003,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="573"/>
+      <c r="A62" s="574"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -22039,7 +22045,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="573"/>
+      <c r="A63" s="574"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -22081,7 +22087,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="573"/>
+      <c r="A64" s="574"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -22123,7 +22129,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="574"/>
+      <c r="A65" s="575"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -22205,7 +22211,7 @@
       </c>
     </row>
     <row r="67" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="572" t="s">
+      <c r="A67" s="573" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -22249,7 +22255,7 @@
       </c>
     </row>
     <row r="68" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="573"/>
+      <c r="A68" s="574"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -22291,7 +22297,7 @@
       </c>
     </row>
     <row r="69" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="573"/>
+      <c r="A69" s="574"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -22333,7 +22339,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="573"/>
+      <c r="A70" s="574"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -22375,7 +22381,7 @@
       </c>
     </row>
     <row r="71" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="573"/>
+      <c r="A71" s="574"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -22417,7 +22423,7 @@
       </c>
     </row>
     <row r="72" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="573"/>
+      <c r="A72" s="574"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -22459,7 +22465,7 @@
       </c>
     </row>
     <row r="73" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="573"/>
+      <c r="A73" s="574"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -22501,7 +22507,7 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="573"/>
+      <c r="A74" s="574"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -22543,7 +22549,7 @@
       </c>
     </row>
     <row r="75" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="573"/>
+      <c r="A75" s="574"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -22585,7 +22591,7 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="573"/>
+      <c r="A76" s="574"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -22627,7 +22633,7 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="573"/>
+      <c r="A77" s="574"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -22669,7 +22675,7 @@
       </c>
     </row>
     <row r="78" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="575"/>
+      <c r="A78" s="576"/>
       <c r="B78" s="178" t="s">
         <v>17</v>
       </c>
@@ -22766,10 +22772,10 @@
       </c>
     </row>
     <row r="84" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G84" s="583" t="s">
+      <c r="G84" s="554" t="s">
         <v>237</v>
       </c>
-      <c r="H84" s="584"/>
+      <c r="H84" s="555"/>
       <c r="I84" s="489" t="str">
         <f>IF(COUNT(E15:E26)=J81, CONCATENATE(ROUND(SUM(E15:E26)*J81/J81/SUM(C15:C26)*100, 2), " (", ROUND(SUM(E15:E26)*J81/J81/SUM(C15:C26)*100/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*J81/J81/SUM(C15:C26)*100*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -22796,10 +22802,10 @@
       </c>
     </row>
     <row r="85" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G85" s="585" t="s">
+      <c r="G85" s="556" t="s">
         <v>21</v>
       </c>
-      <c r="H85" s="586"/>
+      <c r="H85" s="557"/>
       <c r="I85" s="492" t="str">
         <f>IF(COUNT(E28:E39)=J81, CONCATENATE(ROUND(SUM(E28:E39)*J81/J81/SUM(C28:C39)*100, 2), " (", ROUND(SUM(E28:E39)*J81/J81/SUM(C28:C39)*100/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*J81/J81/SUM(C28:C39)*100*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -22826,10 +22832,10 @@
       </c>
     </row>
     <row r="86" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G86" s="585" t="s">
+      <c r="G86" s="556" t="s">
         <v>22</v>
       </c>
-      <c r="H86" s="586"/>
+      <c r="H86" s="557"/>
       <c r="I86" s="492" t="str">
         <f>IF(COUNT(E41:E52)=J81, CONCATENATE(ROUND(SUM(E41:E52)*J81/J81/SUM(C41:C52)*100, 2), " (", ROUND(SUM(E41:E52)*J81/J81/SUM(C41:C52)*100/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*J81/J81/SUM(C41:C52)*100*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -22856,10 +22862,10 @@
       </c>
     </row>
     <row r="87" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G87" s="585" t="s">
+      <c r="G87" s="556" t="s">
         <v>23</v>
       </c>
-      <c r="H87" s="586"/>
+      <c r="H87" s="557"/>
       <c r="I87" s="492" t="str">
         <f>IF(COUNT(E54:E65)=J81, CONCATENATE(ROUND(SUM(E54:E65)*J81/J81/SUM(C54:C65)*100, 2), " (", ROUND(SUM(E54:E65)*J81/J81/SUM(C54:C65)*100/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*J81/J81/SUM(C54:C65)*100*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -22886,10 +22892,10 @@
       </c>
     </row>
     <row r="88" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G88" s="585" t="s">
+      <c r="G88" s="556" t="s">
         <v>3</v>
       </c>
-      <c r="H88" s="586"/>
+      <c r="H88" s="557"/>
       <c r="I88" s="492" t="str">
         <f>IF(COUNT(E67:E78)=J81, CONCATENATE(ROUND(SUM(E67:E78)*J81/J81/SUM(C67:C78)*100, 2), " (", ROUND(SUM(E67:E78)*J81/J81/SUM(C67:C78)*100/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*J81/J81/SUM(C67:C78)*100*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -22916,10 +22922,10 @@
       </c>
     </row>
     <row r="89" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G89" s="581" t="s">
+      <c r="G89" s="552" t="s">
         <v>1</v>
       </c>
-      <c r="H89" s="588"/>
+      <c r="H89" s="592"/>
       <c r="I89" s="519" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$J$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -22952,6 +22958,20 @@
     <protectedRange sqref="I84:N89" name="Range1_1_2_2"/>
   </protectedRanges>
   <mergeCells count="23">
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="I82:K82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G82:H83"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="A41:A52"/>
+    <mergeCell ref="A54:A65"/>
+    <mergeCell ref="A67:A78"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="I11:K11"/>
@@ -22961,20 +22981,6 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A15:A26"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="A41:A52"/>
-    <mergeCell ref="A54:A65"/>
-    <mergeCell ref="A67:A78"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="I82:K82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G82:H83"/>
   </mergeCells>
   <conditionalFormatting sqref="A41:B52 A54:B65 A67:B78 G11 A12:C12 G13 C1:H2 C3:G3 C4:H7 E11 E12:G12 A13:B39 E13 A1:A10 C9:C10 D8:H8 G9:H9">
     <cfRule type="containsErrors" dxfId="85" priority="37">
@@ -29067,13 +29073,13 @@
         <v>238</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="580" t="str">
+      <c r="C9" s="581" t="str">
         <f>IF('W2'!G11+'W3'!$G$22&gt;0,"Yes","No. Please complete W2 or W3 first")</f>
         <v>No. Please complete W2 or W3 first</v>
       </c>
-      <c r="D9" s="580"/>
-      <c r="E9" s="580"/>
-      <c r="F9" s="580"/>
+      <c r="D9" s="581"/>
+      <c r="E9" s="581"/>
+      <c r="F9" s="581"/>
       <c r="G9" s="69"/>
       <c r="H9" s="69"/>
       <c r="I9" s="172"/>
@@ -29166,10 +29172,10 @@
     <row r="12" spans="1:31" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="459"/>
       <c r="B12" s="460"/>
-      <c r="C12" s="576" t="s">
+      <c r="C12" s="577" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="577"/>
+      <c r="D12" s="578"/>
       <c r="E12" s="8" t="s">
         <v>27</v>
       </c>
@@ -29213,58 +29219,58 @@
     <row r="13" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="176"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="578"/>
-      <c r="D13" s="579"/>
-      <c r="E13" s="554" t="s">
+      <c r="C13" s="579"/>
+      <c r="D13" s="580"/>
+      <c r="E13" s="572" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="554"/>
-      <c r="G13" s="554" t="s">
+      <c r="F13" s="572"/>
+      <c r="G13" s="572" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="554"/>
-      <c r="I13" s="556" t="s">
+      <c r="H13" s="572"/>
+      <c r="I13" s="585" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="552"/>
-      <c r="K13" s="552"/>
-      <c r="L13" s="556" t="s">
+      <c r="J13" s="582"/>
+      <c r="K13" s="582"/>
+      <c r="L13" s="585" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="552"/>
-      <c r="N13" s="557"/>
-      <c r="O13" s="552" t="s">
+      <c r="M13" s="582"/>
+      <c r="N13" s="586"/>
+      <c r="O13" s="582" t="s">
         <v>4</v>
       </c>
-      <c r="P13" s="552"/>
-      <c r="Q13" s="552" t="s">
+      <c r="P13" s="582"/>
+      <c r="Q13" s="582" t="s">
         <v>5</v>
       </c>
-      <c r="R13" s="553"/>
-      <c r="S13" s="552" t="s">
+      <c r="R13" s="583"/>
+      <c r="S13" s="582" t="s">
         <v>4</v>
       </c>
-      <c r="T13" s="552"/>
-      <c r="U13" s="552" t="s">
+      <c r="T13" s="582"/>
+      <c r="U13" s="582" t="s">
         <v>5</v>
       </c>
-      <c r="V13" s="552"/>
-      <c r="W13" s="555" t="s">
+      <c r="V13" s="582"/>
+      <c r="W13" s="584" t="s">
         <v>4</v>
       </c>
-      <c r="X13" s="552"/>
-      <c r="Y13" s="552" t="s">
+      <c r="X13" s="582"/>
+      <c r="Y13" s="582" t="s">
         <v>5</v>
       </c>
-      <c r="Z13" s="553"/>
-      <c r="AA13" s="552" t="s">
+      <c r="Z13" s="583"/>
+      <c r="AA13" s="582" t="s">
         <v>4</v>
       </c>
-      <c r="AB13" s="552"/>
-      <c r="AC13" s="552" t="s">
+      <c r="AB13" s="582"/>
+      <c r="AC13" s="582" t="s">
         <v>5</v>
       </c>
-      <c r="AD13" s="553"/>
+      <c r="AD13" s="583"/>
     </row>
     <row r="14" spans="1:31" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="375" t="s">
@@ -29359,7 +29365,7 @@
       </c>
     </row>
     <row r="15" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="573" t="s">
+      <c r="A15" s="574" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -29467,7 +29473,7 @@
       </c>
     </row>
     <row r="16" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="573"/>
+      <c r="A16" s="574"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -29573,7 +29579,7 @@
       </c>
     </row>
     <row r="17" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="573"/>
+      <c r="A17" s="574"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -29679,7 +29685,7 @@
       </c>
     </row>
     <row r="18" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="573"/>
+      <c r="A18" s="574"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -29785,7 +29791,7 @@
       </c>
     </row>
     <row r="19" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="573"/>
+      <c r="A19" s="574"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -29891,7 +29897,7 @@
       </c>
     </row>
     <row r="20" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="573"/>
+      <c r="A20" s="574"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -29997,7 +30003,7 @@
       </c>
     </row>
     <row r="21" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="573"/>
+      <c r="A21" s="574"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -30103,7 +30109,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="573"/>
+      <c r="A22" s="574"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -30209,7 +30215,7 @@
       </c>
     </row>
     <row r="23" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="573"/>
+      <c r="A23" s="574"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -30315,7 +30321,7 @@
       </c>
     </row>
     <row r="24" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="573"/>
+      <c r="A24" s="574"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -30421,7 +30427,7 @@
       </c>
     </row>
     <row r="25" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="573"/>
+      <c r="A25" s="574"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -30527,7 +30533,7 @@
       </c>
     </row>
     <row r="26" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="574"/>
+      <c r="A26" s="575"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -30721,7 +30727,7 @@
       </c>
     </row>
     <row r="28" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="573" t="s">
+      <c r="A28" s="574" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -30829,7 +30835,7 @@
       </c>
     </row>
     <row r="29" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="573"/>
+      <c r="A29" s="574"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -30935,7 +30941,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="573"/>
+      <c r="A30" s="574"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -31042,7 +31048,7 @@
       <c r="AE30" s="7"/>
     </row>
     <row r="31" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="573"/>
+      <c r="A31" s="574"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -31149,7 +31155,7 @@
       <c r="AE31" s="7"/>
     </row>
     <row r="32" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="573"/>
+      <c r="A32" s="574"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -31256,7 +31262,7 @@
       <c r="AE32" s="7"/>
     </row>
     <row r="33" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="573"/>
+      <c r="A33" s="574"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -31363,7 +31369,7 @@
       <c r="AE33" s="7"/>
     </row>
     <row r="34" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="573"/>
+      <c r="A34" s="574"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -31470,7 +31476,7 @@
       <c r="AE34" s="7"/>
     </row>
     <row r="35" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="573"/>
+      <c r="A35" s="574"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -31577,7 +31583,7 @@
       <c r="AE35" s="7"/>
     </row>
     <row r="36" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="573"/>
+      <c r="A36" s="574"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -31684,7 +31690,7 @@
       <c r="AE36" s="7"/>
     </row>
     <row r="37" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="573"/>
+      <c r="A37" s="574"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -31791,7 +31797,7 @@
       <c r="AE37" s="7"/>
     </row>
     <row r="38" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="573"/>
+      <c r="A38" s="574"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -31898,7 +31904,7 @@
       <c r="AE38" s="7"/>
     </row>
     <row r="39" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="573"/>
+      <c r="A39" s="574"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -32094,7 +32100,7 @@
       <c r="AE40" s="7"/>
     </row>
     <row r="41" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="572" t="s">
+      <c r="A41" s="573" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -32203,7 +32209,7 @@
       <c r="AE41" s="7"/>
     </row>
     <row r="42" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="573"/>
+      <c r="A42" s="574"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -32310,7 +32316,7 @@
       <c r="AE42" s="7"/>
     </row>
     <row r="43" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="573"/>
+      <c r="A43" s="574"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -32417,7 +32423,7 @@
       <c r="AE43" s="7"/>
     </row>
     <row r="44" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="573"/>
+      <c r="A44" s="574"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -32524,7 +32530,7 @@
       <c r="AE44" s="7"/>
     </row>
     <row r="45" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="573"/>
+      <c r="A45" s="574"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -32631,7 +32637,7 @@
       <c r="AE45" s="7"/>
     </row>
     <row r="46" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="573"/>
+      <c r="A46" s="574"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -32738,7 +32744,7 @@
       <c r="AE46" s="7"/>
     </row>
     <row r="47" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="573"/>
+      <c r="A47" s="574"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -32845,7 +32851,7 @@
       <c r="AE47" s="7"/>
     </row>
     <row r="48" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="573"/>
+      <c r="A48" s="574"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -32952,7 +32958,7 @@
       <c r="AE48" s="7"/>
     </row>
     <row r="49" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="573"/>
+      <c r="A49" s="574"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -33059,7 +33065,7 @@
       <c r="AE49" s="7"/>
     </row>
     <row r="50" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="573"/>
+      <c r="A50" s="574"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -33166,7 +33172,7 @@
       <c r="AE50" s="7"/>
     </row>
     <row r="51" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="573"/>
+      <c r="A51" s="574"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -33273,7 +33279,7 @@
       <c r="AE51" s="7"/>
     </row>
     <row r="52" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="574"/>
+      <c r="A52" s="575"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -33469,7 +33475,7 @@
       <c r="AE53" s="7"/>
     </row>
     <row r="54" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="572" t="s">
+      <c r="A54" s="573" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -33578,7 +33584,7 @@
       <c r="AE54" s="7"/>
     </row>
     <row r="55" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="573"/>
+      <c r="A55" s="574"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -33685,7 +33691,7 @@
       <c r="AE55" s="7"/>
     </row>
     <row r="56" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="573"/>
+      <c r="A56" s="574"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -33792,7 +33798,7 @@
       <c r="AE56" s="7"/>
     </row>
     <row r="57" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="573"/>
+      <c r="A57" s="574"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -33899,7 +33905,7 @@
       <c r="AE57" s="7"/>
     </row>
     <row r="58" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="573"/>
+      <c r="A58" s="574"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -34006,7 +34012,7 @@
       <c r="AE58" s="7"/>
     </row>
     <row r="59" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="573"/>
+      <c r="A59" s="574"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -34113,7 +34119,7 @@
       <c r="AE59" s="7"/>
     </row>
     <row r="60" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="573"/>
+      <c r="A60" s="574"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -34220,7 +34226,7 @@
       <c r="AE60" s="7"/>
     </row>
     <row r="61" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="573"/>
+      <c r="A61" s="574"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -34327,7 +34333,7 @@
       <c r="AE61" s="7"/>
     </row>
     <row r="62" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="573"/>
+      <c r="A62" s="574"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -34434,7 +34440,7 @@
       <c r="AE62" s="7"/>
     </row>
     <row r="63" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="573"/>
+      <c r="A63" s="574"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -34541,7 +34547,7 @@
       <c r="AE63" s="7"/>
     </row>
     <row r="64" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="573"/>
+      <c r="A64" s="574"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -34648,7 +34654,7 @@
       <c r="AE64" s="7"/>
     </row>
     <row r="65" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="574"/>
+      <c r="A65" s="575"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -34844,7 +34850,7 @@
       <c r="AE66" s="7"/>
     </row>
     <row r="67" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="572" t="s">
+      <c r="A67" s="573" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -34953,7 +34959,7 @@
       <c r="AE67" s="7"/>
     </row>
     <row r="68" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="573"/>
+      <c r="A68" s="574"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -35060,7 +35066,7 @@
       <c r="AE68" s="7"/>
     </row>
     <row r="69" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="573"/>
+      <c r="A69" s="574"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -35167,7 +35173,7 @@
       <c r="AE69" s="7"/>
     </row>
     <row r="70" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="573"/>
+      <c r="A70" s="574"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -35274,7 +35280,7 @@
       <c r="AE70" s="7"/>
     </row>
     <row r="71" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="573"/>
+      <c r="A71" s="574"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -35381,7 +35387,7 @@
       <c r="AE71" s="7"/>
     </row>
     <row r="72" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="573"/>
+      <c r="A72" s="574"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -35488,7 +35494,7 @@
       <c r="AE72" s="7"/>
     </row>
     <row r="73" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="573"/>
+      <c r="A73" s="574"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -35595,7 +35601,7 @@
       <c r="AE73" s="7"/>
     </row>
     <row r="74" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="573"/>
+      <c r="A74" s="574"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -35702,7 +35708,7 @@
       <c r="AE74" s="7"/>
     </row>
     <row r="75" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="573"/>
+      <c r="A75" s="574"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -35809,7 +35815,7 @@
       <c r="AE75" s="7"/>
     </row>
     <row r="76" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="573"/>
+      <c r="A76" s="574"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -35916,7 +35922,7 @@
       <c r="AE76" s="7"/>
     </row>
     <row r="77" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="573"/>
+      <c r="A77" s="574"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -36023,7 +36029,7 @@
       <c r="AE77" s="7"/>
     </row>
     <row r="78" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="575"/>
+      <c r="A78" s="576"/>
       <c r="B78" s="178" t="s">
         <v>17</v>
       </c>
@@ -36223,10 +36229,10 @@
       <c r="AE83" s="10"/>
     </row>
     <row r="84" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G84" s="583" t="s">
+      <c r="G84" s="554" t="s">
         <v>237</v>
       </c>
-      <c r="H84" s="584"/>
+      <c r="H84" s="555"/>
       <c r="I84" s="489" t="str">
         <f>IF(COUNT(E15:E26)=J81, CONCATENATE(ROUND(SUM(E15:E26)*J81/SUM(C15:C26)*1000, 2), " (", ROUND(SUM(E15:E26)*J81/SUM(C15:C26)*1000/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*J81/SUM(C15:C26)*1000*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -36260,10 +36266,10 @@
       <c r="AE84" s="10"/>
     </row>
     <row r="85" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G85" s="585" t="s">
+      <c r="G85" s="556" t="s">
         <v>21</v>
       </c>
-      <c r="H85" s="586"/>
+      <c r="H85" s="557"/>
       <c r="I85" s="492" t="str">
         <f>IF(COUNT(E28:E39)=J81, CONCATENATE(ROUND(SUM(E28:E39)*J81/SUM(C28:C39)*1000, 2), " (", ROUND(SUM(E28:E39)*J81/SUM(C28:C39)*1000/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*J81/SUM(C28:C39)*1000*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -36297,10 +36303,10 @@
       <c r="AE85" s="10"/>
     </row>
     <row r="86" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G86" s="585" t="s">
+      <c r="G86" s="556" t="s">
         <v>22</v>
       </c>
-      <c r="H86" s="586"/>
+      <c r="H86" s="557"/>
       <c r="I86" s="492" t="str">
         <f>IF(COUNT(E41:E52)=J81, CONCATENATE(ROUND(SUM(E41:E52)*J81/SUM(C41:C52)*1000, 2), " (", ROUND(SUM(E41:E52)*J81/SUM(C41:C52)*1000/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*J81/SUM(C41:C52)*1000*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -36334,10 +36340,10 @@
       <c r="AE86" s="10"/>
     </row>
     <row r="87" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G87" s="585" t="s">
+      <c r="G87" s="556" t="s">
         <v>23</v>
       </c>
-      <c r="H87" s="586"/>
+      <c r="H87" s="557"/>
       <c r="I87" s="492" t="str">
         <f>IF(COUNT(E54:E65)=J81, CONCATENATE(ROUND(SUM(E54:E65)*J81/SUM(C54:C65)*1000, 2), " (", ROUND(SUM(E54:E65)*J81/SUM(C54:C65)*1000/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*J81/SUM(C54:C65)*1000*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -36371,10 +36377,10 @@
       <c r="AE87" s="10"/>
     </row>
     <row r="88" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G88" s="585" t="s">
+      <c r="G88" s="556" t="s">
         <v>3</v>
       </c>
-      <c r="H88" s="586"/>
+      <c r="H88" s="557"/>
       <c r="I88" s="492" t="str">
         <f>IF(COUNT(E67:E78)=J81, CONCATENATE(ROUND(SUM(E67:E78)*J81/SUM(C67:C78)*1000, 2), " (", ROUND(SUM(E67:E78)*J81/SUM(C67:C78)*1000/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*J81/SUM(C67:C78)*1000*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -36408,10 +36414,10 @@
       <c r="AE88" s="10"/>
     </row>
     <row r="89" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G89" s="581" t="s">
+      <c r="G89" s="552" t="s">
         <v>1</v>
       </c>
-      <c r="H89" s="582"/>
+      <c r="H89" s="553"/>
       <c r="I89" s="518" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$J$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -36459,12 +36465,17 @@
     <protectedRange sqref="I15:N26 I41:N52 I54:N65 I67:N78 I28:N39 I84:N89" name="Range1_1_2"/>
   </protectedRanges>
   <mergeCells count="30">
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="I82:K82"/>
     <mergeCell ref="L82:N82"/>
@@ -36478,17 +36489,12 @@
     <mergeCell ref="A41:A52"/>
     <mergeCell ref="C12:D13"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
   </mergeCells>
   <conditionalFormatting sqref="A15:B39 AE30:AE78 A91:H1048576 A41:B52 A54:B65 A67:B78 W11:AE11 G11 A12:C12 A14:H14 G13 C1:H2 C3:G3 P3:V3 W10:AD10 O1:V2 O12:P12 R12:AD12 C4:H7 E11 E12:G12 A13:B13 E13 A1:A10 C9:C10 D8:H8 G9:H9 I82 L82 A80:G80 W1:XFD3 AE5:XFD5 O4:XFD4 O6:XFD9 H90 A81:F81 O80:P1048576 I83:N83 Q79:AE1048576 AF11:XFD1048576">
     <cfRule type="containsErrors" dxfId="436" priority="134">
@@ -37015,15 +37021,15 @@
         <v>238</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="580" t="str">
+      <c r="C9" s="581" t="str">
         <f>IF('W2'!G11+'W3'!$G$22&gt;0,"Yes","No. Please complete W2 or W3 first")</f>
         <v>No. Please complete W2 or W3 first</v>
       </c>
-      <c r="D9" s="580"/>
-      <c r="E9" s="580"/>
-      <c r="F9" s="580"/>
-      <c r="G9" s="580"/>
-      <c r="H9" s="580"/>
+      <c r="D9" s="581"/>
+      <c r="E9" s="581"/>
+      <c r="F9" s="581"/>
+      <c r="G9" s="581"/>
+      <c r="H9" s="581"/>
       <c r="I9" s="69"/>
       <c r="J9" s="69"/>
       <c r="K9" s="172"/>
@@ -37064,14 +37070,14 @@
       <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E11" s="589" t="s">
+      <c r="E11" s="593" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="589"/>
-      <c r="G11" s="589"/>
-      <c r="H11" s="589"/>
-      <c r="I11" s="589"/>
-      <c r="J11" s="589"/>
+      <c r="F11" s="593"/>
+      <c r="G11" s="593"/>
+      <c r="H11" s="593"/>
+      <c r="I11" s="593"/>
+      <c r="J11" s="593"/>
       <c r="K11" s="9" t="s">
         <v>236</v>
       </c>
@@ -37088,15 +37094,15 @@
     <row r="12" spans="1:20" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="459"/>
       <c r="B12" s="460"/>
-      <c r="C12" s="576" t="s">
+      <c r="C12" s="577" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="577"/>
-      <c r="E12" s="590" t="s">
+      <c r="D12" s="578"/>
+      <c r="E12" s="594" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="590"/>
-      <c r="G12" s="590"/>
+      <c r="F12" s="594"/>
+      <c r="G12" s="594"/>
       <c r="H12" s="190"/>
       <c r="I12" s="190"/>
       <c r="J12" s="190"/>
@@ -37116,35 +37122,35 @@
     <row r="13" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="176"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="578"/>
-      <c r="D13" s="579"/>
-      <c r="E13" s="554" t="s">
+      <c r="C13" s="579"/>
+      <c r="D13" s="580"/>
+      <c r="E13" s="572" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="554"/>
-      <c r="G13" s="554" t="s">
+      <c r="F13" s="572"/>
+      <c r="G13" s="572" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="554"/>
-      <c r="I13" s="554" t="s">
+      <c r="H13" s="572"/>
+      <c r="I13" s="572" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="554"/>
-      <c r="K13" s="556" t="s">
+      <c r="J13" s="572"/>
+      <c r="K13" s="585" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="552"/>
-      <c r="M13" s="552"/>
-      <c r="N13" s="593" t="s">
+      <c r="L13" s="582"/>
+      <c r="M13" s="582"/>
+      <c r="N13" s="587" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="554"/>
-      <c r="P13" s="594"/>
-      <c r="Q13" s="556" t="s">
+      <c r="O13" s="572"/>
+      <c r="P13" s="588"/>
+      <c r="Q13" s="585" t="s">
         <v>32</v>
       </c>
-      <c r="R13" s="552"/>
-      <c r="S13" s="557"/>
+      <c r="R13" s="582"/>
+      <c r="S13" s="586"/>
     </row>
     <row r="14" spans="1:20" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="375" t="s">
@@ -37206,7 +37212,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="573" t="s">
+      <c r="A15" s="574" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -37264,7 +37270,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="573"/>
+      <c r="A16" s="574"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -37320,7 +37326,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="573"/>
+      <c r="A17" s="574"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -37376,7 +37382,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="573"/>
+      <c r="A18" s="574"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -37432,7 +37438,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="573"/>
+      <c r="A19" s="574"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -37488,7 +37494,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="573"/>
+      <c r="A20" s="574"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -37544,7 +37550,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="573"/>
+      <c r="A21" s="574"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -37600,7 +37606,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="573"/>
+      <c r="A22" s="574"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -37656,7 +37662,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="573"/>
+      <c r="A23" s="574"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -37712,7 +37718,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="573"/>
+      <c r="A24" s="574"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -37768,7 +37774,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="573"/>
+      <c r="A25" s="574"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -37824,7 +37830,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="574"/>
+      <c r="A26" s="575"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -37935,7 +37941,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="573" t="s">
+      <c r="A28" s="574" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -37993,7 +37999,7 @@
       </c>
     </row>
     <row r="29" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="573"/>
+      <c r="A29" s="574"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -38049,7 +38055,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="573"/>
+      <c r="A30" s="574"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -38106,7 +38112,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="573"/>
+      <c r="A31" s="574"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -38163,7 +38169,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="573"/>
+      <c r="A32" s="574"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -38220,7 +38226,7 @@
       <c r="T32" s="7"/>
     </row>
     <row r="33" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="573"/>
+      <c r="A33" s="574"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -38277,7 +38283,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="573"/>
+      <c r="A34" s="574"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -38334,7 +38340,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="573"/>
+      <c r="A35" s="574"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -38391,7 +38397,7 @@
       <c r="T35" s="7"/>
     </row>
     <row r="36" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="573"/>
+      <c r="A36" s="574"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -38448,7 +38454,7 @@
       <c r="T36" s="7"/>
     </row>
     <row r="37" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="573"/>
+      <c r="A37" s="574"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -38505,7 +38511,7 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="573"/>
+      <c r="A38" s="574"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -38562,7 +38568,7 @@
       <c r="T38" s="7"/>
     </row>
     <row r="39" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="573"/>
+      <c r="A39" s="574"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -38675,7 +38681,7 @@
       <c r="T40" s="7"/>
     </row>
     <row r="41" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="572" t="s">
+      <c r="A41" s="573" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -38734,7 +38740,7 @@
       <c r="T41" s="7"/>
     </row>
     <row r="42" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="573"/>
+      <c r="A42" s="574"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -38791,7 +38797,7 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="573"/>
+      <c r="A43" s="574"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -38848,7 +38854,7 @@
       <c r="T43" s="7"/>
     </row>
     <row r="44" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="573"/>
+      <c r="A44" s="574"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -38905,7 +38911,7 @@
       <c r="T44" s="7"/>
     </row>
     <row r="45" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="573"/>
+      <c r="A45" s="574"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -38962,7 +38968,7 @@
       <c r="T45" s="7"/>
     </row>
     <row r="46" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="573"/>
+      <c r="A46" s="574"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -39019,7 +39025,7 @@
       <c r="T46" s="7"/>
     </row>
     <row r="47" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="573"/>
+      <c r="A47" s="574"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -39076,7 +39082,7 @@
       <c r="T47" s="7"/>
     </row>
     <row r="48" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="573"/>
+      <c r="A48" s="574"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -39133,7 +39139,7 @@
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="573"/>
+      <c r="A49" s="574"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -39190,7 +39196,7 @@
       <c r="T49" s="7"/>
     </row>
     <row r="50" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="573"/>
+      <c r="A50" s="574"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -39247,7 +39253,7 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="573"/>
+      <c r="A51" s="574"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -39304,7 +39310,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="574"/>
+      <c r="A52" s="575"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -39417,7 +39423,7 @@
       <c r="T53" s="7"/>
     </row>
     <row r="54" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="572" t="s">
+      <c r="A54" s="573" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -39476,7 +39482,7 @@
       <c r="T54" s="7"/>
     </row>
     <row r="55" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="573"/>
+      <c r="A55" s="574"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -39533,7 +39539,7 @@
       <c r="T55" s="7"/>
     </row>
     <row r="56" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="573"/>
+      <c r="A56" s="574"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -39590,7 +39596,7 @@
       <c r="T56" s="7"/>
     </row>
     <row r="57" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="573"/>
+      <c r="A57" s="574"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -39647,7 +39653,7 @@
       <c r="T57" s="7"/>
     </row>
     <row r="58" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="573"/>
+      <c r="A58" s="574"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -39704,7 +39710,7 @@
       <c r="T58" s="7"/>
     </row>
     <row r="59" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="573"/>
+      <c r="A59" s="574"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -39761,7 +39767,7 @@
       <c r="T59" s="7"/>
     </row>
     <row r="60" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="573"/>
+      <c r="A60" s="574"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -39818,7 +39824,7 @@
       <c r="T60" s="7"/>
     </row>
     <row r="61" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="573"/>
+      <c r="A61" s="574"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -39875,7 +39881,7 @@
       <c r="T61" s="7"/>
     </row>
     <row r="62" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="573"/>
+      <c r="A62" s="574"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -39932,7 +39938,7 @@
       <c r="T62" s="7"/>
     </row>
     <row r="63" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="573"/>
+      <c r="A63" s="574"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -39989,7 +39995,7 @@
       <c r="T63" s="7"/>
     </row>
     <row r="64" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="573"/>
+      <c r="A64" s="574"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -40046,7 +40052,7 @@
       <c r="T64" s="7"/>
     </row>
     <row r="65" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="574"/>
+      <c r="A65" s="575"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -40159,7 +40165,7 @@
       <c r="T66" s="7"/>
     </row>
     <row r="67" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="572" t="s">
+      <c r="A67" s="573" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -40218,7 +40224,7 @@
       <c r="T67" s="7"/>
     </row>
     <row r="68" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="573"/>
+      <c r="A68" s="574"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -40275,7 +40281,7 @@
       <c r="T68" s="7"/>
     </row>
     <row r="69" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="573"/>
+      <c r="A69" s="574"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -40332,7 +40338,7 @@
       <c r="T69" s="7"/>
     </row>
     <row r="70" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="573"/>
+      <c r="A70" s="574"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -40389,7 +40395,7 @@
       <c r="T70" s="7"/>
     </row>
     <row r="71" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="573"/>
+      <c r="A71" s="574"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -40446,7 +40452,7 @@
       <c r="T71" s="7"/>
     </row>
     <row r="72" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="573"/>
+      <c r="A72" s="574"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -40503,7 +40509,7 @@
       <c r="T72" s="7"/>
     </row>
     <row r="73" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="573"/>
+      <c r="A73" s="574"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -40560,7 +40566,7 @@
       <c r="T73" s="7"/>
     </row>
     <row r="74" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="573"/>
+      <c r="A74" s="574"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -40617,7 +40623,7 @@
       <c r="T74" s="7"/>
     </row>
     <row r="75" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="573"/>
+      <c r="A75" s="574"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -40674,7 +40680,7 @@
       <c r="T75" s="7"/>
     </row>
     <row r="76" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="573"/>
+      <c r="A76" s="574"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -40731,7 +40737,7 @@
       <c r="T76" s="7"/>
     </row>
     <row r="77" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="573"/>
+      <c r="A77" s="574"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -40788,7 +40794,7 @@
       <c r="T77" s="7"/>
     </row>
     <row r="78" spans="1:20" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="575"/>
+      <c r="A78" s="576"/>
       <c r="B78" s="178" t="s">
         <v>17</v>
       </c>
@@ -40956,10 +40962,10 @@
       <c r="T83" s="10"/>
     </row>
     <row r="84" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I84" s="591" t="s">
+      <c r="I84" s="589" t="s">
         <v>237</v>
       </c>
-      <c r="J84" s="592"/>
+      <c r="J84" s="590"/>
       <c r="K84" s="490" t="str">
         <f>IF(COUNT(E15:E26)=$L$81, CONCATENATE(ROUND(SUM(E15:E26)*$L$81/SUM(C15:C26)*1000, 2), " (", ROUND(SUM(E15:E26)*$L$81/SUM(C15:C26)*1000/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*$L$81/SUM(C15:C26)*1000*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -40999,10 +41005,10 @@
       <c r="T84" s="10"/>
     </row>
     <row r="85" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I85" s="585" t="s">
+      <c r="I85" s="556" t="s">
         <v>21</v>
       </c>
-      <c r="J85" s="587"/>
+      <c r="J85" s="591"/>
       <c r="K85" s="493" t="str">
         <f>IF(COUNT(E28:E39)=$L$81, CONCATENATE(ROUND(SUM(E28:E39)*$L$81/SUM(C28:C39)*1000, 2), " (", ROUND(SUM(E28:E39)*$L$81/SUM(C28:C39)*1000/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*$L$81/SUM(C28:C39)*1000*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -41042,10 +41048,10 @@
       <c r="T85" s="10"/>
     </row>
     <row r="86" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I86" s="585" t="s">
+      <c r="I86" s="556" t="s">
         <v>22</v>
       </c>
-      <c r="J86" s="587"/>
+      <c r="J86" s="591"/>
       <c r="K86" s="493" t="str">
         <f>IF(COUNT(E41:E52)=$L$81, CONCATENATE(ROUND(SUM(E41:E52)*$L$81/SUM(C41:C52)*1000, 2), " (", ROUND(SUM(E41:E52)*$L$81/SUM(C41:C52)*1000/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*$L$81/SUM(C41:C52)*1000*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -41085,10 +41091,10 @@
       <c r="T86" s="10"/>
     </row>
     <row r="87" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I87" s="585" t="s">
+      <c r="I87" s="556" t="s">
         <v>23</v>
       </c>
-      <c r="J87" s="587"/>
+      <c r="J87" s="591"/>
       <c r="K87" s="493" t="str">
         <f>IF(COUNT(E54:E65)=$L$81, CONCATENATE(ROUND(SUM(E54:E65)*$L$81/SUM(C54:C65)*1000, 2), " (", ROUND(SUM(E54:E65)*$L$81/SUM(C54:C65)*1000/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*$L$81/SUM(C54:C65)*1000*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -41128,10 +41134,10 @@
       <c r="T87" s="10"/>
     </row>
     <row r="88" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I88" s="585" t="s">
+      <c r="I88" s="556" t="s">
         <v>3</v>
       </c>
-      <c r="J88" s="587"/>
+      <c r="J88" s="591"/>
       <c r="K88" s="493" t="str">
         <f>IF(COUNT(E67:E78)=$L$81, CONCATENATE(ROUND(SUM(E67:E78)*$L$81/SUM(C67:C78)*1000, 2), " (", ROUND(SUM(E67:E78)*$L$81/SUM(C67:C78)*1000/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*$L$81/SUM(C67:C78)*1000*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -41171,10 +41177,10 @@
       <c r="T88" s="10"/>
     </row>
     <row r="89" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I89" s="581" t="s">
+      <c r="I89" s="552" t="s">
         <v>1</v>
       </c>
-      <c r="J89" s="588"/>
+      <c r="J89" s="592"/>
       <c r="K89" s="519" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$L$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*L81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*L81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*L81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -41232,6 +41238,25 @@
     <protectedRange sqref="K84:S89" name="Range1_1_2_2"/>
   </protectedRanges>
   <mergeCells count="27">
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="I82:J83"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="Q82:S82"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="N82:P82"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="A41:A52"/>
+    <mergeCell ref="A54:A65"/>
+    <mergeCell ref="N13:P13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C12:D13"/>
@@ -41240,25 +41265,6 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:M13"/>
     <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A15:A26"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="A41:A52"/>
-    <mergeCell ref="A54:A65"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="A67:A78"/>
-    <mergeCell ref="I82:J83"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="Q82:S82"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="N82:P82"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="I85:J85"/>
   </mergeCells>
   <conditionalFormatting sqref="A91:J1048576 T11 A80:I80 T1:XFD9 J90 A81:H81 H12:I12 E12 K83:M83 Q83:S83 U11:XFD1048576 T30:T1048576">
     <cfRule type="containsErrors" dxfId="371" priority="178">
@@ -41747,13 +41753,13 @@
         <v>238</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="580" t="str">
+      <c r="C9" s="581" t="str">
         <f>IF('W2'!G11+'W3'!$G$22&gt;0,"Yes","No. Please complete W2 or W3 first")</f>
         <v>No. Please complete W2 or W3 first</v>
       </c>
-      <c r="D9" s="580"/>
-      <c r="E9" s="580"/>
-      <c r="F9" s="580"/>
+      <c r="D9" s="581"/>
+      <c r="E9" s="581"/>
+      <c r="F9" s="581"/>
       <c r="G9" s="172"/>
       <c r="H9" s="19"/>
       <c r="I9" s="12"/>
@@ -41790,10 +41796,10 @@
     <row r="12" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="459"/>
       <c r="B12" s="460"/>
-      <c r="C12" s="576" t="s">
+      <c r="C12" s="577" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="577"/>
+      <c r="D12" s="578"/>
       <c r="E12" s="485" t="s">
         <v>27</v>
       </c>
@@ -41808,17 +41814,17 @@
     <row r="13" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="176"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="578"/>
-      <c r="D13" s="579"/>
-      <c r="E13" s="554" t="s">
+      <c r="C13" s="579"/>
+      <c r="D13" s="580"/>
+      <c r="E13" s="572" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="554"/>
-      <c r="G13" s="593" t="s">
+      <c r="F13" s="572"/>
+      <c r="G13" s="587" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="554"/>
-      <c r="I13" s="594"/>
+      <c r="H13" s="572"/>
+      <c r="I13" s="588"/>
     </row>
     <row r="14" spans="1:10" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="375" t="s">
@@ -41850,7 +41856,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="573" t="s">
+      <c r="A15" s="574" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -41880,7 +41886,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="573"/>
+      <c r="A16" s="574"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -41908,7 +41914,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="573"/>
+      <c r="A17" s="574"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -41936,7 +41942,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="573"/>
+      <c r="A18" s="574"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -41964,7 +41970,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="573"/>
+      <c r="A19" s="574"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -41992,7 +41998,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="573"/>
+      <c r="A20" s="574"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -42020,7 +42026,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="573"/>
+      <c r="A21" s="574"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -42048,7 +42054,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="573"/>
+      <c r="A22" s="574"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -42076,7 +42082,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="573"/>
+      <c r="A23" s="574"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -42104,7 +42110,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="573"/>
+      <c r="A24" s="574"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -42132,7 +42138,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="573"/>
+      <c r="A25" s="574"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -42160,7 +42166,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="574"/>
+      <c r="A26" s="575"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -42213,7 +42219,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="573" t="s">
+      <c r="A28" s="574" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -42243,7 +42249,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="573"/>
+      <c r="A29" s="574"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -42271,7 +42277,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="573"/>
+      <c r="A30" s="574"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -42300,7 +42306,7 @@
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="573"/>
+      <c r="A31" s="574"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -42329,7 +42335,7 @@
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="573"/>
+      <c r="A32" s="574"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -42358,7 +42364,7 @@
       <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="573"/>
+      <c r="A33" s="574"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -42387,7 +42393,7 @@
       <c r="J33" s="7"/>
     </row>
     <row r="34" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="573"/>
+      <c r="A34" s="574"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -42416,7 +42422,7 @@
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="573"/>
+      <c r="A35" s="574"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -42445,7 +42451,7 @@
       <c r="J35" s="7"/>
     </row>
     <row r="36" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="573"/>
+      <c r="A36" s="574"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -42474,7 +42480,7 @@
       <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="573"/>
+      <c r="A37" s="574"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -42503,7 +42509,7 @@
       <c r="J37" s="7"/>
     </row>
     <row r="38" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="573"/>
+      <c r="A38" s="574"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -42532,7 +42538,7 @@
       <c r="J38" s="7"/>
     </row>
     <row r="39" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="573"/>
+      <c r="A39" s="574"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -42587,7 +42593,7 @@
       <c r="J40" s="7"/>
     </row>
     <row r="41" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="572" t="s">
+      <c r="A41" s="573" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -42618,7 +42624,7 @@
       <c r="J41" s="7"/>
     </row>
     <row r="42" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="573"/>
+      <c r="A42" s="574"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -42647,7 +42653,7 @@
       <c r="J42" s="7"/>
     </row>
     <row r="43" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="573"/>
+      <c r="A43" s="574"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -42676,7 +42682,7 @@
       <c r="J43" s="7"/>
     </row>
     <row r="44" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="573"/>
+      <c r="A44" s="574"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -42705,7 +42711,7 @@
       <c r="J44" s="7"/>
     </row>
     <row r="45" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="573"/>
+      <c r="A45" s="574"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -42734,7 +42740,7 @@
       <c r="J45" s="7"/>
     </row>
     <row r="46" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="573"/>
+      <c r="A46" s="574"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -42763,7 +42769,7 @@
       <c r="J46" s="7"/>
     </row>
     <row r="47" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="573"/>
+      <c r="A47" s="574"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -42792,7 +42798,7 @@
       <c r="J47" s="7"/>
     </row>
     <row r="48" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="573"/>
+      <c r="A48" s="574"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -42821,7 +42827,7 @@
       <c r="J48" s="7"/>
     </row>
     <row r="49" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="573"/>
+      <c r="A49" s="574"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -42850,7 +42856,7 @@
       <c r="J49" s="7"/>
     </row>
     <row r="50" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="573"/>
+      <c r="A50" s="574"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -42879,7 +42885,7 @@
       <c r="J50" s="7"/>
     </row>
     <row r="51" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="573"/>
+      <c r="A51" s="574"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -42908,7 +42914,7 @@
       <c r="J51" s="7"/>
     </row>
     <row r="52" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="574"/>
+      <c r="A52" s="575"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -42963,7 +42969,7 @@
       <c r="J53" s="7"/>
     </row>
     <row r="54" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="572" t="s">
+      <c r="A54" s="573" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -42994,7 +43000,7 @@
       <c r="J54" s="7"/>
     </row>
     <row r="55" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="573"/>
+      <c r="A55" s="574"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -43023,7 +43029,7 @@
       <c r="J55" s="7"/>
     </row>
     <row r="56" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="573"/>
+      <c r="A56" s="574"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -43052,7 +43058,7 @@
       <c r="J56" s="7"/>
     </row>
     <row r="57" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="573"/>
+      <c r="A57" s="574"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -43081,7 +43087,7 @@
       <c r="J57" s="7"/>
     </row>
     <row r="58" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="573"/>
+      <c r="A58" s="574"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -43110,7 +43116,7 @@
       <c r="J58" s="7"/>
     </row>
     <row r="59" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="573"/>
+      <c r="A59" s="574"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -43139,7 +43145,7 @@
       <c r="J59" s="7"/>
     </row>
     <row r="60" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="573"/>
+      <c r="A60" s="574"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -43168,7 +43174,7 @@
       <c r="J60" s="7"/>
     </row>
     <row r="61" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="573"/>
+      <c r="A61" s="574"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -43197,7 +43203,7 @@
       <c r="J61" s="7"/>
     </row>
     <row r="62" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="573"/>
+      <c r="A62" s="574"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -43226,7 +43232,7 @@
       <c r="J62" s="7"/>
     </row>
     <row r="63" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="573"/>
+      <c r="A63" s="574"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -43255,7 +43261,7 @@
       <c r="J63" s="7"/>
     </row>
     <row r="64" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="573"/>
+      <c r="A64" s="574"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -43284,7 +43290,7 @@
       <c r="J64" s="7"/>
     </row>
     <row r="65" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="574"/>
+      <c r="A65" s="575"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -43339,7 +43345,7 @@
       <c r="J66" s="7"/>
     </row>
     <row r="67" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="572" t="s">
+      <c r="A67" s="573" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -43370,7 +43376,7 @@
       <c r="J67" s="7"/>
     </row>
     <row r="68" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="573"/>
+      <c r="A68" s="574"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -43399,7 +43405,7 @@
       <c r="J68" s="7"/>
     </row>
     <row r="69" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="573"/>
+      <c r="A69" s="574"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -43428,7 +43434,7 @@
       <c r="J69" s="7"/>
     </row>
     <row r="70" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="573"/>
+      <c r="A70" s="574"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -43457,7 +43463,7 @@
       <c r="J70" s="7"/>
     </row>
     <row r="71" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="573"/>
+      <c r="A71" s="574"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -43486,7 +43492,7 @@
       <c r="J71" s="7"/>
     </row>
     <row r="72" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="573"/>
+      <c r="A72" s="574"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -43515,7 +43521,7 @@
       <c r="J72" s="7"/>
     </row>
     <row r="73" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="573"/>
+      <c r="A73" s="574"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -43544,7 +43550,7 @@
       <c r="J73" s="7"/>
     </row>
     <row r="74" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="573"/>
+      <c r="A74" s="574"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -43573,7 +43579,7 @@
       <c r="J74" s="7"/>
     </row>
     <row r="75" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="573"/>
+      <c r="A75" s="574"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -43602,7 +43608,7 @@
       <c r="J75" s="7"/>
     </row>
     <row r="76" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="573"/>
+      <c r="A76" s="574"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -43631,7 +43637,7 @@
       <c r="J76" s="7"/>
     </row>
     <row r="77" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="573"/>
+      <c r="A77" s="574"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -43660,7 +43666,7 @@
       <c r="J77" s="7"/>
     </row>
     <row r="78" spans="1:10" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="575"/>
+      <c r="A78" s="576"/>
       <c r="B78" s="178" t="s">
         <v>17</v>
       </c>
@@ -43739,10 +43745,10 @@
       <c r="J83" s="10"/>
     </row>
     <row r="84" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E84" s="583" t="s">
+      <c r="E84" s="554" t="s">
         <v>237</v>
       </c>
-      <c r="F84" s="584"/>
+      <c r="F84" s="555"/>
       <c r="G84" s="489" t="str">
         <f>IF(COUNT(E15:E26)=H81, CONCATENATE(ROUND(SUM(E15:E26)*H81/SUM(C15:C26)*1000, 2), " (", ROUND(SUM(E15:E26)*H81/SUM(C15:C26)*1000/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*H81/SUM(C15:C26)*1000*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -43758,10 +43764,10 @@
       <c r="J84" s="10"/>
     </row>
     <row r="85" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E85" s="585" t="s">
+      <c r="E85" s="556" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="586"/>
+      <c r="F85" s="557"/>
       <c r="G85" s="492" t="str">
         <f>IF(COUNT(E28:E39)=H81, CONCATENATE(ROUND(SUM(E28:E39)*H81/SUM(C28:C39)*1000, 2), " (", ROUND(SUM(E28:E39)*H81/SUM(C28:C39)*1000/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*H81/SUM(C28:C39)*1000*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -43777,10 +43783,10 @@
       <c r="J85" s="10"/>
     </row>
     <row r="86" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E86" s="585" t="s">
+      <c r="E86" s="556" t="s">
         <v>22</v>
       </c>
-      <c r="F86" s="586"/>
+      <c r="F86" s="557"/>
       <c r="G86" s="492" t="str">
         <f>IF(COUNT(E41:E52)=H81, CONCATENATE(ROUND(SUM(E41:E52)*H81/SUM(C41:C52)*1000, 2), " (", ROUND(SUM(E41:E52)*H81/SUM(C41:C52)*1000/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*H81/SUM(C41:C52)*1000*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -43796,10 +43802,10 @@
       <c r="J86" s="10"/>
     </row>
     <row r="87" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E87" s="585" t="s">
+      <c r="E87" s="556" t="s">
         <v>23</v>
       </c>
-      <c r="F87" s="586"/>
+      <c r="F87" s="557"/>
       <c r="G87" s="492" t="str">
         <f>IF(COUNT(E54:E65)=H81, CONCATENATE(ROUND(SUM(E54:E65)*H81/SUM(C54:C65)*1000, 2), " (", ROUND(SUM(E54:E65)*H81/SUM(C54:C65)*1000/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*H81/SUM(C54:C65)*1000*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -43815,10 +43821,10 @@
       <c r="J87" s="10"/>
     </row>
     <row r="88" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E88" s="585" t="s">
+      <c r="E88" s="556" t="s">
         <v>3</v>
       </c>
-      <c r="F88" s="586"/>
+      <c r="F88" s="557"/>
       <c r="G88" s="492" t="str">
         <f>IF(COUNT(E67:E78)=H81, CONCATENATE(ROUND(SUM(E67:E78)*H81/SUM(C67:C78)*1000, 2), " (", ROUND(SUM(E67:E78)*H81/SUM(C67:C78)*1000/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*H81/SUM(C67:C78)*1000*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -43834,10 +43840,10 @@
       <c r="J88" s="10"/>
     </row>
     <row r="89" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E89" s="581" t="s">
+      <c r="E89" s="552" t="s">
         <v>1</v>
       </c>
-      <c r="F89" s="582"/>
+      <c r="F89" s="553"/>
       <c r="G89" s="518" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$H$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*H81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*H81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*H81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -43866,18 +43872,6 @@
     <protectedRange sqref="G41:I52 G54:I65 G67:I78 G28:I39 G84:I89 G15:I26" name="Range1_1_2"/>
   </protectedRanges>
   <mergeCells count="19">
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A67:A78"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="A15:A26"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="A41:A52"/>
-    <mergeCell ref="A54:A65"/>
     <mergeCell ref="E89:F89"/>
     <mergeCell ref="E82:F83"/>
     <mergeCell ref="E84:F84"/>
@@ -43885,6 +43879,18 @@
     <mergeCell ref="E86:F86"/>
     <mergeCell ref="E87:F87"/>
     <mergeCell ref="E88:F88"/>
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="A41:A52"/>
+    <mergeCell ref="A54:A65"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:I13"/>
   </mergeCells>
   <conditionalFormatting sqref="A15:B39 A91:F1048576 A41:B52 A54:B65 A67:B78 A12:C12 A14:F14 C1:F7 E11 E12:F12 A13:B13 E13 A1:A10 C9:C10 D8:F8 G82 A80:F80 G83:I83 A81:D81 K11:XFD1048576 J11 J1:XFD9 J30:J1048576">
     <cfRule type="containsErrors" dxfId="300" priority="68">
@@ -44207,13 +44213,13 @@
         <v>238</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="580" t="str">
+      <c r="C9" s="581" t="str">
         <f>IF('W2'!G11+'W3'!$G$22&gt;0,"Yes","No. Please complete W2 or W3 first")</f>
         <v>No. Please complete W2 or W3 first</v>
       </c>
-      <c r="D9" s="580"/>
-      <c r="E9" s="580"/>
-      <c r="F9" s="580"/>
+      <c r="D9" s="581"/>
+      <c r="E9" s="581"/>
+      <c r="F9" s="581"/>
       <c r="G9" s="69"/>
       <c r="H9" s="69"/>
       <c r="I9" s="172"/>
@@ -44265,10 +44271,10 @@
     <row r="12" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="459"/>
       <c r="B12" s="460"/>
-      <c r="C12" s="576" t="s">
+      <c r="C12" s="577" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="577"/>
+      <c r="D12" s="578"/>
       <c r="E12" s="485" t="s">
         <v>27</v>
       </c>
@@ -44288,26 +44294,26 @@
     <row r="13" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="176"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="578"/>
-      <c r="D13" s="579"/>
-      <c r="E13" s="554" t="s">
+      <c r="C13" s="579"/>
+      <c r="D13" s="580"/>
+      <c r="E13" s="572" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="554"/>
-      <c r="G13" s="554" t="s">
+      <c r="F13" s="572"/>
+      <c r="G13" s="572" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="554"/>
-      <c r="I13" s="556" t="s">
+      <c r="H13" s="572"/>
+      <c r="I13" s="585" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="552"/>
-      <c r="K13" s="552"/>
-      <c r="L13" s="556" t="s">
+      <c r="J13" s="582"/>
+      <c r="K13" s="582"/>
+      <c r="L13" s="585" t="s">
         <v>34</v>
       </c>
-      <c r="M13" s="552"/>
-      <c r="N13" s="557"/>
+      <c r="M13" s="582"/>
+      <c r="N13" s="586"/>
     </row>
     <row r="14" spans="1:15" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="375" t="s">
@@ -44354,7 +44360,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="573" t="s">
+      <c r="A15" s="574" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -44398,7 +44404,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="573"/>
+      <c r="A16" s="574"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -44440,7 +44446,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="573"/>
+      <c r="A17" s="574"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -44482,7 +44488,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="573"/>
+      <c r="A18" s="574"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -44524,7 +44530,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="573"/>
+      <c r="A19" s="574"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -44566,7 +44572,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="573"/>
+      <c r="A20" s="574"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -44608,7 +44614,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="573"/>
+      <c r="A21" s="574"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -44650,7 +44656,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="573"/>
+      <c r="A22" s="574"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -44692,7 +44698,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="573"/>
+      <c r="A23" s="574"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -44734,7 +44740,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="573"/>
+      <c r="A24" s="574"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -44776,7 +44782,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="573"/>
+      <c r="A25" s="574"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -44818,7 +44824,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="574"/>
+      <c r="A26" s="575"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -44900,7 +44906,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="573" t="s">
+      <c r="A28" s="574" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -44944,7 +44950,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="573"/>
+      <c r="A29" s="574"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -44986,7 +44992,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="573"/>
+      <c r="A30" s="574"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -45029,7 +45035,7 @@
       <c r="O30" s="7"/>
     </row>
     <row r="31" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="573"/>
+      <c r="A31" s="574"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -45072,7 +45078,7 @@
       <c r="O31" s="7"/>
     </row>
     <row r="32" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="573"/>
+      <c r="A32" s="574"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -45115,7 +45121,7 @@
       <c r="O32" s="7"/>
     </row>
     <row r="33" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="573"/>
+      <c r="A33" s="574"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -45158,7 +45164,7 @@
       <c r="O33" s="7"/>
     </row>
     <row r="34" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="573"/>
+      <c r="A34" s="574"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -45201,7 +45207,7 @@
       <c r="O34" s="7"/>
     </row>
     <row r="35" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="573"/>
+      <c r="A35" s="574"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -45244,7 +45250,7 @@
       <c r="O35" s="7"/>
     </row>
     <row r="36" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="573"/>
+      <c r="A36" s="574"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -45287,7 +45293,7 @@
       <c r="O36" s="7"/>
     </row>
     <row r="37" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="573"/>
+      <c r="A37" s="574"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -45330,7 +45336,7 @@
       <c r="O37" s="7"/>
     </row>
     <row r="38" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="573"/>
+      <c r="A38" s="574"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -45373,7 +45379,7 @@
       <c r="O38" s="7"/>
     </row>
     <row r="39" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="573"/>
+      <c r="A39" s="574"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -45457,7 +45463,7 @@
       <c r="O40" s="7"/>
     </row>
     <row r="41" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="572" t="s">
+      <c r="A41" s="573" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -45502,7 +45508,7 @@
       <c r="O41" s="7"/>
     </row>
     <row r="42" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="573"/>
+      <c r="A42" s="574"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -45545,7 +45551,7 @@
       <c r="O42" s="7"/>
     </row>
     <row r="43" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="573"/>
+      <c r="A43" s="574"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -45588,7 +45594,7 @@
       <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="573"/>
+      <c r="A44" s="574"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -45631,7 +45637,7 @@
       <c r="O44" s="7"/>
     </row>
     <row r="45" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="573"/>
+      <c r="A45" s="574"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -45674,7 +45680,7 @@
       <c r="O45" s="7"/>
     </row>
     <row r="46" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="573"/>
+      <c r="A46" s="574"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -45717,7 +45723,7 @@
       <c r="O46" s="7"/>
     </row>
     <row r="47" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="573"/>
+      <c r="A47" s="574"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -45760,7 +45766,7 @@
       <c r="O47" s="7"/>
     </row>
     <row r="48" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="573"/>
+      <c r="A48" s="574"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -45803,7 +45809,7 @@
       <c r="O48" s="7"/>
     </row>
     <row r="49" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="573"/>
+      <c r="A49" s="574"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -45846,7 +45852,7 @@
       <c r="O49" s="7"/>
     </row>
     <row r="50" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="573"/>
+      <c r="A50" s="574"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -45889,7 +45895,7 @@
       <c r="O50" s="7"/>
     </row>
     <row r="51" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="573"/>
+      <c r="A51" s="574"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -45932,7 +45938,7 @@
       <c r="O51" s="7"/>
     </row>
     <row r="52" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="574"/>
+      <c r="A52" s="575"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -46016,7 +46022,7 @@
       <c r="O53" s="7"/>
     </row>
     <row r="54" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="572" t="s">
+      <c r="A54" s="573" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -46061,7 +46067,7 @@
       <c r="O54" s="7"/>
     </row>
     <row r="55" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="573"/>
+      <c r="A55" s="574"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -46104,7 +46110,7 @@
       <c r="O55" s="7"/>
     </row>
     <row r="56" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="573"/>
+      <c r="A56" s="574"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -46147,7 +46153,7 @@
       <c r="O56" s="7"/>
     </row>
     <row r="57" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="573"/>
+      <c r="A57" s="574"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -46190,7 +46196,7 @@
       <c r="O57" s="7"/>
     </row>
     <row r="58" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="573"/>
+      <c r="A58" s="574"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -46233,7 +46239,7 @@
       <c r="O58" s="7"/>
     </row>
     <row r="59" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="573"/>
+      <c r="A59" s="574"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -46276,7 +46282,7 @@
       <c r="O59" s="7"/>
     </row>
     <row r="60" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="573"/>
+      <c r="A60" s="574"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -46319,7 +46325,7 @@
       <c r="O60" s="7"/>
     </row>
     <row r="61" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="573"/>
+      <c r="A61" s="574"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -46362,7 +46368,7 @@
       <c r="O61" s="7"/>
     </row>
     <row r="62" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="573"/>
+      <c r="A62" s="574"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -46405,7 +46411,7 @@
       <c r="O62" s="7"/>
     </row>
     <row r="63" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="573"/>
+      <c r="A63" s="574"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -46448,7 +46454,7 @@
       <c r="O63" s="7"/>
     </row>
     <row r="64" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="573"/>
+      <c r="A64" s="574"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -46491,7 +46497,7 @@
       <c r="O64" s="7"/>
     </row>
     <row r="65" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="574"/>
+      <c r="A65" s="575"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -46575,7 +46581,7 @@
       <c r="O66" s="7"/>
     </row>
     <row r="67" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="572" t="s">
+      <c r="A67" s="573" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -46620,7 +46626,7 @@
       <c r="O67" s="7"/>
     </row>
     <row r="68" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="573"/>
+      <c r="A68" s="574"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -46663,7 +46669,7 @@
       <c r="O68" s="7"/>
     </row>
     <row r="69" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="573"/>
+      <c r="A69" s="574"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -46706,7 +46712,7 @@
       <c r="O69" s="7"/>
     </row>
     <row r="70" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="573"/>
+      <c r="A70" s="574"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -46749,7 +46755,7 @@
       <c r="O70" s="7"/>
     </row>
     <row r="71" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="573"/>
+      <c r="A71" s="574"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -46792,7 +46798,7 @@
       <c r="O71" s="7"/>
     </row>
     <row r="72" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="573"/>
+      <c r="A72" s="574"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -46835,7 +46841,7 @@
       <c r="O72" s="7"/>
     </row>
     <row r="73" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="573"/>
+      <c r="A73" s="574"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -46878,7 +46884,7 @@
       <c r="O73" s="7"/>
     </row>
     <row r="74" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="573"/>
+      <c r="A74" s="574"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -46921,7 +46927,7 @@
       <c r="O74" s="7"/>
     </row>
     <row r="75" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="573"/>
+      <c r="A75" s="574"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -46964,7 +46970,7 @@
       <c r="O75" s="7"/>
     </row>
     <row r="76" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="573"/>
+      <c r="A76" s="574"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -47007,7 +47013,7 @@
       <c r="O76" s="7"/>
     </row>
     <row r="77" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="573"/>
+      <c r="A77" s="574"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -47050,7 +47056,7 @@
       <c r="O77" s="7"/>
     </row>
     <row r="78" spans="1:15" s="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="575"/>
+      <c r="A78" s="576"/>
       <c r="B78" s="178" t="s">
         <v>17</v>
       </c>
@@ -47165,10 +47171,10 @@
       <c r="O83" s="10"/>
     </row>
     <row r="84" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G84" s="583" t="s">
+      <c r="G84" s="554" t="s">
         <v>237</v>
       </c>
-      <c r="H84" s="584"/>
+      <c r="H84" s="555"/>
       <c r="I84" s="489" t="str">
         <f>IF(COUNT(E15:E26)=J81, CONCATENATE(ROUND(SUM(E15:E26)*J81/SUM(C15:C26)*1000, 2), " (", ROUND(SUM(E15:E26)*J81/SUM(C15:C26)*1000/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*J81/SUM(C15:C26)*1000*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -47196,10 +47202,10 @@
       <c r="O84" s="10"/>
     </row>
     <row r="85" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G85" s="585" t="s">
+      <c r="G85" s="556" t="s">
         <v>21</v>
       </c>
-      <c r="H85" s="586"/>
+      <c r="H85" s="557"/>
       <c r="I85" s="492" t="str">
         <f>IF(COUNT(E28:E39)=J81, CONCATENATE(ROUND(SUM(E28:E39)*J81/SUM(C28:C39)*1000, 2), " (", ROUND(SUM(E28:E39)*J81/SUM(C28:C39)*1000/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*J81/SUM(C28:C39)*1000*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -47227,10 +47233,10 @@
       <c r="O85" s="10"/>
     </row>
     <row r="86" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G86" s="585" t="s">
+      <c r="G86" s="556" t="s">
         <v>22</v>
       </c>
-      <c r="H86" s="586"/>
+      <c r="H86" s="557"/>
       <c r="I86" s="492" t="str">
         <f>IF(COUNT(E41:E52)=J81, CONCATENATE(ROUND(SUM(E41:E52)*J81/SUM(C41:C52)*1000, 2), " (", ROUND(SUM(E41:E52)*J81/SUM(C41:C52)*1000/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*J81/SUM(C41:C52)*1000*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -47258,10 +47264,10 @@
       <c r="O86" s="10"/>
     </row>
     <row r="87" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G87" s="585" t="s">
+      <c r="G87" s="556" t="s">
         <v>23</v>
       </c>
-      <c r="H87" s="586"/>
+      <c r="H87" s="557"/>
       <c r="I87" s="492" t="str">
         <f>IF(COUNT(E54:E65)=J81, CONCATENATE(ROUND(SUM(E54:E65)*J81/SUM(C54:C65)*1000, 2), " (", ROUND(SUM(E54:E65)*J81/SUM(C54:C65)*1000/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*J81/SUM(C54:C65)*1000*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -47289,10 +47295,10 @@
       <c r="O87" s="10"/>
     </row>
     <row r="88" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G88" s="585" t="s">
+      <c r="G88" s="556" t="s">
         <v>3</v>
       </c>
-      <c r="H88" s="586"/>
+      <c r="H88" s="557"/>
       <c r="I88" s="492" t="str">
         <f>IF(COUNT(E67:E78)=J81, CONCATENATE(ROUND(SUM(E67:E78)*J81/SUM(C67:C78)*1000, 2), " (", ROUND(SUM(E67:E78)*J81/SUM(C67:C78)*1000/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*J81/SUM(C67:C78)*1000*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -47320,10 +47326,10 @@
       <c r="O88" s="10"/>
     </row>
     <row r="89" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G89" s="581" t="s">
+      <c r="G89" s="552" t="s">
         <v>1</v>
       </c>
-      <c r="H89" s="582"/>
+      <c r="H89" s="553"/>
       <c r="I89" s="518" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$J$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -47365,6 +47371,20 @@
     <protectedRange sqref="I15:N26 I41:N52 I54:N65 I67:N78 I28:N39 I84:N89" name="Range1_1_2"/>
   </protectedRanges>
   <mergeCells count="22">
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="G82:H83"/>
+    <mergeCell ref="I82:K82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="A41:A52"/>
+    <mergeCell ref="A54:A65"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C12:D13"/>
@@ -47373,20 +47393,6 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="L13:N13"/>
-    <mergeCell ref="I82:K82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="A15:A26"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="A41:A52"/>
-    <mergeCell ref="A54:A65"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="A67:A78"/>
-    <mergeCell ref="G82:H83"/>
   </mergeCells>
   <conditionalFormatting sqref="A91:H1048576 A41:B52 A54:B65 A67:B78 G11 A12:C12 G13 C1:H2 C3:G3 C4:H7 E11 E12:G12 A13:B39 E13 A1:A10 C9:C10 D8:H8 G9:H9 I82 L82 A80:G80 H90 A81:F81 I83:N83 O11 O1:XFD9 O30:O1048576 P11:XFD1048576">
     <cfRule type="containsErrors" dxfId="270" priority="70">
@@ -47585,8 +47591,8 @@
   </sheetPr>
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47654,10 +47660,10 @@
       <c r="R4" s="22"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="46"/>
+      <c r="C6" s="627" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" s="627"/>
       <c r="E6" s="46"/>
       <c r="F6" s="46"/>
       <c r="G6" s="46"/>
@@ -47677,9 +47683,7 @@
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="45"/>
-      <c r="C7" s="35" t="s">
-        <v>66</v>
-      </c>
+      <c r="C7" s="35"/>
       <c r="M7" s="534"/>
       <c r="N7" s="534"/>
       <c r="O7" s="534"/>
@@ -48337,13 +48341,14 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="B3:R3"/>
     <mergeCell ref="M6:R7"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="M10:R10"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <conditionalFormatting sqref="C12:R23">
     <cfRule type="containsErrors" dxfId="233" priority="4">

--- a/Worksheets_BoDManual_YL.xlsx
+++ b/Worksheets_BoDManual_YL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" tabRatio="888" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" tabRatio="888"/>
   </bookViews>
   <sheets>
     <sheet name="Welcome" sheetId="47" r:id="rId1"/>
@@ -5030,338 +5030,338 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="121" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="121" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -9065,7 +9065,7 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9097,26 +9097,26 @@
       <c r="A2" s="301"/>
     </row>
     <row r="3" spans="1:18" ht="357.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="523" t="s">
+      <c r="A3" s="526" t="s">
         <v>215</v>
       </c>
-      <c r="B3" s="524"/>
-      <c r="C3" s="524"/>
-      <c r="D3" s="524"/>
-      <c r="E3" s="524"/>
-      <c r="F3" s="524"/>
-      <c r="G3" s="524"/>
-      <c r="H3" s="524"/>
-      <c r="I3" s="524"/>
-      <c r="J3" s="524"/>
-      <c r="K3" s="524"/>
-      <c r="L3" s="524"/>
-      <c r="M3" s="524"/>
-      <c r="N3" s="524"/>
-      <c r="O3" s="524"/>
-      <c r="P3" s="524"/>
-      <c r="Q3" s="524"/>
-      <c r="R3" s="525"/>
+      <c r="B3" s="527"/>
+      <c r="C3" s="527"/>
+      <c r="D3" s="527"/>
+      <c r="E3" s="527"/>
+      <c r="F3" s="527"/>
+      <c r="G3" s="527"/>
+      <c r="H3" s="527"/>
+      <c r="I3" s="527"/>
+      <c r="J3" s="527"/>
+      <c r="K3" s="527"/>
+      <c r="L3" s="527"/>
+      <c r="M3" s="527"/>
+      <c r="N3" s="527"/>
+      <c r="O3" s="527"/>
+      <c r="P3" s="527"/>
+      <c r="Q3" s="527"/>
+      <c r="R3" s="528"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="302"/>
@@ -9418,25 +9418,25 @@
       </c>
     </row>
     <row r="3" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="532" t="s">
+      <c r="B3" s="535" t="s">
         <v>231</v>
       </c>
-      <c r="C3" s="532"/>
-      <c r="D3" s="532"/>
-      <c r="E3" s="532"/>
-      <c r="F3" s="532"/>
-      <c r="G3" s="532"/>
-      <c r="H3" s="532"/>
-      <c r="I3" s="532"/>
-      <c r="J3" s="532"/>
-      <c r="K3" s="532"/>
-      <c r="L3" s="532"/>
-      <c r="M3" s="532"/>
-      <c r="N3" s="532"/>
-      <c r="O3" s="532"/>
-      <c r="P3" s="532"/>
-      <c r="Q3" s="532"/>
-      <c r="R3" s="532"/>
+      <c r="C3" s="535"/>
+      <c r="D3" s="535"/>
+      <c r="E3" s="535"/>
+      <c r="F3" s="535"/>
+      <c r="G3" s="535"/>
+      <c r="H3" s="535"/>
+      <c r="I3" s="535"/>
+      <c r="J3" s="535"/>
+      <c r="K3" s="535"/>
+      <c r="L3" s="535"/>
+      <c r="M3" s="535"/>
+      <c r="N3" s="535"/>
+      <c r="O3" s="535"/>
+      <c r="P3" s="535"/>
+      <c r="Q3" s="535"/>
+      <c r="R3" s="535"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
@@ -9460,10 +9460,10 @@
       <c r="R4" s="22"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="596" t="s">
+      <c r="C6" s="599" t="s">
         <v>248</v>
       </c>
-      <c r="D6" s="596"/>
+      <c r="D6" s="599"/>
       <c r="E6" s="46"/>
       <c r="F6" s="46"/>
       <c r="G6" s="46"/>
@@ -9472,24 +9472,24 @@
       <c r="J6" s="46"/>
       <c r="K6" s="46"/>
       <c r="L6" s="46"/>
-      <c r="M6" s="533" t="s">
+      <c r="M6" s="536" t="s">
         <v>85</v>
       </c>
-      <c r="N6" s="533"/>
-      <c r="O6" s="533"/>
-      <c r="P6" s="533"/>
-      <c r="Q6" s="533"/>
-      <c r="R6" s="533"/>
+      <c r="N6" s="536"/>
+      <c r="O6" s="536"/>
+      <c r="P6" s="536"/>
+      <c r="Q6" s="536"/>
+      <c r="R6" s="536"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="45"/>
       <c r="C7" s="35"/>
-      <c r="M7" s="533"/>
-      <c r="N7" s="533"/>
-      <c r="O7" s="533"/>
-      <c r="P7" s="533"/>
-      <c r="Q7" s="533"/>
-      <c r="R7" s="533"/>
+      <c r="M7" s="536"/>
+      <c r="N7" s="536"/>
+      <c r="O7" s="536"/>
+      <c r="P7" s="536"/>
+      <c r="Q7" s="536"/>
+      <c r="R7" s="536"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="183" t="s">
@@ -9525,34 +9525,34 @@
       <c r="R9" s="182"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="534" t="s">
+      <c r="B10" s="537" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="529" t="s">
+      <c r="C10" s="532" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="530"/>
-      <c r="E10" s="530"/>
-      <c r="F10" s="530"/>
-      <c r="G10" s="531"/>
-      <c r="H10" s="529" t="s">
+      <c r="D10" s="533"/>
+      <c r="E10" s="533"/>
+      <c r="F10" s="533"/>
+      <c r="G10" s="534"/>
+      <c r="H10" s="532" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="530"/>
-      <c r="J10" s="530"/>
-      <c r="K10" s="530"/>
-      <c r="L10" s="531"/>
-      <c r="M10" s="529" t="s">
+      <c r="I10" s="533"/>
+      <c r="J10" s="533"/>
+      <c r="K10" s="533"/>
+      <c r="L10" s="534"/>
+      <c r="M10" s="532" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="530"/>
-      <c r="O10" s="530"/>
-      <c r="P10" s="530"/>
-      <c r="Q10" s="530"/>
-      <c r="R10" s="531"/>
+      <c r="N10" s="533"/>
+      <c r="O10" s="533"/>
+      <c r="P10" s="533"/>
+      <c r="Q10" s="533"/>
+      <c r="R10" s="534"/>
     </row>
     <row r="11" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="535"/>
+      <c r="B11" s="538"/>
       <c r="C11" s="49" t="s">
         <v>78</v>
       </c>
@@ -10313,11 +10313,11 @@
       <c r="N7" s="12"/>
     </row>
     <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="557" t="s">
+      <c r="A8" s="560" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="557"/>
-      <c r="C8" s="557"/>
+      <c r="B8" s="560"/>
+      <c r="C8" s="560"/>
       <c r="D8" s="68"/>
       <c r="E8" s="69"/>
       <c r="F8" s="69"/>
@@ -10335,13 +10335,13 @@
         <v>226</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="580" t="str">
+      <c r="C9" s="582" t="str">
         <f>IF('W8'!G8&gt;0,"Yes","No. Please complete W8 first")</f>
         <v>No. Please complete W8 first</v>
       </c>
-      <c r="D9" s="580"/>
-      <c r="E9" s="580"/>
-      <c r="F9" s="580"/>
+      <c r="D9" s="582"/>
+      <c r="E9" s="582"/>
+      <c r="F9" s="582"/>
       <c r="G9" s="69"/>
       <c r="H9" s="69"/>
       <c r="I9" s="150"/>
@@ -10383,11 +10383,11 @@
       <c r="F11" s="152"/>
       <c r="G11" s="153"/>
       <c r="H11" s="153"/>
-      <c r="I11" s="601" t="s">
+      <c r="I11" s="600" t="s">
         <v>224</v>
       </c>
-      <c r="J11" s="601"/>
-      <c r="K11" s="601"/>
+      <c r="J11" s="600"/>
+      <c r="K11" s="600"/>
       <c r="L11" s="338"/>
       <c r="M11" s="337"/>
       <c r="N11" s="455"/>
@@ -10395,48 +10395,48 @@
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="428"/>
       <c r="B12" s="429"/>
-      <c r="C12" s="597" t="s">
+      <c r="C12" s="601" t="s">
         <v>238</v>
       </c>
-      <c r="D12" s="598"/>
+      <c r="D12" s="602"/>
       <c r="E12" s="454" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="168"/>
       <c r="G12" s="168"/>
       <c r="H12" s="168"/>
-      <c r="I12" s="568" t="s">
+      <c r="I12" s="571" t="s">
         <v>242</v>
       </c>
-      <c r="J12" s="569"/>
-      <c r="K12" s="569"/>
-      <c r="L12" s="569"/>
-      <c r="M12" s="569"/>
-      <c r="N12" s="570"/>
+      <c r="J12" s="572"/>
+      <c r="K12" s="572"/>
+      <c r="L12" s="572"/>
+      <c r="M12" s="572"/>
+      <c r="N12" s="573"/>
     </row>
     <row r="13" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="154"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="599"/>
-      <c r="D13" s="600"/>
-      <c r="E13" s="571" t="s">
+      <c r="C13" s="603"/>
+      <c r="D13" s="604"/>
+      <c r="E13" s="556" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="571"/>
-      <c r="G13" s="571" t="s">
+      <c r="F13" s="556"/>
+      <c r="G13" s="556" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="571"/>
-      <c r="I13" s="584" t="s">
+      <c r="H13" s="556"/>
+      <c r="I13" s="558" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="581"/>
-      <c r="K13" s="581"/>
-      <c r="L13" s="584" t="s">
+      <c r="J13" s="554"/>
+      <c r="K13" s="554"/>
+      <c r="L13" s="558" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="581"/>
-      <c r="N13" s="585"/>
+      <c r="M13" s="554"/>
+      <c r="N13" s="559"/>
     </row>
     <row r="14" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="344" t="s">
@@ -10483,7 +10483,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="573" t="s">
+      <c r="A15" s="575" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -10527,7 +10527,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="573"/>
+      <c r="A16" s="575"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -10569,7 +10569,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="573"/>
+      <c r="A17" s="575"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -10611,7 +10611,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="573"/>
+      <c r="A18" s="575"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -10653,7 +10653,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="573"/>
+      <c r="A19" s="575"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -10695,7 +10695,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="573"/>
+      <c r="A20" s="575"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -10737,7 +10737,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="573"/>
+      <c r="A21" s="575"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -10779,7 +10779,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="573"/>
+      <c r="A22" s="575"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -10821,7 +10821,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="573"/>
+      <c r="A23" s="575"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -10863,7 +10863,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="573"/>
+      <c r="A24" s="575"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -10905,7 +10905,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="573"/>
+      <c r="A25" s="575"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -10947,7 +10947,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="574"/>
+      <c r="A26" s="576"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -11029,7 +11029,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="573" t="s">
+      <c r="A28" s="575" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -11073,7 +11073,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="573"/>
+      <c r="A29" s="575"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -11115,7 +11115,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="573"/>
+      <c r="A30" s="575"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -11157,7 +11157,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="573"/>
+      <c r="A31" s="575"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -11199,7 +11199,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="573"/>
+      <c r="A32" s="575"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -11241,7 +11241,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="573"/>
+      <c r="A33" s="575"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -11283,7 +11283,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="573"/>
+      <c r="A34" s="575"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -11325,7 +11325,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="573"/>
+      <c r="A35" s="575"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -11367,7 +11367,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="573"/>
+      <c r="A36" s="575"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -11409,7 +11409,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="573"/>
+      <c r="A37" s="575"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -11451,7 +11451,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="573"/>
+      <c r="A38" s="575"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -11493,7 +11493,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="573"/>
+      <c r="A39" s="575"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -11575,7 +11575,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="572" t="s">
+      <c r="A41" s="574" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -11619,7 +11619,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="573"/>
+      <c r="A42" s="575"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -11661,7 +11661,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="573"/>
+      <c r="A43" s="575"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -11703,7 +11703,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="573"/>
+      <c r="A44" s="575"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -11745,7 +11745,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="573"/>
+      <c r="A45" s="575"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -11787,7 +11787,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="573"/>
+      <c r="A46" s="575"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -11829,7 +11829,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="573"/>
+      <c r="A47" s="575"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -11871,7 +11871,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="573"/>
+      <c r="A48" s="575"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -11913,7 +11913,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="573"/>
+      <c r="A49" s="575"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -11955,7 +11955,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="573"/>
+      <c r="A50" s="575"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -11997,7 +11997,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="573"/>
+      <c r="A51" s="575"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -12039,7 +12039,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="574"/>
+      <c r="A52" s="576"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -12121,7 +12121,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="572" t="s">
+      <c r="A54" s="574" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -12165,7 +12165,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="573"/>
+      <c r="A55" s="575"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -12207,7 +12207,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="573"/>
+      <c r="A56" s="575"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -12249,7 +12249,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="573"/>
+      <c r="A57" s="575"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -12291,7 +12291,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="573"/>
+      <c r="A58" s="575"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -12333,7 +12333,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="573"/>
+      <c r="A59" s="575"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -12375,7 +12375,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="573"/>
+      <c r="A60" s="575"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -12417,7 +12417,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="573"/>
+      <c r="A61" s="575"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -12459,7 +12459,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="573"/>
+      <c r="A62" s="575"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -12501,7 +12501,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="573"/>
+      <c r="A63" s="575"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -12543,7 +12543,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="573"/>
+      <c r="A64" s="575"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -12585,7 +12585,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="574"/>
+      <c r="A65" s="576"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -12667,7 +12667,7 @@
       </c>
     </row>
     <row r="67" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="572" t="s">
+      <c r="A67" s="574" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -12711,7 +12711,7 @@
       </c>
     </row>
     <row r="68" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="573"/>
+      <c r="A68" s="575"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -12753,7 +12753,7 @@
       </c>
     </row>
     <row r="69" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="573"/>
+      <c r="A69" s="575"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -12795,7 +12795,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="573"/>
+      <c r="A70" s="575"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -12837,7 +12837,7 @@
       </c>
     </row>
     <row r="71" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="573"/>
+      <c r="A71" s="575"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -12879,7 +12879,7 @@
       </c>
     </row>
     <row r="72" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="573"/>
+      <c r="A72" s="575"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -12921,7 +12921,7 @@
       </c>
     </row>
     <row r="73" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="573"/>
+      <c r="A73" s="575"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -12963,7 +12963,7 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="573"/>
+      <c r="A74" s="575"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -13005,7 +13005,7 @@
       </c>
     </row>
     <row r="75" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="573"/>
+      <c r="A75" s="575"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -13047,7 +13047,7 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="573"/>
+      <c r="A76" s="575"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -13089,7 +13089,7 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="573"/>
+      <c r="A77" s="575"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -13131,7 +13131,7 @@
       </c>
     </row>
     <row r="78" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="575"/>
+      <c r="A78" s="577"/>
       <c r="B78" s="156" t="s">
         <v>17</v>
       </c>
@@ -13192,22 +13192,22 @@
       <c r="N81" s="483"/>
     </row>
     <row r="82" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G82" s="564"/>
-      <c r="H82" s="565"/>
-      <c r="I82" s="558" t="s">
+      <c r="G82" s="567"/>
+      <c r="H82" s="568"/>
+      <c r="I82" s="561" t="s">
         <v>4</v>
       </c>
-      <c r="J82" s="559"/>
-      <c r="K82" s="560"/>
-      <c r="L82" s="561" t="s">
+      <c r="J82" s="562"/>
+      <c r="K82" s="563"/>
+      <c r="L82" s="564" t="s">
         <v>5</v>
       </c>
-      <c r="M82" s="562"/>
-      <c r="N82" s="563"/>
+      <c r="M82" s="565"/>
+      <c r="N82" s="566"/>
     </row>
     <row r="83" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G83" s="566"/>
-      <c r="H83" s="567"/>
+      <c r="G83" s="569"/>
+      <c r="H83" s="570"/>
       <c r="I83" s="484" t="s">
         <v>2</v>
       </c>
@@ -13228,10 +13228,10 @@
       </c>
     </row>
     <row r="84" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G84" s="553" t="s">
+      <c r="G84" s="585" t="s">
         <v>225</v>
       </c>
-      <c r="H84" s="554"/>
+      <c r="H84" s="586"/>
       <c r="I84" s="458" t="str">
         <f>IF(COUNT(E15:E26)=J81, CONCATENATE(ROUND(SUM(E15:E26)*J81/J81/SUM(C15:C26)*100, 2), " (", ROUND(SUM(E15:E26)*J81/J81/SUM(C15:C26)*100/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*J81/J81/SUM(C15:C26)*100*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -13258,10 +13258,10 @@
       </c>
     </row>
     <row r="85" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G85" s="555" t="s">
+      <c r="G85" s="587" t="s">
         <v>21</v>
       </c>
-      <c r="H85" s="556"/>
+      <c r="H85" s="588"/>
       <c r="I85" s="461" t="str">
         <f>IF(COUNT(E28:E39)=J81, CONCATENATE(ROUND(SUM(E28:E39)*J81/J81/SUM(C28:C39)*100, 2), " (", ROUND(SUM(E28:E39)*J81/J81/SUM(C28:C39)*100/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*J81/J81/SUM(C28:C39)*100*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -13288,10 +13288,10 @@
       </c>
     </row>
     <row r="86" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G86" s="555" t="s">
+      <c r="G86" s="587" t="s">
         <v>22</v>
       </c>
-      <c r="H86" s="556"/>
+      <c r="H86" s="588"/>
       <c r="I86" s="461" t="str">
         <f>IF(COUNT(E41:E52)=J81, CONCATENATE(ROUND(SUM(E41:E52)*J81/J81/SUM(C41:C52)*100, 2), " (", ROUND(SUM(E41:E52)*J81/J81/SUM(C41:C52)*100/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*J81/J81/SUM(C41:C52)*100*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -13318,10 +13318,10 @@
       </c>
     </row>
     <row r="87" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G87" s="555" t="s">
+      <c r="G87" s="587" t="s">
         <v>23</v>
       </c>
-      <c r="H87" s="556"/>
+      <c r="H87" s="588"/>
       <c r="I87" s="461" t="str">
         <f>IF(COUNT(E54:E65)=J81, CONCATENATE(ROUND(SUM(E54:E65)*J81/J81/SUM(C54:C65)*100, 2), " (", ROUND(SUM(E54:E65)*J81/J81/SUM(C54:C65)*100/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*J81/J81/SUM(C54:C65)*100*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -13348,10 +13348,10 @@
       </c>
     </row>
     <row r="88" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G88" s="555" t="s">
+      <c r="G88" s="587" t="s">
         <v>3</v>
       </c>
-      <c r="H88" s="556"/>
+      <c r="H88" s="588"/>
       <c r="I88" s="461" t="str">
         <f>IF(COUNT(E67:E78)=J81, CONCATENATE(ROUND(SUM(E67:E78)*J81/J81/SUM(C67:C78)*100, 2), " (", ROUND(SUM(E67:E78)*J81/J81/SUM(C67:C78)*100/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*J81/J81/SUM(C67:C78)*100*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -13378,10 +13378,10 @@
       </c>
     </row>
     <row r="89" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G89" s="551" t="s">
+      <c r="G89" s="583" t="s">
         <v>1</v>
       </c>
-      <c r="H89" s="591"/>
+      <c r="H89" s="590"/>
       <c r="I89" s="488" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$J$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -13414,12 +13414,14 @@
     <protectedRange sqref="I84:N89" name="Range1_1_2_2"/>
   </protectedRanges>
   <mergeCells count="23">
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
     <mergeCell ref="G82:H83"/>
     <mergeCell ref="A67:A78"/>
     <mergeCell ref="I11:K11"/>
@@ -13429,14 +13431,12 @@
     <mergeCell ref="A28:A39"/>
     <mergeCell ref="A41:A52"/>
     <mergeCell ref="A54:A65"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
   </mergeCells>
   <conditionalFormatting sqref="A41:B52 A54:B65 A67:B78 G11 A12:C12 G13 C1:H2 C3:G3 C4:H7 E11 E12:G12 A13:B39 E13 A1:A10 C9:C10 D8:H8 G9:H9">
     <cfRule type="containsErrors" dxfId="238" priority="75">
@@ -13792,11 +13792,11 @@
       <c r="S7" s="12"/>
     </row>
     <row r="8" spans="1:20" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="557" t="s">
+      <c r="A8" s="560" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="557"/>
-      <c r="C8" s="557"/>
+      <c r="B8" s="560"/>
+      <c r="C8" s="560"/>
       <c r="D8" s="68"/>
       <c r="E8" s="69"/>
       <c r="F8" s="69"/>
@@ -13819,13 +13819,13 @@
         <v>226</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="580" t="str">
+      <c r="C9" s="582" t="str">
         <f>IF('W8'!G8&gt;0,"Yes","No. Please complete W8 first")</f>
         <v>No. Please complete W8 first</v>
       </c>
-      <c r="D9" s="580"/>
-      <c r="E9" s="580"/>
-      <c r="F9" s="580"/>
+      <c r="D9" s="582"/>
+      <c r="E9" s="582"/>
+      <c r="F9" s="582"/>
       <c r="G9" s="69"/>
       <c r="H9" s="69"/>
       <c r="I9" s="150"/>
@@ -13868,14 +13868,14 @@
       <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E11" s="592" t="s">
+      <c r="E11" s="591" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="592"/>
-      <c r="G11" s="592"/>
-      <c r="H11" s="592"/>
-      <c r="I11" s="592"/>
-      <c r="J11" s="592"/>
+      <c r="F11" s="591"/>
+      <c r="G11" s="591"/>
+      <c r="H11" s="591"/>
+      <c r="I11" s="591"/>
+      <c r="J11" s="591"/>
       <c r="K11" s="9" t="s">
         <v>224</v>
       </c>
@@ -13892,63 +13892,63 @@
     <row r="12" spans="1:20" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="428"/>
       <c r="B12" s="429"/>
-      <c r="C12" s="597" t="s">
+      <c r="C12" s="601" t="s">
         <v>238</v>
       </c>
-      <c r="D12" s="598"/>
-      <c r="E12" s="593" t="s">
+      <c r="D12" s="602"/>
+      <c r="E12" s="592" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="593"/>
-      <c r="G12" s="593"/>
+      <c r="F12" s="592"/>
+      <c r="G12" s="592"/>
       <c r="H12" s="168"/>
       <c r="I12" s="168"/>
       <c r="J12" s="168"/>
-      <c r="K12" s="568" t="s">
+      <c r="K12" s="571" t="s">
         <v>242</v>
       </c>
-      <c r="L12" s="569"/>
-      <c r="M12" s="569"/>
-      <c r="N12" s="569"/>
-      <c r="O12" s="569"/>
-      <c r="P12" s="569"/>
-      <c r="Q12" s="569"/>
-      <c r="R12" s="569"/>
-      <c r="S12" s="570"/>
+      <c r="L12" s="572"/>
+      <c r="M12" s="572"/>
+      <c r="N12" s="572"/>
+      <c r="O12" s="572"/>
+      <c r="P12" s="572"/>
+      <c r="Q12" s="572"/>
+      <c r="R12" s="572"/>
+      <c r="S12" s="573"/>
       <c r="T12" s="439"/>
     </row>
     <row r="13" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="154"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="599"/>
-      <c r="D13" s="600"/>
-      <c r="E13" s="571" t="s">
+      <c r="C13" s="603"/>
+      <c r="D13" s="604"/>
+      <c r="E13" s="556" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="571"/>
-      <c r="G13" s="571" t="s">
+      <c r="F13" s="556"/>
+      <c r="G13" s="556" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="571"/>
-      <c r="I13" s="571" t="s">
+      <c r="H13" s="556"/>
+      <c r="I13" s="556" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="571"/>
-      <c r="K13" s="584" t="s">
+      <c r="J13" s="556"/>
+      <c r="K13" s="558" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="581"/>
-      <c r="M13" s="581"/>
-      <c r="N13" s="586" t="s">
+      <c r="L13" s="554"/>
+      <c r="M13" s="554"/>
+      <c r="N13" s="595" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="571"/>
-      <c r="P13" s="587"/>
-      <c r="Q13" s="584" t="s">
+      <c r="O13" s="556"/>
+      <c r="P13" s="596"/>
+      <c r="Q13" s="558" t="s">
         <v>32</v>
       </c>
-      <c r="R13" s="581"/>
-      <c r="S13" s="585"/>
+      <c r="R13" s="554"/>
+      <c r="S13" s="559"/>
     </row>
     <row r="14" spans="1:20" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="344" t="s">
@@ -14010,7 +14010,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="573" t="s">
+      <c r="A15" s="575" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -14068,7 +14068,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="573"/>
+      <c r="A16" s="575"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -14124,7 +14124,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="573"/>
+      <c r="A17" s="575"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -14180,7 +14180,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="573"/>
+      <c r="A18" s="575"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -14236,7 +14236,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="573"/>
+      <c r="A19" s="575"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -14292,7 +14292,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="573"/>
+      <c r="A20" s="575"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -14348,7 +14348,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="573"/>
+      <c r="A21" s="575"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -14404,7 +14404,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="573"/>
+      <c r="A22" s="575"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -14460,7 +14460,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="573"/>
+      <c r="A23" s="575"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -14516,7 +14516,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="573"/>
+      <c r="A24" s="575"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -14572,7 +14572,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="573"/>
+      <c r="A25" s="575"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -14628,7 +14628,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="574"/>
+      <c r="A26" s="576"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -14739,7 +14739,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="573" t="s">
+      <c r="A28" s="575" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -14797,7 +14797,7 @@
       </c>
     </row>
     <row r="29" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="573"/>
+      <c r="A29" s="575"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -14853,7 +14853,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="573"/>
+      <c r="A30" s="575"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -14910,7 +14910,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="573"/>
+      <c r="A31" s="575"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -14967,7 +14967,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="573"/>
+      <c r="A32" s="575"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -15024,7 +15024,7 @@
       <c r="T32" s="7"/>
     </row>
     <row r="33" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="573"/>
+      <c r="A33" s="575"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -15081,7 +15081,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="573"/>
+      <c r="A34" s="575"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -15138,7 +15138,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="573"/>
+      <c r="A35" s="575"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -15195,7 +15195,7 @@
       <c r="T35" s="7"/>
     </row>
     <row r="36" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="573"/>
+      <c r="A36" s="575"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -15252,7 +15252,7 @@
       <c r="T36" s="7"/>
     </row>
     <row r="37" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="573"/>
+      <c r="A37" s="575"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -15309,7 +15309,7 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="573"/>
+      <c r="A38" s="575"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -15366,7 +15366,7 @@
       <c r="T38" s="7"/>
     </row>
     <row r="39" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="573"/>
+      <c r="A39" s="575"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -15479,7 +15479,7 @@
       <c r="T40" s="7"/>
     </row>
     <row r="41" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="572" t="s">
+      <c r="A41" s="574" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -15538,7 +15538,7 @@
       <c r="T41" s="7"/>
     </row>
     <row r="42" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="573"/>
+      <c r="A42" s="575"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -15595,7 +15595,7 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="573"/>
+      <c r="A43" s="575"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -15652,7 +15652,7 @@
       <c r="T43" s="7"/>
     </row>
     <row r="44" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="573"/>
+      <c r="A44" s="575"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -15709,7 +15709,7 @@
       <c r="T44" s="7"/>
     </row>
     <row r="45" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="573"/>
+      <c r="A45" s="575"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -15766,7 +15766,7 @@
       <c r="T45" s="7"/>
     </row>
     <row r="46" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="573"/>
+      <c r="A46" s="575"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -15823,7 +15823,7 @@
       <c r="T46" s="7"/>
     </row>
     <row r="47" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="573"/>
+      <c r="A47" s="575"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -15880,7 +15880,7 @@
       <c r="T47" s="7"/>
     </row>
     <row r="48" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="573"/>
+      <c r="A48" s="575"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -15937,7 +15937,7 @@
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="573"/>
+      <c r="A49" s="575"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -15994,7 +15994,7 @@
       <c r="T49" s="7"/>
     </row>
     <row r="50" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="573"/>
+      <c r="A50" s="575"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -16051,7 +16051,7 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="573"/>
+      <c r="A51" s="575"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -16108,7 +16108,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="574"/>
+      <c r="A52" s="576"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -16221,7 +16221,7 @@
       <c r="T53" s="7"/>
     </row>
     <row r="54" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="572" t="s">
+      <c r="A54" s="574" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -16280,7 +16280,7 @@
       <c r="T54" s="7"/>
     </row>
     <row r="55" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="573"/>
+      <c r="A55" s="575"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -16337,7 +16337,7 @@
       <c r="T55" s="7"/>
     </row>
     <row r="56" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="573"/>
+      <c r="A56" s="575"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -16394,7 +16394,7 @@
       <c r="T56" s="7"/>
     </row>
     <row r="57" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="573"/>
+      <c r="A57" s="575"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -16451,7 +16451,7 @@
       <c r="T57" s="7"/>
     </row>
     <row r="58" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="573"/>
+      <c r="A58" s="575"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -16508,7 +16508,7 @@
       <c r="T58" s="7"/>
     </row>
     <row r="59" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="573"/>
+      <c r="A59" s="575"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -16565,7 +16565,7 @@
       <c r="T59" s="7"/>
     </row>
     <row r="60" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="573"/>
+      <c r="A60" s="575"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -16622,7 +16622,7 @@
       <c r="T60" s="7"/>
     </row>
     <row r="61" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="573"/>
+      <c r="A61" s="575"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -16679,7 +16679,7 @@
       <c r="T61" s="7"/>
     </row>
     <row r="62" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="573"/>
+      <c r="A62" s="575"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -16736,7 +16736,7 @@
       <c r="T62" s="7"/>
     </row>
     <row r="63" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="573"/>
+      <c r="A63" s="575"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -16793,7 +16793,7 @@
       <c r="T63" s="7"/>
     </row>
     <row r="64" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="573"/>
+      <c r="A64" s="575"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -16850,7 +16850,7 @@
       <c r="T64" s="7"/>
     </row>
     <row r="65" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="574"/>
+      <c r="A65" s="576"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -16963,7 +16963,7 @@
       <c r="T66" s="7"/>
     </row>
     <row r="67" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="572" t="s">
+      <c r="A67" s="574" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -17022,7 +17022,7 @@
       <c r="T67" s="7"/>
     </row>
     <row r="68" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="573"/>
+      <c r="A68" s="575"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -17079,7 +17079,7 @@
       <c r="T68" s="7"/>
     </row>
     <row r="69" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="573"/>
+      <c r="A69" s="575"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -17136,7 +17136,7 @@
       <c r="T69" s="7"/>
     </row>
     <row r="70" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="573"/>
+      <c r="A70" s="575"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -17193,7 +17193,7 @@
       <c r="T70" s="7"/>
     </row>
     <row r="71" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="573"/>
+      <c r="A71" s="575"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -17250,7 +17250,7 @@
       <c r="T71" s="7"/>
     </row>
     <row r="72" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="573"/>
+      <c r="A72" s="575"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -17307,7 +17307,7 @@
       <c r="T72" s="7"/>
     </row>
     <row r="73" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="573"/>
+      <c r="A73" s="575"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -17364,7 +17364,7 @@
       <c r="T73" s="7"/>
     </row>
     <row r="74" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="573"/>
+      <c r="A74" s="575"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -17421,7 +17421,7 @@
       <c r="T74" s="7"/>
     </row>
     <row r="75" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="573"/>
+      <c r="A75" s="575"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -17478,7 +17478,7 @@
       <c r="T75" s="7"/>
     </row>
     <row r="76" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="573"/>
+      <c r="A76" s="575"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -17535,7 +17535,7 @@
       <c r="T76" s="7"/>
     </row>
     <row r="77" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="573"/>
+      <c r="A77" s="575"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -17592,7 +17592,7 @@
       <c r="T77" s="7"/>
     </row>
     <row r="78" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="575"/>
+      <c r="A78" s="577"/>
       <c r="B78" s="156" t="s">
         <v>17</v>
       </c>
@@ -17691,28 +17691,28 @@
       <c r="T81" s="10"/>
     </row>
     <row r="82" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I82" s="564"/>
-      <c r="J82" s="565"/>
-      <c r="K82" s="558" t="s">
+      <c r="I82" s="567"/>
+      <c r="J82" s="568"/>
+      <c r="K82" s="561" t="s">
         <v>31</v>
       </c>
-      <c r="L82" s="559"/>
-      <c r="M82" s="560"/>
-      <c r="N82" s="558" t="s">
+      <c r="L82" s="562"/>
+      <c r="M82" s="563"/>
+      <c r="N82" s="561" t="s">
         <v>30</v>
       </c>
-      <c r="O82" s="559"/>
-      <c r="P82" s="560"/>
-      <c r="Q82" s="561" t="s">
+      <c r="O82" s="562"/>
+      <c r="P82" s="563"/>
+      <c r="Q82" s="564" t="s">
         <v>32</v>
       </c>
-      <c r="R82" s="562"/>
-      <c r="S82" s="563"/>
+      <c r="R82" s="565"/>
+      <c r="S82" s="566"/>
       <c r="T82" s="10"/>
     </row>
     <row r="83" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I83" s="566"/>
-      <c r="J83" s="567"/>
+      <c r="I83" s="569"/>
+      <c r="J83" s="570"/>
       <c r="K83" s="490" t="s">
         <v>2</v>
       </c>
@@ -17743,10 +17743,10 @@
       <c r="T83" s="10"/>
     </row>
     <row r="84" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I84" s="588" t="s">
+      <c r="I84" s="593" t="s">
         <v>225</v>
       </c>
-      <c r="J84" s="589"/>
+      <c r="J84" s="594"/>
       <c r="K84" s="459" t="str">
         <f>IF(COUNT(E15:E26)=$L$81, CONCATENATE(ROUND(SUM(E15:E26)*L81/L81/SUM(C15:C26)*100, 2), " (", ROUND(SUM(E15:E26)*L81/L81/SUM(C15:C26)*100/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*L81/L81/SUM(C15:C26)*100*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -17786,10 +17786,10 @@
       <c r="T84" s="10"/>
     </row>
     <row r="85" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I85" s="555" t="s">
+      <c r="I85" s="587" t="s">
         <v>21</v>
       </c>
-      <c r="J85" s="590"/>
+      <c r="J85" s="589"/>
       <c r="K85" s="462" t="str">
         <f>IF(COUNT(E28:E39)=$L$81, CONCATENATE(ROUND(SUM(E28:E39)*L81/L81/SUM(C28:C39)*100, 2), " (", ROUND(SUM(E28:E39)*L81/L81/SUM(C28:C39)*100/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*L81/L81/SUM(C28:C39)*100*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -17829,10 +17829,10 @@
       <c r="T85" s="10"/>
     </row>
     <row r="86" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I86" s="555" t="s">
+      <c r="I86" s="587" t="s">
         <v>22</v>
       </c>
-      <c r="J86" s="590"/>
+      <c r="J86" s="589"/>
       <c r="K86" s="462" t="str">
         <f>IF(COUNT(E41:E52)=$L$81, CONCATENATE(ROUND(SUM(E41:E52)*L81/L81/SUM(C41:C52)*100, 2), " (", ROUND(SUM(E41:E52)*L81/L81/SUM(C41:C52)*100/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*L81/L81/SUM(C41:C52)*100*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -17872,10 +17872,10 @@
       <c r="T86" s="10"/>
     </row>
     <row r="87" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I87" s="555" t="s">
+      <c r="I87" s="587" t="s">
         <v>23</v>
       </c>
-      <c r="J87" s="590"/>
+      <c r="J87" s="589"/>
       <c r="K87" s="462" t="str">
         <f>IF(COUNT(E54:E65)=$L$81, CONCATENATE(ROUND(SUM(E54:E65)*L81/L81/SUM(C54:C65)*100, 2), " (", ROUND(SUM(E54:E65)*L81/L81/SUM(C54:C65)*100/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*L81/L81/SUM(C54:C65)*100*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -17915,10 +17915,10 @@
       <c r="T87" s="10"/>
     </row>
     <row r="88" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I88" s="555" t="s">
+      <c r="I88" s="587" t="s">
         <v>3</v>
       </c>
-      <c r="J88" s="590"/>
+      <c r="J88" s="589"/>
       <c r="K88" s="462" t="str">
         <f>IF(COUNT(E67:E78)=$L$81, CONCATENATE(ROUND(SUM(E67:E78)*L81/L81/SUM(C67:C78)*100, 2), " (", ROUND(SUM(E67:E78)*L81/L81/SUM(C67:C78)*100/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*L81/L81/SUM(C67:C78)*100*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -17958,10 +17958,10 @@
       <c r="T88" s="10"/>
     </row>
     <row r="89" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I89" s="551" t="s">
+      <c r="I89" s="583" t="s">
         <v>1</v>
       </c>
-      <c r="J89" s="591"/>
+      <c r="J89" s="590"/>
       <c r="K89" s="488" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$L$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*L81/L81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*L81/L81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*L81/L81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -18018,11 +18018,16 @@
     <protectedRange sqref="K84:S89" name="Range1_1_2_2"/>
   </protectedRanges>
   <mergeCells count="27">
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="K12:S12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="Q82:S82"/>
     <mergeCell ref="I84:J84"/>
     <mergeCell ref="N13:P13"/>
@@ -18035,16 +18040,11 @@
     <mergeCell ref="I82:J83"/>
     <mergeCell ref="K82:M82"/>
     <mergeCell ref="N82:P82"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="K12:S12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="I89:J89"/>
   </mergeCells>
   <conditionalFormatting sqref="A91:J1048576 T11 A80:I80 T1:XFD9 J90 A81:H81 H12:I12 E12 K83:M83 Q83:S83 U11:XFD1048576 T30:T1048576">
     <cfRule type="containsErrors" dxfId="201" priority="111">
@@ -18530,11 +18530,11 @@
       <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:10" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="557" t="s">
+      <c r="A8" s="560" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="557"/>
-      <c r="C8" s="557"/>
+      <c r="B8" s="560"/>
+      <c r="C8" s="560"/>
       <c r="D8" s="68"/>
       <c r="E8" s="69"/>
       <c r="F8" s="69"/>
@@ -18547,13 +18547,13 @@
         <v>226</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="580" t="str">
+      <c r="C9" s="582" t="str">
         <f>IF('W8'!G8&gt;0,"Yes","No. Please complete W8 first")</f>
         <v>No. Please complete W8 first</v>
       </c>
-      <c r="D9" s="580"/>
-      <c r="E9" s="580"/>
-      <c r="F9" s="580"/>
+      <c r="D9" s="582"/>
+      <c r="E9" s="582"/>
+      <c r="F9" s="582"/>
       <c r="G9" s="150"/>
       <c r="H9" s="19"/>
       <c r="I9" s="12"/>
@@ -18590,35 +18590,35 @@
     <row r="12" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="428"/>
       <c r="B12" s="429"/>
-      <c r="C12" s="597" t="s">
+      <c r="C12" s="601" t="s">
         <v>238</v>
       </c>
-      <c r="D12" s="598"/>
+      <c r="D12" s="602"/>
       <c r="E12" s="454" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="168"/>
-      <c r="G12" s="568" t="s">
+      <c r="G12" s="571" t="s">
         <v>242</v>
       </c>
-      <c r="H12" s="569"/>
-      <c r="I12" s="570"/>
+      <c r="H12" s="572"/>
+      <c r="I12" s="573"/>
       <c r="J12" s="439"/>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="154"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="599"/>
-      <c r="D13" s="600"/>
-      <c r="E13" s="571" t="s">
+      <c r="C13" s="603"/>
+      <c r="D13" s="604"/>
+      <c r="E13" s="556" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="571"/>
-      <c r="G13" s="586" t="s">
+      <c r="F13" s="556"/>
+      <c r="G13" s="595" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="571"/>
-      <c r="I13" s="587"/>
+      <c r="H13" s="556"/>
+      <c r="I13" s="596"/>
     </row>
     <row r="14" spans="1:10" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="344" t="s">
@@ -18650,7 +18650,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="573" t="s">
+      <c r="A15" s="575" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -18680,7 +18680,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="573"/>
+      <c r="A16" s="575"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -18708,7 +18708,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="573"/>
+      <c r="A17" s="575"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -18736,7 +18736,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="573"/>
+      <c r="A18" s="575"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -18764,7 +18764,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="573"/>
+      <c r="A19" s="575"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -18792,7 +18792,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="573"/>
+      <c r="A20" s="575"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -18820,7 +18820,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="573"/>
+      <c r="A21" s="575"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -18848,7 +18848,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="573"/>
+      <c r="A22" s="575"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -18876,7 +18876,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="573"/>
+      <c r="A23" s="575"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -18904,7 +18904,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="573"/>
+      <c r="A24" s="575"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -18932,7 +18932,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="573"/>
+      <c r="A25" s="575"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -18960,7 +18960,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="574"/>
+      <c r="A26" s="576"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -19013,7 +19013,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="573" t="s">
+      <c r="A28" s="575" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -19043,7 +19043,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="573"/>
+      <c r="A29" s="575"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -19071,7 +19071,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="573"/>
+      <c r="A30" s="575"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -19100,7 +19100,7 @@
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="573"/>
+      <c r="A31" s="575"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -19129,7 +19129,7 @@
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="573"/>
+      <c r="A32" s="575"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -19158,7 +19158,7 @@
       <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="573"/>
+      <c r="A33" s="575"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -19187,7 +19187,7 @@
       <c r="J33" s="7"/>
     </row>
     <row r="34" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="573"/>
+      <c r="A34" s="575"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -19216,7 +19216,7 @@
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="573"/>
+      <c r="A35" s="575"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -19245,7 +19245,7 @@
       <c r="J35" s="7"/>
     </row>
     <row r="36" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="573"/>
+      <c r="A36" s="575"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -19274,7 +19274,7 @@
       <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="573"/>
+      <c r="A37" s="575"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -19303,7 +19303,7 @@
       <c r="J37" s="7"/>
     </row>
     <row r="38" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="573"/>
+      <c r="A38" s="575"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -19332,7 +19332,7 @@
       <c r="J38" s="7"/>
     </row>
     <row r="39" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="573"/>
+      <c r="A39" s="575"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -19387,7 +19387,7 @@
       <c r="J40" s="7"/>
     </row>
     <row r="41" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="572" t="s">
+      <c r="A41" s="574" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -19418,7 +19418,7 @@
       <c r="J41" s="7"/>
     </row>
     <row r="42" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="573"/>
+      <c r="A42" s="575"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -19447,7 +19447,7 @@
       <c r="J42" s="7"/>
     </row>
     <row r="43" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="573"/>
+      <c r="A43" s="575"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -19476,7 +19476,7 @@
       <c r="J43" s="7"/>
     </row>
     <row r="44" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="573"/>
+      <c r="A44" s="575"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -19505,7 +19505,7 @@
       <c r="J44" s="7"/>
     </row>
     <row r="45" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="573"/>
+      <c r="A45" s="575"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -19534,7 +19534,7 @@
       <c r="J45" s="7"/>
     </row>
     <row r="46" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="573"/>
+      <c r="A46" s="575"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -19563,7 +19563,7 @@
       <c r="J46" s="7"/>
     </row>
     <row r="47" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="573"/>
+      <c r="A47" s="575"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -19592,7 +19592,7 @@
       <c r="J47" s="7"/>
     </row>
     <row r="48" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="573"/>
+      <c r="A48" s="575"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -19621,7 +19621,7 @@
       <c r="J48" s="7"/>
     </row>
     <row r="49" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="573"/>
+      <c r="A49" s="575"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -19650,7 +19650,7 @@
       <c r="J49" s="7"/>
     </row>
     <row r="50" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="573"/>
+      <c r="A50" s="575"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -19679,7 +19679,7 @@
       <c r="J50" s="7"/>
     </row>
     <row r="51" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="573"/>
+      <c r="A51" s="575"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -19708,7 +19708,7 @@
       <c r="J51" s="7"/>
     </row>
     <row r="52" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="574"/>
+      <c r="A52" s="576"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -19763,7 +19763,7 @@
       <c r="J53" s="7"/>
     </row>
     <row r="54" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="572" t="s">
+      <c r="A54" s="574" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -19794,7 +19794,7 @@
       <c r="J54" s="7"/>
     </row>
     <row r="55" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="573"/>
+      <c r="A55" s="575"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -19823,7 +19823,7 @@
       <c r="J55" s="7"/>
     </row>
     <row r="56" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="573"/>
+      <c r="A56" s="575"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -19852,7 +19852,7 @@
       <c r="J56" s="7"/>
     </row>
     <row r="57" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="573"/>
+      <c r="A57" s="575"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -19881,7 +19881,7 @@
       <c r="J57" s="7"/>
     </row>
     <row r="58" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="573"/>
+      <c r="A58" s="575"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -19910,7 +19910,7 @@
       <c r="J58" s="7"/>
     </row>
     <row r="59" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="573"/>
+      <c r="A59" s="575"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -19939,7 +19939,7 @@
       <c r="J59" s="7"/>
     </row>
     <row r="60" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="573"/>
+      <c r="A60" s="575"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -19968,7 +19968,7 @@
       <c r="J60" s="7"/>
     </row>
     <row r="61" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="573"/>
+      <c r="A61" s="575"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -19997,7 +19997,7 @@
       <c r="J61" s="7"/>
     </row>
     <row r="62" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="573"/>
+      <c r="A62" s="575"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -20026,7 +20026,7 @@
       <c r="J62" s="7"/>
     </row>
     <row r="63" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="573"/>
+      <c r="A63" s="575"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -20055,7 +20055,7 @@
       <c r="J63" s="7"/>
     </row>
     <row r="64" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="573"/>
+      <c r="A64" s="575"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -20084,7 +20084,7 @@
       <c r="J64" s="7"/>
     </row>
     <row r="65" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="574"/>
+      <c r="A65" s="576"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -20139,7 +20139,7 @@
       <c r="J66" s="7"/>
     </row>
     <row r="67" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="572" t="s">
+      <c r="A67" s="574" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -20170,7 +20170,7 @@
       <c r="J67" s="7"/>
     </row>
     <row r="68" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="573"/>
+      <c r="A68" s="575"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -20199,7 +20199,7 @@
       <c r="J68" s="7"/>
     </row>
     <row r="69" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="573"/>
+      <c r="A69" s="575"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -20228,7 +20228,7 @@
       <c r="J69" s="7"/>
     </row>
     <row r="70" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="573"/>
+      <c r="A70" s="575"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -20257,7 +20257,7 @@
       <c r="J70" s="7"/>
     </row>
     <row r="71" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="573"/>
+      <c r="A71" s="575"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -20286,7 +20286,7 @@
       <c r="J71" s="7"/>
     </row>
     <row r="72" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="573"/>
+      <c r="A72" s="575"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -20315,7 +20315,7 @@
       <c r="J72" s="7"/>
     </row>
     <row r="73" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="573"/>
+      <c r="A73" s="575"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -20344,7 +20344,7 @@
       <c r="J73" s="7"/>
     </row>
     <row r="74" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="573"/>
+      <c r="A74" s="575"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -20373,7 +20373,7 @@
       <c r="J74" s="7"/>
     </row>
     <row r="75" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="573"/>
+      <c r="A75" s="575"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -20402,7 +20402,7 @@
       <c r="J75" s="7"/>
     </row>
     <row r="76" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="573"/>
+      <c r="A76" s="575"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -20431,7 +20431,7 @@
       <c r="J76" s="7"/>
     </row>
     <row r="77" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="573"/>
+      <c r="A77" s="575"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -20460,7 +20460,7 @@
       <c r="J77" s="7"/>
     </row>
     <row r="78" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="575"/>
+      <c r="A78" s="577"/>
       <c r="B78" s="156" t="s">
         <v>17</v>
       </c>
@@ -20515,18 +20515,18 @@
       <c r="J81" s="10"/>
     </row>
     <row r="82" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E82" s="564"/>
-      <c r="F82" s="565"/>
-      <c r="G82" s="558" t="s">
+      <c r="E82" s="567"/>
+      <c r="F82" s="568"/>
+      <c r="G82" s="561" t="s">
         <v>33</v>
       </c>
-      <c r="H82" s="559"/>
-      <c r="I82" s="560"/>
+      <c r="H82" s="562"/>
+      <c r="I82" s="563"/>
       <c r="J82" s="10"/>
     </row>
     <row r="83" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E83" s="566"/>
-      <c r="F83" s="567"/>
+      <c r="E83" s="569"/>
+      <c r="F83" s="570"/>
       <c r="G83" s="484" t="s">
         <v>2</v>
       </c>
@@ -20539,10 +20539,10 @@
       <c r="J83" s="10"/>
     </row>
     <row r="84" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E84" s="553" t="s">
+      <c r="E84" s="585" t="s">
         <v>225</v>
       </c>
-      <c r="F84" s="554"/>
+      <c r="F84" s="586"/>
       <c r="G84" s="458" t="str">
         <f>IF(COUNT(E15:E26)=H81, CONCATENATE(ROUND(SUM(E15:E26)*H81/H81/SUM(C15:C26)*100, 2), " (", ROUND(SUM(E15:E26)*H81/H81/SUM(C15:C26)*100/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*H81/H81/SUM(C15:C26)*100*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -20558,10 +20558,10 @@
       <c r="J84" s="10"/>
     </row>
     <row r="85" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E85" s="555" t="s">
+      <c r="E85" s="587" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="556"/>
+      <c r="F85" s="588"/>
       <c r="G85" s="461" t="str">
         <f>IF(COUNT(E28:E39)=H81, CONCATENATE(ROUND(SUM(E28:E39)*H81/H81/SUM(C28:C39)*100, 2), " (", ROUND(SUM(E28:E39)*H81/H81/SUM(C28:C39)*100/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*H81/H81/SUM(C28:C39)*100*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -20577,10 +20577,10 @@
       <c r="J85" s="10"/>
     </row>
     <row r="86" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E86" s="555" t="s">
+      <c r="E86" s="587" t="s">
         <v>22</v>
       </c>
-      <c r="F86" s="556"/>
+      <c r="F86" s="588"/>
       <c r="G86" s="461" t="str">
         <f>IF(COUNT(E41:E52)=H81, CONCATENATE(ROUND(SUM(E41:E52)*H81/H81/SUM(C41:C52)*100, 2), " (", ROUND(SUM(E41:E52)*H81/H81/SUM(C41:C52)*100/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*H81/H81/SUM(C41:C52)*100*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -20596,10 +20596,10 @@
       <c r="J86" s="10"/>
     </row>
     <row r="87" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E87" s="555" t="s">
+      <c r="E87" s="587" t="s">
         <v>23</v>
       </c>
-      <c r="F87" s="556"/>
+      <c r="F87" s="588"/>
       <c r="G87" s="461" t="str">
         <f>IF(COUNT(E54:E65)=H81, CONCATENATE(ROUND(SUM(E54:E65)*H81/H81/SUM(C54:C65)*100, 2), " (", ROUND(SUM(E54:E65)*H81/H81/SUM(C54:C65)*100/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*H81/H81/SUM(C54:C65)*100*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -20615,10 +20615,10 @@
       <c r="J87" s="10"/>
     </row>
     <row r="88" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E88" s="555" t="s">
+      <c r="E88" s="587" t="s">
         <v>3</v>
       </c>
-      <c r="F88" s="556"/>
+      <c r="F88" s="588"/>
       <c r="G88" s="461" t="str">
         <f>IF(COUNT(E67:E78)=H81, CONCATENATE(ROUND(SUM(E67:E78)*H81/H81/SUM(C67:C78)*100, 2), " (", ROUND(SUM(E67:E78)*H81/H81/SUM(C67:C78)*100/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*H81/H81/SUM(C67:C78)*100*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -20634,10 +20634,10 @@
       <c r="J88" s="10"/>
     </row>
     <row r="89" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E89" s="551" t="s">
+      <c r="E89" s="583" t="s">
         <v>1</v>
       </c>
-      <c r="F89" s="552"/>
+      <c r="F89" s="584"/>
       <c r="G89" s="487" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$H$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*H81/H81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*H81/H81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*H81/H81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -20666,6 +20666,17 @@
     <protectedRange sqref="G41:I52 G54:I65 G67:I78 G28:I39 G84:I89 G15:I26" name="Range1_1_2"/>
   </protectedRanges>
   <mergeCells count="19">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="A41:A52"/>
+    <mergeCell ref="A54:A65"/>
+    <mergeCell ref="A67:A78"/>
     <mergeCell ref="E89:F89"/>
     <mergeCell ref="G82:I82"/>
     <mergeCell ref="E84:F84"/>
@@ -20674,17 +20685,6 @@
     <mergeCell ref="E87:F87"/>
     <mergeCell ref="E88:F88"/>
     <mergeCell ref="E82:F83"/>
-    <mergeCell ref="A15:A26"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="A41:A52"/>
-    <mergeCell ref="A54:A65"/>
-    <mergeCell ref="A67:A78"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:I13"/>
   </mergeCells>
   <conditionalFormatting sqref="A91:F1048576 A41:B52 A54:B65 A67:B78 C1:F7 E11 E12:F12 A12:B39 E13 A1 G82 A80:F80 G83:I83 A81:D81 K11:XFD1048576 J11 J1:XFD9 J30:J1048576 A7">
     <cfRule type="containsErrors" dxfId="127" priority="42">
@@ -21010,11 +21010,11 @@
       <c r="N7" s="12"/>
     </row>
     <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="557" t="s">
+      <c r="A8" s="560" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="557"/>
-      <c r="C8" s="557"/>
+      <c r="B8" s="560"/>
+      <c r="C8" s="560"/>
       <c r="D8" s="68"/>
       <c r="E8" s="69"/>
       <c r="F8" s="69"/>
@@ -21032,13 +21032,13 @@
         <v>226</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="580" t="str">
+      <c r="C9" s="582" t="str">
         <f>IF('W8'!G8&gt;0,"Yes","No. Please complete W8 first")</f>
         <v>No. Please complete W8 first</v>
       </c>
-      <c r="D9" s="580"/>
-      <c r="E9" s="580"/>
-      <c r="F9" s="580"/>
+      <c r="D9" s="582"/>
+      <c r="E9" s="582"/>
+      <c r="F9" s="582"/>
       <c r="G9" s="69"/>
       <c r="H9" s="69"/>
       <c r="I9" s="150"/>
@@ -21080,11 +21080,11 @@
       <c r="F11" s="152"/>
       <c r="G11" s="153"/>
       <c r="H11" s="153"/>
-      <c r="I11" s="601" t="s">
+      <c r="I11" s="600" t="s">
         <v>224</v>
       </c>
-      <c r="J11" s="601"/>
-      <c r="K11" s="601"/>
+      <c r="J11" s="600"/>
+      <c r="K11" s="600"/>
       <c r="L11" s="338"/>
       <c r="M11" s="337"/>
       <c r="N11" s="455"/>
@@ -21092,48 +21092,48 @@
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="428"/>
       <c r="B12" s="429"/>
-      <c r="C12" s="597" t="s">
+      <c r="C12" s="601" t="s">
         <v>238</v>
       </c>
-      <c r="D12" s="598"/>
+      <c r="D12" s="602"/>
       <c r="E12" s="454" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="168"/>
       <c r="G12" s="168"/>
       <c r="H12" s="168"/>
-      <c r="I12" s="568" t="s">
+      <c r="I12" s="571" t="s">
         <v>242</v>
       </c>
-      <c r="J12" s="569"/>
-      <c r="K12" s="569"/>
-      <c r="L12" s="569"/>
-      <c r="M12" s="569"/>
-      <c r="N12" s="570"/>
+      <c r="J12" s="572"/>
+      <c r="K12" s="572"/>
+      <c r="L12" s="572"/>
+      <c r="M12" s="572"/>
+      <c r="N12" s="573"/>
     </row>
     <row r="13" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="154"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="599"/>
-      <c r="D13" s="600"/>
-      <c r="E13" s="571" t="s">
+      <c r="C13" s="603"/>
+      <c r="D13" s="604"/>
+      <c r="E13" s="556" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="571"/>
-      <c r="G13" s="571" t="s">
+      <c r="F13" s="556"/>
+      <c r="G13" s="556" t="s">
         <v>252</v>
       </c>
-      <c r="H13" s="571"/>
-      <c r="I13" s="584" t="s">
+      <c r="H13" s="556"/>
+      <c r="I13" s="558" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="581"/>
-      <c r="K13" s="581"/>
-      <c r="L13" s="584" t="s">
+      <c r="J13" s="554"/>
+      <c r="K13" s="554"/>
+      <c r="L13" s="558" t="s">
         <v>34</v>
       </c>
-      <c r="M13" s="581"/>
-      <c r="N13" s="585"/>
+      <c r="M13" s="554"/>
+      <c r="N13" s="559"/>
     </row>
     <row r="14" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="344" t="s">
@@ -21180,7 +21180,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="573" t="s">
+      <c r="A15" s="575" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -21224,7 +21224,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="573"/>
+      <c r="A16" s="575"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -21266,7 +21266,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="573"/>
+      <c r="A17" s="575"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -21308,7 +21308,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="573"/>
+      <c r="A18" s="575"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -21350,7 +21350,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="573"/>
+      <c r="A19" s="575"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -21392,7 +21392,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="573"/>
+      <c r="A20" s="575"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -21434,7 +21434,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="573"/>
+      <c r="A21" s="575"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -21476,7 +21476,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="573"/>
+      <c r="A22" s="575"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -21518,7 +21518,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="573"/>
+      <c r="A23" s="575"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -21560,7 +21560,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="573"/>
+      <c r="A24" s="575"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -21602,7 +21602,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="573"/>
+      <c r="A25" s="575"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -21644,7 +21644,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="574"/>
+      <c r="A26" s="576"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -21726,7 +21726,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="573" t="s">
+      <c r="A28" s="575" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -21770,7 +21770,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="573"/>
+      <c r="A29" s="575"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -21812,7 +21812,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="573"/>
+      <c r="A30" s="575"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -21854,7 +21854,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="573"/>
+      <c r="A31" s="575"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -21896,7 +21896,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="573"/>
+      <c r="A32" s="575"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -21938,7 +21938,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="573"/>
+      <c r="A33" s="575"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -21980,7 +21980,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="573"/>
+      <c r="A34" s="575"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -22022,7 +22022,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="573"/>
+      <c r="A35" s="575"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -22064,7 +22064,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="573"/>
+      <c r="A36" s="575"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -22106,7 +22106,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="573"/>
+      <c r="A37" s="575"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -22148,7 +22148,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="573"/>
+      <c r="A38" s="575"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -22190,7 +22190,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="573"/>
+      <c r="A39" s="575"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -22272,7 +22272,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="572" t="s">
+      <c r="A41" s="574" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -22316,7 +22316,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="573"/>
+      <c r="A42" s="575"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -22358,7 +22358,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="573"/>
+      <c r="A43" s="575"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -22400,7 +22400,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="573"/>
+      <c r="A44" s="575"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -22442,7 +22442,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="573"/>
+      <c r="A45" s="575"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -22484,7 +22484,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="573"/>
+      <c r="A46" s="575"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -22526,7 +22526,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="573"/>
+      <c r="A47" s="575"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -22568,7 +22568,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="573"/>
+      <c r="A48" s="575"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -22610,7 +22610,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="573"/>
+      <c r="A49" s="575"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -22652,7 +22652,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="573"/>
+      <c r="A50" s="575"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -22694,7 +22694,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="573"/>
+      <c r="A51" s="575"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -22736,7 +22736,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="574"/>
+      <c r="A52" s="576"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -22818,7 +22818,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="572" t="s">
+      <c r="A54" s="574" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -22862,7 +22862,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="573"/>
+      <c r="A55" s="575"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -22904,7 +22904,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="573"/>
+      <c r="A56" s="575"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -22946,7 +22946,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="573"/>
+      <c r="A57" s="575"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -22988,7 +22988,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="573"/>
+      <c r="A58" s="575"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -23030,7 +23030,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="573"/>
+      <c r="A59" s="575"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -23072,7 +23072,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="573"/>
+      <c r="A60" s="575"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -23114,7 +23114,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="573"/>
+      <c r="A61" s="575"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -23156,7 +23156,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="573"/>
+      <c r="A62" s="575"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -23198,7 +23198,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="573"/>
+      <c r="A63" s="575"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -23240,7 +23240,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="573"/>
+      <c r="A64" s="575"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -23282,7 +23282,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="574"/>
+      <c r="A65" s="576"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -23364,7 +23364,7 @@
       </c>
     </row>
     <row r="67" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="572" t="s">
+      <c r="A67" s="574" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -23408,7 +23408,7 @@
       </c>
     </row>
     <row r="68" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="573"/>
+      <c r="A68" s="575"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -23450,7 +23450,7 @@
       </c>
     </row>
     <row r="69" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="573"/>
+      <c r="A69" s="575"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -23492,7 +23492,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="573"/>
+      <c r="A70" s="575"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -23534,7 +23534,7 @@
       </c>
     </row>
     <row r="71" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="573"/>
+      <c r="A71" s="575"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -23576,7 +23576,7 @@
       </c>
     </row>
     <row r="72" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="573"/>
+      <c r="A72" s="575"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -23618,7 +23618,7 @@
       </c>
     </row>
     <row r="73" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="573"/>
+      <c r="A73" s="575"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -23660,7 +23660,7 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="573"/>
+      <c r="A74" s="575"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -23702,7 +23702,7 @@
       </c>
     </row>
     <row r="75" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="573"/>
+      <c r="A75" s="575"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -23744,7 +23744,7 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="573"/>
+      <c r="A76" s="575"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -23786,7 +23786,7 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="573"/>
+      <c r="A77" s="575"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -23828,7 +23828,7 @@
       </c>
     </row>
     <row r="78" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="575"/>
+      <c r="A78" s="577"/>
       <c r="B78" s="156" t="s">
         <v>17</v>
       </c>
@@ -23870,16 +23870,16 @@
       </c>
     </row>
     <row r="79" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="594" t="s">
+      <c r="A79" s="597" t="s">
         <v>257</v>
       </c>
-      <c r="B79" s="594"/>
-      <c r="C79" s="594"/>
-      <c r="D79" s="594"/>
-      <c r="E79" s="594"/>
-      <c r="F79" s="594"/>
-      <c r="G79" s="594"/>
-      <c r="H79" s="594"/>
+      <c r="B79" s="597"/>
+      <c r="C79" s="597"/>
+      <c r="D79" s="597"/>
+      <c r="E79" s="597"/>
+      <c r="F79" s="597"/>
+      <c r="G79" s="597"/>
+      <c r="H79" s="597"/>
     </row>
     <row r="80" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="81" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23900,22 +23900,22 @@
       <c r="N81" s="483"/>
     </row>
     <row r="82" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G82" s="564"/>
-      <c r="H82" s="565"/>
-      <c r="I82" s="558" t="s">
+      <c r="G82" s="567"/>
+      <c r="H82" s="568"/>
+      <c r="I82" s="561" t="s">
         <v>35</v>
       </c>
-      <c r="J82" s="559"/>
-      <c r="K82" s="560"/>
-      <c r="L82" s="561" t="s">
+      <c r="J82" s="562"/>
+      <c r="K82" s="563"/>
+      <c r="L82" s="564" t="s">
         <v>34</v>
       </c>
-      <c r="M82" s="562"/>
-      <c r="N82" s="563"/>
+      <c r="M82" s="565"/>
+      <c r="N82" s="566"/>
     </row>
     <row r="83" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G83" s="566"/>
-      <c r="H83" s="567"/>
+      <c r="G83" s="569"/>
+      <c r="H83" s="570"/>
       <c r="I83" s="484" t="s">
         <v>2</v>
       </c>
@@ -23936,10 +23936,10 @@
       </c>
     </row>
     <row r="84" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G84" s="553" t="s">
+      <c r="G84" s="585" t="s">
         <v>225</v>
       </c>
-      <c r="H84" s="554"/>
+      <c r="H84" s="586"/>
       <c r="I84" s="458" t="str">
         <f>IF(COUNT(E15:E26)=J81, CONCATENATE(ROUND(SUM(E15:E26)*J81/J81/SUM(C15:C26)*100, 2), " (", ROUND(SUM(E15:E26)*J81/J81/SUM(C15:C26)*100/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*J81/J81/SUM(C15:C26)*100*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -23966,10 +23966,10 @@
       </c>
     </row>
     <row r="85" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G85" s="555" t="s">
+      <c r="G85" s="587" t="s">
         <v>21</v>
       </c>
-      <c r="H85" s="556"/>
+      <c r="H85" s="588"/>
       <c r="I85" s="461" t="str">
         <f>IF(COUNT(E28:E39)=J81, CONCATENATE(ROUND(SUM(E28:E39)*J81/J81/SUM(C28:C39)*100, 2), " (", ROUND(SUM(E28:E39)*J81/J81/SUM(C28:C39)*100/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*J81/J81/SUM(C28:C39)*100*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -23996,10 +23996,10 @@
       </c>
     </row>
     <row r="86" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G86" s="555" t="s">
+      <c r="G86" s="587" t="s">
         <v>22</v>
       </c>
-      <c r="H86" s="556"/>
+      <c r="H86" s="588"/>
       <c r="I86" s="461" t="str">
         <f>IF(COUNT(E41:E52)=J81, CONCATENATE(ROUND(SUM(E41:E52)*J81/J81/SUM(C41:C52)*100, 2), " (", ROUND(SUM(E41:E52)*J81/J81/SUM(C41:C52)*100/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*J81/J81/SUM(C41:C52)*100*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -24026,10 +24026,10 @@
       </c>
     </row>
     <row r="87" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G87" s="555" t="s">
+      <c r="G87" s="587" t="s">
         <v>23</v>
       </c>
-      <c r="H87" s="556"/>
+      <c r="H87" s="588"/>
       <c r="I87" s="461" t="str">
         <f>IF(COUNT(E54:E65)=J81, CONCATENATE(ROUND(SUM(E54:E65)*J81/J81/SUM(C54:C65)*100, 2), " (", ROUND(SUM(E54:E65)*J81/J81/SUM(C54:C65)*100/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*J81/J81/SUM(C54:C65)*100*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -24056,10 +24056,10 @@
       </c>
     </row>
     <row r="88" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G88" s="555" t="s">
+      <c r="G88" s="587" t="s">
         <v>3</v>
       </c>
-      <c r="H88" s="556"/>
+      <c r="H88" s="588"/>
       <c r="I88" s="461" t="str">
         <f>IF(COUNT(E67:E78)=J81, CONCATENATE(ROUND(SUM(E67:E78)*J81/J81/SUM(C67:C78)*100, 2), " (", ROUND(SUM(E67:E78)*J81/J81/SUM(C67:C78)*100/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*J81/J81/SUM(C67:C78)*100*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -24086,10 +24086,10 @@
       </c>
     </row>
     <row r="89" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G89" s="551" t="s">
+      <c r="G89" s="583" t="s">
         <v>1</v>
       </c>
-      <c r="H89" s="591"/>
+      <c r="H89" s="590"/>
       <c r="I89" s="488" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$J$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -24122,15 +24122,6 @@
     <protectedRange sqref="I84:N89" name="Range1_1_2_2"/>
   </protectedRanges>
   <mergeCells count="24">
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="I82:K82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G82:H83"/>
     <mergeCell ref="A79:H79"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="C9:F9"/>
@@ -24146,6 +24137,15 @@
     <mergeCell ref="A41:A52"/>
     <mergeCell ref="A54:A65"/>
     <mergeCell ref="A67:A78"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="I82:K82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G82:H83"/>
   </mergeCells>
   <conditionalFormatting sqref="A41:B52 A54:B65 A67:B78 G11 A12:C12 G13 C1:H2 C3:G3 C4:H7 E11 E12:G12 A13:B39 E13 A1:A10 C9:C10 D8:H8 G9:H9">
     <cfRule type="containsErrors" dxfId="92" priority="37">
@@ -24548,7 +24548,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="595" t="s">
+      <c r="A9" s="598" t="s">
         <v>177</v>
       </c>
       <c r="B9" s="277" t="s">
@@ -24573,7 +24573,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="595"/>
+      <c r="A10" s="598"/>
       <c r="B10" s="276" t="s">
         <v>98</v>
       </c>
@@ -24598,7 +24598,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="595"/>
+      <c r="A11" s="598"/>
       <c r="B11" s="278" t="s">
         <v>99</v>
       </c>
@@ -24623,7 +24623,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="595"/>
+      <c r="A12" s="598"/>
       <c r="B12" s="278" t="s">
         <v>100</v>
       </c>
@@ -24648,7 +24648,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="595"/>
+      <c r="A13" s="598"/>
       <c r="B13" s="278" t="s">
         <v>101</v>
       </c>
@@ -24673,7 +24673,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="595"/>
+      <c r="A14" s="598"/>
       <c r="B14" s="278" t="s">
         <v>102</v>
       </c>
@@ -24809,7 +24809,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="595" t="s">
+      <c r="A18" s="598" t="s">
         <v>178</v>
       </c>
       <c r="B18" s="276" t="s">
@@ -24836,7 +24836,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="595"/>
+      <c r="A19" s="598"/>
       <c r="B19" s="276" t="s">
         <v>106</v>
       </c>
@@ -25227,40 +25227,40 @@
       <c r="G2" s="95"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="605" t="s">
+      <c r="A3" s="608" t="s">
         <v>269</v>
       </c>
-      <c r="B3" s="606"/>
-      <c r="C3" s="606"/>
-      <c r="D3" s="606"/>
-      <c r="E3" s="606"/>
-      <c r="F3" s="606"/>
-      <c r="G3" s="606"/>
-      <c r="H3" s="606"/>
-      <c r="I3" s="606"/>
-      <c r="J3" s="606"/>
-      <c r="K3" s="606"/>
-      <c r="L3" s="606"/>
-      <c r="M3" s="606"/>
-      <c r="N3" s="606"/>
+      <c r="B3" s="609"/>
+      <c r="C3" s="609"/>
+      <c r="D3" s="609"/>
+      <c r="E3" s="609"/>
+      <c r="F3" s="609"/>
+      <c r="G3" s="609"/>
+      <c r="H3" s="609"/>
+      <c r="I3" s="609"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="609"/>
+      <c r="L3" s="609"/>
+      <c r="M3" s="609"/>
+      <c r="N3" s="609"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="607" t="s">
+      <c r="A4" s="610" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="607"/>
-      <c r="C4" s="607"/>
-      <c r="D4" s="607"/>
-      <c r="E4" s="607"/>
-      <c r="F4" s="607"/>
-      <c r="G4" s="607"/>
-      <c r="H4" s="607"/>
-      <c r="I4" s="607"/>
-      <c r="J4" s="607"/>
-      <c r="K4" s="607"/>
-      <c r="L4" s="607"/>
-      <c r="M4" s="607"/>
-      <c r="N4" s="607"/>
+      <c r="B4" s="610"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="610"/>
+      <c r="E4" s="610"/>
+      <c r="F4" s="610"/>
+      <c r="G4" s="610"/>
+      <c r="H4" s="610"/>
+      <c r="I4" s="610"/>
+      <c r="J4" s="610"/>
+      <c r="K4" s="610"/>
+      <c r="L4" s="610"/>
+      <c r="M4" s="610"/>
+      <c r="N4" s="610"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="495"/>
@@ -25287,7 +25287,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="602" t="s">
+      <c r="A7" s="605" t="s">
         <v>267</v>
       </c>
       <c r="B7" s="498" t="s">
@@ -25304,7 +25304,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="603"/>
+      <c r="A8" s="606"/>
       <c r="B8" s="499" t="s">
         <v>266</v>
       </c>
@@ -25319,7 +25319,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="603"/>
+      <c r="A9" s="606"/>
       <c r="B9" s="501" t="s">
         <v>270</v>
       </c>
@@ -25349,7 +25349,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="603"/>
+      <c r="A10" s="606"/>
       <c r="B10" s="499" t="s">
         <v>271</v>
       </c>
@@ -25364,7 +25364,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="603"/>
+      <c r="A11" s="606"/>
       <c r="B11" s="499" t="s">
         <v>272</v>
       </c>
@@ -25379,7 +25379,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="604"/>
+      <c r="A12" s="607"/>
       <c r="B12" s="502" t="s">
         <v>273</v>
       </c>
@@ -25409,7 +25409,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="602" t="s">
+      <c r="A13" s="605" t="s">
         <v>268</v>
       </c>
       <c r="B13" s="500" t="s">
@@ -25426,7 +25426,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="603"/>
+      <c r="A14" s="606"/>
       <c r="B14" s="499" t="s">
         <v>275</v>
       </c>
@@ -25441,7 +25441,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="603"/>
+      <c r="A15" s="606"/>
       <c r="B15" s="501" t="s">
         <v>276</v>
       </c>
@@ -25471,7 +25471,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="603"/>
+      <c r="A16" s="606"/>
       <c r="B16" s="499" t="s">
         <v>277</v>
       </c>
@@ -25486,7 +25486,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="603"/>
+      <c r="A17" s="606"/>
       <c r="B17" s="499" t="s">
         <v>278</v>
       </c>
@@ -25501,7 +25501,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="603"/>
+      <c r="A18" s="606"/>
       <c r="B18" s="501" t="s">
         <v>279</v>
       </c>
@@ -25531,7 +25531,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="603"/>
+      <c r="A19" s="606"/>
       <c r="B19" s="499" t="s">
         <v>280</v>
       </c>
@@ -25546,7 +25546,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="603"/>
+      <c r="A20" s="606"/>
       <c r="B20" s="499" t="s">
         <v>281</v>
       </c>
@@ -25561,7 +25561,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="604"/>
+      <c r="A21" s="607"/>
       <c r="B21" s="502" t="s">
         <v>282</v>
       </c>
@@ -25591,7 +25591,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="602" t="s">
+      <c r="A22" s="605" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="500" t="s">
@@ -25608,7 +25608,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="603"/>
+      <c r="A23" s="606"/>
       <c r="B23" s="499" t="s">
         <v>284</v>
       </c>
@@ -25623,7 +25623,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="604"/>
+      <c r="A24" s="607"/>
       <c r="B24" s="502" t="s">
         <v>285</v>
       </c>
@@ -25653,7 +25653,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="602" t="s">
+      <c r="A25" s="605" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="503" t="s">
@@ -25670,7 +25670,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="603"/>
+      <c r="A26" s="606"/>
       <c r="B26" s="499" t="s">
         <v>287</v>
       </c>
@@ -25685,7 +25685,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="603"/>
+      <c r="A27" s="606"/>
       <c r="B27" s="501" t="s">
         <v>288</v>
       </c>
@@ -25715,7 +25715,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="603"/>
+      <c r="A28" s="606"/>
       <c r="B28" s="499" t="s">
         <v>289</v>
       </c>
@@ -25730,7 +25730,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="603"/>
+      <c r="A29" s="606"/>
       <c r="B29" s="499" t="s">
         <v>290</v>
       </c>
@@ -25745,7 +25745,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="604"/>
+      <c r="A30" s="607"/>
       <c r="B30" s="502" t="s">
         <v>291</v>
       </c>
@@ -25954,14 +25954,14 @@
     </row>
     <row r="3" spans="1:16" s="95" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="92"/>
-      <c r="C3" s="608" t="s">
+      <c r="C3" s="611" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="609"/>
-      <c r="E3" s="609"/>
-      <c r="F3" s="609"/>
-      <c r="G3" s="609"/>
-      <c r="H3" s="610"/>
+      <c r="D3" s="612"/>
+      <c r="E3" s="612"/>
+      <c r="F3" s="612"/>
+      <c r="G3" s="612"/>
+      <c r="H3" s="613"/>
       <c r="P3" s="96"/>
     </row>
     <row r="4" spans="1:16" s="95" customFormat="1" x14ac:dyDescent="0.25">
@@ -26060,10 +26060,10 @@
       <c r="I10" s="82"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="611" t="s">
+      <c r="A11" s="614" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="614">
+      <c r="B11" s="617">
         <v>1</v>
       </c>
       <c r="C11" s="164" t="s">
@@ -26083,8 +26083,8 @@
       <c r="I11" s="85"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="612"/>
-      <c r="B12" s="615"/>
+      <c r="A12" s="615"/>
+      <c r="B12" s="618"/>
       <c r="C12" s="86" t="s">
         <v>30</v>
       </c>
@@ -26102,8 +26102,8 @@
       <c r="I12" s="85"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="612"/>
-      <c r="B13" s="615"/>
+      <c r="A13" s="615"/>
+      <c r="B13" s="618"/>
       <c r="C13" s="84" t="s">
         <v>116</v>
       </c>
@@ -26121,8 +26121,8 @@
       <c r="I13" s="85"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="612"/>
-      <c r="B14" s="615">
+      <c r="A14" s="615"/>
+      <c r="B14" s="618">
         <v>2</v>
       </c>
       <c r="C14" s="84" t="s">
@@ -26142,8 +26142,8 @@
       <c r="I14" s="85"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="612"/>
-      <c r="B15" s="615"/>
+      <c r="A15" s="615"/>
+      <c r="B15" s="618"/>
       <c r="C15" s="86" t="s">
         <v>30</v>
       </c>
@@ -26161,8 +26161,8 @@
       <c r="I15" s="85"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="612"/>
-      <c r="B16" s="615"/>
+      <c r="A16" s="615"/>
+      <c r="B16" s="618"/>
       <c r="C16" s="84" t="s">
         <v>116</v>
       </c>
@@ -26180,8 +26180,8 @@
       <c r="I16" s="85"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="612"/>
-      <c r="B17" s="615">
+      <c r="A17" s="615"/>
+      <c r="B17" s="618">
         <v>3</v>
       </c>
       <c r="C17" s="84" t="s">
@@ -26201,8 +26201,8 @@
       <c r="I17" s="85"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="612"/>
-      <c r="B18" s="615"/>
+      <c r="A18" s="615"/>
+      <c r="B18" s="618"/>
       <c r="C18" s="86" t="s">
         <v>30</v>
       </c>
@@ -26220,8 +26220,8 @@
       <c r="I18" s="85"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="612"/>
-      <c r="B19" s="615"/>
+      <c r="A19" s="615"/>
+      <c r="B19" s="618"/>
       <c r="C19" s="84" t="s">
         <v>116</v>
       </c>
@@ -26239,8 +26239,8 @@
       <c r="I19" s="85"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="612"/>
-      <c r="B20" s="615">
+      <c r="A20" s="615"/>
+      <c r="B20" s="618">
         <v>4</v>
       </c>
       <c r="C20" s="84" t="s">
@@ -26260,8 +26260,8 @@
       <c r="I20" s="85"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="612"/>
-      <c r="B21" s="615"/>
+      <c r="A21" s="615"/>
+      <c r="B21" s="618"/>
       <c r="C21" s="86" t="s">
         <v>30</v>
       </c>
@@ -26279,8 +26279,8 @@
       <c r="I21" s="85"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="612"/>
-      <c r="B22" s="615"/>
+      <c r="A22" s="615"/>
+      <c r="B22" s="618"/>
       <c r="C22" s="84" t="s">
         <v>116</v>
       </c>
@@ -26298,8 +26298,8 @@
       <c r="I22" s="85"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="612"/>
-      <c r="B23" s="615">
+      <c r="A23" s="615"/>
+      <c r="B23" s="618">
         <v>5</v>
       </c>
       <c r="C23" s="84" t="s">
@@ -26319,8 +26319,8 @@
       <c r="I23" s="85"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="612"/>
-      <c r="B24" s="615"/>
+      <c r="A24" s="615"/>
+      <c r="B24" s="618"/>
       <c r="C24" s="86" t="s">
         <v>30</v>
       </c>
@@ -26338,8 +26338,8 @@
       <c r="I24" s="85"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="612"/>
-      <c r="B25" s="615"/>
+      <c r="A25" s="615"/>
+      <c r="B25" s="618"/>
       <c r="C25" s="84" t="s">
         <v>116</v>
       </c>
@@ -26357,8 +26357,8 @@
       <c r="I25" s="85"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="612"/>
-      <c r="B26" s="615">
+      <c r="A26" s="615"/>
+      <c r="B26" s="618">
         <v>6</v>
       </c>
       <c r="C26" s="84" t="s">
@@ -26378,8 +26378,8 @@
       <c r="I26" s="85"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="612"/>
-      <c r="B27" s="615"/>
+      <c r="A27" s="615"/>
+      <c r="B27" s="618"/>
       <c r="C27" s="86" t="s">
         <v>30</v>
       </c>
@@ -26397,8 +26397,8 @@
       <c r="I27" s="85"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="612"/>
-      <c r="B28" s="615"/>
+      <c r="A28" s="615"/>
+      <c r="B28" s="618"/>
       <c r="C28" s="84" t="s">
         <v>116</v>
       </c>
@@ -26416,8 +26416,8 @@
       <c r="I28" s="85"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="612"/>
-      <c r="B29" s="615">
+      <c r="A29" s="615"/>
+      <c r="B29" s="618">
         <v>7</v>
       </c>
       <c r="C29" s="84" t="s">
@@ -26437,8 +26437,8 @@
       <c r="I29" s="85"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="612"/>
-      <c r="B30" s="615"/>
+      <c r="A30" s="615"/>
+      <c r="B30" s="618"/>
       <c r="C30" s="86" t="s">
         <v>30</v>
       </c>
@@ -26456,8 +26456,8 @@
       <c r="I30" s="85"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="612"/>
-      <c r="B31" s="615"/>
+      <c r="A31" s="615"/>
+      <c r="B31" s="618"/>
       <c r="C31" s="84" t="s">
         <v>116</v>
       </c>
@@ -26475,8 +26475,8 @@
       <c r="I31" s="85"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="612"/>
-      <c r="B32" s="615">
+      <c r="A32" s="615"/>
+      <c r="B32" s="618">
         <v>8</v>
       </c>
       <c r="C32" s="84" t="s">
@@ -26496,8 +26496,8 @@
       <c r="I32" s="85"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="612"/>
-      <c r="B33" s="615"/>
+      <c r="A33" s="615"/>
+      <c r="B33" s="618"/>
       <c r="C33" s="86" t="s">
         <v>30</v>
       </c>
@@ -26515,8 +26515,8 @@
       <c r="I33" s="85"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="612"/>
-      <c r="B34" s="615"/>
+      <c r="A34" s="615"/>
+      <c r="B34" s="618"/>
       <c r="C34" s="84" t="s">
         <v>116</v>
       </c>
@@ -26534,8 +26534,8 @@
       <c r="I34" s="85"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="612"/>
-      <c r="B35" s="615">
+      <c r="A35" s="615"/>
+      <c r="B35" s="618">
         <v>9</v>
       </c>
       <c r="C35" s="84" t="s">
@@ -26555,8 +26555,8 @@
       <c r="I35" s="85"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="612"/>
-      <c r="B36" s="615"/>
+      <c r="A36" s="615"/>
+      <c r="B36" s="618"/>
       <c r="C36" s="86" t="s">
         <v>30</v>
       </c>
@@ -26574,8 +26574,8 @@
       <c r="I36" s="85"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="612"/>
-      <c r="B37" s="615"/>
+      <c r="A37" s="615"/>
+      <c r="B37" s="618"/>
       <c r="C37" s="84" t="s">
         <v>116</v>
       </c>
@@ -26593,8 +26593,8 @@
       <c r="I37" s="85"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="612"/>
-      <c r="B38" s="615">
+      <c r="A38" s="615"/>
+      <c r="B38" s="618">
         <v>10</v>
       </c>
       <c r="C38" s="84" t="s">
@@ -26614,8 +26614,8 @@
       <c r="I38" s="85"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="612"/>
-      <c r="B39" s="615"/>
+      <c r="A39" s="615"/>
+      <c r="B39" s="618"/>
       <c r="C39" s="86" t="s">
         <v>30</v>
       </c>
@@ -26633,8 +26633,8 @@
       <c r="I39" s="85"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="612"/>
-      <c r="B40" s="615"/>
+      <c r="A40" s="615"/>
+      <c r="B40" s="618"/>
       <c r="C40" s="84" t="s">
         <v>116</v>
       </c>
@@ -26652,8 +26652,8 @@
       <c r="I40" s="85"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="612"/>
-      <c r="B41" s="615">
+      <c r="A41" s="615"/>
+      <c r="B41" s="618">
         <v>11</v>
       </c>
       <c r="C41" s="84" t="s">
@@ -26673,8 +26673,8 @@
       <c r="I41" s="85"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="612"/>
-      <c r="B42" s="615"/>
+      <c r="A42" s="615"/>
+      <c r="B42" s="618"/>
       <c r="C42" s="86" t="s">
         <v>30</v>
       </c>
@@ -26692,8 +26692,8 @@
       <c r="I42" s="85"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="612"/>
-      <c r="B43" s="615"/>
+      <c r="A43" s="615"/>
+      <c r="B43" s="618"/>
       <c r="C43" s="84" t="s">
         <v>116</v>
       </c>
@@ -26711,8 +26711,8 @@
       <c r="I43" s="85"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="612"/>
-      <c r="B44" s="615">
+      <c r="A44" s="615"/>
+      <c r="B44" s="618">
         <v>12</v>
       </c>
       <c r="C44" s="84" t="s">
@@ -26732,8 +26732,8 @@
       <c r="I44" s="85"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="612"/>
-      <c r="B45" s="615"/>
+      <c r="A45" s="615"/>
+      <c r="B45" s="618"/>
       <c r="C45" s="86" t="s">
         <v>30</v>
       </c>
@@ -26751,8 +26751,8 @@
       <c r="I45" s="85"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="613"/>
-      <c r="B46" s="616"/>
+      <c r="A46" s="616"/>
+      <c r="B46" s="619"/>
       <c r="C46" s="130" t="s">
         <v>116</v>
       </c>
@@ -26879,11 +26879,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="349" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="617" t="s">
+      <c r="A1" s="620" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="618"/>
-      <c r="C1" s="619"/>
+      <c r="B1" s="621"/>
+      <c r="C1" s="622"/>
     </row>
     <row r="2" spans="1:17" s="349" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="350"/>
@@ -27015,11 +27015,11 @@
       <c r="D15" s="89"/>
     </row>
     <row r="16" spans="1:17" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="620" t="s">
+      <c r="A16" s="623" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="621"/>
-      <c r="C16" s="622"/>
+      <c r="B16" s="624"/>
+      <c r="C16" s="625"/>
       <c r="D16" s="89"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -27168,7 +27168,7 @@
       <c r="D29" s="89"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="623" t="s">
+      <c r="A30" s="626" t="s">
         <v>139</v>
       </c>
       <c r="B30" s="355" t="s">
@@ -27178,7 +27178,7 @@
       <c r="D30" s="89"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="624"/>
+      <c r="A31" s="627"/>
       <c r="B31" s="109" t="s">
         <v>141</v>
       </c>
@@ -27186,7 +27186,7 @@
       <c r="D31" s="88"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="624"/>
+      <c r="A32" s="627"/>
       <c r="B32" s="109" t="s">
         <v>142</v>
       </c>
@@ -27197,21 +27197,21 @@
       <c r="D32" s="89"/>
     </row>
     <row r="33" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="624"/>
-      <c r="B33" s="625" t="s">
+      <c r="A33" s="627"/>
+      <c r="B33" s="628" t="s">
         <v>143</v>
       </c>
-      <c r="C33" s="626"/>
+      <c r="C33" s="629"/>
       <c r="D33" s="89"/>
     </row>
     <row r="34" spans="1:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="274" t="s">
         <v>187</v>
       </c>
-      <c r="B34" s="627" t="s">
+      <c r="B34" s="630" t="s">
         <v>186</v>
       </c>
-      <c r="C34" s="628"/>
+      <c r="C34" s="631"/>
       <c r="D34" s="89"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -27307,7 +27307,7 @@
   </sheetPr>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -27336,40 +27336,40 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="95"/>
-      <c r="B3" s="605" t="s">
+      <c r="B3" s="608" t="s">
         <v>292</v>
       </c>
-      <c r="C3" s="606"/>
-      <c r="D3" s="606"/>
-      <c r="E3" s="606"/>
-      <c r="F3" s="606"/>
-      <c r="G3" s="606"/>
-      <c r="H3" s="606"/>
-      <c r="I3" s="606"/>
-      <c r="J3" s="606"/>
-      <c r="K3" s="606"/>
-      <c r="L3" s="606"/>
-      <c r="M3" s="606"/>
-      <c r="N3" s="606"/>
-      <c r="O3" s="606"/>
+      <c r="C3" s="609"/>
+      <c r="D3" s="609"/>
+      <c r="E3" s="609"/>
+      <c r="F3" s="609"/>
+      <c r="G3" s="609"/>
+      <c r="H3" s="609"/>
+      <c r="I3" s="609"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="609"/>
+      <c r="L3" s="609"/>
+      <c r="M3" s="609"/>
+      <c r="N3" s="609"/>
+      <c r="O3" s="609"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="607" t="s">
+      <c r="B4" s="610" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="607"/>
-      <c r="D4" s="607"/>
-      <c r="E4" s="607"/>
-      <c r="F4" s="607"/>
-      <c r="G4" s="607"/>
-      <c r="H4" s="607"/>
-      <c r="I4" s="607"/>
-      <c r="J4" s="607"/>
-      <c r="K4" s="607"/>
-      <c r="L4" s="607"/>
-      <c r="M4" s="607"/>
-      <c r="N4" s="607"/>
-      <c r="O4" s="607"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="610"/>
+      <c r="E4" s="610"/>
+      <c r="F4" s="610"/>
+      <c r="G4" s="610"/>
+      <c r="H4" s="610"/>
+      <c r="I4" s="610"/>
+      <c r="J4" s="610"/>
+      <c r="K4" s="610"/>
+      <c r="L4" s="610"/>
+      <c r="M4" s="610"/>
+      <c r="N4" s="610"/>
+      <c r="O4" s="610"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="495"/>
@@ -27396,8 +27396,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="629"/>
-      <c r="B7" s="630" t="s">
+      <c r="A7" s="523"/>
+      <c r="B7" s="524" t="s">
         <v>293</v>
       </c>
       <c r="C7" s="504"/>
@@ -27411,7 +27411,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="602" t="s">
+      <c r="A8" s="605" t="s">
         <v>267</v>
       </c>
       <c r="B8" s="498" t="s">
@@ -27428,7 +27428,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="603"/>
+      <c r="A9" s="606"/>
       <c r="B9" s="501" t="s">
         <v>294</v>
       </c>
@@ -27458,7 +27458,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="603"/>
+      <c r="A10" s="606"/>
       <c r="B10" s="499" t="s">
         <v>272</v>
       </c>
@@ -27473,7 +27473,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="604"/>
+      <c r="A11" s="607"/>
       <c r="B11" s="502" t="s">
         <v>295</v>
       </c>
@@ -27503,7 +27503,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="602" t="s">
+      <c r="A12" s="605" t="s">
         <v>268</v>
       </c>
       <c r="B12" s="500" t="s">
@@ -27520,7 +27520,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="603"/>
+      <c r="A13" s="606"/>
       <c r="B13" s="501" t="s">
         <v>296</v>
       </c>
@@ -27550,7 +27550,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="603"/>
+      <c r="A14" s="606"/>
       <c r="B14" s="499" t="s">
         <v>277</v>
       </c>
@@ -27565,7 +27565,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="603"/>
+      <c r="A15" s="606"/>
       <c r="B15" s="501" t="s">
         <v>297</v>
       </c>
@@ -27595,7 +27595,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="603"/>
+      <c r="A16" s="606"/>
       <c r="B16" s="499" t="s">
         <v>280</v>
       </c>
@@ -27610,7 +27610,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="604"/>
+      <c r="A17" s="607"/>
       <c r="B17" s="502" t="s">
         <v>298</v>
       </c>
@@ -27640,7 +27640,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="602" t="s">
+      <c r="A18" s="605" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="500" t="s">
@@ -27657,11 +27657,11 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="604"/>
+      <c r="A19" s="607"/>
       <c r="B19" s="502" t="s">
         <v>285</v>
       </c>
-      <c r="C19" s="631" t="str">
+      <c r="C19" s="525" t="str">
         <f>IF(COUNT(C$7,C18)=2, CONCATENATE(ROUND(C18/C$7*100,1), "%"), "")</f>
         <v/>
       </c>
@@ -27687,7 +27687,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="602" t="s">
+      <c r="A20" s="605" t="s">
         <v>35</v>
       </c>
       <c r="B20" s="503" t="s">
@@ -27704,7 +27704,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="603"/>
+      <c r="A21" s="606"/>
       <c r="B21" s="501" t="s">
         <v>288</v>
       </c>
@@ -27734,7 +27734,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="603"/>
+      <c r="A22" s="606"/>
       <c r="B22" s="499" t="s">
         <v>289</v>
       </c>
@@ -27749,11 +27749,11 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="604"/>
+      <c r="A23" s="607"/>
       <c r="B23" s="502" t="s">
         <v>291</v>
       </c>
-      <c r="C23" s="631" t="str">
+      <c r="C23" s="525" t="str">
         <f>IF(COUNT(C$7,C22)=2, CONCATENATE(ROUND(C22/C$7*100,1), "%"), "")</f>
         <v/>
       </c>
@@ -27814,12 +27814,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:G18">
-    <cfRule type="containsBlanks" dxfId="0" priority="6225">
+    <cfRule type="containsBlanks" dxfId="1" priority="6225">
       <formula>LEN(TRIM(C18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:G20">
-    <cfRule type="containsBlanks" dxfId="1" priority="6224">
+    <cfRule type="containsBlanks" dxfId="0" priority="6224">
       <formula>LEN(TRIM(C20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27998,25 +27998,25 @@
       </c>
     </row>
     <row r="3" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="532" t="s">
+      <c r="B3" s="535" t="s">
         <v>208</v>
       </c>
-      <c r="C3" s="532"/>
-      <c r="D3" s="532"/>
-      <c r="E3" s="532"/>
-      <c r="F3" s="532"/>
-      <c r="G3" s="532"/>
-      <c r="H3" s="532"/>
-      <c r="I3" s="532"/>
-      <c r="J3" s="532"/>
-      <c r="K3" s="532"/>
-      <c r="L3" s="532"/>
-      <c r="M3" s="532"/>
-      <c r="N3" s="532"/>
-      <c r="O3" s="532"/>
-      <c r="P3" s="532"/>
-      <c r="Q3" s="532"/>
-      <c r="R3" s="532"/>
+      <c r="C3" s="535"/>
+      <c r="D3" s="535"/>
+      <c r="E3" s="535"/>
+      <c r="F3" s="535"/>
+      <c r="G3" s="535"/>
+      <c r="H3" s="535"/>
+      <c r="I3" s="535"/>
+      <c r="J3" s="535"/>
+      <c r="K3" s="535"/>
+      <c r="L3" s="535"/>
+      <c r="M3" s="535"/>
+      <c r="N3" s="535"/>
+      <c r="O3" s="535"/>
+      <c r="P3" s="535"/>
+      <c r="Q3" s="535"/>
+      <c r="R3" s="535"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
@@ -28064,25 +28064,25 @@
       <c r="R6" s="317"/>
     </row>
     <row r="7" spans="1:18" s="33" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="536" t="s">
+      <c r="B7" s="539" t="s">
         <v>194</v>
       </c>
-      <c r="C7" s="536"/>
-      <c r="D7" s="536"/>
-      <c r="E7" s="536"/>
-      <c r="F7" s="536"/>
-      <c r="G7" s="536"/>
-      <c r="H7" s="536"/>
-      <c r="I7" s="536"/>
-      <c r="J7" s="536"/>
-      <c r="K7" s="536"/>
-      <c r="L7" s="536"/>
-      <c r="M7" s="536"/>
-      <c r="N7" s="536"/>
-      <c r="O7" s="536"/>
-      <c r="P7" s="536"/>
-      <c r="Q7" s="536"/>
-      <c r="R7" s="536"/>
+      <c r="C7" s="539"/>
+      <c r="D7" s="539"/>
+      <c r="E7" s="539"/>
+      <c r="F7" s="539"/>
+      <c r="G7" s="539"/>
+      <c r="H7" s="539"/>
+      <c r="I7" s="539"/>
+      <c r="J7" s="539"/>
+      <c r="K7" s="539"/>
+      <c r="L7" s="539"/>
+      <c r="M7" s="539"/>
+      <c r="N7" s="539"/>
+      <c r="O7" s="539"/>
+      <c r="P7" s="539"/>
+      <c r="Q7" s="539"/>
+      <c r="R7" s="539"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="47" t="s">
@@ -28097,26 +28097,26 @@
       <c r="J9" s="46"/>
       <c r="K9" s="46"/>
       <c r="L9" s="46"/>
-      <c r="M9" s="533" t="s">
+      <c r="M9" s="536" t="s">
         <v>85</v>
       </c>
-      <c r="N9" s="533"/>
-      <c r="O9" s="533"/>
-      <c r="P9" s="533"/>
-      <c r="Q9" s="533"/>
-      <c r="R9" s="533"/>
+      <c r="N9" s="536"/>
+      <c r="O9" s="536"/>
+      <c r="P9" s="536"/>
+      <c r="Q9" s="536"/>
+      <c r="R9" s="536"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="45"/>
       <c r="C10" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="M10" s="533"/>
-      <c r="N10" s="533"/>
-      <c r="O10" s="533"/>
-      <c r="P10" s="533"/>
-      <c r="Q10" s="533"/>
-      <c r="R10" s="533"/>
+      <c r="M10" s="536"/>
+      <c r="N10" s="536"/>
+      <c r="O10" s="536"/>
+      <c r="P10" s="536"/>
+      <c r="Q10" s="536"/>
+      <c r="R10" s="536"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="183" t="s">
@@ -28152,34 +28152,34 @@
       <c r="R12" s="182"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="534" t="s">
+      <c r="B13" s="537" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="529" t="s">
+      <c r="C13" s="532" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="530"/>
-      <c r="E13" s="530"/>
-      <c r="F13" s="530"/>
-      <c r="G13" s="531"/>
-      <c r="H13" s="529" t="s">
+      <c r="D13" s="533"/>
+      <c r="E13" s="533"/>
+      <c r="F13" s="533"/>
+      <c r="G13" s="534"/>
+      <c r="H13" s="532" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="530"/>
-      <c r="J13" s="530"/>
-      <c r="K13" s="530"/>
-      <c r="L13" s="531"/>
-      <c r="M13" s="529" t="s">
+      <c r="I13" s="533"/>
+      <c r="J13" s="533"/>
+      <c r="K13" s="533"/>
+      <c r="L13" s="534"/>
+      <c r="M13" s="532" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="530"/>
-      <c r="O13" s="530"/>
-      <c r="P13" s="530"/>
-      <c r="Q13" s="530"/>
-      <c r="R13" s="531"/>
+      <c r="N13" s="533"/>
+      <c r="O13" s="533"/>
+      <c r="P13" s="533"/>
+      <c r="Q13" s="533"/>
+      <c r="R13" s="534"/>
     </row>
     <row r="14" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="535"/>
+      <c r="B14" s="538"/>
       <c r="C14" s="49" t="s">
         <v>78</v>
       </c>
@@ -28870,31 +28870,31 @@
       <c r="I36" s="26"/>
     </row>
     <row r="37" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="537" t="s">
+      <c r="C37" s="540" t="s">
         <v>218</v>
       </c>
-      <c r="D37" s="537"/>
-      <c r="E37" s="537"/>
-      <c r="F37" s="537"/>
-      <c r="G37" s="537"/>
-      <c r="H37" s="537"/>
-      <c r="I37" s="537"/>
+      <c r="D37" s="540"/>
+      <c r="E37" s="540"/>
+      <c r="F37" s="540"/>
+      <c r="G37" s="540"/>
+      <c r="H37" s="540"/>
+      <c r="I37" s="540"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C38" s="538"/>
-      <c r="D38" s="538"/>
-      <c r="E38" s="538"/>
-      <c r="F38" s="538"/>
-      <c r="G38" s="538"/>
-      <c r="H38" s="538"/>
-      <c r="I38" s="538"/>
+      <c r="C38" s="541"/>
+      <c r="D38" s="541"/>
+      <c r="E38" s="541"/>
+      <c r="F38" s="541"/>
+      <c r="G38" s="541"/>
+      <c r="H38" s="541"/>
+      <c r="I38" s="541"/>
       <c r="J38" s="37"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="527" t="s">
+      <c r="B39" s="530" t="s">
         <v>219</v>
       </c>
-      <c r="C39" s="526" t="s">
+      <c r="C39" s="529" t="s">
         <v>221</v>
       </c>
       <c r="D39" s="199" t="s">
@@ -28918,8 +28918,8 @@
       <c r="J39" s="37"/>
     </row>
     <row r="40" spans="2:10" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="528"/>
-      <c r="C40" s="526"/>
+      <c r="B40" s="531"/>
+      <c r="C40" s="529"/>
       <c r="D40" s="201" t="s">
         <v>46</v>
       </c>
@@ -29548,15 +29548,15 @@
     </row>
     <row r="8" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54"/>
-      <c r="B8" s="539" t="s">
+      <c r="B8" s="542" t="s">
         <v>244</v>
       </c>
-      <c r="C8" s="539"/>
-      <c r="D8" s="539"/>
-      <c r="E8" s="539"/>
-      <c r="F8" s="539"/>
-      <c r="G8" s="539"/>
-      <c r="H8" s="539"/>
+      <c r="C8" s="542"/>
+      <c r="D8" s="542"/>
+      <c r="E8" s="542"/>
+      <c r="F8" s="542"/>
+      <c r="G8" s="542"/>
+      <c r="H8" s="542"/>
       <c r="I8" s="55"/>
       <c r="J8" s="55"/>
       <c r="K8" s="55"/>
@@ -29577,13 +29577,13 @@
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="57"/>
-      <c r="B9" s="539"/>
-      <c r="C9" s="539"/>
-      <c r="D9" s="539"/>
-      <c r="E9" s="539"/>
-      <c r="F9" s="539"/>
-      <c r="G9" s="539"/>
-      <c r="H9" s="539"/>
+      <c r="B9" s="542"/>
+      <c r="C9" s="542"/>
+      <c r="D9" s="542"/>
+      <c r="E9" s="542"/>
+      <c r="F9" s="542"/>
+      <c r="G9" s="542"/>
+      <c r="H9" s="542"/>
       <c r="I9" s="120"/>
       <c r="J9" s="120"/>
       <c r="K9" s="120"/>
@@ -29639,7 +29639,7 @@
       <c r="H11" s="61"/>
     </row>
     <row r="12" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="540"/>
+      <c r="A12" s="543"/>
       <c r="B12" s="320" t="s">
         <v>175</v>
       </c>
@@ -29650,7 +29650,7 @@
       <c r="G12" s="205"/>
     </row>
     <row r="13" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="540"/>
+      <c r="A13" s="543"/>
       <c r="B13" s="321" t="s">
         <v>176</v>
       </c>
@@ -29661,7 +29661,7 @@
       <c r="G13" s="208"/>
     </row>
     <row r="14" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="540"/>
+      <c r="A14" s="543"/>
       <c r="B14" s="119" t="s">
         <v>204</v>
       </c>
@@ -29669,7 +29669,7 @@
       <c r="I14" s="61"/>
     </row>
     <row r="15" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="540"/>
+      <c r="A15" s="543"/>
       <c r="B15" s="492" t="s">
         <v>38</v>
       </c>
@@ -29678,7 +29678,7 @@
       <c r="I15" s="61"/>
     </row>
     <row r="16" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="540"/>
+      <c r="A16" s="543"/>
       <c r="B16" s="61" t="s">
         <v>39</v>
       </c>
@@ -29686,7 +29686,7 @@
       <c r="I16" s="61"/>
     </row>
     <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="540"/>
+      <c r="A17" s="543"/>
       <c r="B17" s="61" t="s">
         <v>40</v>
       </c>
@@ -29694,7 +29694,7 @@
       <c r="I17" s="61"/>
     </row>
     <row r="18" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="540"/>
+      <c r="A18" s="543"/>
       <c r="B18" s="61" t="s">
         <v>41</v>
       </c>
@@ -29702,7 +29702,7 @@
       <c r="I18" s="61"/>
     </row>
     <row r="19" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="540"/>
+      <c r="A19" s="543"/>
       <c r="B19" s="61" t="s">
         <v>42</v>
       </c>
@@ -29710,7 +29710,7 @@
       <c r="I19" s="61"/>
     </row>
     <row r="20" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="540"/>
+      <c r="A20" s="543"/>
       <c r="B20" s="61" t="s">
         <v>43</v>
       </c>
@@ -29718,13 +29718,13 @@
       <c r="I20" s="61"/>
     </row>
     <row r="21" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="540"/>
+      <c r="A21" s="543"/>
       <c r="B21" s="61"/>
       <c r="C21" s="98"/>
       <c r="I21" s="61"/>
     </row>
     <row r="22" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="540"/>
+      <c r="A22" s="543"/>
       <c r="B22" s="183" t="s">
         <v>180</v>
       </c>
@@ -29740,7 +29740,7 @@
       <c r="I22" s="61"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="541"/>
+      <c r="A23" s="544"/>
       <c r="B23" s="209"/>
       <c r="C23" s="210"/>
       <c r="D23" s="210"/>
@@ -29752,35 +29752,35 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="541"/>
-      <c r="B24" s="548" t="s">
+      <c r="A24" s="544"/>
+      <c r="B24" s="551" t="s">
         <v>174</v>
       </c>
-      <c r="C24" s="549"/>
-      <c r="D24" s="549"/>
-      <c r="E24" s="549"/>
-      <c r="F24" s="549"/>
-      <c r="G24" s="549"/>
-      <c r="H24" s="550"/>
+      <c r="C24" s="552"/>
+      <c r="D24" s="552"/>
+      <c r="E24" s="552"/>
+      <c r="F24" s="552"/>
+      <c r="G24" s="552"/>
+      <c r="H24" s="553"/>
       <c r="I24" s="61"/>
     </row>
     <row r="25" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="541"/>
-      <c r="B25" s="542" t="s">
+      <c r="A25" s="544"/>
+      <c r="B25" s="545" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="545" t="s">
+      <c r="C25" s="548" t="s">
         <v>157</v>
       </c>
-      <c r="D25" s="546"/>
-      <c r="E25" s="546"/>
-      <c r="F25" s="546"/>
-      <c r="G25" s="546"/>
-      <c r="H25" s="547"/>
+      <c r="D25" s="549"/>
+      <c r="E25" s="549"/>
+      <c r="F25" s="549"/>
+      <c r="G25" s="549"/>
+      <c r="H25" s="550"/>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="541"/>
-      <c r="B26" s="543"/>
+      <c r="A26" s="544"/>
+      <c r="B26" s="546"/>
       <c r="C26" s="212" t="s">
         <v>78</v>
       </c>
@@ -29801,8 +29801,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" s="61" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A27" s="541"/>
-      <c r="B27" s="544"/>
+      <c r="A27" s="544"/>
+      <c r="B27" s="547"/>
       <c r="C27" s="371" t="s">
         <v>214</v>
       </c>
@@ -29823,7 +29823,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="541"/>
+      <c r="A28" s="544"/>
       <c r="B28" s="216">
         <v>1</v>
       </c>
@@ -29850,7 +29850,7 @@
       <c r="H28" s="220"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="541"/>
+      <c r="A29" s="544"/>
       <c r="B29" s="221">
         <v>2</v>
       </c>
@@ -29877,7 +29877,7 @@
       <c r="H29" s="225"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="541"/>
+      <c r="A30" s="544"/>
       <c r="B30" s="221">
         <v>3</v>
       </c>
@@ -29904,7 +29904,7 @@
       <c r="H30" s="225"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="541"/>
+      <c r="A31" s="544"/>
       <c r="B31" s="221">
         <v>4</v>
       </c>
@@ -29931,7 +29931,7 @@
       <c r="H31" s="225"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="541"/>
+      <c r="A32" s="544"/>
       <c r="B32" s="221">
         <v>5</v>
       </c>
@@ -29958,7 +29958,7 @@
       <c r="H32" s="225"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="541"/>
+      <c r="A33" s="544"/>
       <c r="B33" s="221">
         <v>6</v>
       </c>
@@ -30187,7 +30187,7 @@
       <c r="Y42" s="117"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B43" s="542" t="s">
+      <c r="B43" s="545" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="236" t="s">
@@ -30206,7 +30206,7 @@
       <c r="L43" s="239"/>
     </row>
     <row r="44" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="B44" s="543"/>
+      <c r="B44" s="546"/>
       <c r="C44" s="240" t="s">
         <v>78</v>
       </c>
@@ -30239,7 +30239,7 @@
       </c>
     </row>
     <row r="45" spans="1:25" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="544"/>
+      <c r="B45" s="547"/>
       <c r="C45" s="328" t="s">
         <v>158</v>
       </c>
@@ -31066,11 +31066,11 @@
       <c r="Q7" s="70"/>
     </row>
     <row r="8" spans="1:31" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="557" t="s">
+      <c r="A8" s="560" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="557"/>
-      <c r="C8" s="557"/>
+      <c r="B8" s="560"/>
+      <c r="C8" s="560"/>
       <c r="D8" s="68"/>
       <c r="E8" s="69"/>
       <c r="F8" s="69"/>
@@ -31091,13 +31091,13 @@
         <v>226</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="580" t="str">
+      <c r="C9" s="582" t="str">
         <f>IF('W2'!G11+'W3'!$G$22&gt;0,"Yes","No. Please complete W2 or W3 first")</f>
         <v>No. Please complete W2 or W3 first</v>
       </c>
-      <c r="D9" s="580"/>
-      <c r="E9" s="580"/>
-      <c r="F9" s="580"/>
+      <c r="D9" s="582"/>
+      <c r="E9" s="582"/>
+      <c r="F9" s="582"/>
       <c r="G9" s="69"/>
       <c r="H9" s="69"/>
       <c r="I9" s="150"/>
@@ -31190,24 +31190,24 @@
     <row r="12" spans="1:31" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="428"/>
       <c r="B12" s="429"/>
-      <c r="C12" s="576" t="s">
+      <c r="C12" s="578" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="577"/>
+      <c r="D12" s="579"/>
       <c r="E12" s="8" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="97"/>
       <c r="G12" s="97"/>
       <c r="H12" s="97"/>
-      <c r="I12" s="568" t="s">
+      <c r="I12" s="571" t="s">
         <v>201</v>
       </c>
-      <c r="J12" s="569"/>
-      <c r="K12" s="569"/>
-      <c r="L12" s="569"/>
-      <c r="M12" s="569"/>
-      <c r="N12" s="570"/>
+      <c r="J12" s="572"/>
+      <c r="K12" s="572"/>
+      <c r="L12" s="572"/>
+      <c r="M12" s="572"/>
+      <c r="N12" s="573"/>
       <c r="O12" s="376" t="s">
         <v>75</v>
       </c>
@@ -31237,58 +31237,58 @@
     <row r="13" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="154"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="578"/>
-      <c r="D13" s="579"/>
-      <c r="E13" s="571" t="s">
+      <c r="C13" s="580"/>
+      <c r="D13" s="581"/>
+      <c r="E13" s="556" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="571"/>
-      <c r="G13" s="571" t="s">
+      <c r="F13" s="556"/>
+      <c r="G13" s="556" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="571"/>
-      <c r="I13" s="584" t="s">
+      <c r="H13" s="556"/>
+      <c r="I13" s="558" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="581"/>
-      <c r="K13" s="581"/>
-      <c r="L13" s="584" t="s">
+      <c r="J13" s="554"/>
+      <c r="K13" s="554"/>
+      <c r="L13" s="558" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="581"/>
-      <c r="N13" s="585"/>
-      <c r="O13" s="581" t="s">
+      <c r="M13" s="554"/>
+      <c r="N13" s="559"/>
+      <c r="O13" s="554" t="s">
         <v>4</v>
       </c>
-      <c r="P13" s="581"/>
-      <c r="Q13" s="581" t="s">
+      <c r="P13" s="554"/>
+      <c r="Q13" s="554" t="s">
         <v>5</v>
       </c>
-      <c r="R13" s="582"/>
-      <c r="S13" s="581" t="s">
+      <c r="R13" s="555"/>
+      <c r="S13" s="554" t="s">
         <v>4</v>
       </c>
-      <c r="T13" s="581"/>
-      <c r="U13" s="581" t="s">
+      <c r="T13" s="554"/>
+      <c r="U13" s="554" t="s">
         <v>5</v>
       </c>
-      <c r="V13" s="581"/>
-      <c r="W13" s="583" t="s">
+      <c r="V13" s="554"/>
+      <c r="W13" s="557" t="s">
         <v>4</v>
       </c>
-      <c r="X13" s="581"/>
-      <c r="Y13" s="581" t="s">
+      <c r="X13" s="554"/>
+      <c r="Y13" s="554" t="s">
         <v>5</v>
       </c>
-      <c r="Z13" s="582"/>
-      <c r="AA13" s="581" t="s">
+      <c r="Z13" s="555"/>
+      <c r="AA13" s="554" t="s">
         <v>4</v>
       </c>
-      <c r="AB13" s="581"/>
-      <c r="AC13" s="581" t="s">
+      <c r="AB13" s="554"/>
+      <c r="AC13" s="554" t="s">
         <v>5</v>
       </c>
-      <c r="AD13" s="582"/>
+      <c r="AD13" s="555"/>
     </row>
     <row r="14" spans="1:31" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="344" t="s">
@@ -31383,7 +31383,7 @@
       </c>
     </row>
     <row r="15" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="573" t="s">
+      <c r="A15" s="575" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -31491,7 +31491,7 @@
       </c>
     </row>
     <row r="16" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="573"/>
+      <c r="A16" s="575"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -31597,7 +31597,7 @@
       </c>
     </row>
     <row r="17" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="573"/>
+      <c r="A17" s="575"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -31703,7 +31703,7 @@
       </c>
     </row>
     <row r="18" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="573"/>
+      <c r="A18" s="575"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -31809,7 +31809,7 @@
       </c>
     </row>
     <row r="19" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="573"/>
+      <c r="A19" s="575"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -31915,7 +31915,7 @@
       </c>
     </row>
     <row r="20" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="573"/>
+      <c r="A20" s="575"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -32021,7 +32021,7 @@
       </c>
     </row>
     <row r="21" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="573"/>
+      <c r="A21" s="575"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -32127,7 +32127,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="573"/>
+      <c r="A22" s="575"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -32233,7 +32233,7 @@
       </c>
     </row>
     <row r="23" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="573"/>
+      <c r="A23" s="575"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -32339,7 +32339,7 @@
       </c>
     </row>
     <row r="24" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="573"/>
+      <c r="A24" s="575"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -32445,7 +32445,7 @@
       </c>
     </row>
     <row r="25" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="573"/>
+      <c r="A25" s="575"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -32551,7 +32551,7 @@
       </c>
     </row>
     <row r="26" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="574"/>
+      <c r="A26" s="576"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -32745,7 +32745,7 @@
       </c>
     </row>
     <row r="28" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="573" t="s">
+      <c r="A28" s="575" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -32853,7 +32853,7 @@
       </c>
     </row>
     <row r="29" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="573"/>
+      <c r="A29" s="575"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -32959,7 +32959,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="573"/>
+      <c r="A30" s="575"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -33066,7 +33066,7 @@
       <c r="AE30" s="7"/>
     </row>
     <row r="31" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="573"/>
+      <c r="A31" s="575"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -33173,7 +33173,7 @@
       <c r="AE31" s="7"/>
     </row>
     <row r="32" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="573"/>
+      <c r="A32" s="575"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -33280,7 +33280,7 @@
       <c r="AE32" s="7"/>
     </row>
     <row r="33" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="573"/>
+      <c r="A33" s="575"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -33387,7 +33387,7 @@
       <c r="AE33" s="7"/>
     </row>
     <row r="34" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="573"/>
+      <c r="A34" s="575"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -33494,7 +33494,7 @@
       <c r="AE34" s="7"/>
     </row>
     <row r="35" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="573"/>
+      <c r="A35" s="575"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -33601,7 +33601,7 @@
       <c r="AE35" s="7"/>
     </row>
     <row r="36" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="573"/>
+      <c r="A36" s="575"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -33708,7 +33708,7 @@
       <c r="AE36" s="7"/>
     </row>
     <row r="37" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="573"/>
+      <c r="A37" s="575"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -33815,7 +33815,7 @@
       <c r="AE37" s="7"/>
     </row>
     <row r="38" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="573"/>
+      <c r="A38" s="575"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -33922,7 +33922,7 @@
       <c r="AE38" s="7"/>
     </row>
     <row r="39" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="573"/>
+      <c r="A39" s="575"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -34118,7 +34118,7 @@
       <c r="AE40" s="7"/>
     </row>
     <row r="41" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="572" t="s">
+      <c r="A41" s="574" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -34227,7 +34227,7 @@
       <c r="AE41" s="7"/>
     </row>
     <row r="42" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="573"/>
+      <c r="A42" s="575"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -34334,7 +34334,7 @@
       <c r="AE42" s="7"/>
     </row>
     <row r="43" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="573"/>
+      <c r="A43" s="575"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -34441,7 +34441,7 @@
       <c r="AE43" s="7"/>
     </row>
     <row r="44" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="573"/>
+      <c r="A44" s="575"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -34548,7 +34548,7 @@
       <c r="AE44" s="7"/>
     </row>
     <row r="45" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="573"/>
+      <c r="A45" s="575"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -34655,7 +34655,7 @@
       <c r="AE45" s="7"/>
     </row>
     <row r="46" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="573"/>
+      <c r="A46" s="575"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -34762,7 +34762,7 @@
       <c r="AE46" s="7"/>
     </row>
     <row r="47" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="573"/>
+      <c r="A47" s="575"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -34869,7 +34869,7 @@
       <c r="AE47" s="7"/>
     </row>
     <row r="48" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="573"/>
+      <c r="A48" s="575"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -34976,7 +34976,7 @@
       <c r="AE48" s="7"/>
     </row>
     <row r="49" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="573"/>
+      <c r="A49" s="575"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -35083,7 +35083,7 @@
       <c r="AE49" s="7"/>
     </row>
     <row r="50" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="573"/>
+      <c r="A50" s="575"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -35190,7 +35190,7 @@
       <c r="AE50" s="7"/>
     </row>
     <row r="51" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="573"/>
+      <c r="A51" s="575"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -35297,7 +35297,7 @@
       <c r="AE51" s="7"/>
     </row>
     <row r="52" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="574"/>
+      <c r="A52" s="576"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -35493,7 +35493,7 @@
       <c r="AE53" s="7"/>
     </row>
     <row r="54" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="572" t="s">
+      <c r="A54" s="574" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -35602,7 +35602,7 @@
       <c r="AE54" s="7"/>
     </row>
     <row r="55" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="573"/>
+      <c r="A55" s="575"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -35709,7 +35709,7 @@
       <c r="AE55" s="7"/>
     </row>
     <row r="56" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="573"/>
+      <c r="A56" s="575"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -35816,7 +35816,7 @@
       <c r="AE56" s="7"/>
     </row>
     <row r="57" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="573"/>
+      <c r="A57" s="575"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -35923,7 +35923,7 @@
       <c r="AE57" s="7"/>
     </row>
     <row r="58" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="573"/>
+      <c r="A58" s="575"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -36030,7 +36030,7 @@
       <c r="AE58" s="7"/>
     </row>
     <row r="59" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="573"/>
+      <c r="A59" s="575"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -36137,7 +36137,7 @@
       <c r="AE59" s="7"/>
     </row>
     <row r="60" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="573"/>
+      <c r="A60" s="575"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -36244,7 +36244,7 @@
       <c r="AE60" s="7"/>
     </row>
     <row r="61" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="573"/>
+      <c r="A61" s="575"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -36351,7 +36351,7 @@
       <c r="AE61" s="7"/>
     </row>
     <row r="62" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="573"/>
+      <c r="A62" s="575"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -36458,7 +36458,7 @@
       <c r="AE62" s="7"/>
     </row>
     <row r="63" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="573"/>
+      <c r="A63" s="575"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -36565,7 +36565,7 @@
       <c r="AE63" s="7"/>
     </row>
     <row r="64" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="573"/>
+      <c r="A64" s="575"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -36672,7 +36672,7 @@
       <c r="AE64" s="7"/>
     </row>
     <row r="65" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="574"/>
+      <c r="A65" s="576"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -36868,7 +36868,7 @@
       <c r="AE66" s="7"/>
     </row>
     <row r="67" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="572" t="s">
+      <c r="A67" s="574" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -36977,7 +36977,7 @@
       <c r="AE67" s="7"/>
     </row>
     <row r="68" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="573"/>
+      <c r="A68" s="575"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -37084,7 +37084,7 @@
       <c r="AE68" s="7"/>
     </row>
     <row r="69" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="573"/>
+      <c r="A69" s="575"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -37191,7 +37191,7 @@
       <c r="AE69" s="7"/>
     </row>
     <row r="70" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="573"/>
+      <c r="A70" s="575"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -37298,7 +37298,7 @@
       <c r="AE70" s="7"/>
     </row>
     <row r="71" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="573"/>
+      <c r="A71" s="575"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -37405,7 +37405,7 @@
       <c r="AE71" s="7"/>
     </row>
     <row r="72" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="573"/>
+      <c r="A72" s="575"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -37512,7 +37512,7 @@
       <c r="AE72" s="7"/>
     </row>
     <row r="73" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="573"/>
+      <c r="A73" s="575"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -37619,7 +37619,7 @@
       <c r="AE73" s="7"/>
     </row>
     <row r="74" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="573"/>
+      <c r="A74" s="575"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -37726,7 +37726,7 @@
       <c r="AE74" s="7"/>
     </row>
     <row r="75" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="573"/>
+      <c r="A75" s="575"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -37833,7 +37833,7 @@
       <c r="AE75" s="7"/>
     </row>
     <row r="76" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="573"/>
+      <c r="A76" s="575"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -37940,7 +37940,7 @@
       <c r="AE76" s="7"/>
     </row>
     <row r="77" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="573"/>
+      <c r="A77" s="575"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -38047,7 +38047,7 @@
       <c r="AE77" s="7"/>
     </row>
     <row r="78" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="575"/>
+      <c r="A78" s="577"/>
       <c r="B78" s="156" t="s">
         <v>17</v>
       </c>
@@ -38197,18 +38197,18 @@
       <c r="AE81" s="10"/>
     </row>
     <row r="82" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G82" s="564"/>
-      <c r="H82" s="565"/>
-      <c r="I82" s="558" t="s">
+      <c r="G82" s="567"/>
+      <c r="H82" s="568"/>
+      <c r="I82" s="561" t="s">
         <v>4</v>
       </c>
-      <c r="J82" s="559"/>
-      <c r="K82" s="560"/>
-      <c r="L82" s="561" t="s">
+      <c r="J82" s="562"/>
+      <c r="K82" s="563"/>
+      <c r="L82" s="564" t="s">
         <v>5</v>
       </c>
-      <c r="M82" s="562"/>
-      <c r="N82" s="563"/>
+      <c r="M82" s="565"/>
+      <c r="N82" s="566"/>
       <c r="O82" s="16"/>
       <c r="P82" s="16"/>
       <c r="AA82" s="10"/>
@@ -38218,8 +38218,8 @@
       <c r="AE82" s="10"/>
     </row>
     <row r="83" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G83" s="566"/>
-      <c r="H83" s="567"/>
+      <c r="G83" s="569"/>
+      <c r="H83" s="570"/>
       <c r="I83" s="484" t="s">
         <v>2</v>
       </c>
@@ -38247,10 +38247,10 @@
       <c r="AE83" s="10"/>
     </row>
     <row r="84" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G84" s="553" t="s">
+      <c r="G84" s="585" t="s">
         <v>225</v>
       </c>
-      <c r="H84" s="554"/>
+      <c r="H84" s="586"/>
       <c r="I84" s="458" t="str">
         <f>IF(COUNT(E15:E26)=J81, CONCATENATE(ROUND(SUM(E15:E26)*J81/SUM(C15:C26)*1000, 2), " (", ROUND(SUM(E15:E26)*J81/SUM(C15:C26)*1000/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*J81/SUM(C15:C26)*1000*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -38284,10 +38284,10 @@
       <c r="AE84" s="10"/>
     </row>
     <row r="85" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G85" s="555" t="s">
+      <c r="G85" s="587" t="s">
         <v>21</v>
       </c>
-      <c r="H85" s="556"/>
+      <c r="H85" s="588"/>
       <c r="I85" s="461" t="str">
         <f>IF(COUNT(E28:E39)=J81, CONCATENATE(ROUND(SUM(E28:E39)*J81/SUM(C28:C39)*1000, 2), " (", ROUND(SUM(E28:E39)*J81/SUM(C28:C39)*1000/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*J81/SUM(C28:C39)*1000*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -38321,10 +38321,10 @@
       <c r="AE85" s="10"/>
     </row>
     <row r="86" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G86" s="555" t="s">
+      <c r="G86" s="587" t="s">
         <v>22</v>
       </c>
-      <c r="H86" s="556"/>
+      <c r="H86" s="588"/>
       <c r="I86" s="461" t="str">
         <f>IF(COUNT(E41:E52)=J81, CONCATENATE(ROUND(SUM(E41:E52)*J81/SUM(C41:C52)*1000, 2), " (", ROUND(SUM(E41:E52)*J81/SUM(C41:C52)*1000/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*J81/SUM(C41:C52)*1000*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -38358,10 +38358,10 @@
       <c r="AE86" s="10"/>
     </row>
     <row r="87" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G87" s="555" t="s">
+      <c r="G87" s="587" t="s">
         <v>23</v>
       </c>
-      <c r="H87" s="556"/>
+      <c r="H87" s="588"/>
       <c r="I87" s="461" t="str">
         <f>IF(COUNT(E54:E65)=J81, CONCATENATE(ROUND(SUM(E54:E65)*J81/SUM(C54:C65)*1000, 2), " (", ROUND(SUM(E54:E65)*J81/SUM(C54:C65)*1000/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*J81/SUM(C54:C65)*1000*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -38395,10 +38395,10 @@
       <c r="AE87" s="10"/>
     </row>
     <row r="88" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G88" s="555" t="s">
+      <c r="G88" s="587" t="s">
         <v>3</v>
       </c>
-      <c r="H88" s="556"/>
+      <c r="H88" s="588"/>
       <c r="I88" s="461" t="str">
         <f>IF(COUNT(E67:E78)=J81, CONCATENATE(ROUND(SUM(E67:E78)*J81/SUM(C67:C78)*1000, 2), " (", ROUND(SUM(E67:E78)*J81/SUM(C67:C78)*1000/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*J81/SUM(C67:C78)*1000*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -38432,10 +38432,10 @@
       <c r="AE88" s="10"/>
     </row>
     <row r="89" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G89" s="551" t="s">
+      <c r="G89" s="583" t="s">
         <v>1</v>
       </c>
-      <c r="H89" s="552"/>
+      <c r="H89" s="584"/>
       <c r="I89" s="487" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$J$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -38483,17 +38483,12 @@
     <protectedRange sqref="I15:N26 I41:N52 I54:N65 I67:N78 I28:N39 I84:N89" name="Range1_1_2"/>
   </protectedRanges>
   <mergeCells count="30">
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="I82:K82"/>
     <mergeCell ref="L82:N82"/>
@@ -38507,12 +38502,17 @@
     <mergeCell ref="A41:A52"/>
     <mergeCell ref="C12:D13"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
   </mergeCells>
   <conditionalFormatting sqref="A15:B39 AE30:AE78 A91:H1048576 A41:B52 A54:B65 A67:B78 W11:AE11 G11 A12:C12 A14:H14 G13 C1:H2 C3:G3 P3:V3 W10:AD10 O1:V2 O12:P12 R12:AD12 C4:H7 E11 E12:G12 A13:B13 E13 A1:A10 C9:C10 D8:H8 G9:H9 I82 L82 A80:G80 W1:XFD3 AE5:XFD5 O4:XFD4 O6:XFD9 H90 A81:F81 O80:P1048576 I83:N83 Q79:AE1048576 AF11:XFD1048576">
     <cfRule type="containsErrors" dxfId="466" priority="134">
@@ -39012,11 +39012,11 @@
       <c r="S7" s="12"/>
     </row>
     <row r="8" spans="1:20" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="557" t="s">
+      <c r="A8" s="560" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="557"/>
-      <c r="C8" s="557"/>
+      <c r="B8" s="560"/>
+      <c r="C8" s="560"/>
       <c r="D8" s="68"/>
       <c r="E8" s="68"/>
       <c r="F8" s="68"/>
@@ -39039,15 +39039,15 @@
         <v>226</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="580" t="str">
+      <c r="C9" s="582" t="str">
         <f>IF('W2'!G11+'W3'!$G$22&gt;0,"Yes","No. Please complete W2 or W3 first")</f>
         <v>No. Please complete W2 or W3 first</v>
       </c>
-      <c r="D9" s="580"/>
-      <c r="E9" s="580"/>
-      <c r="F9" s="580"/>
-      <c r="G9" s="580"/>
-      <c r="H9" s="580"/>
+      <c r="D9" s="582"/>
+      <c r="E9" s="582"/>
+      <c r="F9" s="582"/>
+      <c r="G9" s="582"/>
+      <c r="H9" s="582"/>
       <c r="I9" s="69"/>
       <c r="J9" s="69"/>
       <c r="K9" s="150"/>
@@ -39088,14 +39088,14 @@
       <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E11" s="592" t="s">
+      <c r="E11" s="591" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="592"/>
-      <c r="G11" s="592"/>
-      <c r="H11" s="592"/>
-      <c r="I11" s="592"/>
-      <c r="J11" s="592"/>
+      <c r="F11" s="591"/>
+      <c r="G11" s="591"/>
+      <c r="H11" s="591"/>
+      <c r="I11" s="591"/>
+      <c r="J11" s="591"/>
       <c r="K11" s="9" t="s">
         <v>224</v>
       </c>
@@ -39112,63 +39112,63 @@
     <row r="12" spans="1:20" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="428"/>
       <c r="B12" s="429"/>
-      <c r="C12" s="576" t="s">
+      <c r="C12" s="578" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="577"/>
-      <c r="E12" s="593" t="s">
+      <c r="D12" s="579"/>
+      <c r="E12" s="592" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="593"/>
-      <c r="G12" s="593"/>
+      <c r="F12" s="592"/>
+      <c r="G12" s="592"/>
       <c r="H12" s="168"/>
       <c r="I12" s="168"/>
       <c r="J12" s="168"/>
-      <c r="K12" s="568" t="s">
+      <c r="K12" s="571" t="s">
         <v>201</v>
       </c>
-      <c r="L12" s="569"/>
-      <c r="M12" s="569"/>
-      <c r="N12" s="569"/>
-      <c r="O12" s="569"/>
-      <c r="P12" s="569"/>
-      <c r="Q12" s="569"/>
-      <c r="R12" s="569"/>
-      <c r="S12" s="570"/>
+      <c r="L12" s="572"/>
+      <c r="M12" s="572"/>
+      <c r="N12" s="572"/>
+      <c r="O12" s="572"/>
+      <c r="P12" s="572"/>
+      <c r="Q12" s="572"/>
+      <c r="R12" s="572"/>
+      <c r="S12" s="573"/>
       <c r="T12" s="439"/>
     </row>
     <row r="13" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="154"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="578"/>
-      <c r="D13" s="579"/>
-      <c r="E13" s="571" t="s">
+      <c r="C13" s="580"/>
+      <c r="D13" s="581"/>
+      <c r="E13" s="556" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="571"/>
-      <c r="G13" s="571" t="s">
+      <c r="F13" s="556"/>
+      <c r="G13" s="556" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="571"/>
-      <c r="I13" s="571" t="s">
+      <c r="H13" s="556"/>
+      <c r="I13" s="556" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="571"/>
-      <c r="K13" s="584" t="s">
+      <c r="J13" s="556"/>
+      <c r="K13" s="558" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="581"/>
-      <c r="M13" s="581"/>
-      <c r="N13" s="586" t="s">
+      <c r="L13" s="554"/>
+      <c r="M13" s="554"/>
+      <c r="N13" s="595" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="571"/>
-      <c r="P13" s="587"/>
-      <c r="Q13" s="584" t="s">
+      <c r="O13" s="556"/>
+      <c r="P13" s="596"/>
+      <c r="Q13" s="558" t="s">
         <v>32</v>
       </c>
-      <c r="R13" s="581"/>
-      <c r="S13" s="585"/>
+      <c r="R13" s="554"/>
+      <c r="S13" s="559"/>
     </row>
     <row r="14" spans="1:20" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="344" t="s">
@@ -39230,7 +39230,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="573" t="s">
+      <c r="A15" s="575" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -39288,7 +39288,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="573"/>
+      <c r="A16" s="575"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -39344,7 +39344,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="573"/>
+      <c r="A17" s="575"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -39400,7 +39400,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="573"/>
+      <c r="A18" s="575"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -39456,7 +39456,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="573"/>
+      <c r="A19" s="575"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -39512,7 +39512,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="573"/>
+      <c r="A20" s="575"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -39568,7 +39568,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="573"/>
+      <c r="A21" s="575"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -39624,7 +39624,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="573"/>
+      <c r="A22" s="575"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -39680,7 +39680,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="573"/>
+      <c r="A23" s="575"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -39736,7 +39736,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="573"/>
+      <c r="A24" s="575"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -39792,7 +39792,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="573"/>
+      <c r="A25" s="575"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -39848,7 +39848,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="574"/>
+      <c r="A26" s="576"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -39959,7 +39959,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="573" t="s">
+      <c r="A28" s="575" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -40017,7 +40017,7 @@
       </c>
     </row>
     <row r="29" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="573"/>
+      <c r="A29" s="575"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -40073,7 +40073,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="573"/>
+      <c r="A30" s="575"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -40130,7 +40130,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="573"/>
+      <c r="A31" s="575"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -40187,7 +40187,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="573"/>
+      <c r="A32" s="575"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -40244,7 +40244,7 @@
       <c r="T32" s="7"/>
     </row>
     <row r="33" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="573"/>
+      <c r="A33" s="575"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -40301,7 +40301,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="573"/>
+      <c r="A34" s="575"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -40358,7 +40358,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="573"/>
+      <c r="A35" s="575"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -40415,7 +40415,7 @@
       <c r="T35" s="7"/>
     </row>
     <row r="36" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="573"/>
+      <c r="A36" s="575"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -40472,7 +40472,7 @@
       <c r="T36" s="7"/>
     </row>
     <row r="37" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="573"/>
+      <c r="A37" s="575"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -40529,7 +40529,7 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="573"/>
+      <c r="A38" s="575"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -40586,7 +40586,7 @@
       <c r="T38" s="7"/>
     </row>
     <row r="39" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="573"/>
+      <c r="A39" s="575"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -40699,7 +40699,7 @@
       <c r="T40" s="7"/>
     </row>
     <row r="41" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="572" t="s">
+      <c r="A41" s="574" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -40758,7 +40758,7 @@
       <c r="T41" s="7"/>
     </row>
     <row r="42" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="573"/>
+      <c r="A42" s="575"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -40815,7 +40815,7 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="573"/>
+      <c r="A43" s="575"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -40872,7 +40872,7 @@
       <c r="T43" s="7"/>
     </row>
     <row r="44" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="573"/>
+      <c r="A44" s="575"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -40929,7 +40929,7 @@
       <c r="T44" s="7"/>
     </row>
     <row r="45" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="573"/>
+      <c r="A45" s="575"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -40986,7 +40986,7 @@
       <c r="T45" s="7"/>
     </row>
     <row r="46" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="573"/>
+      <c r="A46" s="575"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -41043,7 +41043,7 @@
       <c r="T46" s="7"/>
     </row>
     <row r="47" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="573"/>
+      <c r="A47" s="575"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -41100,7 +41100,7 @@
       <c r="T47" s="7"/>
     </row>
     <row r="48" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="573"/>
+      <c r="A48" s="575"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -41157,7 +41157,7 @@
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="573"/>
+      <c r="A49" s="575"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -41214,7 +41214,7 @@
       <c r="T49" s="7"/>
     </row>
     <row r="50" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="573"/>
+      <c r="A50" s="575"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -41271,7 +41271,7 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="573"/>
+      <c r="A51" s="575"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -41328,7 +41328,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="574"/>
+      <c r="A52" s="576"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -41441,7 +41441,7 @@
       <c r="T53" s="7"/>
     </row>
     <row r="54" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="572" t="s">
+      <c r="A54" s="574" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -41500,7 +41500,7 @@
       <c r="T54" s="7"/>
     </row>
     <row r="55" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="573"/>
+      <c r="A55" s="575"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -41557,7 +41557,7 @@
       <c r="T55" s="7"/>
     </row>
     <row r="56" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="573"/>
+      <c r="A56" s="575"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -41614,7 +41614,7 @@
       <c r="T56" s="7"/>
     </row>
     <row r="57" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="573"/>
+      <c r="A57" s="575"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -41671,7 +41671,7 @@
       <c r="T57" s="7"/>
     </row>
     <row r="58" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="573"/>
+      <c r="A58" s="575"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -41728,7 +41728,7 @@
       <c r="T58" s="7"/>
     </row>
     <row r="59" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="573"/>
+      <c r="A59" s="575"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -41785,7 +41785,7 @@
       <c r="T59" s="7"/>
     </row>
     <row r="60" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="573"/>
+      <c r="A60" s="575"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -41842,7 +41842,7 @@
       <c r="T60" s="7"/>
     </row>
     <row r="61" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="573"/>
+      <c r="A61" s="575"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -41899,7 +41899,7 @@
       <c r="T61" s="7"/>
     </row>
     <row r="62" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="573"/>
+      <c r="A62" s="575"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -41956,7 +41956,7 @@
       <c r="T62" s="7"/>
     </row>
     <row r="63" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="573"/>
+      <c r="A63" s="575"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -42013,7 +42013,7 @@
       <c r="T63" s="7"/>
     </row>
     <row r="64" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="573"/>
+      <c r="A64" s="575"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -42070,7 +42070,7 @@
       <c r="T64" s="7"/>
     </row>
     <row r="65" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="574"/>
+      <c r="A65" s="576"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -42183,7 +42183,7 @@
       <c r="T66" s="7"/>
     </row>
     <row r="67" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="572" t="s">
+      <c r="A67" s="574" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -42242,7 +42242,7 @@
       <c r="T67" s="7"/>
     </row>
     <row r="68" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="573"/>
+      <c r="A68" s="575"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -42299,7 +42299,7 @@
       <c r="T68" s="7"/>
     </row>
     <row r="69" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="573"/>
+      <c r="A69" s="575"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -42356,7 +42356,7 @@
       <c r="T69" s="7"/>
     </row>
     <row r="70" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="573"/>
+      <c r="A70" s="575"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -42413,7 +42413,7 @@
       <c r="T70" s="7"/>
     </row>
     <row r="71" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="573"/>
+      <c r="A71" s="575"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -42470,7 +42470,7 @@
       <c r="T71" s="7"/>
     </row>
     <row r="72" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="573"/>
+      <c r="A72" s="575"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -42527,7 +42527,7 @@
       <c r="T72" s="7"/>
     </row>
     <row r="73" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="573"/>
+      <c r="A73" s="575"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -42584,7 +42584,7 @@
       <c r="T73" s="7"/>
     </row>
     <row r="74" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="573"/>
+      <c r="A74" s="575"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -42641,7 +42641,7 @@
       <c r="T74" s="7"/>
     </row>
     <row r="75" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="573"/>
+      <c r="A75" s="575"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -42698,7 +42698,7 @@
       <c r="T75" s="7"/>
     </row>
     <row r="76" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="573"/>
+      <c r="A76" s="575"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -42755,7 +42755,7 @@
       <c r="T76" s="7"/>
     </row>
     <row r="77" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="573"/>
+      <c r="A77" s="575"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -42812,7 +42812,7 @@
       <c r="T77" s="7"/>
     </row>
     <row r="78" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="575"/>
+      <c r="A78" s="577"/>
       <c r="B78" s="156" t="s">
         <v>17</v>
       </c>
@@ -42928,28 +42928,28 @@
       <c r="T81" s="10"/>
     </row>
     <row r="82" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I82" s="564"/>
-      <c r="J82" s="565"/>
-      <c r="K82" s="558" t="s">
+      <c r="I82" s="567"/>
+      <c r="J82" s="568"/>
+      <c r="K82" s="561" t="s">
         <v>31</v>
       </c>
-      <c r="L82" s="559"/>
-      <c r="M82" s="560"/>
-      <c r="N82" s="558" t="s">
+      <c r="L82" s="562"/>
+      <c r="M82" s="563"/>
+      <c r="N82" s="561" t="s">
         <v>30</v>
       </c>
-      <c r="O82" s="559"/>
-      <c r="P82" s="560"/>
-      <c r="Q82" s="561" t="s">
+      <c r="O82" s="562"/>
+      <c r="P82" s="563"/>
+      <c r="Q82" s="564" t="s">
         <v>32</v>
       </c>
-      <c r="R82" s="562"/>
-      <c r="S82" s="563"/>
+      <c r="R82" s="565"/>
+      <c r="S82" s="566"/>
       <c r="T82" s="10"/>
     </row>
     <row r="83" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I83" s="566"/>
-      <c r="J83" s="567"/>
+      <c r="I83" s="569"/>
+      <c r="J83" s="570"/>
       <c r="K83" s="490" t="s">
         <v>2</v>
       </c>
@@ -42980,10 +42980,10 @@
       <c r="T83" s="10"/>
     </row>
     <row r="84" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I84" s="588" t="s">
+      <c r="I84" s="593" t="s">
         <v>225</v>
       </c>
-      <c r="J84" s="589"/>
+      <c r="J84" s="594"/>
       <c r="K84" s="459" t="str">
         <f>IF(COUNT(E15:E26)=$L$81, CONCATENATE(ROUND(SUM(E15:E26)*$L$81/SUM(C15:C26)*1000, 2), " (", ROUND(SUM(E15:E26)*$L$81/SUM(C15:C26)*1000/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*$L$81/SUM(C15:C26)*1000*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -43023,10 +43023,10 @@
       <c r="T84" s="10"/>
     </row>
     <row r="85" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I85" s="555" t="s">
+      <c r="I85" s="587" t="s">
         <v>21</v>
       </c>
-      <c r="J85" s="590"/>
+      <c r="J85" s="589"/>
       <c r="K85" s="462" t="str">
         <f>IF(COUNT(E28:E39)=$L$81, CONCATENATE(ROUND(SUM(E28:E39)*$L$81/SUM(C28:C39)*1000, 2), " (", ROUND(SUM(E28:E39)*$L$81/SUM(C28:C39)*1000/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*$L$81/SUM(C28:C39)*1000*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -43066,10 +43066,10 @@
       <c r="T85" s="10"/>
     </row>
     <row r="86" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I86" s="555" t="s">
+      <c r="I86" s="587" t="s">
         <v>22</v>
       </c>
-      <c r="J86" s="590"/>
+      <c r="J86" s="589"/>
       <c r="K86" s="462" t="str">
         <f>IF(COUNT(E41:E52)=$L$81, CONCATENATE(ROUND(SUM(E41:E52)*$L$81/SUM(C41:C52)*1000, 2), " (", ROUND(SUM(E41:E52)*$L$81/SUM(C41:C52)*1000/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*$L$81/SUM(C41:C52)*1000*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -43109,10 +43109,10 @@
       <c r="T86" s="10"/>
     </row>
     <row r="87" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I87" s="555" t="s">
+      <c r="I87" s="587" t="s">
         <v>23</v>
       </c>
-      <c r="J87" s="590"/>
+      <c r="J87" s="589"/>
       <c r="K87" s="462" t="str">
         <f>IF(COUNT(E54:E65)=$L$81, CONCATENATE(ROUND(SUM(E54:E65)*$L$81/SUM(C54:C65)*1000, 2), " (", ROUND(SUM(E54:E65)*$L$81/SUM(C54:C65)*1000/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*$L$81/SUM(C54:C65)*1000*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -43152,10 +43152,10 @@
       <c r="T87" s="10"/>
     </row>
     <row r="88" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I88" s="555" t="s">
+      <c r="I88" s="587" t="s">
         <v>3</v>
       </c>
-      <c r="J88" s="590"/>
+      <c r="J88" s="589"/>
       <c r="K88" s="462" t="str">
         <f>IF(COUNT(E67:E78)=$L$81, CONCATENATE(ROUND(SUM(E67:E78)*$L$81/SUM(C67:C78)*1000, 2), " (", ROUND(SUM(E67:E78)*$L$81/SUM(C67:C78)*1000/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*$L$81/SUM(C67:C78)*1000*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -43195,10 +43195,10 @@
       <c r="T88" s="10"/>
     </row>
     <row r="89" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I89" s="551" t="s">
+      <c r="I89" s="583" t="s">
         <v>1</v>
       </c>
-      <c r="J89" s="591"/>
+      <c r="J89" s="590"/>
       <c r="K89" s="488" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$L$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*L81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*L81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*L81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -43256,6 +43256,25 @@
     <protectedRange sqref="K84:S89" name="Range1_1_2_2"/>
   </protectedRanges>
   <mergeCells count="27">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="K12:S12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="A41:A52"/>
+    <mergeCell ref="A54:A65"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="I82:J83"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="Q82:S82"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="N82:P82"/>
     <mergeCell ref="I86:J86"/>
     <mergeCell ref="I87:J87"/>
     <mergeCell ref="I88:J88"/>
@@ -43264,25 +43283,6 @@
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="I85:J85"/>
-    <mergeCell ref="A67:A78"/>
-    <mergeCell ref="I82:J83"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="Q82:S82"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="N82:P82"/>
-    <mergeCell ref="A15:A26"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="A41:A52"/>
-    <mergeCell ref="A54:A65"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="K12:S12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="Q13:S13"/>
   </mergeCells>
   <conditionalFormatting sqref="A91:J1048576 T11 A80:I80 T1:XFD9 J90 A81:H81 H12:I12 E12 K83:M83 Q83:S83 U11:XFD1048576 T30:T1048576">
     <cfRule type="containsErrors" dxfId="401" priority="178">
@@ -43754,11 +43754,11 @@
       <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:10" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="557" t="s">
+      <c r="A8" s="560" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="557"/>
-      <c r="C8" s="557"/>
+      <c r="B8" s="560"/>
+      <c r="C8" s="560"/>
       <c r="D8" s="68"/>
       <c r="E8" s="69"/>
       <c r="F8" s="69"/>
@@ -43771,13 +43771,13 @@
         <v>226</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="580" t="str">
+      <c r="C9" s="582" t="str">
         <f>IF('W2'!G11+'W3'!$G$22&gt;0,"Yes","No. Please complete W2 or W3 first")</f>
         <v>No. Please complete W2 or W3 first</v>
       </c>
-      <c r="D9" s="580"/>
-      <c r="E9" s="580"/>
-      <c r="F9" s="580"/>
+      <c r="D9" s="582"/>
+      <c r="E9" s="582"/>
+      <c r="F9" s="582"/>
       <c r="G9" s="150"/>
       <c r="H9" s="19"/>
       <c r="I9" s="12"/>
@@ -43814,35 +43814,35 @@
     <row r="12" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="428"/>
       <c r="B12" s="429"/>
-      <c r="C12" s="576" t="s">
+      <c r="C12" s="578" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="577"/>
+      <c r="D12" s="579"/>
       <c r="E12" s="454" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="168"/>
-      <c r="G12" s="568" t="s">
+      <c r="G12" s="571" t="s">
         <v>201</v>
       </c>
-      <c r="H12" s="569"/>
-      <c r="I12" s="570"/>
+      <c r="H12" s="572"/>
+      <c r="I12" s="573"/>
       <c r="J12" s="439"/>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="154"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="578"/>
-      <c r="D13" s="579"/>
-      <c r="E13" s="571" t="s">
+      <c r="C13" s="580"/>
+      <c r="D13" s="581"/>
+      <c r="E13" s="556" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="571"/>
-      <c r="G13" s="586" t="s">
+      <c r="F13" s="556"/>
+      <c r="G13" s="595" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="571"/>
-      <c r="I13" s="587"/>
+      <c r="H13" s="556"/>
+      <c r="I13" s="596"/>
     </row>
     <row r="14" spans="1:10" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="344" t="s">
@@ -43874,7 +43874,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="573" t="s">
+      <c r="A15" s="575" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -43904,7 +43904,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="573"/>
+      <c r="A16" s="575"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -43932,7 +43932,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="573"/>
+      <c r="A17" s="575"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -43960,7 +43960,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="573"/>
+      <c r="A18" s="575"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -43988,7 +43988,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="573"/>
+      <c r="A19" s="575"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -44016,7 +44016,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="573"/>
+      <c r="A20" s="575"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -44044,7 +44044,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="573"/>
+      <c r="A21" s="575"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -44072,7 +44072,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="573"/>
+      <c r="A22" s="575"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -44100,7 +44100,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="573"/>
+      <c r="A23" s="575"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -44128,7 +44128,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="573"/>
+      <c r="A24" s="575"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -44156,7 +44156,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="573"/>
+      <c r="A25" s="575"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -44184,7 +44184,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="574"/>
+      <c r="A26" s="576"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -44237,7 +44237,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="573" t="s">
+      <c r="A28" s="575" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -44267,7 +44267,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="573"/>
+      <c r="A29" s="575"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -44295,7 +44295,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="573"/>
+      <c r="A30" s="575"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -44324,7 +44324,7 @@
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="573"/>
+      <c r="A31" s="575"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -44353,7 +44353,7 @@
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="573"/>
+      <c r="A32" s="575"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -44382,7 +44382,7 @@
       <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="573"/>
+      <c r="A33" s="575"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -44411,7 +44411,7 @@
       <c r="J33" s="7"/>
     </row>
     <row r="34" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="573"/>
+      <c r="A34" s="575"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -44440,7 +44440,7 @@
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="573"/>
+      <c r="A35" s="575"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -44469,7 +44469,7 @@
       <c r="J35" s="7"/>
     </row>
     <row r="36" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="573"/>
+      <c r="A36" s="575"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -44498,7 +44498,7 @@
       <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="573"/>
+      <c r="A37" s="575"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -44527,7 +44527,7 @@
       <c r="J37" s="7"/>
     </row>
     <row r="38" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="573"/>
+      <c r="A38" s="575"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -44556,7 +44556,7 @@
       <c r="J38" s="7"/>
     </row>
     <row r="39" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="573"/>
+      <c r="A39" s="575"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -44611,7 +44611,7 @@
       <c r="J40" s="7"/>
     </row>
     <row r="41" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="572" t="s">
+      <c r="A41" s="574" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -44642,7 +44642,7 @@
       <c r="J41" s="7"/>
     </row>
     <row r="42" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="573"/>
+      <c r="A42" s="575"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -44671,7 +44671,7 @@
       <c r="J42" s="7"/>
     </row>
     <row r="43" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="573"/>
+      <c r="A43" s="575"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -44700,7 +44700,7 @@
       <c r="J43" s="7"/>
     </row>
     <row r="44" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="573"/>
+      <c r="A44" s="575"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -44729,7 +44729,7 @@
       <c r="J44" s="7"/>
     </row>
     <row r="45" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="573"/>
+      <c r="A45" s="575"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -44758,7 +44758,7 @@
       <c r="J45" s="7"/>
     </row>
     <row r="46" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="573"/>
+      <c r="A46" s="575"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -44787,7 +44787,7 @@
       <c r="J46" s="7"/>
     </row>
     <row r="47" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="573"/>
+      <c r="A47" s="575"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -44816,7 +44816,7 @@
       <c r="J47" s="7"/>
     </row>
     <row r="48" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="573"/>
+      <c r="A48" s="575"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -44845,7 +44845,7 @@
       <c r="J48" s="7"/>
     </row>
     <row r="49" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="573"/>
+      <c r="A49" s="575"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -44874,7 +44874,7 @@
       <c r="J49" s="7"/>
     </row>
     <row r="50" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="573"/>
+      <c r="A50" s="575"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -44903,7 +44903,7 @@
       <c r="J50" s="7"/>
     </row>
     <row r="51" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="573"/>
+      <c r="A51" s="575"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -44932,7 +44932,7 @@
       <c r="J51" s="7"/>
     </row>
     <row r="52" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="574"/>
+      <c r="A52" s="576"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -44987,7 +44987,7 @@
       <c r="J53" s="7"/>
     </row>
     <row r="54" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="572" t="s">
+      <c r="A54" s="574" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -45018,7 +45018,7 @@
       <c r="J54" s="7"/>
     </row>
     <row r="55" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="573"/>
+      <c r="A55" s="575"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -45047,7 +45047,7 @@
       <c r="J55" s="7"/>
     </row>
     <row r="56" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="573"/>
+      <c r="A56" s="575"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -45076,7 +45076,7 @@
       <c r="J56" s="7"/>
     </row>
     <row r="57" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="573"/>
+      <c r="A57" s="575"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -45105,7 +45105,7 @@
       <c r="J57" s="7"/>
     </row>
     <row r="58" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="573"/>
+      <c r="A58" s="575"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -45134,7 +45134,7 @@
       <c r="J58" s="7"/>
     </row>
     <row r="59" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="573"/>
+      <c r="A59" s="575"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -45163,7 +45163,7 @@
       <c r="J59" s="7"/>
     </row>
     <row r="60" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="573"/>
+      <c r="A60" s="575"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -45192,7 +45192,7 @@
       <c r="J60" s="7"/>
     </row>
     <row r="61" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="573"/>
+      <c r="A61" s="575"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -45221,7 +45221,7 @@
       <c r="J61" s="7"/>
     </row>
     <row r="62" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="573"/>
+      <c r="A62" s="575"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -45250,7 +45250,7 @@
       <c r="J62" s="7"/>
     </row>
     <row r="63" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="573"/>
+      <c r="A63" s="575"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -45279,7 +45279,7 @@
       <c r="J63" s="7"/>
     </row>
     <row r="64" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="573"/>
+      <c r="A64" s="575"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -45308,7 +45308,7 @@
       <c r="J64" s="7"/>
     </row>
     <row r="65" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="574"/>
+      <c r="A65" s="576"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -45363,7 +45363,7 @@
       <c r="J66" s="7"/>
     </row>
     <row r="67" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="572" t="s">
+      <c r="A67" s="574" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -45394,7 +45394,7 @@
       <c r="J67" s="7"/>
     </row>
     <row r="68" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="573"/>
+      <c r="A68" s="575"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -45423,7 +45423,7 @@
       <c r="J68" s="7"/>
     </row>
     <row r="69" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="573"/>
+      <c r="A69" s="575"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -45452,7 +45452,7 @@
       <c r="J69" s="7"/>
     </row>
     <row r="70" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="573"/>
+      <c r="A70" s="575"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -45481,7 +45481,7 @@
       <c r="J70" s="7"/>
     </row>
     <row r="71" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="573"/>
+      <c r="A71" s="575"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -45510,7 +45510,7 @@
       <c r="J71" s="7"/>
     </row>
     <row r="72" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="573"/>
+      <c r="A72" s="575"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -45539,7 +45539,7 @@
       <c r="J72" s="7"/>
     </row>
     <row r="73" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="573"/>
+      <c r="A73" s="575"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -45568,7 +45568,7 @@
       <c r="J73" s="7"/>
     </row>
     <row r="74" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="573"/>
+      <c r="A74" s="575"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -45597,7 +45597,7 @@
       <c r="J74" s="7"/>
     </row>
     <row r="75" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="573"/>
+      <c r="A75" s="575"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -45626,7 +45626,7 @@
       <c r="J75" s="7"/>
     </row>
     <row r="76" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="573"/>
+      <c r="A76" s="575"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -45655,7 +45655,7 @@
       <c r="J76" s="7"/>
     </row>
     <row r="77" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="573"/>
+      <c r="A77" s="575"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -45684,7 +45684,7 @@
       <c r="J77" s="7"/>
     </row>
     <row r="78" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="575"/>
+      <c r="A78" s="577"/>
       <c r="B78" s="156" t="s">
         <v>17</v>
       </c>
@@ -45739,18 +45739,18 @@
       <c r="J81" s="10"/>
     </row>
     <row r="82" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E82" s="564"/>
-      <c r="F82" s="565"/>
-      <c r="G82" s="558" t="s">
+      <c r="E82" s="567"/>
+      <c r="F82" s="568"/>
+      <c r="G82" s="561" t="s">
         <v>33</v>
       </c>
-      <c r="H82" s="559"/>
-      <c r="I82" s="560"/>
+      <c r="H82" s="562"/>
+      <c r="I82" s="563"/>
       <c r="J82" s="10"/>
     </row>
     <row r="83" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E83" s="566"/>
-      <c r="F83" s="567"/>
+      <c r="E83" s="569"/>
+      <c r="F83" s="570"/>
       <c r="G83" s="484" t="s">
         <v>2</v>
       </c>
@@ -45763,10 +45763,10 @@
       <c r="J83" s="10"/>
     </row>
     <row r="84" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E84" s="553" t="s">
+      <c r="E84" s="585" t="s">
         <v>225</v>
       </c>
-      <c r="F84" s="554"/>
+      <c r="F84" s="586"/>
       <c r="G84" s="458" t="str">
         <f>IF(COUNT(E15:E26)=H81, CONCATENATE(ROUND(SUM(E15:E26)*H81/SUM(C15:C26)*1000, 2), " (", ROUND(SUM(E15:E26)*H81/SUM(C15:C26)*1000/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*H81/SUM(C15:C26)*1000*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -45782,10 +45782,10 @@
       <c r="J84" s="10"/>
     </row>
     <row r="85" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E85" s="555" t="s">
+      <c r="E85" s="587" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="556"/>
+      <c r="F85" s="588"/>
       <c r="G85" s="461" t="str">
         <f>IF(COUNT(E28:E39)=H81, CONCATENATE(ROUND(SUM(E28:E39)*H81/SUM(C28:C39)*1000, 2), " (", ROUND(SUM(E28:E39)*H81/SUM(C28:C39)*1000/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*H81/SUM(C28:C39)*1000*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -45801,10 +45801,10 @@
       <c r="J85" s="10"/>
     </row>
     <row r="86" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E86" s="555" t="s">
+      <c r="E86" s="587" t="s">
         <v>22</v>
       </c>
-      <c r="F86" s="556"/>
+      <c r="F86" s="588"/>
       <c r="G86" s="461" t="str">
         <f>IF(COUNT(E41:E52)=H81, CONCATENATE(ROUND(SUM(E41:E52)*H81/SUM(C41:C52)*1000, 2), " (", ROUND(SUM(E41:E52)*H81/SUM(C41:C52)*1000/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*H81/SUM(C41:C52)*1000*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -45820,10 +45820,10 @@
       <c r="J86" s="10"/>
     </row>
     <row r="87" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E87" s="555" t="s">
+      <c r="E87" s="587" t="s">
         <v>23</v>
       </c>
-      <c r="F87" s="556"/>
+      <c r="F87" s="588"/>
       <c r="G87" s="461" t="str">
         <f>IF(COUNT(E54:E65)=H81, CONCATENATE(ROUND(SUM(E54:E65)*H81/SUM(C54:C65)*1000, 2), " (", ROUND(SUM(E54:E65)*H81/SUM(C54:C65)*1000/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*H81/SUM(C54:C65)*1000*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -45839,10 +45839,10 @@
       <c r="J87" s="10"/>
     </row>
     <row r="88" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E88" s="555" t="s">
+      <c r="E88" s="587" t="s">
         <v>3</v>
       </c>
-      <c r="F88" s="556"/>
+      <c r="F88" s="588"/>
       <c r="G88" s="461" t="str">
         <f>IF(COUNT(E67:E78)=H81, CONCATENATE(ROUND(SUM(E67:E78)*H81/SUM(C67:C78)*1000, 2), " (", ROUND(SUM(E67:E78)*H81/SUM(C67:C78)*1000/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*H81/SUM(C67:C78)*1000*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -45858,10 +45858,10 @@
       <c r="J88" s="10"/>
     </row>
     <row r="89" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E89" s="551" t="s">
+      <c r="E89" s="583" t="s">
         <v>1</v>
       </c>
-      <c r="F89" s="552"/>
+      <c r="F89" s="584"/>
       <c r="G89" s="487" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$H$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*H81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*H81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*H81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -45890,6 +45890,18 @@
     <protectedRange sqref="G41:I52 G54:I65 G67:I78 G28:I39 G84:I89 G15:I26" name="Range1_1_2"/>
   </protectedRanges>
   <mergeCells count="19">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="A41:A52"/>
+    <mergeCell ref="A54:A65"/>
     <mergeCell ref="E89:F89"/>
     <mergeCell ref="E82:F83"/>
     <mergeCell ref="E84:F84"/>
@@ -45897,18 +45909,6 @@
     <mergeCell ref="E86:F86"/>
     <mergeCell ref="E87:F87"/>
     <mergeCell ref="E88:F88"/>
-    <mergeCell ref="A67:A78"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="A15:A26"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="A41:A52"/>
-    <mergeCell ref="A54:A65"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:I13"/>
   </mergeCells>
   <conditionalFormatting sqref="A15:B39 A91:F1048576 A41:B52 A54:B65 A67:B78 A12:C12 A14:F14 C1:F7 E11 E12:F12 A13:B13 E13 A1:A10 C9:C10 D8:F8 G82 A80:F80 G83:I83 A81:D81 K11:XFD1048576 J11 J1:XFD9 J30:J1048576">
     <cfRule type="containsErrors" dxfId="330" priority="68">
@@ -46209,11 +46209,11 @@
       <c r="N7" s="12"/>
     </row>
     <row r="8" spans="1:15" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="557" t="s">
+      <c r="A8" s="560" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="557"/>
-      <c r="C8" s="557"/>
+      <c r="B8" s="560"/>
+      <c r="C8" s="560"/>
       <c r="D8" s="68"/>
       <c r="E8" s="69"/>
       <c r="F8" s="69"/>
@@ -46231,13 +46231,13 @@
         <v>226</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="580" t="str">
+      <c r="C9" s="582" t="str">
         <f>IF('W2'!G11+'W3'!$G$22&gt;0,"Yes","No. Please complete W2 or W3 first")</f>
         <v>No. Please complete W2 or W3 first</v>
       </c>
-      <c r="D9" s="580"/>
-      <c r="E9" s="580"/>
-      <c r="F9" s="580"/>
+      <c r="D9" s="582"/>
+      <c r="E9" s="582"/>
+      <c r="F9" s="582"/>
       <c r="G9" s="69"/>
       <c r="H9" s="69"/>
       <c r="I9" s="150"/>
@@ -46289,49 +46289,49 @@
     <row r="12" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="428"/>
       <c r="B12" s="429"/>
-      <c r="C12" s="576" t="s">
+      <c r="C12" s="578" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="577"/>
+      <c r="D12" s="579"/>
       <c r="E12" s="454" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="168"/>
       <c r="G12" s="168"/>
       <c r="H12" s="168"/>
-      <c r="I12" s="568" t="s">
+      <c r="I12" s="571" t="s">
         <v>201</v>
       </c>
-      <c r="J12" s="569"/>
-      <c r="K12" s="569"/>
-      <c r="L12" s="569"/>
-      <c r="M12" s="569"/>
-      <c r="N12" s="570"/>
+      <c r="J12" s="572"/>
+      <c r="K12" s="572"/>
+      <c r="L12" s="572"/>
+      <c r="M12" s="572"/>
+      <c r="N12" s="573"/>
       <c r="O12" s="439"/>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="154"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="578"/>
-      <c r="D13" s="579"/>
-      <c r="E13" s="571" t="s">
+      <c r="C13" s="580"/>
+      <c r="D13" s="581"/>
+      <c r="E13" s="556" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="571"/>
-      <c r="G13" s="571" t="s">
+      <c r="F13" s="556"/>
+      <c r="G13" s="556" t="s">
         <v>252</v>
       </c>
-      <c r="H13" s="571"/>
-      <c r="I13" s="584" t="s">
+      <c r="H13" s="556"/>
+      <c r="I13" s="558" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="581"/>
-      <c r="K13" s="581"/>
-      <c r="L13" s="584" t="s">
+      <c r="J13" s="554"/>
+      <c r="K13" s="554"/>
+      <c r="L13" s="558" t="s">
         <v>34</v>
       </c>
-      <c r="M13" s="581"/>
-      <c r="N13" s="585"/>
+      <c r="M13" s="554"/>
+      <c r="N13" s="559"/>
     </row>
     <row r="14" spans="1:15" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="344" t="s">
@@ -46378,7 +46378,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="573" t="s">
+      <c r="A15" s="575" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -46422,7 +46422,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="573"/>
+      <c r="A16" s="575"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -46464,7 +46464,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="573"/>
+      <c r="A17" s="575"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -46506,7 +46506,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="573"/>
+      <c r="A18" s="575"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -46548,7 +46548,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="573"/>
+      <c r="A19" s="575"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -46590,7 +46590,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="573"/>
+      <c r="A20" s="575"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -46632,7 +46632,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="573"/>
+      <c r="A21" s="575"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -46674,7 +46674,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="573"/>
+      <c r="A22" s="575"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -46716,7 +46716,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="573"/>
+      <c r="A23" s="575"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -46758,7 +46758,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="573"/>
+      <c r="A24" s="575"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -46800,7 +46800,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="573"/>
+      <c r="A25" s="575"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -46842,7 +46842,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="574"/>
+      <c r="A26" s="576"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -46924,7 +46924,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="573" t="s">
+      <c r="A28" s="575" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -46968,7 +46968,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="573"/>
+      <c r="A29" s="575"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -47010,7 +47010,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="573"/>
+      <c r="A30" s="575"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -47053,7 +47053,7 @@
       <c r="O30" s="7"/>
     </row>
     <row r="31" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="573"/>
+      <c r="A31" s="575"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -47096,7 +47096,7 @@
       <c r="O31" s="7"/>
     </row>
     <row r="32" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="573"/>
+      <c r="A32" s="575"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -47139,7 +47139,7 @@
       <c r="O32" s="7"/>
     </row>
     <row r="33" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="573"/>
+      <c r="A33" s="575"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -47182,7 +47182,7 @@
       <c r="O33" s="7"/>
     </row>
     <row r="34" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="573"/>
+      <c r="A34" s="575"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -47225,7 +47225,7 @@
       <c r="O34" s="7"/>
     </row>
     <row r="35" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="573"/>
+      <c r="A35" s="575"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -47268,7 +47268,7 @@
       <c r="O35" s="7"/>
     </row>
     <row r="36" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="573"/>
+      <c r="A36" s="575"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -47311,7 +47311,7 @@
       <c r="O36" s="7"/>
     </row>
     <row r="37" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="573"/>
+      <c r="A37" s="575"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -47354,7 +47354,7 @@
       <c r="O37" s="7"/>
     </row>
     <row r="38" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="573"/>
+      <c r="A38" s="575"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -47397,7 +47397,7 @@
       <c r="O38" s="7"/>
     </row>
     <row r="39" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="573"/>
+      <c r="A39" s="575"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -47481,7 +47481,7 @@
       <c r="O40" s="7"/>
     </row>
     <row r="41" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="572" t="s">
+      <c r="A41" s="574" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -47526,7 +47526,7 @@
       <c r="O41" s="7"/>
     </row>
     <row r="42" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="573"/>
+      <c r="A42" s="575"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -47569,7 +47569,7 @@
       <c r="O42" s="7"/>
     </row>
     <row r="43" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="573"/>
+      <c r="A43" s="575"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -47612,7 +47612,7 @@
       <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="573"/>
+      <c r="A44" s="575"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -47655,7 +47655,7 @@
       <c r="O44" s="7"/>
     </row>
     <row r="45" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="573"/>
+      <c r="A45" s="575"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -47698,7 +47698,7 @@
       <c r="O45" s="7"/>
     </row>
     <row r="46" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="573"/>
+      <c r="A46" s="575"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -47741,7 +47741,7 @@
       <c r="O46" s="7"/>
     </row>
     <row r="47" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="573"/>
+      <c r="A47" s="575"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -47784,7 +47784,7 @@
       <c r="O47" s="7"/>
     </row>
     <row r="48" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="573"/>
+      <c r="A48" s="575"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -47827,7 +47827,7 @@
       <c r="O48" s="7"/>
     </row>
     <row r="49" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="573"/>
+      <c r="A49" s="575"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -47870,7 +47870,7 @@
       <c r="O49" s="7"/>
     </row>
     <row r="50" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="573"/>
+      <c r="A50" s="575"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -47913,7 +47913,7 @@
       <c r="O50" s="7"/>
     </row>
     <row r="51" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="573"/>
+      <c r="A51" s="575"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -47956,7 +47956,7 @@
       <c r="O51" s="7"/>
     </row>
     <row r="52" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="574"/>
+      <c r="A52" s="576"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -48040,7 +48040,7 @@
       <c r="O53" s="7"/>
     </row>
     <row r="54" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="572" t="s">
+      <c r="A54" s="574" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -48085,7 +48085,7 @@
       <c r="O54" s="7"/>
     </row>
     <row r="55" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="573"/>
+      <c r="A55" s="575"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -48128,7 +48128,7 @@
       <c r="O55" s="7"/>
     </row>
     <row r="56" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="573"/>
+      <c r="A56" s="575"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -48171,7 +48171,7 @@
       <c r="O56" s="7"/>
     </row>
     <row r="57" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="573"/>
+      <c r="A57" s="575"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -48214,7 +48214,7 @@
       <c r="O57" s="7"/>
     </row>
     <row r="58" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="573"/>
+      <c r="A58" s="575"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -48257,7 +48257,7 @@
       <c r="O58" s="7"/>
     </row>
     <row r="59" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="573"/>
+      <c r="A59" s="575"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -48300,7 +48300,7 @@
       <c r="O59" s="7"/>
     </row>
     <row r="60" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="573"/>
+      <c r="A60" s="575"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -48343,7 +48343,7 @@
       <c r="O60" s="7"/>
     </row>
     <row r="61" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="573"/>
+      <c r="A61" s="575"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -48386,7 +48386,7 @@
       <c r="O61" s="7"/>
     </row>
     <row r="62" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="573"/>
+      <c r="A62" s="575"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -48429,7 +48429,7 @@
       <c r="O62" s="7"/>
     </row>
     <row r="63" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="573"/>
+      <c r="A63" s="575"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -48472,7 +48472,7 @@
       <c r="O63" s="7"/>
     </row>
     <row r="64" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="573"/>
+      <c r="A64" s="575"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -48515,7 +48515,7 @@
       <c r="O64" s="7"/>
     </row>
     <row r="65" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="574"/>
+      <c r="A65" s="576"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -48599,7 +48599,7 @@
       <c r="O66" s="7"/>
     </row>
     <row r="67" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="572" t="s">
+      <c r="A67" s="574" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -48644,7 +48644,7 @@
       <c r="O67" s="7"/>
     </row>
     <row r="68" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="573"/>
+      <c r="A68" s="575"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -48687,7 +48687,7 @@
       <c r="O68" s="7"/>
     </row>
     <row r="69" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="573"/>
+      <c r="A69" s="575"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -48730,7 +48730,7 @@
       <c r="O69" s="7"/>
     </row>
     <row r="70" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="573"/>
+      <c r="A70" s="575"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -48773,7 +48773,7 @@
       <c r="O70" s="7"/>
     </row>
     <row r="71" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="573"/>
+      <c r="A71" s="575"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -48816,7 +48816,7 @@
       <c r="O71" s="7"/>
     </row>
     <row r="72" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="573"/>
+      <c r="A72" s="575"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -48859,7 +48859,7 @@
       <c r="O72" s="7"/>
     </row>
     <row r="73" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="573"/>
+      <c r="A73" s="575"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -48902,7 +48902,7 @@
       <c r="O73" s="7"/>
     </row>
     <row r="74" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="573"/>
+      <c r="A74" s="575"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -48945,7 +48945,7 @@
       <c r="O74" s="7"/>
     </row>
     <row r="75" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="573"/>
+      <c r="A75" s="575"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -48988,7 +48988,7 @@
       <c r="O75" s="7"/>
     </row>
     <row r="76" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="573"/>
+      <c r="A76" s="575"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -49031,7 +49031,7 @@
       <c r="O76" s="7"/>
     </row>
     <row r="77" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="573"/>
+      <c r="A77" s="575"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -49074,7 +49074,7 @@
       <c r="O77" s="7"/>
     </row>
     <row r="78" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="575"/>
+      <c r="A78" s="577"/>
       <c r="B78" s="156" t="s">
         <v>17</v>
       </c>
@@ -49117,16 +49117,16 @@
       <c r="O78" s="7"/>
     </row>
     <row r="79" spans="1:15" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="594" t="s">
+      <c r="A79" s="597" t="s">
         <v>256</v>
       </c>
-      <c r="B79" s="594"/>
-      <c r="C79" s="594"/>
-      <c r="D79" s="594"/>
-      <c r="E79" s="594"/>
-      <c r="F79" s="594"/>
-      <c r="G79" s="594"/>
-      <c r="H79" s="594"/>
+      <c r="B79" s="597"/>
+      <c r="C79" s="597"/>
+      <c r="D79" s="597"/>
+      <c r="E79" s="597"/>
+      <c r="F79" s="597"/>
+      <c r="G79" s="597"/>
+      <c r="H79" s="597"/>
       <c r="I79" s="19"/>
       <c r="J79" s="19"/>
       <c r="K79" s="11"/>
@@ -49160,23 +49160,23 @@
       <c r="O81" s="10"/>
     </row>
     <row r="82" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G82" s="564"/>
-      <c r="H82" s="565"/>
-      <c r="I82" s="558" t="s">
+      <c r="G82" s="567"/>
+      <c r="H82" s="568"/>
+      <c r="I82" s="561" t="s">
         <v>35</v>
       </c>
-      <c r="J82" s="559"/>
-      <c r="K82" s="560"/>
-      <c r="L82" s="561" t="s">
+      <c r="J82" s="562"/>
+      <c r="K82" s="563"/>
+      <c r="L82" s="564" t="s">
         <v>34</v>
       </c>
-      <c r="M82" s="562"/>
-      <c r="N82" s="563"/>
+      <c r="M82" s="565"/>
+      <c r="N82" s="566"/>
       <c r="O82" s="10"/>
     </row>
     <row r="83" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G83" s="566"/>
-      <c r="H83" s="567"/>
+      <c r="G83" s="569"/>
+      <c r="H83" s="570"/>
       <c r="I83" s="484" t="s">
         <v>2</v>
       </c>
@@ -49198,10 +49198,10 @@
       <c r="O83" s="10"/>
     </row>
     <row r="84" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G84" s="553" t="s">
+      <c r="G84" s="585" t="s">
         <v>225</v>
       </c>
-      <c r="H84" s="554"/>
+      <c r="H84" s="586"/>
       <c r="I84" s="458" t="str">
         <f>IF(COUNT(E15:E26)=J81, CONCATENATE(ROUND(SUM(E15:E26)*J81/SUM(C15:C26)*1000, 2), " (", ROUND(SUM(E15:E26)*J81/SUM(C15:C26)*1000/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*J81/SUM(C15:C26)*1000*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -49229,10 +49229,10 @@
       <c r="O84" s="10"/>
     </row>
     <row r="85" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G85" s="555" t="s">
+      <c r="G85" s="587" t="s">
         <v>21</v>
       </c>
-      <c r="H85" s="556"/>
+      <c r="H85" s="588"/>
       <c r="I85" s="461" t="str">
         <f>IF(COUNT(E28:E39)=J81, CONCATENATE(ROUND(SUM(E28:E39)*J81/SUM(C28:C39)*1000, 2), " (", ROUND(SUM(E28:E39)*J81/SUM(C28:C39)*1000/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*J81/SUM(C28:C39)*1000*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -49260,10 +49260,10 @@
       <c r="O85" s="10"/>
     </row>
     <row r="86" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G86" s="555" t="s">
+      <c r="G86" s="587" t="s">
         <v>22</v>
       </c>
-      <c r="H86" s="556"/>
+      <c r="H86" s="588"/>
       <c r="I86" s="461" t="str">
         <f>IF(COUNT(E41:E52)=J81, CONCATENATE(ROUND(SUM(E41:E52)*J81/SUM(C41:C52)*1000, 2), " (", ROUND(SUM(E41:E52)*J81/SUM(C41:C52)*1000/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*J81/SUM(C41:C52)*1000*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -49291,10 +49291,10 @@
       <c r="O86" s="10"/>
     </row>
     <row r="87" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G87" s="555" t="s">
+      <c r="G87" s="587" t="s">
         <v>23</v>
       </c>
-      <c r="H87" s="556"/>
+      <c r="H87" s="588"/>
       <c r="I87" s="461" t="str">
         <f>IF(COUNT(E54:E65)=J81, CONCATENATE(ROUND(SUM(E54:E65)*J81/SUM(C54:C65)*1000, 2), " (", ROUND(SUM(E54:E65)*J81/SUM(C54:C65)*1000/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*J81/SUM(C54:C65)*1000*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -49322,10 +49322,10 @@
       <c r="O87" s="10"/>
     </row>
     <row r="88" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G88" s="555" t="s">
+      <c r="G88" s="587" t="s">
         <v>3</v>
       </c>
-      <c r="H88" s="556"/>
+      <c r="H88" s="588"/>
       <c r="I88" s="461" t="str">
         <f>IF(COUNT(E67:E78)=J81, CONCATENATE(ROUND(SUM(E67:E78)*J81/SUM(C67:C78)*1000, 2), " (", ROUND(SUM(E67:E78)*J81/SUM(C67:C78)*1000/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*J81/SUM(C67:C78)*1000*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -49353,10 +49353,10 @@
       <c r="O88" s="10"/>
     </row>
     <row r="89" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G89" s="551" t="s">
+      <c r="G89" s="583" t="s">
         <v>1</v>
       </c>
-      <c r="H89" s="552"/>
+      <c r="H89" s="584"/>
       <c r="I89" s="487" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$J$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -49398,12 +49398,14 @@
     <protectedRange sqref="I15:N26 I41:N52 I54:N65 I67:N78 I28:N39 I84:N89" name="Range1_1_2"/>
   </protectedRanges>
   <mergeCells count="23">
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="A67:A78"/>
-    <mergeCell ref="G82:H83"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
     <mergeCell ref="I82:K82"/>
     <mergeCell ref="L82:N82"/>
     <mergeCell ref="G84:H84"/>
@@ -49413,14 +49415,12 @@
     <mergeCell ref="A41:A52"/>
     <mergeCell ref="A54:A65"/>
     <mergeCell ref="A79:H79"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="G82:H83"/>
   </mergeCells>
   <conditionalFormatting sqref="A91:H1048576 A41:B52 A54:B65 A67:B78 G11 A12:C12 G13 C1:H2 C3:G3 C4:H7 E11 E12:G12 A13:B39 E13 A1:A10 C9:C10 D8:H8 G9:H9 I82 L82 A80:G80 H90 A81:F81 I83:N83 O11 O1:XFD9 O30:O1048576 P11:XFD1048576">
     <cfRule type="containsErrors" dxfId="300" priority="70">
@@ -49777,7 +49777,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="595" t="s">
+      <c r="A9" s="598" t="s">
         <v>177</v>
       </c>
       <c r="B9" s="277" t="s">
@@ -49802,7 +49802,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="595"/>
+      <c r="A10" s="598"/>
       <c r="B10" s="276" t="s">
         <v>98</v>
       </c>
@@ -49827,7 +49827,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="595"/>
+      <c r="A11" s="598"/>
       <c r="B11" s="278" t="s">
         <v>99</v>
       </c>
@@ -49852,7 +49852,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="595"/>
+      <c r="A12" s="598"/>
       <c r="B12" s="278" t="s">
         <v>100</v>
       </c>
@@ -49877,7 +49877,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="595"/>
+      <c r="A13" s="598"/>
       <c r="B13" s="278" t="s">
         <v>101</v>
       </c>
@@ -49902,7 +49902,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="595"/>
+      <c r="A14" s="598"/>
       <c r="B14" s="278" t="s">
         <v>102</v>
       </c>
@@ -50038,7 +50038,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="595" t="s">
+      <c r="A18" s="598" t="s">
         <v>178</v>
       </c>
       <c r="B18" s="276" t="s">
@@ -50065,7 +50065,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="595"/>
+      <c r="A19" s="598"/>
       <c r="B19" s="276" t="s">
         <v>106</v>
       </c>

--- a/Worksheets_BoDManual_YL.xlsx
+++ b/Worksheets_BoDManual_YL.xlsx
@@ -8,6 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Ongoing Projects\WHO BoD in IDP camps\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="CPg6mWUpRIwaEWIT+tPzsK9cmGMzlT6pEmzLbRC1+9u/t00J0+Xxvc5Az4hkbATnQCThsDkkKFsa+/dA3p6TRQ==" workbookSaltValue="uXGMuyrEFUp5pnhKhwFHjw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" tabRatio="888"/>
   </bookViews>
@@ -5128,15 +5129,102 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5146,92 +5234,17 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5244,18 +5257,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -5267,20 +5268,20 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -10335,13 +10336,13 @@
         <v>226</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="582" t="str">
+      <c r="C9" s="583" t="str">
         <f>IF('W8'!G8&gt;0,"Yes","No. Please complete W8 first")</f>
         <v>No. Please complete W8 first</v>
       </c>
-      <c r="D9" s="582"/>
-      <c r="E9" s="582"/>
-      <c r="F9" s="582"/>
+      <c r="D9" s="583"/>
+      <c r="E9" s="583"/>
+      <c r="F9" s="583"/>
       <c r="G9" s="69"/>
       <c r="H9" s="69"/>
       <c r="I9" s="150"/>
@@ -10383,11 +10384,11 @@
       <c r="F11" s="152"/>
       <c r="G11" s="153"/>
       <c r="H11" s="153"/>
-      <c r="I11" s="600" t="s">
+      <c r="I11" s="604" t="s">
         <v>224</v>
       </c>
-      <c r="J11" s="600"/>
-      <c r="K11" s="600"/>
+      <c r="J11" s="604"/>
+      <c r="K11" s="604"/>
       <c r="L11" s="338"/>
       <c r="M11" s="337"/>
       <c r="N11" s="455"/>
@@ -10395,10 +10396,10 @@
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="428"/>
       <c r="B12" s="429"/>
-      <c r="C12" s="601" t="s">
+      <c r="C12" s="600" t="s">
         <v>238</v>
       </c>
-      <c r="D12" s="602"/>
+      <c r="D12" s="601"/>
       <c r="E12" s="454" t="s">
         <v>27</v>
       </c>
@@ -10417,26 +10418,26 @@
     <row r="13" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="154"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="603"/>
-      <c r="D13" s="604"/>
-      <c r="E13" s="556" t="s">
+      <c r="C13" s="602"/>
+      <c r="D13" s="603"/>
+      <c r="E13" s="574" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="556"/>
-      <c r="G13" s="556" t="s">
+      <c r="F13" s="574"/>
+      <c r="G13" s="574" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="556"/>
-      <c r="I13" s="558" t="s">
+      <c r="H13" s="574"/>
+      <c r="I13" s="587" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="554"/>
-      <c r="K13" s="554"/>
-      <c r="L13" s="558" t="s">
+      <c r="J13" s="584"/>
+      <c r="K13" s="584"/>
+      <c r="L13" s="587" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="554"/>
-      <c r="N13" s="559"/>
+      <c r="M13" s="584"/>
+      <c r="N13" s="588"/>
     </row>
     <row r="14" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="344" t="s">
@@ -10483,7 +10484,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="575" t="s">
+      <c r="A15" s="576" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -10527,7 +10528,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="575"/>
+      <c r="A16" s="576"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -10569,7 +10570,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="575"/>
+      <c r="A17" s="576"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -10611,7 +10612,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="575"/>
+      <c r="A18" s="576"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -10653,7 +10654,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="575"/>
+      <c r="A19" s="576"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -10695,7 +10696,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="575"/>
+      <c r="A20" s="576"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -10737,7 +10738,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="575"/>
+      <c r="A21" s="576"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -10779,7 +10780,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="575"/>
+      <c r="A22" s="576"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -10821,7 +10822,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="575"/>
+      <c r="A23" s="576"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -10863,7 +10864,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="575"/>
+      <c r="A24" s="576"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -10905,7 +10906,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="575"/>
+      <c r="A25" s="576"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -10947,7 +10948,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="576"/>
+      <c r="A26" s="577"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -11029,7 +11030,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="575" t="s">
+      <c r="A28" s="576" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -11073,7 +11074,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="575"/>
+      <c r="A29" s="576"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -11115,7 +11116,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="575"/>
+      <c r="A30" s="576"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -11157,7 +11158,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="575"/>
+      <c r="A31" s="576"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -11199,7 +11200,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="575"/>
+      <c r="A32" s="576"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -11241,7 +11242,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="575"/>
+      <c r="A33" s="576"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -11283,7 +11284,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="575"/>
+      <c r="A34" s="576"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -11325,7 +11326,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="575"/>
+      <c r="A35" s="576"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -11367,7 +11368,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="575"/>
+      <c r="A36" s="576"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -11409,7 +11410,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="575"/>
+      <c r="A37" s="576"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -11451,7 +11452,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="575"/>
+      <c r="A38" s="576"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -11493,7 +11494,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="575"/>
+      <c r="A39" s="576"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -11575,7 +11576,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="574" t="s">
+      <c r="A41" s="575" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -11619,7 +11620,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="575"/>
+      <c r="A42" s="576"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -11661,7 +11662,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="575"/>
+      <c r="A43" s="576"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -11703,7 +11704,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="575"/>
+      <c r="A44" s="576"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -11745,7 +11746,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="575"/>
+      <c r="A45" s="576"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -11787,7 +11788,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="575"/>
+      <c r="A46" s="576"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -11829,7 +11830,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="575"/>
+      <c r="A47" s="576"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -11871,7 +11872,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="575"/>
+      <c r="A48" s="576"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -11913,7 +11914,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="575"/>
+      <c r="A49" s="576"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -11955,7 +11956,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="575"/>
+      <c r="A50" s="576"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -11997,7 +11998,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="575"/>
+      <c r="A51" s="576"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -12039,7 +12040,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="576"/>
+      <c r="A52" s="577"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -12121,7 +12122,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="574" t="s">
+      <c r="A54" s="575" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -12165,7 +12166,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="575"/>
+      <c r="A55" s="576"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -12207,7 +12208,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="575"/>
+      <c r="A56" s="576"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -12249,7 +12250,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="575"/>
+      <c r="A57" s="576"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -12291,7 +12292,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="575"/>
+      <c r="A58" s="576"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -12333,7 +12334,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="575"/>
+      <c r="A59" s="576"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -12375,7 +12376,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="575"/>
+      <c r="A60" s="576"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -12417,7 +12418,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="575"/>
+      <c r="A61" s="576"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -12459,7 +12460,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="575"/>
+      <c r="A62" s="576"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -12501,7 +12502,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="575"/>
+      <c r="A63" s="576"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -12543,7 +12544,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="575"/>
+      <c r="A64" s="576"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -12585,7 +12586,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="576"/>
+      <c r="A65" s="577"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -12667,7 +12668,7 @@
       </c>
     </row>
     <row r="67" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="574" t="s">
+      <c r="A67" s="575" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -12711,7 +12712,7 @@
       </c>
     </row>
     <row r="68" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="575"/>
+      <c r="A68" s="576"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -12753,7 +12754,7 @@
       </c>
     </row>
     <row r="69" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="575"/>
+      <c r="A69" s="576"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -12795,7 +12796,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="575"/>
+      <c r="A70" s="576"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -12837,7 +12838,7 @@
       </c>
     </row>
     <row r="71" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="575"/>
+      <c r="A71" s="576"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -12879,7 +12880,7 @@
       </c>
     </row>
     <row r="72" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="575"/>
+      <c r="A72" s="576"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -12921,7 +12922,7 @@
       </c>
     </row>
     <row r="73" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="575"/>
+      <c r="A73" s="576"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -12963,7 +12964,7 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="575"/>
+      <c r="A74" s="576"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -13005,7 +13006,7 @@
       </c>
     </row>
     <row r="75" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="575"/>
+      <c r="A75" s="576"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -13047,7 +13048,7 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="575"/>
+      <c r="A76" s="576"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -13089,7 +13090,7 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="575"/>
+      <c r="A77" s="576"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -13131,7 +13132,7 @@
       </c>
     </row>
     <row r="78" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="577"/>
+      <c r="A78" s="578"/>
       <c r="B78" s="156" t="s">
         <v>17</v>
       </c>
@@ -13228,10 +13229,10 @@
       </c>
     </row>
     <row r="84" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G84" s="585" t="s">
+      <c r="G84" s="556" t="s">
         <v>225</v>
       </c>
-      <c r="H84" s="586"/>
+      <c r="H84" s="557"/>
       <c r="I84" s="458" t="str">
         <f>IF(COUNT(E15:E26)=J81, CONCATENATE(ROUND(SUM(E15:E26)*J81/J81/SUM(C15:C26)*100, 2), " (", ROUND(SUM(E15:E26)*J81/J81/SUM(C15:C26)*100/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*J81/J81/SUM(C15:C26)*100*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -13258,10 +13259,10 @@
       </c>
     </row>
     <row r="85" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G85" s="587" t="s">
+      <c r="G85" s="558" t="s">
         <v>21</v>
       </c>
-      <c r="H85" s="588"/>
+      <c r="H85" s="559"/>
       <c r="I85" s="461" t="str">
         <f>IF(COUNT(E28:E39)=J81, CONCATENATE(ROUND(SUM(E28:E39)*J81/J81/SUM(C28:C39)*100, 2), " (", ROUND(SUM(E28:E39)*J81/J81/SUM(C28:C39)*100/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*J81/J81/SUM(C28:C39)*100*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -13288,10 +13289,10 @@
       </c>
     </row>
     <row r="86" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G86" s="587" t="s">
+      <c r="G86" s="558" t="s">
         <v>22</v>
       </c>
-      <c r="H86" s="588"/>
+      <c r="H86" s="559"/>
       <c r="I86" s="461" t="str">
         <f>IF(COUNT(E41:E52)=J81, CONCATENATE(ROUND(SUM(E41:E52)*J81/J81/SUM(C41:C52)*100, 2), " (", ROUND(SUM(E41:E52)*J81/J81/SUM(C41:C52)*100/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*J81/J81/SUM(C41:C52)*100*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -13318,10 +13319,10 @@
       </c>
     </row>
     <row r="87" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G87" s="587" t="s">
+      <c r="G87" s="558" t="s">
         <v>23</v>
       </c>
-      <c r="H87" s="588"/>
+      <c r="H87" s="559"/>
       <c r="I87" s="461" t="str">
         <f>IF(COUNT(E54:E65)=J81, CONCATENATE(ROUND(SUM(E54:E65)*J81/J81/SUM(C54:C65)*100, 2), " (", ROUND(SUM(E54:E65)*J81/J81/SUM(C54:C65)*100/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*J81/J81/SUM(C54:C65)*100*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -13348,10 +13349,10 @@
       </c>
     </row>
     <row r="88" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G88" s="587" t="s">
+      <c r="G88" s="558" t="s">
         <v>3</v>
       </c>
-      <c r="H88" s="588"/>
+      <c r="H88" s="559"/>
       <c r="I88" s="461" t="str">
         <f>IF(COUNT(E67:E78)=J81, CONCATENATE(ROUND(SUM(E67:E78)*J81/J81/SUM(C67:C78)*100, 2), " (", ROUND(SUM(E67:E78)*J81/J81/SUM(C67:C78)*100/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*J81/J81/SUM(C67:C78)*100*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -13378,10 +13379,10 @@
       </c>
     </row>
     <row r="89" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G89" s="583" t="s">
+      <c r="G89" s="554" t="s">
         <v>1</v>
       </c>
-      <c r="H89" s="590"/>
+      <c r="H89" s="594"/>
       <c r="I89" s="488" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$J$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -13414,14 +13415,12 @@
     <protectedRange sqref="I84:N89" name="Range1_1_2_2"/>
   </protectedRanges>
   <mergeCells count="23">
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
     <mergeCell ref="G82:H83"/>
     <mergeCell ref="A67:A78"/>
     <mergeCell ref="I11:K11"/>
@@ -13431,12 +13430,14 @@
     <mergeCell ref="A28:A39"/>
     <mergeCell ref="A41:A52"/>
     <mergeCell ref="A54:A65"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
   </mergeCells>
   <conditionalFormatting sqref="A41:B52 A54:B65 A67:B78 G11 A12:C12 G13 C1:H2 C3:G3 C4:H7 E11 E12:G12 A13:B39 E13 A1:A10 C9:C10 D8:H8 G9:H9">
     <cfRule type="containsErrors" dxfId="238" priority="75">
@@ -13819,13 +13820,13 @@
         <v>226</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="582" t="str">
+      <c r="C9" s="583" t="str">
         <f>IF('W8'!G8&gt;0,"Yes","No. Please complete W8 first")</f>
         <v>No. Please complete W8 first</v>
       </c>
-      <c r="D9" s="582"/>
-      <c r="E9" s="582"/>
-      <c r="F9" s="582"/>
+      <c r="D9" s="583"/>
+      <c r="E9" s="583"/>
+      <c r="F9" s="583"/>
       <c r="G9" s="69"/>
       <c r="H9" s="69"/>
       <c r="I9" s="150"/>
@@ -13868,14 +13869,14 @@
       <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E11" s="591" t="s">
+      <c r="E11" s="595" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="591"/>
-      <c r="G11" s="591"/>
-      <c r="H11" s="591"/>
-      <c r="I11" s="591"/>
-      <c r="J11" s="591"/>
+      <c r="F11" s="595"/>
+      <c r="G11" s="595"/>
+      <c r="H11" s="595"/>
+      <c r="I11" s="595"/>
+      <c r="J11" s="595"/>
       <c r="K11" s="9" t="s">
         <v>224</v>
       </c>
@@ -13892,15 +13893,15 @@
     <row r="12" spans="1:20" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="428"/>
       <c r="B12" s="429"/>
-      <c r="C12" s="601" t="s">
+      <c r="C12" s="600" t="s">
         <v>238</v>
       </c>
-      <c r="D12" s="602"/>
-      <c r="E12" s="592" t="s">
+      <c r="D12" s="601"/>
+      <c r="E12" s="596" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="592"/>
-      <c r="G12" s="592"/>
+      <c r="F12" s="596"/>
+      <c r="G12" s="596"/>
       <c r="H12" s="168"/>
       <c r="I12" s="168"/>
       <c r="J12" s="168"/>
@@ -13920,35 +13921,35 @@
     <row r="13" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="154"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="603"/>
-      <c r="D13" s="604"/>
-      <c r="E13" s="556" t="s">
+      <c r="C13" s="602"/>
+      <c r="D13" s="603"/>
+      <c r="E13" s="574" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="556"/>
-      <c r="G13" s="556" t="s">
+      <c r="F13" s="574"/>
+      <c r="G13" s="574" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="556"/>
-      <c r="I13" s="556" t="s">
+      <c r="H13" s="574"/>
+      <c r="I13" s="574" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="556"/>
-      <c r="K13" s="558" t="s">
+      <c r="J13" s="574"/>
+      <c r="K13" s="587" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="554"/>
-      <c r="M13" s="554"/>
-      <c r="N13" s="595" t="s">
+      <c r="L13" s="584"/>
+      <c r="M13" s="584"/>
+      <c r="N13" s="589" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="556"/>
-      <c r="P13" s="596"/>
-      <c r="Q13" s="558" t="s">
+      <c r="O13" s="574"/>
+      <c r="P13" s="590"/>
+      <c r="Q13" s="587" t="s">
         <v>32</v>
       </c>
-      <c r="R13" s="554"/>
-      <c r="S13" s="559"/>
+      <c r="R13" s="584"/>
+      <c r="S13" s="588"/>
     </row>
     <row r="14" spans="1:20" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="344" t="s">
@@ -14010,7 +14011,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="575" t="s">
+      <c r="A15" s="576" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -14068,7 +14069,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="575"/>
+      <c r="A16" s="576"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -14124,7 +14125,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="575"/>
+      <c r="A17" s="576"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -14180,7 +14181,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="575"/>
+      <c r="A18" s="576"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -14236,7 +14237,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="575"/>
+      <c r="A19" s="576"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -14292,7 +14293,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="575"/>
+      <c r="A20" s="576"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -14348,7 +14349,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="575"/>
+      <c r="A21" s="576"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -14404,7 +14405,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="575"/>
+      <c r="A22" s="576"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -14460,7 +14461,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="575"/>
+      <c r="A23" s="576"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -14516,7 +14517,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="575"/>
+      <c r="A24" s="576"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -14572,7 +14573,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="575"/>
+      <c r="A25" s="576"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -14628,7 +14629,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="576"/>
+      <c r="A26" s="577"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -14739,7 +14740,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="575" t="s">
+      <c r="A28" s="576" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -14797,7 +14798,7 @@
       </c>
     </row>
     <row r="29" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="575"/>
+      <c r="A29" s="576"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -14853,7 +14854,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="575"/>
+      <c r="A30" s="576"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -14910,7 +14911,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="575"/>
+      <c r="A31" s="576"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -14967,7 +14968,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="575"/>
+      <c r="A32" s="576"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -15024,7 +15025,7 @@
       <c r="T32" s="7"/>
     </row>
     <row r="33" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="575"/>
+      <c r="A33" s="576"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -15081,7 +15082,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="575"/>
+      <c r="A34" s="576"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -15138,7 +15139,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="575"/>
+      <c r="A35" s="576"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -15195,7 +15196,7 @@
       <c r="T35" s="7"/>
     </row>
     <row r="36" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="575"/>
+      <c r="A36" s="576"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -15252,7 +15253,7 @@
       <c r="T36" s="7"/>
     </row>
     <row r="37" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="575"/>
+      <c r="A37" s="576"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -15309,7 +15310,7 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="575"/>
+      <c r="A38" s="576"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -15366,7 +15367,7 @@
       <c r="T38" s="7"/>
     </row>
     <row r="39" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="575"/>
+      <c r="A39" s="576"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -15479,7 +15480,7 @@
       <c r="T40" s="7"/>
     </row>
     <row r="41" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="574" t="s">
+      <c r="A41" s="575" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -15538,7 +15539,7 @@
       <c r="T41" s="7"/>
     </row>
     <row r="42" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="575"/>
+      <c r="A42" s="576"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -15595,7 +15596,7 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="575"/>
+      <c r="A43" s="576"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -15652,7 +15653,7 @@
       <c r="T43" s="7"/>
     </row>
     <row r="44" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="575"/>
+      <c r="A44" s="576"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -15709,7 +15710,7 @@
       <c r="T44" s="7"/>
     </row>
     <row r="45" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="575"/>
+      <c r="A45" s="576"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -15766,7 +15767,7 @@
       <c r="T45" s="7"/>
     </row>
     <row r="46" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="575"/>
+      <c r="A46" s="576"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -15823,7 +15824,7 @@
       <c r="T46" s="7"/>
     </row>
     <row r="47" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="575"/>
+      <c r="A47" s="576"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -15880,7 +15881,7 @@
       <c r="T47" s="7"/>
     </row>
     <row r="48" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="575"/>
+      <c r="A48" s="576"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -15937,7 +15938,7 @@
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="575"/>
+      <c r="A49" s="576"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -15994,7 +15995,7 @@
       <c r="T49" s="7"/>
     </row>
     <row r="50" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="575"/>
+      <c r="A50" s="576"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -16051,7 +16052,7 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="575"/>
+      <c r="A51" s="576"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -16108,7 +16109,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="576"/>
+      <c r="A52" s="577"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -16221,7 +16222,7 @@
       <c r="T53" s="7"/>
     </row>
     <row r="54" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="574" t="s">
+      <c r="A54" s="575" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -16280,7 +16281,7 @@
       <c r="T54" s="7"/>
     </row>
     <row r="55" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="575"/>
+      <c r="A55" s="576"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -16337,7 +16338,7 @@
       <c r="T55" s="7"/>
     </row>
     <row r="56" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="575"/>
+      <c r="A56" s="576"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -16394,7 +16395,7 @@
       <c r="T56" s="7"/>
     </row>
     <row r="57" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="575"/>
+      <c r="A57" s="576"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -16451,7 +16452,7 @@
       <c r="T57" s="7"/>
     </row>
     <row r="58" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="575"/>
+      <c r="A58" s="576"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -16508,7 +16509,7 @@
       <c r="T58" s="7"/>
     </row>
     <row r="59" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="575"/>
+      <c r="A59" s="576"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -16565,7 +16566,7 @@
       <c r="T59" s="7"/>
     </row>
     <row r="60" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="575"/>
+      <c r="A60" s="576"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -16622,7 +16623,7 @@
       <c r="T60" s="7"/>
     </row>
     <row r="61" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="575"/>
+      <c r="A61" s="576"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -16679,7 +16680,7 @@
       <c r="T61" s="7"/>
     </row>
     <row r="62" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="575"/>
+      <c r="A62" s="576"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -16736,7 +16737,7 @@
       <c r="T62" s="7"/>
     </row>
     <row r="63" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="575"/>
+      <c r="A63" s="576"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -16793,7 +16794,7 @@
       <c r="T63" s="7"/>
     </row>
     <row r="64" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="575"/>
+      <c r="A64" s="576"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -16850,7 +16851,7 @@
       <c r="T64" s="7"/>
     </row>
     <row r="65" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="576"/>
+      <c r="A65" s="577"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -16963,7 +16964,7 @@
       <c r="T66" s="7"/>
     </row>
     <row r="67" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="574" t="s">
+      <c r="A67" s="575" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -17022,7 +17023,7 @@
       <c r="T67" s="7"/>
     </row>
     <row r="68" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="575"/>
+      <c r="A68" s="576"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -17079,7 +17080,7 @@
       <c r="T68" s="7"/>
     </row>
     <row r="69" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="575"/>
+      <c r="A69" s="576"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -17136,7 +17137,7 @@
       <c r="T69" s="7"/>
     </row>
     <row r="70" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="575"/>
+      <c r="A70" s="576"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -17193,7 +17194,7 @@
       <c r="T70" s="7"/>
     </row>
     <row r="71" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="575"/>
+      <c r="A71" s="576"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -17250,7 +17251,7 @@
       <c r="T71" s="7"/>
     </row>
     <row r="72" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="575"/>
+      <c r="A72" s="576"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -17307,7 +17308,7 @@
       <c r="T72" s="7"/>
     </row>
     <row r="73" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="575"/>
+      <c r="A73" s="576"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -17364,7 +17365,7 @@
       <c r="T73" s="7"/>
     </row>
     <row r="74" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="575"/>
+      <c r="A74" s="576"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -17421,7 +17422,7 @@
       <c r="T74" s="7"/>
     </row>
     <row r="75" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="575"/>
+      <c r="A75" s="576"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -17478,7 +17479,7 @@
       <c r="T75" s="7"/>
     </row>
     <row r="76" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="575"/>
+      <c r="A76" s="576"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -17535,7 +17536,7 @@
       <c r="T76" s="7"/>
     </row>
     <row r="77" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="575"/>
+      <c r="A77" s="576"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -17592,7 +17593,7 @@
       <c r="T77" s="7"/>
     </row>
     <row r="78" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="577"/>
+      <c r="A78" s="578"/>
       <c r="B78" s="156" t="s">
         <v>17</v>
       </c>
@@ -17743,10 +17744,10 @@
       <c r="T83" s="10"/>
     </row>
     <row r="84" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I84" s="593" t="s">
+      <c r="I84" s="591" t="s">
         <v>225</v>
       </c>
-      <c r="J84" s="594"/>
+      <c r="J84" s="592"/>
       <c r="K84" s="459" t="str">
         <f>IF(COUNT(E15:E26)=$L$81, CONCATENATE(ROUND(SUM(E15:E26)*L81/L81/SUM(C15:C26)*100, 2), " (", ROUND(SUM(E15:E26)*L81/L81/SUM(C15:C26)*100/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*L81/L81/SUM(C15:C26)*100*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -17786,10 +17787,10 @@
       <c r="T84" s="10"/>
     </row>
     <row r="85" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I85" s="587" t="s">
+      <c r="I85" s="558" t="s">
         <v>21</v>
       </c>
-      <c r="J85" s="589"/>
+      <c r="J85" s="593"/>
       <c r="K85" s="462" t="str">
         <f>IF(COUNT(E28:E39)=$L$81, CONCATENATE(ROUND(SUM(E28:E39)*L81/L81/SUM(C28:C39)*100, 2), " (", ROUND(SUM(E28:E39)*L81/L81/SUM(C28:C39)*100/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*L81/L81/SUM(C28:C39)*100*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -17829,10 +17830,10 @@
       <c r="T85" s="10"/>
     </row>
     <row r="86" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I86" s="587" t="s">
+      <c r="I86" s="558" t="s">
         <v>22</v>
       </c>
-      <c r="J86" s="589"/>
+      <c r="J86" s="593"/>
       <c r="K86" s="462" t="str">
         <f>IF(COUNT(E41:E52)=$L$81, CONCATENATE(ROUND(SUM(E41:E52)*L81/L81/SUM(C41:C52)*100, 2), " (", ROUND(SUM(E41:E52)*L81/L81/SUM(C41:C52)*100/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*L81/L81/SUM(C41:C52)*100*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -17872,10 +17873,10 @@
       <c r="T86" s="10"/>
     </row>
     <row r="87" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I87" s="587" t="s">
+      <c r="I87" s="558" t="s">
         <v>23</v>
       </c>
-      <c r="J87" s="589"/>
+      <c r="J87" s="593"/>
       <c r="K87" s="462" t="str">
         <f>IF(COUNT(E54:E65)=$L$81, CONCATENATE(ROUND(SUM(E54:E65)*L81/L81/SUM(C54:C65)*100, 2), " (", ROUND(SUM(E54:E65)*L81/L81/SUM(C54:C65)*100/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*L81/L81/SUM(C54:C65)*100*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -17915,10 +17916,10 @@
       <c r="T87" s="10"/>
     </row>
     <row r="88" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I88" s="587" t="s">
+      <c r="I88" s="558" t="s">
         <v>3</v>
       </c>
-      <c r="J88" s="589"/>
+      <c r="J88" s="593"/>
       <c r="K88" s="462" t="str">
         <f>IF(COUNT(E67:E78)=$L$81, CONCATENATE(ROUND(SUM(E67:E78)*L81/L81/SUM(C67:C78)*100, 2), " (", ROUND(SUM(E67:E78)*L81/L81/SUM(C67:C78)*100/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*L81/L81/SUM(C67:C78)*100*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -17958,10 +17959,10 @@
       <c r="T88" s="10"/>
     </row>
     <row r="89" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I89" s="583" t="s">
+      <c r="I89" s="554" t="s">
         <v>1</v>
       </c>
-      <c r="J89" s="590"/>
+      <c r="J89" s="594"/>
       <c r="K89" s="488" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$L$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*L81/L81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*L81/L81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*L81/L81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -18018,16 +18019,11 @@
     <protectedRange sqref="K84:S89" name="Range1_1_2_2"/>
   </protectedRanges>
   <mergeCells count="27">
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="K12:S12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="I89:J89"/>
     <mergeCell ref="Q82:S82"/>
     <mergeCell ref="I84:J84"/>
     <mergeCell ref="N13:P13"/>
@@ -18040,11 +18036,16 @@
     <mergeCell ref="I82:J83"/>
     <mergeCell ref="K82:M82"/>
     <mergeCell ref="N82:P82"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="K12:S12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <conditionalFormatting sqref="A91:J1048576 T11 A80:I80 T1:XFD9 J90 A81:H81 H12:I12 E12 K83:M83 Q83:S83 U11:XFD1048576 T30:T1048576">
     <cfRule type="containsErrors" dxfId="201" priority="111">
@@ -18547,13 +18548,13 @@
         <v>226</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="582" t="str">
+      <c r="C9" s="583" t="str">
         <f>IF('W8'!G8&gt;0,"Yes","No. Please complete W8 first")</f>
         <v>No. Please complete W8 first</v>
       </c>
-      <c r="D9" s="582"/>
-      <c r="E9" s="582"/>
-      <c r="F9" s="582"/>
+      <c r="D9" s="583"/>
+      <c r="E9" s="583"/>
+      <c r="F9" s="583"/>
       <c r="G9" s="150"/>
       <c r="H9" s="19"/>
       <c r="I9" s="12"/>
@@ -18590,10 +18591,10 @@
     <row r="12" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="428"/>
       <c r="B12" s="429"/>
-      <c r="C12" s="601" t="s">
+      <c r="C12" s="600" t="s">
         <v>238</v>
       </c>
-      <c r="D12" s="602"/>
+      <c r="D12" s="601"/>
       <c r="E12" s="454" t="s">
         <v>27</v>
       </c>
@@ -18608,17 +18609,17 @@
     <row r="13" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="154"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="603"/>
-      <c r="D13" s="604"/>
-      <c r="E13" s="556" t="s">
+      <c r="C13" s="602"/>
+      <c r="D13" s="603"/>
+      <c r="E13" s="574" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="556"/>
-      <c r="G13" s="595" t="s">
+      <c r="F13" s="574"/>
+      <c r="G13" s="589" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="556"/>
-      <c r="I13" s="596"/>
+      <c r="H13" s="574"/>
+      <c r="I13" s="590"/>
     </row>
     <row r="14" spans="1:10" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="344" t="s">
@@ -18650,7 +18651,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="575" t="s">
+      <c r="A15" s="576" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -18680,7 +18681,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="575"/>
+      <c r="A16" s="576"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -18708,7 +18709,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="575"/>
+      <c r="A17" s="576"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -18736,7 +18737,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="575"/>
+      <c r="A18" s="576"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -18764,7 +18765,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="575"/>
+      <c r="A19" s="576"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -18792,7 +18793,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="575"/>
+      <c r="A20" s="576"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -18820,7 +18821,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="575"/>
+      <c r="A21" s="576"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -18848,7 +18849,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="575"/>
+      <c r="A22" s="576"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -18876,7 +18877,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="575"/>
+      <c r="A23" s="576"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -18904,7 +18905,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="575"/>
+      <c r="A24" s="576"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -18932,7 +18933,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="575"/>
+      <c r="A25" s="576"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -18960,7 +18961,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="576"/>
+      <c r="A26" s="577"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -19013,7 +19014,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="575" t="s">
+      <c r="A28" s="576" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -19043,7 +19044,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="575"/>
+      <c r="A29" s="576"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -19071,7 +19072,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="575"/>
+      <c r="A30" s="576"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -19100,7 +19101,7 @@
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="575"/>
+      <c r="A31" s="576"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -19129,7 +19130,7 @@
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="575"/>
+      <c r="A32" s="576"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -19158,7 +19159,7 @@
       <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="575"/>
+      <c r="A33" s="576"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -19187,7 +19188,7 @@
       <c r="J33" s="7"/>
     </row>
     <row r="34" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="575"/>
+      <c r="A34" s="576"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -19216,7 +19217,7 @@
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="575"/>
+      <c r="A35" s="576"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -19245,7 +19246,7 @@
       <c r="J35" s="7"/>
     </row>
     <row r="36" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="575"/>
+      <c r="A36" s="576"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -19274,7 +19275,7 @@
       <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="575"/>
+      <c r="A37" s="576"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -19303,7 +19304,7 @@
       <c r="J37" s="7"/>
     </row>
     <row r="38" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="575"/>
+      <c r="A38" s="576"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -19332,7 +19333,7 @@
       <c r="J38" s="7"/>
     </row>
     <row r="39" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="575"/>
+      <c r="A39" s="576"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -19387,7 +19388,7 @@
       <c r="J40" s="7"/>
     </row>
     <row r="41" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="574" t="s">
+      <c r="A41" s="575" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -19418,7 +19419,7 @@
       <c r="J41" s="7"/>
     </row>
     <row r="42" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="575"/>
+      <c r="A42" s="576"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -19447,7 +19448,7 @@
       <c r="J42" s="7"/>
     </row>
     <row r="43" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="575"/>
+      <c r="A43" s="576"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -19476,7 +19477,7 @@
       <c r="J43" s="7"/>
     </row>
     <row r="44" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="575"/>
+      <c r="A44" s="576"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -19505,7 +19506,7 @@
       <c r="J44" s="7"/>
     </row>
     <row r="45" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="575"/>
+      <c r="A45" s="576"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -19534,7 +19535,7 @@
       <c r="J45" s="7"/>
     </row>
     <row r="46" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="575"/>
+      <c r="A46" s="576"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -19563,7 +19564,7 @@
       <c r="J46" s="7"/>
     </row>
     <row r="47" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="575"/>
+      <c r="A47" s="576"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -19592,7 +19593,7 @@
       <c r="J47" s="7"/>
     </row>
     <row r="48" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="575"/>
+      <c r="A48" s="576"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -19621,7 +19622,7 @@
       <c r="J48" s="7"/>
     </row>
     <row r="49" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="575"/>
+      <c r="A49" s="576"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -19650,7 +19651,7 @@
       <c r="J49" s="7"/>
     </row>
     <row r="50" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="575"/>
+      <c r="A50" s="576"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -19679,7 +19680,7 @@
       <c r="J50" s="7"/>
     </row>
     <row r="51" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="575"/>
+      <c r="A51" s="576"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -19708,7 +19709,7 @@
       <c r="J51" s="7"/>
     </row>
     <row r="52" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="576"/>
+      <c r="A52" s="577"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -19763,7 +19764,7 @@
       <c r="J53" s="7"/>
     </row>
     <row r="54" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="574" t="s">
+      <c r="A54" s="575" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -19794,7 +19795,7 @@
       <c r="J54" s="7"/>
     </row>
     <row r="55" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="575"/>
+      <c r="A55" s="576"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -19823,7 +19824,7 @@
       <c r="J55" s="7"/>
     </row>
     <row r="56" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="575"/>
+      <c r="A56" s="576"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -19852,7 +19853,7 @@
       <c r="J56" s="7"/>
     </row>
     <row r="57" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="575"/>
+      <c r="A57" s="576"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -19881,7 +19882,7 @@
       <c r="J57" s="7"/>
     </row>
     <row r="58" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="575"/>
+      <c r="A58" s="576"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -19910,7 +19911,7 @@
       <c r="J58" s="7"/>
     </row>
     <row r="59" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="575"/>
+      <c r="A59" s="576"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -19939,7 +19940,7 @@
       <c r="J59" s="7"/>
     </row>
     <row r="60" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="575"/>
+      <c r="A60" s="576"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -19968,7 +19969,7 @@
       <c r="J60" s="7"/>
     </row>
     <row r="61" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="575"/>
+      <c r="A61" s="576"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -19997,7 +19998,7 @@
       <c r="J61" s="7"/>
     </row>
     <row r="62" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="575"/>
+      <c r="A62" s="576"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -20026,7 +20027,7 @@
       <c r="J62" s="7"/>
     </row>
     <row r="63" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="575"/>
+      <c r="A63" s="576"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -20055,7 +20056,7 @@
       <c r="J63" s="7"/>
     </row>
     <row r="64" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="575"/>
+      <c r="A64" s="576"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -20084,7 +20085,7 @@
       <c r="J64" s="7"/>
     </row>
     <row r="65" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="576"/>
+      <c r="A65" s="577"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -20139,7 +20140,7 @@
       <c r="J66" s="7"/>
     </row>
     <row r="67" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="574" t="s">
+      <c r="A67" s="575" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -20170,7 +20171,7 @@
       <c r="J67" s="7"/>
     </row>
     <row r="68" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="575"/>
+      <c r="A68" s="576"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -20199,7 +20200,7 @@
       <c r="J68" s="7"/>
     </row>
     <row r="69" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="575"/>
+      <c r="A69" s="576"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -20228,7 +20229,7 @@
       <c r="J69" s="7"/>
     </row>
     <row r="70" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="575"/>
+      <c r="A70" s="576"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -20257,7 +20258,7 @@
       <c r="J70" s="7"/>
     </row>
     <row r="71" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="575"/>
+      <c r="A71" s="576"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -20286,7 +20287,7 @@
       <c r="J71" s="7"/>
     </row>
     <row r="72" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="575"/>
+      <c r="A72" s="576"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -20315,7 +20316,7 @@
       <c r="J72" s="7"/>
     </row>
     <row r="73" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="575"/>
+      <c r="A73" s="576"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -20344,7 +20345,7 @@
       <c r="J73" s="7"/>
     </row>
     <row r="74" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="575"/>
+      <c r="A74" s="576"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -20373,7 +20374,7 @@
       <c r="J74" s="7"/>
     </row>
     <row r="75" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="575"/>
+      <c r="A75" s="576"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -20402,7 +20403,7 @@
       <c r="J75" s="7"/>
     </row>
     <row r="76" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="575"/>
+      <c r="A76" s="576"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -20431,7 +20432,7 @@
       <c r="J76" s="7"/>
     </row>
     <row r="77" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="575"/>
+      <c r="A77" s="576"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -20460,7 +20461,7 @@
       <c r="J77" s="7"/>
     </row>
     <row r="78" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="577"/>
+      <c r="A78" s="578"/>
       <c r="B78" s="156" t="s">
         <v>17</v>
       </c>
@@ -20539,10 +20540,10 @@
       <c r="J83" s="10"/>
     </row>
     <row r="84" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E84" s="585" t="s">
+      <c r="E84" s="556" t="s">
         <v>225</v>
       </c>
-      <c r="F84" s="586"/>
+      <c r="F84" s="557"/>
       <c r="G84" s="458" t="str">
         <f>IF(COUNT(E15:E26)=H81, CONCATENATE(ROUND(SUM(E15:E26)*H81/H81/SUM(C15:C26)*100, 2), " (", ROUND(SUM(E15:E26)*H81/H81/SUM(C15:C26)*100/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*H81/H81/SUM(C15:C26)*100*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -20558,10 +20559,10 @@
       <c r="J84" s="10"/>
     </row>
     <row r="85" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E85" s="587" t="s">
+      <c r="E85" s="558" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="588"/>
+      <c r="F85" s="559"/>
       <c r="G85" s="461" t="str">
         <f>IF(COUNT(E28:E39)=H81, CONCATENATE(ROUND(SUM(E28:E39)*H81/H81/SUM(C28:C39)*100, 2), " (", ROUND(SUM(E28:E39)*H81/H81/SUM(C28:C39)*100/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*H81/H81/SUM(C28:C39)*100*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -20577,10 +20578,10 @@
       <c r="J85" s="10"/>
     </row>
     <row r="86" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E86" s="587" t="s">
+      <c r="E86" s="558" t="s">
         <v>22</v>
       </c>
-      <c r="F86" s="588"/>
+      <c r="F86" s="559"/>
       <c r="G86" s="461" t="str">
         <f>IF(COUNT(E41:E52)=H81, CONCATENATE(ROUND(SUM(E41:E52)*H81/H81/SUM(C41:C52)*100, 2), " (", ROUND(SUM(E41:E52)*H81/H81/SUM(C41:C52)*100/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*H81/H81/SUM(C41:C52)*100*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -20596,10 +20597,10 @@
       <c r="J86" s="10"/>
     </row>
     <row r="87" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E87" s="587" t="s">
+      <c r="E87" s="558" t="s">
         <v>23</v>
       </c>
-      <c r="F87" s="588"/>
+      <c r="F87" s="559"/>
       <c r="G87" s="461" t="str">
         <f>IF(COUNT(E54:E65)=H81, CONCATENATE(ROUND(SUM(E54:E65)*H81/H81/SUM(C54:C65)*100, 2), " (", ROUND(SUM(E54:E65)*H81/H81/SUM(C54:C65)*100/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*H81/H81/SUM(C54:C65)*100*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -20615,10 +20616,10 @@
       <c r="J87" s="10"/>
     </row>
     <row r="88" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E88" s="587" t="s">
+      <c r="E88" s="558" t="s">
         <v>3</v>
       </c>
-      <c r="F88" s="588"/>
+      <c r="F88" s="559"/>
       <c r="G88" s="461" t="str">
         <f>IF(COUNT(E67:E78)=H81, CONCATENATE(ROUND(SUM(E67:E78)*H81/H81/SUM(C67:C78)*100, 2), " (", ROUND(SUM(E67:E78)*H81/H81/SUM(C67:C78)*100/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*H81/H81/SUM(C67:C78)*100*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -20634,10 +20635,10 @@
       <c r="J88" s="10"/>
     </row>
     <row r="89" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E89" s="583" t="s">
+      <c r="E89" s="554" t="s">
         <v>1</v>
       </c>
-      <c r="F89" s="584"/>
+      <c r="F89" s="555"/>
       <c r="G89" s="487" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$H$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*H81/H81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*H81/H81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*H81/H81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -20666,17 +20667,6 @@
     <protectedRange sqref="G41:I52 G54:I65 G67:I78 G28:I39 G84:I89 G15:I26" name="Range1_1_2"/>
   </protectedRanges>
   <mergeCells count="19">
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A15:A26"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="A41:A52"/>
-    <mergeCell ref="A54:A65"/>
-    <mergeCell ref="A67:A78"/>
     <mergeCell ref="E89:F89"/>
     <mergeCell ref="G82:I82"/>
     <mergeCell ref="E84:F84"/>
@@ -20685,6 +20675,17 @@
     <mergeCell ref="E87:F87"/>
     <mergeCell ref="E88:F88"/>
     <mergeCell ref="E82:F83"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="A41:A52"/>
+    <mergeCell ref="A54:A65"/>
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:I13"/>
   </mergeCells>
   <conditionalFormatting sqref="A91:F1048576 A41:B52 A54:B65 A67:B78 C1:F7 E11 E12:F12 A12:B39 E13 A1 G82 A80:F80 G83:I83 A81:D81 K11:XFD1048576 J11 J1:XFD9 J30:J1048576 A7">
     <cfRule type="containsErrors" dxfId="127" priority="42">
@@ -21032,13 +21033,13 @@
         <v>226</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="582" t="str">
+      <c r="C9" s="583" t="str">
         <f>IF('W8'!G8&gt;0,"Yes","No. Please complete W8 first")</f>
         <v>No. Please complete W8 first</v>
       </c>
-      <c r="D9" s="582"/>
-      <c r="E9" s="582"/>
-      <c r="F9" s="582"/>
+      <c r="D9" s="583"/>
+      <c r="E9" s="583"/>
+      <c r="F9" s="583"/>
       <c r="G9" s="69"/>
       <c r="H9" s="69"/>
       <c r="I9" s="150"/>
@@ -21080,11 +21081,11 @@
       <c r="F11" s="152"/>
       <c r="G11" s="153"/>
       <c r="H11" s="153"/>
-      <c r="I11" s="600" t="s">
+      <c r="I11" s="604" t="s">
         <v>224</v>
       </c>
-      <c r="J11" s="600"/>
-      <c r="K11" s="600"/>
+      <c r="J11" s="604"/>
+      <c r="K11" s="604"/>
       <c r="L11" s="338"/>
       <c r="M11" s="337"/>
       <c r="N11" s="455"/>
@@ -21092,10 +21093,10 @@
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="428"/>
       <c r="B12" s="429"/>
-      <c r="C12" s="601" t="s">
+      <c r="C12" s="600" t="s">
         <v>238</v>
       </c>
-      <c r="D12" s="602"/>
+      <c r="D12" s="601"/>
       <c r="E12" s="454" t="s">
         <v>27</v>
       </c>
@@ -21114,26 +21115,26 @@
     <row r="13" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="154"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="603"/>
-      <c r="D13" s="604"/>
-      <c r="E13" s="556" t="s">
+      <c r="C13" s="602"/>
+      <c r="D13" s="603"/>
+      <c r="E13" s="574" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="556"/>
-      <c r="G13" s="556" t="s">
+      <c r="F13" s="574"/>
+      <c r="G13" s="574" t="s">
         <v>252</v>
       </c>
-      <c r="H13" s="556"/>
-      <c r="I13" s="558" t="s">
+      <c r="H13" s="574"/>
+      <c r="I13" s="587" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="554"/>
-      <c r="K13" s="554"/>
-      <c r="L13" s="558" t="s">
+      <c r="J13" s="584"/>
+      <c r="K13" s="584"/>
+      <c r="L13" s="587" t="s">
         <v>34</v>
       </c>
-      <c r="M13" s="554"/>
-      <c r="N13" s="559"/>
+      <c r="M13" s="584"/>
+      <c r="N13" s="588"/>
     </row>
     <row r="14" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="344" t="s">
@@ -21180,7 +21181,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="575" t="s">
+      <c r="A15" s="576" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -21224,7 +21225,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="575"/>
+      <c r="A16" s="576"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -21266,7 +21267,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="575"/>
+      <c r="A17" s="576"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -21308,7 +21309,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="575"/>
+      <c r="A18" s="576"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -21350,7 +21351,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="575"/>
+      <c r="A19" s="576"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -21392,7 +21393,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="575"/>
+      <c r="A20" s="576"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -21434,7 +21435,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="575"/>
+      <c r="A21" s="576"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -21476,7 +21477,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="575"/>
+      <c r="A22" s="576"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -21518,7 +21519,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="575"/>
+      <c r="A23" s="576"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -21560,7 +21561,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="575"/>
+      <c r="A24" s="576"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -21602,7 +21603,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="575"/>
+      <c r="A25" s="576"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -21644,7 +21645,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="576"/>
+      <c r="A26" s="577"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -21726,7 +21727,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="575" t="s">
+      <c r="A28" s="576" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -21770,7 +21771,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="575"/>
+      <c r="A29" s="576"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -21812,7 +21813,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="575"/>
+      <c r="A30" s="576"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -21854,7 +21855,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="575"/>
+      <c r="A31" s="576"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -21896,7 +21897,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="575"/>
+      <c r="A32" s="576"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -21938,7 +21939,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="575"/>
+      <c r="A33" s="576"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -21980,7 +21981,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="575"/>
+      <c r="A34" s="576"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -22022,7 +22023,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="575"/>
+      <c r="A35" s="576"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -22064,7 +22065,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="575"/>
+      <c r="A36" s="576"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -22106,7 +22107,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="575"/>
+      <c r="A37" s="576"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -22148,7 +22149,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="575"/>
+      <c r="A38" s="576"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -22190,7 +22191,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="575"/>
+      <c r="A39" s="576"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -22272,7 +22273,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="574" t="s">
+      <c r="A41" s="575" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -22316,7 +22317,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="575"/>
+      <c r="A42" s="576"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -22358,7 +22359,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="575"/>
+      <c r="A43" s="576"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -22400,7 +22401,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="575"/>
+      <c r="A44" s="576"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -22442,7 +22443,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="575"/>
+      <c r="A45" s="576"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -22484,7 +22485,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="575"/>
+      <c r="A46" s="576"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -22526,7 +22527,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="575"/>
+      <c r="A47" s="576"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -22568,7 +22569,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="575"/>
+      <c r="A48" s="576"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -22610,7 +22611,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="575"/>
+      <c r="A49" s="576"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -22652,7 +22653,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="575"/>
+      <c r="A50" s="576"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -22694,7 +22695,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="575"/>
+      <c r="A51" s="576"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -22736,7 +22737,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="576"/>
+      <c r="A52" s="577"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -22818,7 +22819,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="574" t="s">
+      <c r="A54" s="575" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -22862,7 +22863,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="575"/>
+      <c r="A55" s="576"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -22904,7 +22905,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="575"/>
+      <c r="A56" s="576"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -22946,7 +22947,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="575"/>
+      <c r="A57" s="576"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -22988,7 +22989,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="575"/>
+      <c r="A58" s="576"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -23030,7 +23031,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="575"/>
+      <c r="A59" s="576"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -23072,7 +23073,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="575"/>
+      <c r="A60" s="576"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -23114,7 +23115,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="575"/>
+      <c r="A61" s="576"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -23156,7 +23157,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="575"/>
+      <c r="A62" s="576"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -23198,7 +23199,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="575"/>
+      <c r="A63" s="576"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -23240,7 +23241,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="575"/>
+      <c r="A64" s="576"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -23282,7 +23283,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="576"/>
+      <c r="A65" s="577"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -23364,7 +23365,7 @@
       </c>
     </row>
     <row r="67" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="574" t="s">
+      <c r="A67" s="575" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -23408,7 +23409,7 @@
       </c>
     </row>
     <row r="68" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="575"/>
+      <c r="A68" s="576"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -23450,7 +23451,7 @@
       </c>
     </row>
     <row r="69" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="575"/>
+      <c r="A69" s="576"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -23492,7 +23493,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="575"/>
+      <c r="A70" s="576"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -23534,7 +23535,7 @@
       </c>
     </row>
     <row r="71" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="575"/>
+      <c r="A71" s="576"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -23576,7 +23577,7 @@
       </c>
     </row>
     <row r="72" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="575"/>
+      <c r="A72" s="576"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -23618,7 +23619,7 @@
       </c>
     </row>
     <row r="73" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="575"/>
+      <c r="A73" s="576"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -23660,7 +23661,7 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="575"/>
+      <c r="A74" s="576"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -23702,7 +23703,7 @@
       </c>
     </row>
     <row r="75" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="575"/>
+      <c r="A75" s="576"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -23744,7 +23745,7 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="575"/>
+      <c r="A76" s="576"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -23786,7 +23787,7 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="575"/>
+      <c r="A77" s="576"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -23828,7 +23829,7 @@
       </c>
     </row>
     <row r="78" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="577"/>
+      <c r="A78" s="578"/>
       <c r="B78" s="156" t="s">
         <v>17</v>
       </c>
@@ -23936,10 +23937,10 @@
       </c>
     </row>
     <row r="84" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G84" s="585" t="s">
+      <c r="G84" s="556" t="s">
         <v>225</v>
       </c>
-      <c r="H84" s="586"/>
+      <c r="H84" s="557"/>
       <c r="I84" s="458" t="str">
         <f>IF(COUNT(E15:E26)=J81, CONCATENATE(ROUND(SUM(E15:E26)*J81/J81/SUM(C15:C26)*100, 2), " (", ROUND(SUM(E15:E26)*J81/J81/SUM(C15:C26)*100/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*J81/J81/SUM(C15:C26)*100*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -23966,10 +23967,10 @@
       </c>
     </row>
     <row r="85" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G85" s="587" t="s">
+      <c r="G85" s="558" t="s">
         <v>21</v>
       </c>
-      <c r="H85" s="588"/>
+      <c r="H85" s="559"/>
       <c r="I85" s="461" t="str">
         <f>IF(COUNT(E28:E39)=J81, CONCATENATE(ROUND(SUM(E28:E39)*J81/J81/SUM(C28:C39)*100, 2), " (", ROUND(SUM(E28:E39)*J81/J81/SUM(C28:C39)*100/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*J81/J81/SUM(C28:C39)*100*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -23996,10 +23997,10 @@
       </c>
     </row>
     <row r="86" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G86" s="587" t="s">
+      <c r="G86" s="558" t="s">
         <v>22</v>
       </c>
-      <c r="H86" s="588"/>
+      <c r="H86" s="559"/>
       <c r="I86" s="461" t="str">
         <f>IF(COUNT(E41:E52)=J81, CONCATENATE(ROUND(SUM(E41:E52)*J81/J81/SUM(C41:C52)*100, 2), " (", ROUND(SUM(E41:E52)*J81/J81/SUM(C41:C52)*100/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*J81/J81/SUM(C41:C52)*100*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -24026,10 +24027,10 @@
       </c>
     </row>
     <row r="87" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G87" s="587" t="s">
+      <c r="G87" s="558" t="s">
         <v>23</v>
       </c>
-      <c r="H87" s="588"/>
+      <c r="H87" s="559"/>
       <c r="I87" s="461" t="str">
         <f>IF(COUNT(E54:E65)=J81, CONCATENATE(ROUND(SUM(E54:E65)*J81/J81/SUM(C54:C65)*100, 2), " (", ROUND(SUM(E54:E65)*J81/J81/SUM(C54:C65)*100/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*J81/J81/SUM(C54:C65)*100*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -24056,10 +24057,10 @@
       </c>
     </row>
     <row r="88" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G88" s="587" t="s">
+      <c r="G88" s="558" t="s">
         <v>3</v>
       </c>
-      <c r="H88" s="588"/>
+      <c r="H88" s="559"/>
       <c r="I88" s="461" t="str">
         <f>IF(COUNT(E67:E78)=J81, CONCATENATE(ROUND(SUM(E67:E78)*J81/J81/SUM(C67:C78)*100, 2), " (", ROUND(SUM(E67:E78)*J81/J81/SUM(C67:C78)*100/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*J81/J81/SUM(C67:C78)*100*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -24086,10 +24087,10 @@
       </c>
     </row>
     <row r="89" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G89" s="583" t="s">
+      <c r="G89" s="554" t="s">
         <v>1</v>
       </c>
-      <c r="H89" s="590"/>
+      <c r="H89" s="594"/>
       <c r="I89" s="488" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$J$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -24122,6 +24123,15 @@
     <protectedRange sqref="I84:N89" name="Range1_1_2_2"/>
   </protectedRanges>
   <mergeCells count="24">
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="I82:K82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G82:H83"/>
     <mergeCell ref="A79:H79"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="C9:F9"/>
@@ -24137,15 +24147,6 @@
     <mergeCell ref="A41:A52"/>
     <mergeCell ref="A54:A65"/>
     <mergeCell ref="A67:A78"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="I82:K82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G82:H83"/>
   </mergeCells>
   <conditionalFormatting sqref="A41:B52 A54:B65 A67:B78 G11 A12:C12 G13 C1:H2 C3:G3 C4:H7 E11 E12:G12 A13:B39 E13 A1:A10 C9:C10 D8:H8 G9:H9">
     <cfRule type="containsErrors" dxfId="92" priority="37">
@@ -31091,13 +31092,13 @@
         <v>226</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="582" t="str">
+      <c r="C9" s="583" t="str">
         <f>IF('W2'!G11+'W3'!$G$22&gt;0,"Yes","No. Please complete W2 or W3 first")</f>
         <v>No. Please complete W2 or W3 first</v>
       </c>
-      <c r="D9" s="582"/>
-      <c r="E9" s="582"/>
-      <c r="F9" s="582"/>
+      <c r="D9" s="583"/>
+      <c r="E9" s="583"/>
+      <c r="F9" s="583"/>
       <c r="G9" s="69"/>
       <c r="H9" s="69"/>
       <c r="I9" s="150"/>
@@ -31190,10 +31191,10 @@
     <row r="12" spans="1:31" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="428"/>
       <c r="B12" s="429"/>
-      <c r="C12" s="578" t="s">
+      <c r="C12" s="579" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="579"/>
+      <c r="D12" s="580"/>
       <c r="E12" s="8" t="s">
         <v>27</v>
       </c>
@@ -31237,58 +31238,58 @@
     <row r="13" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="154"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="580"/>
-      <c r="D13" s="581"/>
-      <c r="E13" s="556" t="s">
+      <c r="C13" s="581"/>
+      <c r="D13" s="582"/>
+      <c r="E13" s="574" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="556"/>
-      <c r="G13" s="556" t="s">
+      <c r="F13" s="574"/>
+      <c r="G13" s="574" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="556"/>
-      <c r="I13" s="558" t="s">
+      <c r="H13" s="574"/>
+      <c r="I13" s="587" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="554"/>
-      <c r="K13" s="554"/>
-      <c r="L13" s="558" t="s">
+      <c r="J13" s="584"/>
+      <c r="K13" s="584"/>
+      <c r="L13" s="587" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="554"/>
-      <c r="N13" s="559"/>
-      <c r="O13" s="554" t="s">
+      <c r="M13" s="584"/>
+      <c r="N13" s="588"/>
+      <c r="O13" s="584" t="s">
         <v>4</v>
       </c>
-      <c r="P13" s="554"/>
-      <c r="Q13" s="554" t="s">
+      <c r="P13" s="584"/>
+      <c r="Q13" s="584" t="s">
         <v>5</v>
       </c>
-      <c r="R13" s="555"/>
-      <c r="S13" s="554" t="s">
+      <c r="R13" s="585"/>
+      <c r="S13" s="584" t="s">
         <v>4</v>
       </c>
-      <c r="T13" s="554"/>
-      <c r="U13" s="554" t="s">
+      <c r="T13" s="584"/>
+      <c r="U13" s="584" t="s">
         <v>5</v>
       </c>
-      <c r="V13" s="554"/>
-      <c r="W13" s="557" t="s">
+      <c r="V13" s="584"/>
+      <c r="W13" s="586" t="s">
         <v>4</v>
       </c>
-      <c r="X13" s="554"/>
-      <c r="Y13" s="554" t="s">
+      <c r="X13" s="584"/>
+      <c r="Y13" s="584" t="s">
         <v>5</v>
       </c>
-      <c r="Z13" s="555"/>
-      <c r="AA13" s="554" t="s">
+      <c r="Z13" s="585"/>
+      <c r="AA13" s="584" t="s">
         <v>4</v>
       </c>
-      <c r="AB13" s="554"/>
-      <c r="AC13" s="554" t="s">
+      <c r="AB13" s="584"/>
+      <c r="AC13" s="584" t="s">
         <v>5</v>
       </c>
-      <c r="AD13" s="555"/>
+      <c r="AD13" s="585"/>
     </row>
     <row r="14" spans="1:31" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="344" t="s">
@@ -31383,7 +31384,7 @@
       </c>
     </row>
     <row r="15" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="575" t="s">
+      <c r="A15" s="576" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -31491,7 +31492,7 @@
       </c>
     </row>
     <row r="16" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="575"/>
+      <c r="A16" s="576"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -31597,7 +31598,7 @@
       </c>
     </row>
     <row r="17" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="575"/>
+      <c r="A17" s="576"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -31703,7 +31704,7 @@
       </c>
     </row>
     <row r="18" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="575"/>
+      <c r="A18" s="576"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -31809,7 +31810,7 @@
       </c>
     </row>
     <row r="19" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="575"/>
+      <c r="A19" s="576"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -31915,7 +31916,7 @@
       </c>
     </row>
     <row r="20" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="575"/>
+      <c r="A20" s="576"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -32021,7 +32022,7 @@
       </c>
     </row>
     <row r="21" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="575"/>
+      <c r="A21" s="576"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -32127,7 +32128,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="575"/>
+      <c r="A22" s="576"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -32233,7 +32234,7 @@
       </c>
     </row>
     <row r="23" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="575"/>
+      <c r="A23" s="576"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -32339,7 +32340,7 @@
       </c>
     </row>
     <row r="24" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="575"/>
+      <c r="A24" s="576"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -32445,7 +32446,7 @@
       </c>
     </row>
     <row r="25" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="575"/>
+      <c r="A25" s="576"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -32551,7 +32552,7 @@
       </c>
     </row>
     <row r="26" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="576"/>
+      <c r="A26" s="577"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -32745,7 +32746,7 @@
       </c>
     </row>
     <row r="28" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="575" t="s">
+      <c r="A28" s="576" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -32853,7 +32854,7 @@
       </c>
     </row>
     <row r="29" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="575"/>
+      <c r="A29" s="576"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -32959,7 +32960,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="575"/>
+      <c r="A30" s="576"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -33066,7 +33067,7 @@
       <c r="AE30" s="7"/>
     </row>
     <row r="31" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="575"/>
+      <c r="A31" s="576"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -33173,7 +33174,7 @@
       <c r="AE31" s="7"/>
     </row>
     <row r="32" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="575"/>
+      <c r="A32" s="576"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -33280,7 +33281,7 @@
       <c r="AE32" s="7"/>
     </row>
     <row r="33" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="575"/>
+      <c r="A33" s="576"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -33387,7 +33388,7 @@
       <c r="AE33" s="7"/>
     </row>
     <row r="34" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="575"/>
+      <c r="A34" s="576"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -33494,7 +33495,7 @@
       <c r="AE34" s="7"/>
     </row>
     <row r="35" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="575"/>
+      <c r="A35" s="576"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -33601,7 +33602,7 @@
       <c r="AE35" s="7"/>
     </row>
     <row r="36" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="575"/>
+      <c r="A36" s="576"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -33708,7 +33709,7 @@
       <c r="AE36" s="7"/>
     </row>
     <row r="37" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="575"/>
+      <c r="A37" s="576"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -33815,7 +33816,7 @@
       <c r="AE37" s="7"/>
     </row>
     <row r="38" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="575"/>
+      <c r="A38" s="576"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -33922,7 +33923,7 @@
       <c r="AE38" s="7"/>
     </row>
     <row r="39" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="575"/>
+      <c r="A39" s="576"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -34118,7 +34119,7 @@
       <c r="AE40" s="7"/>
     </row>
     <row r="41" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="574" t="s">
+      <c r="A41" s="575" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -34227,7 +34228,7 @@
       <c r="AE41" s="7"/>
     </row>
     <row r="42" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="575"/>
+      <c r="A42" s="576"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -34334,7 +34335,7 @@
       <c r="AE42" s="7"/>
     </row>
     <row r="43" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="575"/>
+      <c r="A43" s="576"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -34441,7 +34442,7 @@
       <c r="AE43" s="7"/>
     </row>
     <row r="44" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="575"/>
+      <c r="A44" s="576"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -34548,7 +34549,7 @@
       <c r="AE44" s="7"/>
     </row>
     <row r="45" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="575"/>
+      <c r="A45" s="576"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -34655,7 +34656,7 @@
       <c r="AE45" s="7"/>
     </row>
     <row r="46" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="575"/>
+      <c r="A46" s="576"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -34762,7 +34763,7 @@
       <c r="AE46" s="7"/>
     </row>
     <row r="47" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="575"/>
+      <c r="A47" s="576"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -34869,7 +34870,7 @@
       <c r="AE47" s="7"/>
     </row>
     <row r="48" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="575"/>
+      <c r="A48" s="576"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -34976,7 +34977,7 @@
       <c r="AE48" s="7"/>
     </row>
     <row r="49" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="575"/>
+      <c r="A49" s="576"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -35083,7 +35084,7 @@
       <c r="AE49" s="7"/>
     </row>
     <row r="50" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="575"/>
+      <c r="A50" s="576"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -35190,7 +35191,7 @@
       <c r="AE50" s="7"/>
     </row>
     <row r="51" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="575"/>
+      <c r="A51" s="576"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -35297,7 +35298,7 @@
       <c r="AE51" s="7"/>
     </row>
     <row r="52" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="576"/>
+      <c r="A52" s="577"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -35493,7 +35494,7 @@
       <c r="AE53" s="7"/>
     </row>
     <row r="54" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="574" t="s">
+      <c r="A54" s="575" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -35602,7 +35603,7 @@
       <c r="AE54" s="7"/>
     </row>
     <row r="55" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="575"/>
+      <c r="A55" s="576"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -35709,7 +35710,7 @@
       <c r="AE55" s="7"/>
     </row>
     <row r="56" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="575"/>
+      <c r="A56" s="576"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -35816,7 +35817,7 @@
       <c r="AE56" s="7"/>
     </row>
     <row r="57" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="575"/>
+      <c r="A57" s="576"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -35923,7 +35924,7 @@
       <c r="AE57" s="7"/>
     </row>
     <row r="58" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="575"/>
+      <c r="A58" s="576"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -36030,7 +36031,7 @@
       <c r="AE58" s="7"/>
     </row>
     <row r="59" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="575"/>
+      <c r="A59" s="576"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -36137,7 +36138,7 @@
       <c r="AE59" s="7"/>
     </row>
     <row r="60" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="575"/>
+      <c r="A60" s="576"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -36244,7 +36245,7 @@
       <c r="AE60" s="7"/>
     </row>
     <row r="61" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="575"/>
+      <c r="A61" s="576"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -36351,7 +36352,7 @@
       <c r="AE61" s="7"/>
     </row>
     <row r="62" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="575"/>
+      <c r="A62" s="576"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -36458,7 +36459,7 @@
       <c r="AE62" s="7"/>
     </row>
     <row r="63" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="575"/>
+      <c r="A63" s="576"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -36565,7 +36566,7 @@
       <c r="AE63" s="7"/>
     </row>
     <row r="64" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="575"/>
+      <c r="A64" s="576"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -36672,7 +36673,7 @@
       <c r="AE64" s="7"/>
     </row>
     <row r="65" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="576"/>
+      <c r="A65" s="577"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -36868,7 +36869,7 @@
       <c r="AE66" s="7"/>
     </row>
     <row r="67" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="574" t="s">
+      <c r="A67" s="575" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -36977,7 +36978,7 @@
       <c r="AE67" s="7"/>
     </row>
     <row r="68" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="575"/>
+      <c r="A68" s="576"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -37084,7 +37085,7 @@
       <c r="AE68" s="7"/>
     </row>
     <row r="69" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="575"/>
+      <c r="A69" s="576"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -37191,7 +37192,7 @@
       <c r="AE69" s="7"/>
     </row>
     <row r="70" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="575"/>
+      <c r="A70" s="576"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -37298,7 +37299,7 @@
       <c r="AE70" s="7"/>
     </row>
     <row r="71" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="575"/>
+      <c r="A71" s="576"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -37405,7 +37406,7 @@
       <c r="AE71" s="7"/>
     </row>
     <row r="72" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="575"/>
+      <c r="A72" s="576"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -37512,7 +37513,7 @@
       <c r="AE72" s="7"/>
     </row>
     <row r="73" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="575"/>
+      <c r="A73" s="576"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -37619,7 +37620,7 @@
       <c r="AE73" s="7"/>
     </row>
     <row r="74" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="575"/>
+      <c r="A74" s="576"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -37726,7 +37727,7 @@
       <c r="AE74" s="7"/>
     </row>
     <row r="75" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="575"/>
+      <c r="A75" s="576"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -37833,7 +37834,7 @@
       <c r="AE75" s="7"/>
     </row>
     <row r="76" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="575"/>
+      <c r="A76" s="576"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -37940,7 +37941,7 @@
       <c r="AE76" s="7"/>
     </row>
     <row r="77" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="575"/>
+      <c r="A77" s="576"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -38047,7 +38048,7 @@
       <c r="AE77" s="7"/>
     </row>
     <row r="78" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="577"/>
+      <c r="A78" s="578"/>
       <c r="B78" s="156" t="s">
         <v>17</v>
       </c>
@@ -38247,10 +38248,10 @@
       <c r="AE83" s="10"/>
     </row>
     <row r="84" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G84" s="585" t="s">
+      <c r="G84" s="556" t="s">
         <v>225</v>
       </c>
-      <c r="H84" s="586"/>
+      <c r="H84" s="557"/>
       <c r="I84" s="458" t="str">
         <f>IF(COUNT(E15:E26)=J81, CONCATENATE(ROUND(SUM(E15:E26)*J81/SUM(C15:C26)*1000, 2), " (", ROUND(SUM(E15:E26)*J81/SUM(C15:C26)*1000/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*J81/SUM(C15:C26)*1000*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -38284,10 +38285,10 @@
       <c r="AE84" s="10"/>
     </row>
     <row r="85" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G85" s="587" t="s">
+      <c r="G85" s="558" t="s">
         <v>21</v>
       </c>
-      <c r="H85" s="588"/>
+      <c r="H85" s="559"/>
       <c r="I85" s="461" t="str">
         <f>IF(COUNT(E28:E39)=J81, CONCATENATE(ROUND(SUM(E28:E39)*J81/SUM(C28:C39)*1000, 2), " (", ROUND(SUM(E28:E39)*J81/SUM(C28:C39)*1000/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*J81/SUM(C28:C39)*1000*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -38321,10 +38322,10 @@
       <c r="AE85" s="10"/>
     </row>
     <row r="86" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G86" s="587" t="s">
+      <c r="G86" s="558" t="s">
         <v>22</v>
       </c>
-      <c r="H86" s="588"/>
+      <c r="H86" s="559"/>
       <c r="I86" s="461" t="str">
         <f>IF(COUNT(E41:E52)=J81, CONCATENATE(ROUND(SUM(E41:E52)*J81/SUM(C41:C52)*1000, 2), " (", ROUND(SUM(E41:E52)*J81/SUM(C41:C52)*1000/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*J81/SUM(C41:C52)*1000*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -38358,10 +38359,10 @@
       <c r="AE86" s="10"/>
     </row>
     <row r="87" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G87" s="587" t="s">
+      <c r="G87" s="558" t="s">
         <v>23</v>
       </c>
-      <c r="H87" s="588"/>
+      <c r="H87" s="559"/>
       <c r="I87" s="461" t="str">
         <f>IF(COUNT(E54:E65)=J81, CONCATENATE(ROUND(SUM(E54:E65)*J81/SUM(C54:C65)*1000, 2), " (", ROUND(SUM(E54:E65)*J81/SUM(C54:C65)*1000/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*J81/SUM(C54:C65)*1000*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -38395,10 +38396,10 @@
       <c r="AE87" s="10"/>
     </row>
     <row r="88" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G88" s="587" t="s">
+      <c r="G88" s="558" t="s">
         <v>3</v>
       </c>
-      <c r="H88" s="588"/>
+      <c r="H88" s="559"/>
       <c r="I88" s="461" t="str">
         <f>IF(COUNT(E67:E78)=J81, CONCATENATE(ROUND(SUM(E67:E78)*J81/SUM(C67:C78)*1000, 2), " (", ROUND(SUM(E67:E78)*J81/SUM(C67:C78)*1000/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*J81/SUM(C67:C78)*1000*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -38432,10 +38433,10 @@
       <c r="AE88" s="10"/>
     </row>
     <row r="89" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G89" s="583" t="s">
+      <c r="G89" s="554" t="s">
         <v>1</v>
       </c>
-      <c r="H89" s="584"/>
+      <c r="H89" s="555"/>
       <c r="I89" s="487" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$J$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -38483,12 +38484,17 @@
     <protectedRange sqref="I15:N26 I41:N52 I54:N65 I67:N78 I28:N39 I84:N89" name="Range1_1_2"/>
   </protectedRanges>
   <mergeCells count="30">
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="I82:K82"/>
     <mergeCell ref="L82:N82"/>
@@ -38502,17 +38508,12 @@
     <mergeCell ref="A41:A52"/>
     <mergeCell ref="C12:D13"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
   </mergeCells>
   <conditionalFormatting sqref="A15:B39 AE30:AE78 A91:H1048576 A41:B52 A54:B65 A67:B78 W11:AE11 G11 A12:C12 A14:H14 G13 C1:H2 C3:G3 P3:V3 W10:AD10 O1:V2 O12:P12 R12:AD12 C4:H7 E11 E12:G12 A13:B13 E13 A1:A10 C9:C10 D8:H8 G9:H9 I82 L82 A80:G80 W1:XFD3 AE5:XFD5 O4:XFD4 O6:XFD9 H90 A81:F81 O80:P1048576 I83:N83 Q79:AE1048576 AF11:XFD1048576">
     <cfRule type="containsErrors" dxfId="466" priority="134">
@@ -39039,15 +39040,15 @@
         <v>226</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="582" t="str">
+      <c r="C9" s="583" t="str">
         <f>IF('W2'!G11+'W3'!$G$22&gt;0,"Yes","No. Please complete W2 or W3 first")</f>
         <v>No. Please complete W2 or W3 first</v>
       </c>
-      <c r="D9" s="582"/>
-      <c r="E9" s="582"/>
-      <c r="F9" s="582"/>
-      <c r="G9" s="582"/>
-      <c r="H9" s="582"/>
+      <c r="D9" s="583"/>
+      <c r="E9" s="583"/>
+      <c r="F9" s="583"/>
+      <c r="G9" s="583"/>
+      <c r="H9" s="583"/>
       <c r="I9" s="69"/>
       <c r="J9" s="69"/>
       <c r="K9" s="150"/>
@@ -39088,14 +39089,14 @@
       <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E11" s="591" t="s">
+      <c r="E11" s="595" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="591"/>
-      <c r="G11" s="591"/>
-      <c r="H11" s="591"/>
-      <c r="I11" s="591"/>
-      <c r="J11" s="591"/>
+      <c r="F11" s="595"/>
+      <c r="G11" s="595"/>
+      <c r="H11" s="595"/>
+      <c r="I11" s="595"/>
+      <c r="J11" s="595"/>
       <c r="K11" s="9" t="s">
         <v>224</v>
       </c>
@@ -39112,15 +39113,15 @@
     <row r="12" spans="1:20" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="428"/>
       <c r="B12" s="429"/>
-      <c r="C12" s="578" t="s">
+      <c r="C12" s="579" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="579"/>
-      <c r="E12" s="592" t="s">
+      <c r="D12" s="580"/>
+      <c r="E12" s="596" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="592"/>
-      <c r="G12" s="592"/>
+      <c r="F12" s="596"/>
+      <c r="G12" s="596"/>
       <c r="H12" s="168"/>
       <c r="I12" s="168"/>
       <c r="J12" s="168"/>
@@ -39140,35 +39141,35 @@
     <row r="13" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="154"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="580"/>
-      <c r="D13" s="581"/>
-      <c r="E13" s="556" t="s">
+      <c r="C13" s="581"/>
+      <c r="D13" s="582"/>
+      <c r="E13" s="574" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="556"/>
-      <c r="G13" s="556" t="s">
+      <c r="F13" s="574"/>
+      <c r="G13" s="574" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="556"/>
-      <c r="I13" s="556" t="s">
+      <c r="H13" s="574"/>
+      <c r="I13" s="574" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="556"/>
-      <c r="K13" s="558" t="s">
+      <c r="J13" s="574"/>
+      <c r="K13" s="587" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="554"/>
-      <c r="M13" s="554"/>
-      <c r="N13" s="595" t="s">
+      <c r="L13" s="584"/>
+      <c r="M13" s="584"/>
+      <c r="N13" s="589" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="556"/>
-      <c r="P13" s="596"/>
-      <c r="Q13" s="558" t="s">
+      <c r="O13" s="574"/>
+      <c r="P13" s="590"/>
+      <c r="Q13" s="587" t="s">
         <v>32</v>
       </c>
-      <c r="R13" s="554"/>
-      <c r="S13" s="559"/>
+      <c r="R13" s="584"/>
+      <c r="S13" s="588"/>
     </row>
     <row r="14" spans="1:20" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="344" t="s">
@@ -39230,7 +39231,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="575" t="s">
+      <c r="A15" s="576" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -39288,7 +39289,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="575"/>
+      <c r="A16" s="576"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -39344,7 +39345,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="575"/>
+      <c r="A17" s="576"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -39400,7 +39401,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="575"/>
+      <c r="A18" s="576"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -39456,7 +39457,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="575"/>
+      <c r="A19" s="576"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -39512,7 +39513,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="575"/>
+      <c r="A20" s="576"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -39568,7 +39569,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="575"/>
+      <c r="A21" s="576"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -39624,7 +39625,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="575"/>
+      <c r="A22" s="576"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -39680,7 +39681,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="575"/>
+      <c r="A23" s="576"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -39736,7 +39737,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="575"/>
+      <c r="A24" s="576"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -39792,7 +39793,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="575"/>
+      <c r="A25" s="576"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -39848,7 +39849,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="576"/>
+      <c r="A26" s="577"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -39959,7 +39960,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="575" t="s">
+      <c r="A28" s="576" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -40017,7 +40018,7 @@
       </c>
     </row>
     <row r="29" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="575"/>
+      <c r="A29" s="576"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -40073,7 +40074,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="575"/>
+      <c r="A30" s="576"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -40130,7 +40131,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="575"/>
+      <c r="A31" s="576"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -40187,7 +40188,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="575"/>
+      <c r="A32" s="576"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -40244,7 +40245,7 @@
       <c r="T32" s="7"/>
     </row>
     <row r="33" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="575"/>
+      <c r="A33" s="576"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -40301,7 +40302,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="575"/>
+      <c r="A34" s="576"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -40358,7 +40359,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="575"/>
+      <c r="A35" s="576"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -40415,7 +40416,7 @@
       <c r="T35" s="7"/>
     </row>
     <row r="36" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="575"/>
+      <c r="A36" s="576"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -40472,7 +40473,7 @@
       <c r="T36" s="7"/>
     </row>
     <row r="37" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="575"/>
+      <c r="A37" s="576"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -40529,7 +40530,7 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="575"/>
+      <c r="A38" s="576"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -40586,7 +40587,7 @@
       <c r="T38" s="7"/>
     </row>
     <row r="39" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="575"/>
+      <c r="A39" s="576"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -40699,7 +40700,7 @@
       <c r="T40" s="7"/>
     </row>
     <row r="41" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="574" t="s">
+      <c r="A41" s="575" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -40758,7 +40759,7 @@
       <c r="T41" s="7"/>
     </row>
     <row r="42" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="575"/>
+      <c r="A42" s="576"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -40815,7 +40816,7 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="575"/>
+      <c r="A43" s="576"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -40872,7 +40873,7 @@
       <c r="T43" s="7"/>
     </row>
     <row r="44" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="575"/>
+      <c r="A44" s="576"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -40929,7 +40930,7 @@
       <c r="T44" s="7"/>
     </row>
     <row r="45" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="575"/>
+      <c r="A45" s="576"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -40986,7 +40987,7 @@
       <c r="T45" s="7"/>
     </row>
     <row r="46" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="575"/>
+      <c r="A46" s="576"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -41043,7 +41044,7 @@
       <c r="T46" s="7"/>
     </row>
     <row r="47" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="575"/>
+      <c r="A47" s="576"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -41100,7 +41101,7 @@
       <c r="T47" s="7"/>
     </row>
     <row r="48" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="575"/>
+      <c r="A48" s="576"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -41157,7 +41158,7 @@
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="575"/>
+      <c r="A49" s="576"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -41214,7 +41215,7 @@
       <c r="T49" s="7"/>
     </row>
     <row r="50" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="575"/>
+      <c r="A50" s="576"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -41271,7 +41272,7 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="575"/>
+      <c r="A51" s="576"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -41328,7 +41329,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="576"/>
+      <c r="A52" s="577"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -41441,7 +41442,7 @@
       <c r="T53" s="7"/>
     </row>
     <row r="54" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="574" t="s">
+      <c r="A54" s="575" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -41500,7 +41501,7 @@
       <c r="T54" s="7"/>
     </row>
     <row r="55" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="575"/>
+      <c r="A55" s="576"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -41557,7 +41558,7 @@
       <c r="T55" s="7"/>
     </row>
     <row r="56" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="575"/>
+      <c r="A56" s="576"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -41614,7 +41615,7 @@
       <c r="T56" s="7"/>
     </row>
     <row r="57" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="575"/>
+      <c r="A57" s="576"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -41671,7 +41672,7 @@
       <c r="T57" s="7"/>
     </row>
     <row r="58" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="575"/>
+      <c r="A58" s="576"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -41728,7 +41729,7 @@
       <c r="T58" s="7"/>
     </row>
     <row r="59" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="575"/>
+      <c r="A59" s="576"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -41785,7 +41786,7 @@
       <c r="T59" s="7"/>
     </row>
     <row r="60" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="575"/>
+      <c r="A60" s="576"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -41842,7 +41843,7 @@
       <c r="T60" s="7"/>
     </row>
     <row r="61" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="575"/>
+      <c r="A61" s="576"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -41899,7 +41900,7 @@
       <c r="T61" s="7"/>
     </row>
     <row r="62" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="575"/>
+      <c r="A62" s="576"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -41956,7 +41957,7 @@
       <c r="T62" s="7"/>
     </row>
     <row r="63" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="575"/>
+      <c r="A63" s="576"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -42013,7 +42014,7 @@
       <c r="T63" s="7"/>
     </row>
     <row r="64" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="575"/>
+      <c r="A64" s="576"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -42070,7 +42071,7 @@
       <c r="T64" s="7"/>
     </row>
     <row r="65" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="576"/>
+      <c r="A65" s="577"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -42183,7 +42184,7 @@
       <c r="T66" s="7"/>
     </row>
     <row r="67" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="574" t="s">
+      <c r="A67" s="575" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -42242,7 +42243,7 @@
       <c r="T67" s="7"/>
     </row>
     <row r="68" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="575"/>
+      <c r="A68" s="576"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -42299,7 +42300,7 @@
       <c r="T68" s="7"/>
     </row>
     <row r="69" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="575"/>
+      <c r="A69" s="576"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -42356,7 +42357,7 @@
       <c r="T69" s="7"/>
     </row>
     <row r="70" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="575"/>
+      <c r="A70" s="576"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -42413,7 +42414,7 @@
       <c r="T70" s="7"/>
     </row>
     <row r="71" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="575"/>
+      <c r="A71" s="576"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -42470,7 +42471,7 @@
       <c r="T71" s="7"/>
     </row>
     <row r="72" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="575"/>
+      <c r="A72" s="576"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -42527,7 +42528,7 @@
       <c r="T72" s="7"/>
     </row>
     <row r="73" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="575"/>
+      <c r="A73" s="576"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -42584,7 +42585,7 @@
       <c r="T73" s="7"/>
     </row>
     <row r="74" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="575"/>
+      <c r="A74" s="576"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -42641,7 +42642,7 @@
       <c r="T74" s="7"/>
     </row>
     <row r="75" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="575"/>
+      <c r="A75" s="576"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -42698,7 +42699,7 @@
       <c r="T75" s="7"/>
     </row>
     <row r="76" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="575"/>
+      <c r="A76" s="576"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -42755,7 +42756,7 @@
       <c r="T76" s="7"/>
     </row>
     <row r="77" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="575"/>
+      <c r="A77" s="576"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -42812,7 +42813,7 @@
       <c r="T77" s="7"/>
     </row>
     <row r="78" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="577"/>
+      <c r="A78" s="578"/>
       <c r="B78" s="156" t="s">
         <v>17</v>
       </c>
@@ -42980,10 +42981,10 @@
       <c r="T83" s="10"/>
     </row>
     <row r="84" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I84" s="593" t="s">
+      <c r="I84" s="591" t="s">
         <v>225</v>
       </c>
-      <c r="J84" s="594"/>
+      <c r="J84" s="592"/>
       <c r="K84" s="459" t="str">
         <f>IF(COUNT(E15:E26)=$L$81, CONCATENATE(ROUND(SUM(E15:E26)*$L$81/SUM(C15:C26)*1000, 2), " (", ROUND(SUM(E15:E26)*$L$81/SUM(C15:C26)*1000/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*$L$81/SUM(C15:C26)*1000*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -43023,10 +43024,10 @@
       <c r="T84" s="10"/>
     </row>
     <row r="85" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I85" s="587" t="s">
+      <c r="I85" s="558" t="s">
         <v>21</v>
       </c>
-      <c r="J85" s="589"/>
+      <c r="J85" s="593"/>
       <c r="K85" s="462" t="str">
         <f>IF(COUNT(E28:E39)=$L$81, CONCATENATE(ROUND(SUM(E28:E39)*$L$81/SUM(C28:C39)*1000, 2), " (", ROUND(SUM(E28:E39)*$L$81/SUM(C28:C39)*1000/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*$L$81/SUM(C28:C39)*1000*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -43066,10 +43067,10 @@
       <c r="T85" s="10"/>
     </row>
     <row r="86" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I86" s="587" t="s">
+      <c r="I86" s="558" t="s">
         <v>22</v>
       </c>
-      <c r="J86" s="589"/>
+      <c r="J86" s="593"/>
       <c r="K86" s="462" t="str">
         <f>IF(COUNT(E41:E52)=$L$81, CONCATENATE(ROUND(SUM(E41:E52)*$L$81/SUM(C41:C52)*1000, 2), " (", ROUND(SUM(E41:E52)*$L$81/SUM(C41:C52)*1000/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*$L$81/SUM(C41:C52)*1000*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -43109,10 +43110,10 @@
       <c r="T86" s="10"/>
     </row>
     <row r="87" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I87" s="587" t="s">
+      <c r="I87" s="558" t="s">
         <v>23</v>
       </c>
-      <c r="J87" s="589"/>
+      <c r="J87" s="593"/>
       <c r="K87" s="462" t="str">
         <f>IF(COUNT(E54:E65)=$L$81, CONCATENATE(ROUND(SUM(E54:E65)*$L$81/SUM(C54:C65)*1000, 2), " (", ROUND(SUM(E54:E65)*$L$81/SUM(C54:C65)*1000/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*$L$81/SUM(C54:C65)*1000*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -43152,10 +43153,10 @@
       <c r="T87" s="10"/>
     </row>
     <row r="88" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I88" s="587" t="s">
+      <c r="I88" s="558" t="s">
         <v>3</v>
       </c>
-      <c r="J88" s="589"/>
+      <c r="J88" s="593"/>
       <c r="K88" s="462" t="str">
         <f>IF(COUNT(E67:E78)=$L$81, CONCATENATE(ROUND(SUM(E67:E78)*$L$81/SUM(C67:C78)*1000, 2), " (", ROUND(SUM(E67:E78)*$L$81/SUM(C67:C78)*1000/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*$L$81/SUM(C67:C78)*1000*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -43195,10 +43196,10 @@
       <c r="T88" s="10"/>
     </row>
     <row r="89" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I89" s="583" t="s">
+      <c r="I89" s="554" t="s">
         <v>1</v>
       </c>
-      <c r="J89" s="590"/>
+      <c r="J89" s="594"/>
       <c r="K89" s="488" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$L$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*L81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*L81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*L81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -43256,6 +43257,25 @@
     <protectedRange sqref="K84:S89" name="Range1_1_2_2"/>
   </protectedRanges>
   <mergeCells count="27">
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="I82:J83"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="Q82:S82"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="N82:P82"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="A41:A52"/>
+    <mergeCell ref="A54:A65"/>
+    <mergeCell ref="N13:P13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C12:D13"/>
@@ -43264,25 +43284,6 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:M13"/>
     <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A15:A26"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="A41:A52"/>
-    <mergeCell ref="A54:A65"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="A67:A78"/>
-    <mergeCell ref="I82:J83"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="Q82:S82"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="N82:P82"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="I85:J85"/>
   </mergeCells>
   <conditionalFormatting sqref="A91:J1048576 T11 A80:I80 T1:XFD9 J90 A81:H81 H12:I12 E12 K83:M83 Q83:S83 U11:XFD1048576 T30:T1048576">
     <cfRule type="containsErrors" dxfId="401" priority="178">
@@ -43771,13 +43772,13 @@
         <v>226</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="582" t="str">
+      <c r="C9" s="583" t="str">
         <f>IF('W2'!G11+'W3'!$G$22&gt;0,"Yes","No. Please complete W2 or W3 first")</f>
         <v>No. Please complete W2 or W3 first</v>
       </c>
-      <c r="D9" s="582"/>
-      <c r="E9" s="582"/>
-      <c r="F9" s="582"/>
+      <c r="D9" s="583"/>
+      <c r="E9" s="583"/>
+      <c r="F9" s="583"/>
       <c r="G9" s="150"/>
       <c r="H9" s="19"/>
       <c r="I9" s="12"/>
@@ -43814,10 +43815,10 @@
     <row r="12" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="428"/>
       <c r="B12" s="429"/>
-      <c r="C12" s="578" t="s">
+      <c r="C12" s="579" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="579"/>
+      <c r="D12" s="580"/>
       <c r="E12" s="454" t="s">
         <v>27</v>
       </c>
@@ -43832,17 +43833,17 @@
     <row r="13" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="154"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="580"/>
-      <c r="D13" s="581"/>
-      <c r="E13" s="556" t="s">
+      <c r="C13" s="581"/>
+      <c r="D13" s="582"/>
+      <c r="E13" s="574" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="556"/>
-      <c r="G13" s="595" t="s">
+      <c r="F13" s="574"/>
+      <c r="G13" s="589" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="556"/>
-      <c r="I13" s="596"/>
+      <c r="H13" s="574"/>
+      <c r="I13" s="590"/>
     </row>
     <row r="14" spans="1:10" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="344" t="s">
@@ -43874,7 +43875,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="575" t="s">
+      <c r="A15" s="576" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -43904,7 +43905,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="575"/>
+      <c r="A16" s="576"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -43932,7 +43933,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="575"/>
+      <c r="A17" s="576"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -43960,7 +43961,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="575"/>
+      <c r="A18" s="576"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -43988,7 +43989,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="575"/>
+      <c r="A19" s="576"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -44016,7 +44017,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="575"/>
+      <c r="A20" s="576"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -44044,7 +44045,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="575"/>
+      <c r="A21" s="576"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -44072,7 +44073,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="575"/>
+      <c r="A22" s="576"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -44100,7 +44101,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="575"/>
+      <c r="A23" s="576"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -44128,7 +44129,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="575"/>
+      <c r="A24" s="576"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -44156,7 +44157,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="575"/>
+      <c r="A25" s="576"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -44184,7 +44185,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="576"/>
+      <c r="A26" s="577"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -44237,7 +44238,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="575" t="s">
+      <c r="A28" s="576" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -44267,7 +44268,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="575"/>
+      <c r="A29" s="576"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -44295,7 +44296,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="575"/>
+      <c r="A30" s="576"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -44324,7 +44325,7 @@
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="575"/>
+      <c r="A31" s="576"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -44353,7 +44354,7 @@
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="575"/>
+      <c r="A32" s="576"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -44382,7 +44383,7 @@
       <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="575"/>
+      <c r="A33" s="576"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -44411,7 +44412,7 @@
       <c r="J33" s="7"/>
     </row>
     <row r="34" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="575"/>
+      <c r="A34" s="576"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -44440,7 +44441,7 @@
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="575"/>
+      <c r="A35" s="576"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -44469,7 +44470,7 @@
       <c r="J35" s="7"/>
     </row>
     <row r="36" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="575"/>
+      <c r="A36" s="576"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -44498,7 +44499,7 @@
       <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="575"/>
+      <c r="A37" s="576"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -44527,7 +44528,7 @@
       <c r="J37" s="7"/>
     </row>
     <row r="38" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="575"/>
+      <c r="A38" s="576"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -44556,7 +44557,7 @@
       <c r="J38" s="7"/>
     </row>
     <row r="39" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="575"/>
+      <c r="A39" s="576"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -44611,7 +44612,7 @@
       <c r="J40" s="7"/>
     </row>
     <row r="41" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="574" t="s">
+      <c r="A41" s="575" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -44642,7 +44643,7 @@
       <c r="J41" s="7"/>
     </row>
     <row r="42" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="575"/>
+      <c r="A42" s="576"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -44671,7 +44672,7 @@
       <c r="J42" s="7"/>
     </row>
     <row r="43" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="575"/>
+      <c r="A43" s="576"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -44700,7 +44701,7 @@
       <c r="J43" s="7"/>
     </row>
     <row r="44" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="575"/>
+      <c r="A44" s="576"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -44729,7 +44730,7 @@
       <c r="J44" s="7"/>
     </row>
     <row r="45" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="575"/>
+      <c r="A45" s="576"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -44758,7 +44759,7 @@
       <c r="J45" s="7"/>
     </row>
     <row r="46" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="575"/>
+      <c r="A46" s="576"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -44787,7 +44788,7 @@
       <c r="J46" s="7"/>
     </row>
     <row r="47" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="575"/>
+      <c r="A47" s="576"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -44816,7 +44817,7 @@
       <c r="J47" s="7"/>
     </row>
     <row r="48" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="575"/>
+      <c r="A48" s="576"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -44845,7 +44846,7 @@
       <c r="J48" s="7"/>
     </row>
     <row r="49" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="575"/>
+      <c r="A49" s="576"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -44874,7 +44875,7 @@
       <c r="J49" s="7"/>
     </row>
     <row r="50" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="575"/>
+      <c r="A50" s="576"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -44903,7 +44904,7 @@
       <c r="J50" s="7"/>
     </row>
     <row r="51" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="575"/>
+      <c r="A51" s="576"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -44932,7 +44933,7 @@
       <c r="J51" s="7"/>
     </row>
     <row r="52" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="576"/>
+      <c r="A52" s="577"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -44987,7 +44988,7 @@
       <c r="J53" s="7"/>
     </row>
     <row r="54" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="574" t="s">
+      <c r="A54" s="575" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -45018,7 +45019,7 @@
       <c r="J54" s="7"/>
     </row>
     <row r="55" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="575"/>
+      <c r="A55" s="576"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -45047,7 +45048,7 @@
       <c r="J55" s="7"/>
     </row>
     <row r="56" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="575"/>
+      <c r="A56" s="576"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -45076,7 +45077,7 @@
       <c r="J56" s="7"/>
     </row>
     <row r="57" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="575"/>
+      <c r="A57" s="576"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -45105,7 +45106,7 @@
       <c r="J57" s="7"/>
     </row>
     <row r="58" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="575"/>
+      <c r="A58" s="576"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -45134,7 +45135,7 @@
       <c r="J58" s="7"/>
     </row>
     <row r="59" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="575"/>
+      <c r="A59" s="576"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -45163,7 +45164,7 @@
       <c r="J59" s="7"/>
     </row>
     <row r="60" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="575"/>
+      <c r="A60" s="576"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -45192,7 +45193,7 @@
       <c r="J60" s="7"/>
     </row>
     <row r="61" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="575"/>
+      <c r="A61" s="576"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -45221,7 +45222,7 @@
       <c r="J61" s="7"/>
     </row>
     <row r="62" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="575"/>
+      <c r="A62" s="576"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -45250,7 +45251,7 @@
       <c r="J62" s="7"/>
     </row>
     <row r="63" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="575"/>
+      <c r="A63" s="576"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -45279,7 +45280,7 @@
       <c r="J63" s="7"/>
     </row>
     <row r="64" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="575"/>
+      <c r="A64" s="576"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -45308,7 +45309,7 @@
       <c r="J64" s="7"/>
     </row>
     <row r="65" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="576"/>
+      <c r="A65" s="577"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -45363,7 +45364,7 @@
       <c r="J66" s="7"/>
     </row>
     <row r="67" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="574" t="s">
+      <c r="A67" s="575" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -45394,7 +45395,7 @@
       <c r="J67" s="7"/>
     </row>
     <row r="68" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="575"/>
+      <c r="A68" s="576"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -45423,7 +45424,7 @@
       <c r="J68" s="7"/>
     </row>
     <row r="69" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="575"/>
+      <c r="A69" s="576"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -45452,7 +45453,7 @@
       <c r="J69" s="7"/>
     </row>
     <row r="70" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="575"/>
+      <c r="A70" s="576"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -45481,7 +45482,7 @@
       <c r="J70" s="7"/>
     </row>
     <row r="71" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="575"/>
+      <c r="A71" s="576"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -45510,7 +45511,7 @@
       <c r="J71" s="7"/>
     </row>
     <row r="72" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="575"/>
+      <c r="A72" s="576"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -45539,7 +45540,7 @@
       <c r="J72" s="7"/>
     </row>
     <row r="73" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="575"/>
+      <c r="A73" s="576"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -45568,7 +45569,7 @@
       <c r="J73" s="7"/>
     </row>
     <row r="74" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="575"/>
+      <c r="A74" s="576"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -45597,7 +45598,7 @@
       <c r="J74" s="7"/>
     </row>
     <row r="75" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="575"/>
+      <c r="A75" s="576"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -45626,7 +45627,7 @@
       <c r="J75" s="7"/>
     </row>
     <row r="76" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="575"/>
+      <c r="A76" s="576"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -45655,7 +45656,7 @@
       <c r="J76" s="7"/>
     </row>
     <row r="77" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="575"/>
+      <c r="A77" s="576"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -45684,7 +45685,7 @@
       <c r="J77" s="7"/>
     </row>
     <row r="78" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="577"/>
+      <c r="A78" s="578"/>
       <c r="B78" s="156" t="s">
         <v>17</v>
       </c>
@@ -45763,10 +45764,10 @@
       <c r="J83" s="10"/>
     </row>
     <row r="84" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E84" s="585" t="s">
+      <c r="E84" s="556" t="s">
         <v>225</v>
       </c>
-      <c r="F84" s="586"/>
+      <c r="F84" s="557"/>
       <c r="G84" s="458" t="str">
         <f>IF(COUNT(E15:E26)=H81, CONCATENATE(ROUND(SUM(E15:E26)*H81/SUM(C15:C26)*1000, 2), " (", ROUND(SUM(E15:E26)*H81/SUM(C15:C26)*1000/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*H81/SUM(C15:C26)*1000*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -45782,10 +45783,10 @@
       <c r="J84" s="10"/>
     </row>
     <row r="85" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E85" s="587" t="s">
+      <c r="E85" s="558" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="588"/>
+      <c r="F85" s="559"/>
       <c r="G85" s="461" t="str">
         <f>IF(COUNT(E28:E39)=H81, CONCATENATE(ROUND(SUM(E28:E39)*H81/SUM(C28:C39)*1000, 2), " (", ROUND(SUM(E28:E39)*H81/SUM(C28:C39)*1000/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*H81/SUM(C28:C39)*1000*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -45801,10 +45802,10 @@
       <c r="J85" s="10"/>
     </row>
     <row r="86" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E86" s="587" t="s">
+      <c r="E86" s="558" t="s">
         <v>22</v>
       </c>
-      <c r="F86" s="588"/>
+      <c r="F86" s="559"/>
       <c r="G86" s="461" t="str">
         <f>IF(COUNT(E41:E52)=H81, CONCATENATE(ROUND(SUM(E41:E52)*H81/SUM(C41:C52)*1000, 2), " (", ROUND(SUM(E41:E52)*H81/SUM(C41:C52)*1000/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*H81/SUM(C41:C52)*1000*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -45820,10 +45821,10 @@
       <c r="J86" s="10"/>
     </row>
     <row r="87" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E87" s="587" t="s">
+      <c r="E87" s="558" t="s">
         <v>23</v>
       </c>
-      <c r="F87" s="588"/>
+      <c r="F87" s="559"/>
       <c r="G87" s="461" t="str">
         <f>IF(COUNT(E54:E65)=H81, CONCATENATE(ROUND(SUM(E54:E65)*H81/SUM(C54:C65)*1000, 2), " (", ROUND(SUM(E54:E65)*H81/SUM(C54:C65)*1000/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*H81/SUM(C54:C65)*1000*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -45839,10 +45840,10 @@
       <c r="J87" s="10"/>
     </row>
     <row r="88" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E88" s="587" t="s">
+      <c r="E88" s="558" t="s">
         <v>3</v>
       </c>
-      <c r="F88" s="588"/>
+      <c r="F88" s="559"/>
       <c r="G88" s="461" t="str">
         <f>IF(COUNT(E67:E78)=H81, CONCATENATE(ROUND(SUM(E67:E78)*H81/SUM(C67:C78)*1000, 2), " (", ROUND(SUM(E67:E78)*H81/SUM(C67:C78)*1000/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*H81/SUM(C67:C78)*1000*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -45858,10 +45859,10 @@
       <c r="J88" s="10"/>
     </row>
     <row r="89" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E89" s="583" t="s">
+      <c r="E89" s="554" t="s">
         <v>1</v>
       </c>
-      <c r="F89" s="584"/>
+      <c r="F89" s="555"/>
       <c r="G89" s="487" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$H$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*H81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*H81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*H81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -45890,18 +45891,6 @@
     <protectedRange sqref="G41:I52 G54:I65 G67:I78 G28:I39 G84:I89 G15:I26" name="Range1_1_2"/>
   </protectedRanges>
   <mergeCells count="19">
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A67:A78"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="A15:A26"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="A41:A52"/>
-    <mergeCell ref="A54:A65"/>
     <mergeCell ref="E89:F89"/>
     <mergeCell ref="E82:F83"/>
     <mergeCell ref="E84:F84"/>
@@ -45909,6 +45898,18 @@
     <mergeCell ref="E86:F86"/>
     <mergeCell ref="E87:F87"/>
     <mergeCell ref="E88:F88"/>
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="A41:A52"/>
+    <mergeCell ref="A54:A65"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:I13"/>
   </mergeCells>
   <conditionalFormatting sqref="A15:B39 A91:F1048576 A41:B52 A54:B65 A67:B78 A12:C12 A14:F14 C1:F7 E11 E12:F12 A13:B13 E13 A1:A10 C9:C10 D8:F8 G82 A80:F80 G83:I83 A81:D81 K11:XFD1048576 J11 J1:XFD9 J30:J1048576">
     <cfRule type="containsErrors" dxfId="330" priority="68">
@@ -46231,13 +46232,13 @@
         <v>226</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="582" t="str">
+      <c r="C9" s="583" t="str">
         <f>IF('W2'!G11+'W3'!$G$22&gt;0,"Yes","No. Please complete W2 or W3 first")</f>
         <v>No. Please complete W2 or W3 first</v>
       </c>
-      <c r="D9" s="582"/>
-      <c r="E9" s="582"/>
-      <c r="F9" s="582"/>
+      <c r="D9" s="583"/>
+      <c r="E9" s="583"/>
+      <c r="F9" s="583"/>
       <c r="G9" s="69"/>
       <c r="H9" s="69"/>
       <c r="I9" s="150"/>
@@ -46289,10 +46290,10 @@
     <row r="12" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="428"/>
       <c r="B12" s="429"/>
-      <c r="C12" s="578" t="s">
+      <c r="C12" s="579" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="579"/>
+      <c r="D12" s="580"/>
       <c r="E12" s="454" t="s">
         <v>27</v>
       </c>
@@ -46312,26 +46313,26 @@
     <row r="13" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="154"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="580"/>
-      <c r="D13" s="581"/>
-      <c r="E13" s="556" t="s">
+      <c r="C13" s="581"/>
+      <c r="D13" s="582"/>
+      <c r="E13" s="574" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="556"/>
-      <c r="G13" s="556" t="s">
+      <c r="F13" s="574"/>
+      <c r="G13" s="574" t="s">
         <v>252</v>
       </c>
-      <c r="H13" s="556"/>
-      <c r="I13" s="558" t="s">
+      <c r="H13" s="574"/>
+      <c r="I13" s="587" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="554"/>
-      <c r="K13" s="554"/>
-      <c r="L13" s="558" t="s">
+      <c r="J13" s="584"/>
+      <c r="K13" s="584"/>
+      <c r="L13" s="587" t="s">
         <v>34</v>
       </c>
-      <c r="M13" s="554"/>
-      <c r="N13" s="559"/>
+      <c r="M13" s="584"/>
+      <c r="N13" s="588"/>
     </row>
     <row r="14" spans="1:15" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="344" t="s">
@@ -46378,7 +46379,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="575" t="s">
+      <c r="A15" s="576" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -46422,7 +46423,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="575"/>
+      <c r="A16" s="576"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -46464,7 +46465,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="575"/>
+      <c r="A17" s="576"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -46506,7 +46507,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="575"/>
+      <c r="A18" s="576"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -46548,7 +46549,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="575"/>
+      <c r="A19" s="576"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -46590,7 +46591,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="575"/>
+      <c r="A20" s="576"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -46632,7 +46633,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="575"/>
+      <c r="A21" s="576"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -46674,7 +46675,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="575"/>
+      <c r="A22" s="576"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -46716,7 +46717,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="575"/>
+      <c r="A23" s="576"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -46758,7 +46759,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="575"/>
+      <c r="A24" s="576"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -46800,7 +46801,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="575"/>
+      <c r="A25" s="576"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -46842,7 +46843,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="576"/>
+      <c r="A26" s="577"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -46924,7 +46925,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="575" t="s">
+      <c r="A28" s="576" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -46968,7 +46969,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="575"/>
+      <c r="A29" s="576"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -47010,7 +47011,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="575"/>
+      <c r="A30" s="576"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -47053,7 +47054,7 @@
       <c r="O30" s="7"/>
     </row>
     <row r="31" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="575"/>
+      <c r="A31" s="576"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -47096,7 +47097,7 @@
       <c r="O31" s="7"/>
     </row>
     <row r="32" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="575"/>
+      <c r="A32" s="576"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -47139,7 +47140,7 @@
       <c r="O32" s="7"/>
     </row>
     <row r="33" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="575"/>
+      <c r="A33" s="576"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -47182,7 +47183,7 @@
       <c r="O33" s="7"/>
     </row>
     <row r="34" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="575"/>
+      <c r="A34" s="576"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -47225,7 +47226,7 @@
       <c r="O34" s="7"/>
     </row>
     <row r="35" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="575"/>
+      <c r="A35" s="576"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -47268,7 +47269,7 @@
       <c r="O35" s="7"/>
     </row>
     <row r="36" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="575"/>
+      <c r="A36" s="576"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -47311,7 +47312,7 @@
       <c r="O36" s="7"/>
     </row>
     <row r="37" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="575"/>
+      <c r="A37" s="576"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -47354,7 +47355,7 @@
       <c r="O37" s="7"/>
     </row>
     <row r="38" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="575"/>
+      <c r="A38" s="576"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -47397,7 +47398,7 @@
       <c r="O38" s="7"/>
     </row>
     <row r="39" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="575"/>
+      <c r="A39" s="576"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -47481,7 +47482,7 @@
       <c r="O40" s="7"/>
     </row>
     <row r="41" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="574" t="s">
+      <c r="A41" s="575" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -47526,7 +47527,7 @@
       <c r="O41" s="7"/>
     </row>
     <row r="42" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="575"/>
+      <c r="A42" s="576"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -47569,7 +47570,7 @@
       <c r="O42" s="7"/>
     </row>
     <row r="43" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="575"/>
+      <c r="A43" s="576"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -47612,7 +47613,7 @@
       <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="575"/>
+      <c r="A44" s="576"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -47655,7 +47656,7 @@
       <c r="O44" s="7"/>
     </row>
     <row r="45" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="575"/>
+      <c r="A45" s="576"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -47698,7 +47699,7 @@
       <c r="O45" s="7"/>
     </row>
     <row r="46" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="575"/>
+      <c r="A46" s="576"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -47741,7 +47742,7 @@
       <c r="O46" s="7"/>
     </row>
     <row r="47" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="575"/>
+      <c r="A47" s="576"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -47784,7 +47785,7 @@
       <c r="O47" s="7"/>
     </row>
     <row r="48" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="575"/>
+      <c r="A48" s="576"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -47827,7 +47828,7 @@
       <c r="O48" s="7"/>
     </row>
     <row r="49" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="575"/>
+      <c r="A49" s="576"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -47870,7 +47871,7 @@
       <c r="O49" s="7"/>
     </row>
     <row r="50" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="575"/>
+      <c r="A50" s="576"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -47913,7 +47914,7 @@
       <c r="O50" s="7"/>
     </row>
     <row r="51" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="575"/>
+      <c r="A51" s="576"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -47956,7 +47957,7 @@
       <c r="O51" s="7"/>
     </row>
     <row r="52" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="576"/>
+      <c r="A52" s="577"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -48040,7 +48041,7 @@
       <c r="O53" s="7"/>
     </row>
     <row r="54" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="574" t="s">
+      <c r="A54" s="575" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -48085,7 +48086,7 @@
       <c r="O54" s="7"/>
     </row>
     <row r="55" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="575"/>
+      <c r="A55" s="576"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -48128,7 +48129,7 @@
       <c r="O55" s="7"/>
     </row>
     <row r="56" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="575"/>
+      <c r="A56" s="576"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -48171,7 +48172,7 @@
       <c r="O56" s="7"/>
     </row>
     <row r="57" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="575"/>
+      <c r="A57" s="576"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -48214,7 +48215,7 @@
       <c r="O57" s="7"/>
     </row>
     <row r="58" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="575"/>
+      <c r="A58" s="576"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -48257,7 +48258,7 @@
       <c r="O58" s="7"/>
     </row>
     <row r="59" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="575"/>
+      <c r="A59" s="576"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -48300,7 +48301,7 @@
       <c r="O59" s="7"/>
     </row>
     <row r="60" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="575"/>
+      <c r="A60" s="576"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -48343,7 +48344,7 @@
       <c r="O60" s="7"/>
     </row>
     <row r="61" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="575"/>
+      <c r="A61" s="576"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -48386,7 +48387,7 @@
       <c r="O61" s="7"/>
     </row>
     <row r="62" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="575"/>
+      <c r="A62" s="576"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -48429,7 +48430,7 @@
       <c r="O62" s="7"/>
     </row>
     <row r="63" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="575"/>
+      <c r="A63" s="576"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -48472,7 +48473,7 @@
       <c r="O63" s="7"/>
     </row>
     <row r="64" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="575"/>
+      <c r="A64" s="576"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -48515,7 +48516,7 @@
       <c r="O64" s="7"/>
     </row>
     <row r="65" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="576"/>
+      <c r="A65" s="577"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -48599,7 +48600,7 @@
       <c r="O66" s="7"/>
     </row>
     <row r="67" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="574" t="s">
+      <c r="A67" s="575" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -48644,7 +48645,7 @@
       <c r="O67" s="7"/>
     </row>
     <row r="68" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="575"/>
+      <c r="A68" s="576"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -48687,7 +48688,7 @@
       <c r="O68" s="7"/>
     </row>
     <row r="69" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="575"/>
+      <c r="A69" s="576"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -48730,7 +48731,7 @@
       <c r="O69" s="7"/>
     </row>
     <row r="70" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="575"/>
+      <c r="A70" s="576"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -48773,7 +48774,7 @@
       <c r="O70" s="7"/>
     </row>
     <row r="71" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="575"/>
+      <c r="A71" s="576"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -48816,7 +48817,7 @@
       <c r="O71" s="7"/>
     </row>
     <row r="72" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="575"/>
+      <c r="A72" s="576"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -48859,7 +48860,7 @@
       <c r="O72" s="7"/>
     </row>
     <row r="73" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="575"/>
+      <c r="A73" s="576"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -48902,7 +48903,7 @@
       <c r="O73" s="7"/>
     </row>
     <row r="74" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="575"/>
+      <c r="A74" s="576"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -48945,7 +48946,7 @@
       <c r="O74" s="7"/>
     </row>
     <row r="75" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="575"/>
+      <c r="A75" s="576"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -48988,7 +48989,7 @@
       <c r="O75" s="7"/>
     </row>
     <row r="76" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="575"/>
+      <c r="A76" s="576"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -49031,7 +49032,7 @@
       <c r="O76" s="7"/>
     </row>
     <row r="77" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="575"/>
+      <c r="A77" s="576"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -49074,7 +49075,7 @@
       <c r="O77" s="7"/>
     </row>
     <row r="78" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="577"/>
+      <c r="A78" s="578"/>
       <c r="B78" s="156" t="s">
         <v>17</v>
       </c>
@@ -49198,10 +49199,10 @@
       <c r="O83" s="10"/>
     </row>
     <row r="84" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G84" s="585" t="s">
+      <c r="G84" s="556" t="s">
         <v>225</v>
       </c>
-      <c r="H84" s="586"/>
+      <c r="H84" s="557"/>
       <c r="I84" s="458" t="str">
         <f>IF(COUNT(E15:E26)=J81, CONCATENATE(ROUND(SUM(E15:E26)*J81/SUM(C15:C26)*1000, 2), " (", ROUND(SUM(E15:E26)*J81/SUM(C15:C26)*1000/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*J81/SUM(C15:C26)*1000*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -49229,10 +49230,10 @@
       <c r="O84" s="10"/>
     </row>
     <row r="85" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G85" s="587" t="s">
+      <c r="G85" s="558" t="s">
         <v>21</v>
       </c>
-      <c r="H85" s="588"/>
+      <c r="H85" s="559"/>
       <c r="I85" s="461" t="str">
         <f>IF(COUNT(E28:E39)=J81, CONCATENATE(ROUND(SUM(E28:E39)*J81/SUM(C28:C39)*1000, 2), " (", ROUND(SUM(E28:E39)*J81/SUM(C28:C39)*1000/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*J81/SUM(C28:C39)*1000*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -49260,10 +49261,10 @@
       <c r="O85" s="10"/>
     </row>
     <row r="86" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G86" s="587" t="s">
+      <c r="G86" s="558" t="s">
         <v>22</v>
       </c>
-      <c r="H86" s="588"/>
+      <c r="H86" s="559"/>
       <c r="I86" s="461" t="str">
         <f>IF(COUNT(E41:E52)=J81, CONCATENATE(ROUND(SUM(E41:E52)*J81/SUM(C41:C52)*1000, 2), " (", ROUND(SUM(E41:E52)*J81/SUM(C41:C52)*1000/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*J81/SUM(C41:C52)*1000*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -49291,10 +49292,10 @@
       <c r="O86" s="10"/>
     </row>
     <row r="87" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G87" s="587" t="s">
+      <c r="G87" s="558" t="s">
         <v>23</v>
       </c>
-      <c r="H87" s="588"/>
+      <c r="H87" s="559"/>
       <c r="I87" s="461" t="str">
         <f>IF(COUNT(E54:E65)=J81, CONCATENATE(ROUND(SUM(E54:E65)*J81/SUM(C54:C65)*1000, 2), " (", ROUND(SUM(E54:E65)*J81/SUM(C54:C65)*1000/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*J81/SUM(C54:C65)*1000*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -49322,10 +49323,10 @@
       <c r="O87" s="10"/>
     </row>
     <row r="88" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G88" s="587" t="s">
+      <c r="G88" s="558" t="s">
         <v>3</v>
       </c>
-      <c r="H88" s="588"/>
+      <c r="H88" s="559"/>
       <c r="I88" s="461" t="str">
         <f>IF(COUNT(E67:E78)=J81, CONCATENATE(ROUND(SUM(E67:E78)*J81/SUM(C67:C78)*1000, 2), " (", ROUND(SUM(E67:E78)*J81/SUM(C67:C78)*1000/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*J81/SUM(C67:C78)*1000*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -49353,10 +49354,10 @@
       <c r="O88" s="10"/>
     </row>
     <row r="89" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G89" s="583" t="s">
+      <c r="G89" s="554" t="s">
         <v>1</v>
       </c>
-      <c r="H89" s="584"/>
+      <c r="H89" s="555"/>
       <c r="I89" s="487" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$J$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -49398,14 +49399,12 @@
     <protectedRange sqref="I15:N26 I41:N52 I54:N65 I67:N78 I28:N39 I84:N89" name="Range1_1_2"/>
   </protectedRanges>
   <mergeCells count="23">
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="G82:H83"/>
     <mergeCell ref="I82:K82"/>
     <mergeCell ref="L82:N82"/>
     <mergeCell ref="G84:H84"/>
@@ -49415,12 +49414,14 @@
     <mergeCell ref="A41:A52"/>
     <mergeCell ref="A54:A65"/>
     <mergeCell ref="A79:H79"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="A67:A78"/>
-    <mergeCell ref="G82:H83"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
   </mergeCells>
   <conditionalFormatting sqref="A91:H1048576 A41:B52 A54:B65 A67:B78 G11 A12:C12 G13 C1:H2 C3:G3 C4:H7 E11 E12:G12 A13:B39 E13 A1:A10 C9:C10 D8:H8 G9:H9 I82 L82 A80:G80 H90 A81:F81 I83:N83 O11 O1:XFD9 O30:O1048576 P11:XFD1048576">
     <cfRule type="containsErrors" dxfId="300" priority="70">

--- a/Worksheets_BoDManual_YL.xlsx
+++ b/Worksheets_BoDManual_YL.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="302">
   <si>
     <t>Female</t>
   </si>
@@ -1389,6 +1389,15 @@
   </si>
   <si>
     <t>Proportion mortality AWD CFR</t>
+  </si>
+  <si>
+    <t>Proportion mortality AJS CFR</t>
+  </si>
+  <si>
+    <t>Proportion mortality AFI CFR</t>
+  </si>
+  <si>
+    <t>Proportion mortality malaria CFR</t>
   </si>
 </sst>
 </file>
@@ -27660,7 +27669,7 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="607"/>
       <c r="B19" s="502" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="C19" s="525" t="str">
         <f>IF(COUNT(C$7,C18)=2, CONCATENATE(ROUND(C18/C$7*100,1), "%"), "")</f>
@@ -27707,7 +27716,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="606"/>
       <c r="B21" s="501" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="C21" s="512" t="str">
         <f>IF(COUNT(C$7,C20)=2, CONCATENATE(ROUND(C20/C$7*100,1), "%"), "")</f>
@@ -27752,7 +27761,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="607"/>
       <c r="B23" s="502" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C23" s="525" t="str">
         <f>IF(COUNT(C$7,C22)=2, CONCATENATE(ROUND(C22/C$7*100,1), "%"), "")</f>

--- a/Worksheets_BoDManual_YL.xlsx
+++ b/Worksheets_BoDManual_YL.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="304">
   <si>
     <t>Female</t>
   </si>
@@ -1399,6 +1399,12 @@
   <si>
     <t>Proportion mortality malaria CFR</t>
   </si>
+  <si>
+    <t>If only total population is available, need to use W3 instead to estimate population by age and sex.</t>
+  </si>
+  <si>
+    <t>Use this sheet if only total population is available. If population by age and sex is available, please use W2.</t>
+  </si>
 </sst>
 </file>
 
@@ -1407,7 +1413,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="57" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1838,6 +1844,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="17">
@@ -3577,7 +3598,7 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="103" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="632">
+  <cellXfs count="634">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5138,6 +5159,93 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5156,91 +5264,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5248,24 +5287,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -5277,6 +5298,9 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5289,9 +5313,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -5372,6 +5393,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -9075,7 +9100,7 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10345,13 +10370,13 @@
         <v>226</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="583" t="str">
+      <c r="C9" s="582" t="str">
         <f>IF('W8'!G8&gt;0,"Yes","No. Please complete W8 first")</f>
         <v>No. Please complete W8 first</v>
       </c>
-      <c r="D9" s="583"/>
-      <c r="E9" s="583"/>
-      <c r="F9" s="583"/>
+      <c r="D9" s="582"/>
+      <c r="E9" s="582"/>
+      <c r="F9" s="582"/>
       <c r="G9" s="69"/>
       <c r="H9" s="69"/>
       <c r="I9" s="150"/>
@@ -10393,11 +10418,11 @@
       <c r="F11" s="152"/>
       <c r="G11" s="153"/>
       <c r="H11" s="153"/>
-      <c r="I11" s="604" t="s">
+      <c r="I11" s="600" t="s">
         <v>224</v>
       </c>
-      <c r="J11" s="604"/>
-      <c r="K11" s="604"/>
+      <c r="J11" s="600"/>
+      <c r="K11" s="600"/>
       <c r="L11" s="338"/>
       <c r="M11" s="337"/>
       <c r="N11" s="455"/>
@@ -10405,10 +10430,10 @@
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="428"/>
       <c r="B12" s="429"/>
-      <c r="C12" s="600" t="s">
+      <c r="C12" s="601" t="s">
         <v>238</v>
       </c>
-      <c r="D12" s="601"/>
+      <c r="D12" s="602"/>
       <c r="E12" s="454" t="s">
         <v>27</v>
       </c>
@@ -10427,26 +10452,26 @@
     <row r="13" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="154"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="602"/>
-      <c r="D13" s="603"/>
-      <c r="E13" s="574" t="s">
+      <c r="C13" s="603"/>
+      <c r="D13" s="604"/>
+      <c r="E13" s="556" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="574"/>
-      <c r="G13" s="574" t="s">
+      <c r="F13" s="556"/>
+      <c r="G13" s="556" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="574"/>
-      <c r="I13" s="587" t="s">
+      <c r="H13" s="556"/>
+      <c r="I13" s="558" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="584"/>
-      <c r="K13" s="584"/>
-      <c r="L13" s="587" t="s">
+      <c r="J13" s="554"/>
+      <c r="K13" s="554"/>
+      <c r="L13" s="558" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="584"/>
-      <c r="N13" s="588"/>
+      <c r="M13" s="554"/>
+      <c r="N13" s="559"/>
     </row>
     <row r="14" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="344" t="s">
@@ -10493,7 +10518,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="576" t="s">
+      <c r="A15" s="575" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -10537,7 +10562,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="576"/>
+      <c r="A16" s="575"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -10579,7 +10604,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="576"/>
+      <c r="A17" s="575"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -10621,7 +10646,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="576"/>
+      <c r="A18" s="575"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -10663,7 +10688,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="576"/>
+      <c r="A19" s="575"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -10705,7 +10730,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="576"/>
+      <c r="A20" s="575"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -10747,7 +10772,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="576"/>
+      <c r="A21" s="575"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -10789,7 +10814,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="576"/>
+      <c r="A22" s="575"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -10831,7 +10856,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="576"/>
+      <c r="A23" s="575"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -10873,7 +10898,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="576"/>
+      <c r="A24" s="575"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -10915,7 +10940,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="576"/>
+      <c r="A25" s="575"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -10957,7 +10982,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="577"/>
+      <c r="A26" s="576"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -11039,7 +11064,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="576" t="s">
+      <c r="A28" s="575" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -11083,7 +11108,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="576"/>
+      <c r="A29" s="575"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -11125,7 +11150,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="576"/>
+      <c r="A30" s="575"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -11167,7 +11192,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="576"/>
+      <c r="A31" s="575"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -11209,7 +11234,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="576"/>
+      <c r="A32" s="575"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -11251,7 +11276,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="576"/>
+      <c r="A33" s="575"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -11293,7 +11318,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="576"/>
+      <c r="A34" s="575"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -11335,7 +11360,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="576"/>
+      <c r="A35" s="575"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -11377,7 +11402,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="576"/>
+      <c r="A36" s="575"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -11419,7 +11444,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="576"/>
+      <c r="A37" s="575"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -11461,7 +11486,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="576"/>
+      <c r="A38" s="575"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -11503,7 +11528,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="576"/>
+      <c r="A39" s="575"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -11585,7 +11610,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="575" t="s">
+      <c r="A41" s="574" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -11629,7 +11654,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="576"/>
+      <c r="A42" s="575"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -11671,7 +11696,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="576"/>
+      <c r="A43" s="575"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -11713,7 +11738,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="576"/>
+      <c r="A44" s="575"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -11755,7 +11780,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="576"/>
+      <c r="A45" s="575"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -11797,7 +11822,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="576"/>
+      <c r="A46" s="575"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -11839,7 +11864,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="576"/>
+      <c r="A47" s="575"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -11881,7 +11906,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="576"/>
+      <c r="A48" s="575"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -11923,7 +11948,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="576"/>
+      <c r="A49" s="575"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -11965,7 +11990,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="576"/>
+      <c r="A50" s="575"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -12007,7 +12032,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="576"/>
+      <c r="A51" s="575"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -12049,7 +12074,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="577"/>
+      <c r="A52" s="576"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -12131,7 +12156,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="575" t="s">
+      <c r="A54" s="574" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -12175,7 +12200,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="576"/>
+      <c r="A55" s="575"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -12217,7 +12242,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="576"/>
+      <c r="A56" s="575"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -12259,7 +12284,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="576"/>
+      <c r="A57" s="575"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -12301,7 +12326,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="576"/>
+      <c r="A58" s="575"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -12343,7 +12368,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="576"/>
+      <c r="A59" s="575"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -12385,7 +12410,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="576"/>
+      <c r="A60" s="575"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -12427,7 +12452,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="576"/>
+      <c r="A61" s="575"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -12469,7 +12494,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="576"/>
+      <c r="A62" s="575"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -12511,7 +12536,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="576"/>
+      <c r="A63" s="575"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -12553,7 +12578,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="576"/>
+      <c r="A64" s="575"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -12595,7 +12620,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="577"/>
+      <c r="A65" s="576"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -12677,7 +12702,7 @@
       </c>
     </row>
     <row r="67" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="575" t="s">
+      <c r="A67" s="574" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -12721,7 +12746,7 @@
       </c>
     </row>
     <row r="68" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="576"/>
+      <c r="A68" s="575"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -12763,7 +12788,7 @@
       </c>
     </row>
     <row r="69" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="576"/>
+      <c r="A69" s="575"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -12805,7 +12830,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="576"/>
+      <c r="A70" s="575"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -12847,7 +12872,7 @@
       </c>
     </row>
     <row r="71" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="576"/>
+      <c r="A71" s="575"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -12889,7 +12914,7 @@
       </c>
     </row>
     <row r="72" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="576"/>
+      <c r="A72" s="575"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -12931,7 +12956,7 @@
       </c>
     </row>
     <row r="73" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="576"/>
+      <c r="A73" s="575"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -12973,7 +12998,7 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="576"/>
+      <c r="A74" s="575"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -13015,7 +13040,7 @@
       </c>
     </row>
     <row r="75" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="576"/>
+      <c r="A75" s="575"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -13057,7 +13082,7 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="576"/>
+      <c r="A76" s="575"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -13099,7 +13124,7 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="576"/>
+      <c r="A77" s="575"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -13141,7 +13166,7 @@
       </c>
     </row>
     <row r="78" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="578"/>
+      <c r="A78" s="577"/>
       <c r="B78" s="156" t="s">
         <v>17</v>
       </c>
@@ -13238,10 +13263,10 @@
       </c>
     </row>
     <row r="84" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G84" s="556" t="s">
+      <c r="G84" s="585" t="s">
         <v>225</v>
       </c>
-      <c r="H84" s="557"/>
+      <c r="H84" s="586"/>
       <c r="I84" s="458" t="str">
         <f>IF(COUNT(E15:E26)=J81, CONCATENATE(ROUND(SUM(E15:E26)*J81/J81/SUM(C15:C26)*100, 2), " (", ROUND(SUM(E15:E26)*J81/J81/SUM(C15:C26)*100/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*J81/J81/SUM(C15:C26)*100*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -13268,10 +13293,10 @@
       </c>
     </row>
     <row r="85" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G85" s="558" t="s">
+      <c r="G85" s="587" t="s">
         <v>21</v>
       </c>
-      <c r="H85" s="559"/>
+      <c r="H85" s="588"/>
       <c r="I85" s="461" t="str">
         <f>IF(COUNT(E28:E39)=J81, CONCATENATE(ROUND(SUM(E28:E39)*J81/J81/SUM(C28:C39)*100, 2), " (", ROUND(SUM(E28:E39)*J81/J81/SUM(C28:C39)*100/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*J81/J81/SUM(C28:C39)*100*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -13298,10 +13323,10 @@
       </c>
     </row>
     <row r="86" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G86" s="558" t="s">
+      <c r="G86" s="587" t="s">
         <v>22</v>
       </c>
-      <c r="H86" s="559"/>
+      <c r="H86" s="588"/>
       <c r="I86" s="461" t="str">
         <f>IF(COUNT(E41:E52)=J81, CONCATENATE(ROUND(SUM(E41:E52)*J81/J81/SUM(C41:C52)*100, 2), " (", ROUND(SUM(E41:E52)*J81/J81/SUM(C41:C52)*100/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*J81/J81/SUM(C41:C52)*100*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -13328,10 +13353,10 @@
       </c>
     </row>
     <row r="87" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G87" s="558" t="s">
+      <c r="G87" s="587" t="s">
         <v>23</v>
       </c>
-      <c r="H87" s="559"/>
+      <c r="H87" s="588"/>
       <c r="I87" s="461" t="str">
         <f>IF(COUNT(E54:E65)=J81, CONCATENATE(ROUND(SUM(E54:E65)*J81/J81/SUM(C54:C65)*100, 2), " (", ROUND(SUM(E54:E65)*J81/J81/SUM(C54:C65)*100/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*J81/J81/SUM(C54:C65)*100*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -13358,10 +13383,10 @@
       </c>
     </row>
     <row r="88" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G88" s="558" t="s">
+      <c r="G88" s="587" t="s">
         <v>3</v>
       </c>
-      <c r="H88" s="559"/>
+      <c r="H88" s="588"/>
       <c r="I88" s="461" t="str">
         <f>IF(COUNT(E67:E78)=J81, CONCATENATE(ROUND(SUM(E67:E78)*J81/J81/SUM(C67:C78)*100, 2), " (", ROUND(SUM(E67:E78)*J81/J81/SUM(C67:C78)*100/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*J81/J81/SUM(C67:C78)*100*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -13388,10 +13413,10 @@
       </c>
     </row>
     <row r="89" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G89" s="554" t="s">
+      <c r="G89" s="583" t="s">
         <v>1</v>
       </c>
-      <c r="H89" s="594"/>
+      <c r="H89" s="590"/>
       <c r="I89" s="488" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$J$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -13424,12 +13449,14 @@
     <protectedRange sqref="I84:N89" name="Range1_1_2_2"/>
   </protectedRanges>
   <mergeCells count="23">
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
     <mergeCell ref="G82:H83"/>
     <mergeCell ref="A67:A78"/>
     <mergeCell ref="I11:K11"/>
@@ -13439,14 +13466,12 @@
     <mergeCell ref="A28:A39"/>
     <mergeCell ref="A41:A52"/>
     <mergeCell ref="A54:A65"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
   </mergeCells>
   <conditionalFormatting sqref="A41:B52 A54:B65 A67:B78 G11 A12:C12 G13 C1:H2 C3:G3 C4:H7 E11 E12:G12 A13:B39 E13 A1:A10 C9:C10 D8:H8 G9:H9">
     <cfRule type="containsErrors" dxfId="238" priority="75">
@@ -13829,13 +13854,13 @@
         <v>226</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="583" t="str">
+      <c r="C9" s="582" t="str">
         <f>IF('W8'!G8&gt;0,"Yes","No. Please complete W8 first")</f>
         <v>No. Please complete W8 first</v>
       </c>
-      <c r="D9" s="583"/>
-      <c r="E9" s="583"/>
-      <c r="F9" s="583"/>
+      <c r="D9" s="582"/>
+      <c r="E9" s="582"/>
+      <c r="F9" s="582"/>
       <c r="G9" s="69"/>
       <c r="H9" s="69"/>
       <c r="I9" s="150"/>
@@ -13878,14 +13903,14 @@
       <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E11" s="595" t="s">
+      <c r="E11" s="591" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="595"/>
-      <c r="G11" s="595"/>
-      <c r="H11" s="595"/>
-      <c r="I11" s="595"/>
-      <c r="J11" s="595"/>
+      <c r="F11" s="591"/>
+      <c r="G11" s="591"/>
+      <c r="H11" s="591"/>
+      <c r="I11" s="591"/>
+      <c r="J11" s="591"/>
       <c r="K11" s="9" t="s">
         <v>224</v>
       </c>
@@ -13902,15 +13927,15 @@
     <row r="12" spans="1:20" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="428"/>
       <c r="B12" s="429"/>
-      <c r="C12" s="600" t="s">
+      <c r="C12" s="601" t="s">
         <v>238</v>
       </c>
-      <c r="D12" s="601"/>
-      <c r="E12" s="596" t="s">
+      <c r="D12" s="602"/>
+      <c r="E12" s="592" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="596"/>
-      <c r="G12" s="596"/>
+      <c r="F12" s="592"/>
+      <c r="G12" s="592"/>
       <c r="H12" s="168"/>
       <c r="I12" s="168"/>
       <c r="J12" s="168"/>
@@ -13930,35 +13955,35 @@
     <row r="13" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="154"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="602"/>
-      <c r="D13" s="603"/>
-      <c r="E13" s="574" t="s">
+      <c r="C13" s="603"/>
+      <c r="D13" s="604"/>
+      <c r="E13" s="556" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="574"/>
-      <c r="G13" s="574" t="s">
+      <c r="F13" s="556"/>
+      <c r="G13" s="556" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="574"/>
-      <c r="I13" s="574" t="s">
+      <c r="H13" s="556"/>
+      <c r="I13" s="556" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="574"/>
-      <c r="K13" s="587" t="s">
+      <c r="J13" s="556"/>
+      <c r="K13" s="558" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="584"/>
-      <c r="M13" s="584"/>
-      <c r="N13" s="589" t="s">
+      <c r="L13" s="554"/>
+      <c r="M13" s="554"/>
+      <c r="N13" s="595" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="574"/>
-      <c r="P13" s="590"/>
-      <c r="Q13" s="587" t="s">
+      <c r="O13" s="556"/>
+      <c r="P13" s="596"/>
+      <c r="Q13" s="558" t="s">
         <v>32</v>
       </c>
-      <c r="R13" s="584"/>
-      <c r="S13" s="588"/>
+      <c r="R13" s="554"/>
+      <c r="S13" s="559"/>
     </row>
     <row r="14" spans="1:20" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="344" t="s">
@@ -14020,7 +14045,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="576" t="s">
+      <c r="A15" s="575" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -14078,7 +14103,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="576"/>
+      <c r="A16" s="575"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -14134,7 +14159,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="576"/>
+      <c r="A17" s="575"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -14190,7 +14215,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="576"/>
+      <c r="A18" s="575"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -14246,7 +14271,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="576"/>
+      <c r="A19" s="575"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -14302,7 +14327,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="576"/>
+      <c r="A20" s="575"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -14358,7 +14383,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="576"/>
+      <c r="A21" s="575"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -14414,7 +14439,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="576"/>
+      <c r="A22" s="575"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -14470,7 +14495,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="576"/>
+      <c r="A23" s="575"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -14526,7 +14551,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="576"/>
+      <c r="A24" s="575"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -14582,7 +14607,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="576"/>
+      <c r="A25" s="575"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -14638,7 +14663,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="577"/>
+      <c r="A26" s="576"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -14749,7 +14774,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="576" t="s">
+      <c r="A28" s="575" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -14807,7 +14832,7 @@
       </c>
     </row>
     <row r="29" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="576"/>
+      <c r="A29" s="575"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -14863,7 +14888,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="576"/>
+      <c r="A30" s="575"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -14920,7 +14945,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="576"/>
+      <c r="A31" s="575"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -14977,7 +15002,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="576"/>
+      <c r="A32" s="575"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -15034,7 +15059,7 @@
       <c r="T32" s="7"/>
     </row>
     <row r="33" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="576"/>
+      <c r="A33" s="575"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -15091,7 +15116,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="576"/>
+      <c r="A34" s="575"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -15148,7 +15173,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="576"/>
+      <c r="A35" s="575"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -15205,7 +15230,7 @@
       <c r="T35" s="7"/>
     </row>
     <row r="36" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="576"/>
+      <c r="A36" s="575"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -15262,7 +15287,7 @@
       <c r="T36" s="7"/>
     </row>
     <row r="37" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="576"/>
+      <c r="A37" s="575"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -15319,7 +15344,7 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="576"/>
+      <c r="A38" s="575"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -15376,7 +15401,7 @@
       <c r="T38" s="7"/>
     </row>
     <row r="39" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="576"/>
+      <c r="A39" s="575"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -15489,7 +15514,7 @@
       <c r="T40" s="7"/>
     </row>
     <row r="41" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="575" t="s">
+      <c r="A41" s="574" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -15548,7 +15573,7 @@
       <c r="T41" s="7"/>
     </row>
     <row r="42" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="576"/>
+      <c r="A42" s="575"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -15605,7 +15630,7 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="576"/>
+      <c r="A43" s="575"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -15662,7 +15687,7 @@
       <c r="T43" s="7"/>
     </row>
     <row r="44" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="576"/>
+      <c r="A44" s="575"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -15719,7 +15744,7 @@
       <c r="T44" s="7"/>
     </row>
     <row r="45" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="576"/>
+      <c r="A45" s="575"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -15776,7 +15801,7 @@
       <c r="T45" s="7"/>
     </row>
     <row r="46" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="576"/>
+      <c r="A46" s="575"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -15833,7 +15858,7 @@
       <c r="T46" s="7"/>
     </row>
     <row r="47" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="576"/>
+      <c r="A47" s="575"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -15890,7 +15915,7 @@
       <c r="T47" s="7"/>
     </row>
     <row r="48" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="576"/>
+      <c r="A48" s="575"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -15947,7 +15972,7 @@
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="576"/>
+      <c r="A49" s="575"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -16004,7 +16029,7 @@
       <c r="T49" s="7"/>
     </row>
     <row r="50" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="576"/>
+      <c r="A50" s="575"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -16061,7 +16086,7 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="576"/>
+      <c r="A51" s="575"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -16118,7 +16143,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="577"/>
+      <c r="A52" s="576"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -16231,7 +16256,7 @@
       <c r="T53" s="7"/>
     </row>
     <row r="54" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="575" t="s">
+      <c r="A54" s="574" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -16290,7 +16315,7 @@
       <c r="T54" s="7"/>
     </row>
     <row r="55" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="576"/>
+      <c r="A55" s="575"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -16347,7 +16372,7 @@
       <c r="T55" s="7"/>
     </row>
     <row r="56" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="576"/>
+      <c r="A56" s="575"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -16404,7 +16429,7 @@
       <c r="T56" s="7"/>
     </row>
     <row r="57" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="576"/>
+      <c r="A57" s="575"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -16461,7 +16486,7 @@
       <c r="T57" s="7"/>
     </row>
     <row r="58" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="576"/>
+      <c r="A58" s="575"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -16518,7 +16543,7 @@
       <c r="T58" s="7"/>
     </row>
     <row r="59" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="576"/>
+      <c r="A59" s="575"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -16575,7 +16600,7 @@
       <c r="T59" s="7"/>
     </row>
     <row r="60" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="576"/>
+      <c r="A60" s="575"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -16632,7 +16657,7 @@
       <c r="T60" s="7"/>
     </row>
     <row r="61" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="576"/>
+      <c r="A61" s="575"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -16689,7 +16714,7 @@
       <c r="T61" s="7"/>
     </row>
     <row r="62" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="576"/>
+      <c r="A62" s="575"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -16746,7 +16771,7 @@
       <c r="T62" s="7"/>
     </row>
     <row r="63" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="576"/>
+      <c r="A63" s="575"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -16803,7 +16828,7 @@
       <c r="T63" s="7"/>
     </row>
     <row r="64" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="576"/>
+      <c r="A64" s="575"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -16860,7 +16885,7 @@
       <c r="T64" s="7"/>
     </row>
     <row r="65" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="577"/>
+      <c r="A65" s="576"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -16973,7 +16998,7 @@
       <c r="T66" s="7"/>
     </row>
     <row r="67" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="575" t="s">
+      <c r="A67" s="574" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -17032,7 +17057,7 @@
       <c r="T67" s="7"/>
     </row>
     <row r="68" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="576"/>
+      <c r="A68" s="575"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -17089,7 +17114,7 @@
       <c r="T68" s="7"/>
     </row>
     <row r="69" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="576"/>
+      <c r="A69" s="575"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -17146,7 +17171,7 @@
       <c r="T69" s="7"/>
     </row>
     <row r="70" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="576"/>
+      <c r="A70" s="575"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -17203,7 +17228,7 @@
       <c r="T70" s="7"/>
     </row>
     <row r="71" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="576"/>
+      <c r="A71" s="575"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -17260,7 +17285,7 @@
       <c r="T71" s="7"/>
     </row>
     <row r="72" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="576"/>
+      <c r="A72" s="575"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -17317,7 +17342,7 @@
       <c r="T72" s="7"/>
     </row>
     <row r="73" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="576"/>
+      <c r="A73" s="575"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -17374,7 +17399,7 @@
       <c r="T73" s="7"/>
     </row>
     <row r="74" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="576"/>
+      <c r="A74" s="575"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -17431,7 +17456,7 @@
       <c r="T74" s="7"/>
     </row>
     <row r="75" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="576"/>
+      <c r="A75" s="575"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -17488,7 +17513,7 @@
       <c r="T75" s="7"/>
     </row>
     <row r="76" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="576"/>
+      <c r="A76" s="575"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -17545,7 +17570,7 @@
       <c r="T76" s="7"/>
     </row>
     <row r="77" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="576"/>
+      <c r="A77" s="575"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -17602,7 +17627,7 @@
       <c r="T77" s="7"/>
     </row>
     <row r="78" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="578"/>
+      <c r="A78" s="577"/>
       <c r="B78" s="156" t="s">
         <v>17</v>
       </c>
@@ -17753,10 +17778,10 @@
       <c r="T83" s="10"/>
     </row>
     <row r="84" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I84" s="591" t="s">
+      <c r="I84" s="593" t="s">
         <v>225</v>
       </c>
-      <c r="J84" s="592"/>
+      <c r="J84" s="594"/>
       <c r="K84" s="459" t="str">
         <f>IF(COUNT(E15:E26)=$L$81, CONCATENATE(ROUND(SUM(E15:E26)*L81/L81/SUM(C15:C26)*100, 2), " (", ROUND(SUM(E15:E26)*L81/L81/SUM(C15:C26)*100/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*L81/L81/SUM(C15:C26)*100*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -17796,10 +17821,10 @@
       <c r="T84" s="10"/>
     </row>
     <row r="85" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I85" s="558" t="s">
+      <c r="I85" s="587" t="s">
         <v>21</v>
       </c>
-      <c r="J85" s="593"/>
+      <c r="J85" s="589"/>
       <c r="K85" s="462" t="str">
         <f>IF(COUNT(E28:E39)=$L$81, CONCATENATE(ROUND(SUM(E28:E39)*L81/L81/SUM(C28:C39)*100, 2), " (", ROUND(SUM(E28:E39)*L81/L81/SUM(C28:C39)*100/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*L81/L81/SUM(C28:C39)*100*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -17839,10 +17864,10 @@
       <c r="T85" s="10"/>
     </row>
     <row r="86" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I86" s="558" t="s">
+      <c r="I86" s="587" t="s">
         <v>22</v>
       </c>
-      <c r="J86" s="593"/>
+      <c r="J86" s="589"/>
       <c r="K86" s="462" t="str">
         <f>IF(COUNT(E41:E52)=$L$81, CONCATENATE(ROUND(SUM(E41:E52)*L81/L81/SUM(C41:C52)*100, 2), " (", ROUND(SUM(E41:E52)*L81/L81/SUM(C41:C52)*100/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*L81/L81/SUM(C41:C52)*100*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -17882,10 +17907,10 @@
       <c r="T86" s="10"/>
     </row>
     <row r="87" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I87" s="558" t="s">
+      <c r="I87" s="587" t="s">
         <v>23</v>
       </c>
-      <c r="J87" s="593"/>
+      <c r="J87" s="589"/>
       <c r="K87" s="462" t="str">
         <f>IF(COUNT(E54:E65)=$L$81, CONCATENATE(ROUND(SUM(E54:E65)*L81/L81/SUM(C54:C65)*100, 2), " (", ROUND(SUM(E54:E65)*L81/L81/SUM(C54:C65)*100/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*L81/L81/SUM(C54:C65)*100*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -17925,10 +17950,10 @@
       <c r="T87" s="10"/>
     </row>
     <row r="88" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I88" s="558" t="s">
+      <c r="I88" s="587" t="s">
         <v>3</v>
       </c>
-      <c r="J88" s="593"/>
+      <c r="J88" s="589"/>
       <c r="K88" s="462" t="str">
         <f>IF(COUNT(E67:E78)=$L$81, CONCATENATE(ROUND(SUM(E67:E78)*L81/L81/SUM(C67:C78)*100, 2), " (", ROUND(SUM(E67:E78)*L81/L81/SUM(C67:C78)*100/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*L81/L81/SUM(C67:C78)*100*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -17968,10 +17993,10 @@
       <c r="T88" s="10"/>
     </row>
     <row r="89" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I89" s="554" t="s">
+      <c r="I89" s="583" t="s">
         <v>1</v>
       </c>
-      <c r="J89" s="594"/>
+      <c r="J89" s="590"/>
       <c r="K89" s="488" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$L$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*L81/L81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*L81/L81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*L81/L81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -18028,11 +18053,16 @@
     <protectedRange sqref="K84:S89" name="Range1_1_2_2"/>
   </protectedRanges>
   <mergeCells count="27">
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="K12:S12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="Q82:S82"/>
     <mergeCell ref="I84:J84"/>
     <mergeCell ref="N13:P13"/>
@@ -18045,16 +18075,11 @@
     <mergeCell ref="I82:J83"/>
     <mergeCell ref="K82:M82"/>
     <mergeCell ref="N82:P82"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="K12:S12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="I89:J89"/>
   </mergeCells>
   <conditionalFormatting sqref="A91:J1048576 T11 A80:I80 T1:XFD9 J90 A81:H81 H12:I12 E12 K83:M83 Q83:S83 U11:XFD1048576 T30:T1048576">
     <cfRule type="containsErrors" dxfId="201" priority="111">
@@ -18557,13 +18582,13 @@
         <v>226</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="583" t="str">
+      <c r="C9" s="582" t="str">
         <f>IF('W8'!G8&gt;0,"Yes","No. Please complete W8 first")</f>
         <v>No. Please complete W8 first</v>
       </c>
-      <c r="D9" s="583"/>
-      <c r="E9" s="583"/>
-      <c r="F9" s="583"/>
+      <c r="D9" s="582"/>
+      <c r="E9" s="582"/>
+      <c r="F9" s="582"/>
       <c r="G9" s="150"/>
       <c r="H9" s="19"/>
       <c r="I9" s="12"/>
@@ -18600,10 +18625,10 @@
     <row r="12" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="428"/>
       <c r="B12" s="429"/>
-      <c r="C12" s="600" t="s">
+      <c r="C12" s="601" t="s">
         <v>238</v>
       </c>
-      <c r="D12" s="601"/>
+      <c r="D12" s="602"/>
       <c r="E12" s="454" t="s">
         <v>27</v>
       </c>
@@ -18618,17 +18643,17 @@
     <row r="13" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="154"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="602"/>
-      <c r="D13" s="603"/>
-      <c r="E13" s="574" t="s">
+      <c r="C13" s="603"/>
+      <c r="D13" s="604"/>
+      <c r="E13" s="556" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="574"/>
-      <c r="G13" s="589" t="s">
+      <c r="F13" s="556"/>
+      <c r="G13" s="595" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="574"/>
-      <c r="I13" s="590"/>
+      <c r="H13" s="556"/>
+      <c r="I13" s="596"/>
     </row>
     <row r="14" spans="1:10" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="344" t="s">
@@ -18660,7 +18685,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="576" t="s">
+      <c r="A15" s="575" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -18690,7 +18715,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="576"/>
+      <c r="A16" s="575"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -18718,7 +18743,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="576"/>
+      <c r="A17" s="575"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -18746,7 +18771,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="576"/>
+      <c r="A18" s="575"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -18774,7 +18799,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="576"/>
+      <c r="A19" s="575"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -18802,7 +18827,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="576"/>
+      <c r="A20" s="575"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -18830,7 +18855,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="576"/>
+      <c r="A21" s="575"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -18858,7 +18883,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="576"/>
+      <c r="A22" s="575"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -18886,7 +18911,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="576"/>
+      <c r="A23" s="575"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -18914,7 +18939,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="576"/>
+      <c r="A24" s="575"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -18942,7 +18967,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="576"/>
+      <c r="A25" s="575"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -18970,7 +18995,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="577"/>
+      <c r="A26" s="576"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -19023,7 +19048,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="576" t="s">
+      <c r="A28" s="575" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -19053,7 +19078,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="576"/>
+      <c r="A29" s="575"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -19081,7 +19106,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="576"/>
+      <c r="A30" s="575"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -19110,7 +19135,7 @@
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="576"/>
+      <c r="A31" s="575"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -19139,7 +19164,7 @@
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="576"/>
+      <c r="A32" s="575"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -19168,7 +19193,7 @@
       <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="576"/>
+      <c r="A33" s="575"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -19197,7 +19222,7 @@
       <c r="J33" s="7"/>
     </row>
     <row r="34" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="576"/>
+      <c r="A34" s="575"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -19226,7 +19251,7 @@
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="576"/>
+      <c r="A35" s="575"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -19255,7 +19280,7 @@
       <c r="J35" s="7"/>
     </row>
     <row r="36" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="576"/>
+      <c r="A36" s="575"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -19284,7 +19309,7 @@
       <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="576"/>
+      <c r="A37" s="575"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -19313,7 +19338,7 @@
       <c r="J37" s="7"/>
     </row>
     <row r="38" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="576"/>
+      <c r="A38" s="575"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -19342,7 +19367,7 @@
       <c r="J38" s="7"/>
     </row>
     <row r="39" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="576"/>
+      <c r="A39" s="575"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -19397,7 +19422,7 @@
       <c r="J40" s="7"/>
     </row>
     <row r="41" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="575" t="s">
+      <c r="A41" s="574" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -19428,7 +19453,7 @@
       <c r="J41" s="7"/>
     </row>
     <row r="42" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="576"/>
+      <c r="A42" s="575"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -19457,7 +19482,7 @@
       <c r="J42" s="7"/>
     </row>
     <row r="43" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="576"/>
+      <c r="A43" s="575"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -19486,7 +19511,7 @@
       <c r="J43" s="7"/>
     </row>
     <row r="44" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="576"/>
+      <c r="A44" s="575"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -19515,7 +19540,7 @@
       <c r="J44" s="7"/>
     </row>
     <row r="45" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="576"/>
+      <c r="A45" s="575"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -19544,7 +19569,7 @@
       <c r="J45" s="7"/>
     </row>
     <row r="46" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="576"/>
+      <c r="A46" s="575"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -19573,7 +19598,7 @@
       <c r="J46" s="7"/>
     </row>
     <row r="47" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="576"/>
+      <c r="A47" s="575"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -19602,7 +19627,7 @@
       <c r="J47" s="7"/>
     </row>
     <row r="48" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="576"/>
+      <c r="A48" s="575"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -19631,7 +19656,7 @@
       <c r="J48" s="7"/>
     </row>
     <row r="49" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="576"/>
+      <c r="A49" s="575"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -19660,7 +19685,7 @@
       <c r="J49" s="7"/>
     </row>
     <row r="50" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="576"/>
+      <c r="A50" s="575"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -19689,7 +19714,7 @@
       <c r="J50" s="7"/>
     </row>
     <row r="51" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="576"/>
+      <c r="A51" s="575"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -19718,7 +19743,7 @@
       <c r="J51" s="7"/>
     </row>
     <row r="52" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="577"/>
+      <c r="A52" s="576"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -19773,7 +19798,7 @@
       <c r="J53" s="7"/>
     </row>
     <row r="54" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="575" t="s">
+      <c r="A54" s="574" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -19804,7 +19829,7 @@
       <c r="J54" s="7"/>
     </row>
     <row r="55" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="576"/>
+      <c r="A55" s="575"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -19833,7 +19858,7 @@
       <c r="J55" s="7"/>
     </row>
     <row r="56" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="576"/>
+      <c r="A56" s="575"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -19862,7 +19887,7 @@
       <c r="J56" s="7"/>
     </row>
     <row r="57" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="576"/>
+      <c r="A57" s="575"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -19891,7 +19916,7 @@
       <c r="J57" s="7"/>
     </row>
     <row r="58" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="576"/>
+      <c r="A58" s="575"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -19920,7 +19945,7 @@
       <c r="J58" s="7"/>
     </row>
     <row r="59" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="576"/>
+      <c r="A59" s="575"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -19949,7 +19974,7 @@
       <c r="J59" s="7"/>
     </row>
     <row r="60" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="576"/>
+      <c r="A60" s="575"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -19978,7 +20003,7 @@
       <c r="J60" s="7"/>
     </row>
     <row r="61" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="576"/>
+      <c r="A61" s="575"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -20007,7 +20032,7 @@
       <c r="J61" s="7"/>
     </row>
     <row r="62" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="576"/>
+      <c r="A62" s="575"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -20036,7 +20061,7 @@
       <c r="J62" s="7"/>
     </row>
     <row r="63" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="576"/>
+      <c r="A63" s="575"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -20065,7 +20090,7 @@
       <c r="J63" s="7"/>
     </row>
     <row r="64" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="576"/>
+      <c r="A64" s="575"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -20094,7 +20119,7 @@
       <c r="J64" s="7"/>
     </row>
     <row r="65" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="577"/>
+      <c r="A65" s="576"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -20149,7 +20174,7 @@
       <c r="J66" s="7"/>
     </row>
     <row r="67" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="575" t="s">
+      <c r="A67" s="574" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -20180,7 +20205,7 @@
       <c r="J67" s="7"/>
     </row>
     <row r="68" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="576"/>
+      <c r="A68" s="575"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -20209,7 +20234,7 @@
       <c r="J68" s="7"/>
     </row>
     <row r="69" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="576"/>
+      <c r="A69" s="575"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -20238,7 +20263,7 @@
       <c r="J69" s="7"/>
     </row>
     <row r="70" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="576"/>
+      <c r="A70" s="575"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -20267,7 +20292,7 @@
       <c r="J70" s="7"/>
     </row>
     <row r="71" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="576"/>
+      <c r="A71" s="575"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -20296,7 +20321,7 @@
       <c r="J71" s="7"/>
     </row>
     <row r="72" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="576"/>
+      <c r="A72" s="575"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -20325,7 +20350,7 @@
       <c r="J72" s="7"/>
     </row>
     <row r="73" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="576"/>
+      <c r="A73" s="575"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -20354,7 +20379,7 @@
       <c r="J73" s="7"/>
     </row>
     <row r="74" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="576"/>
+      <c r="A74" s="575"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -20383,7 +20408,7 @@
       <c r="J74" s="7"/>
     </row>
     <row r="75" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="576"/>
+      <c r="A75" s="575"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -20412,7 +20437,7 @@
       <c r="J75" s="7"/>
     </row>
     <row r="76" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="576"/>
+      <c r="A76" s="575"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -20441,7 +20466,7 @@
       <c r="J76" s="7"/>
     </row>
     <row r="77" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="576"/>
+      <c r="A77" s="575"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -20470,7 +20495,7 @@
       <c r="J77" s="7"/>
     </row>
     <row r="78" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="578"/>
+      <c r="A78" s="577"/>
       <c r="B78" s="156" t="s">
         <v>17</v>
       </c>
@@ -20549,10 +20574,10 @@
       <c r="J83" s="10"/>
     </row>
     <row r="84" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E84" s="556" t="s">
+      <c r="E84" s="585" t="s">
         <v>225</v>
       </c>
-      <c r="F84" s="557"/>
+      <c r="F84" s="586"/>
       <c r="G84" s="458" t="str">
         <f>IF(COUNT(E15:E26)=H81, CONCATENATE(ROUND(SUM(E15:E26)*H81/H81/SUM(C15:C26)*100, 2), " (", ROUND(SUM(E15:E26)*H81/H81/SUM(C15:C26)*100/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*H81/H81/SUM(C15:C26)*100*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -20568,10 +20593,10 @@
       <c r="J84" s="10"/>
     </row>
     <row r="85" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E85" s="558" t="s">
+      <c r="E85" s="587" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="559"/>
+      <c r="F85" s="588"/>
       <c r="G85" s="461" t="str">
         <f>IF(COUNT(E28:E39)=H81, CONCATENATE(ROUND(SUM(E28:E39)*H81/H81/SUM(C28:C39)*100, 2), " (", ROUND(SUM(E28:E39)*H81/H81/SUM(C28:C39)*100/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*H81/H81/SUM(C28:C39)*100*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -20587,10 +20612,10 @@
       <c r="J85" s="10"/>
     </row>
     <row r="86" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E86" s="558" t="s">
+      <c r="E86" s="587" t="s">
         <v>22</v>
       </c>
-      <c r="F86" s="559"/>
+      <c r="F86" s="588"/>
       <c r="G86" s="461" t="str">
         <f>IF(COUNT(E41:E52)=H81, CONCATENATE(ROUND(SUM(E41:E52)*H81/H81/SUM(C41:C52)*100, 2), " (", ROUND(SUM(E41:E52)*H81/H81/SUM(C41:C52)*100/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*H81/H81/SUM(C41:C52)*100*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -20606,10 +20631,10 @@
       <c r="J86" s="10"/>
     </row>
     <row r="87" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E87" s="558" t="s">
+      <c r="E87" s="587" t="s">
         <v>23</v>
       </c>
-      <c r="F87" s="559"/>
+      <c r="F87" s="588"/>
       <c r="G87" s="461" t="str">
         <f>IF(COUNT(E54:E65)=H81, CONCATENATE(ROUND(SUM(E54:E65)*H81/H81/SUM(C54:C65)*100, 2), " (", ROUND(SUM(E54:E65)*H81/H81/SUM(C54:C65)*100/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*H81/H81/SUM(C54:C65)*100*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -20625,10 +20650,10 @@
       <c r="J87" s="10"/>
     </row>
     <row r="88" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E88" s="558" t="s">
+      <c r="E88" s="587" t="s">
         <v>3</v>
       </c>
-      <c r="F88" s="559"/>
+      <c r="F88" s="588"/>
       <c r="G88" s="461" t="str">
         <f>IF(COUNT(E67:E78)=H81, CONCATENATE(ROUND(SUM(E67:E78)*H81/H81/SUM(C67:C78)*100, 2), " (", ROUND(SUM(E67:E78)*H81/H81/SUM(C67:C78)*100/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*H81/H81/SUM(C67:C78)*100*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -20644,10 +20669,10 @@
       <c r="J88" s="10"/>
     </row>
     <row r="89" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E89" s="554" t="s">
+      <c r="E89" s="583" t="s">
         <v>1</v>
       </c>
-      <c r="F89" s="555"/>
+      <c r="F89" s="584"/>
       <c r="G89" s="487" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$H$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*H81/H81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*H81/H81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*H81/H81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -20676,6 +20701,17 @@
     <protectedRange sqref="G41:I52 G54:I65 G67:I78 G28:I39 G84:I89 G15:I26" name="Range1_1_2"/>
   </protectedRanges>
   <mergeCells count="19">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="A41:A52"/>
+    <mergeCell ref="A54:A65"/>
+    <mergeCell ref="A67:A78"/>
     <mergeCell ref="E89:F89"/>
     <mergeCell ref="G82:I82"/>
     <mergeCell ref="E84:F84"/>
@@ -20684,17 +20720,6 @@
     <mergeCell ref="E87:F87"/>
     <mergeCell ref="E88:F88"/>
     <mergeCell ref="E82:F83"/>
-    <mergeCell ref="A15:A26"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="A41:A52"/>
-    <mergeCell ref="A54:A65"/>
-    <mergeCell ref="A67:A78"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:I13"/>
   </mergeCells>
   <conditionalFormatting sqref="A91:F1048576 A41:B52 A54:B65 A67:B78 C1:F7 E11 E12:F12 A12:B39 E13 A1 G82 A80:F80 G83:I83 A81:D81 K11:XFD1048576 J11 J1:XFD9 J30:J1048576 A7">
     <cfRule type="containsErrors" dxfId="127" priority="42">
@@ -21042,13 +21067,13 @@
         <v>226</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="583" t="str">
+      <c r="C9" s="582" t="str">
         <f>IF('W8'!G8&gt;0,"Yes","No. Please complete W8 first")</f>
         <v>No. Please complete W8 first</v>
       </c>
-      <c r="D9" s="583"/>
-      <c r="E9" s="583"/>
-      <c r="F9" s="583"/>
+      <c r="D9" s="582"/>
+      <c r="E9" s="582"/>
+      <c r="F9" s="582"/>
       <c r="G9" s="69"/>
       <c r="H9" s="69"/>
       <c r="I9" s="150"/>
@@ -21090,11 +21115,11 @@
       <c r="F11" s="152"/>
       <c r="G11" s="153"/>
       <c r="H11" s="153"/>
-      <c r="I11" s="604" t="s">
+      <c r="I11" s="600" t="s">
         <v>224</v>
       </c>
-      <c r="J11" s="604"/>
-      <c r="K11" s="604"/>
+      <c r="J11" s="600"/>
+      <c r="K11" s="600"/>
       <c r="L11" s="338"/>
       <c r="M11" s="337"/>
       <c r="N11" s="455"/>
@@ -21102,10 +21127,10 @@
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="428"/>
       <c r="B12" s="429"/>
-      <c r="C12" s="600" t="s">
+      <c r="C12" s="601" t="s">
         <v>238</v>
       </c>
-      <c r="D12" s="601"/>
+      <c r="D12" s="602"/>
       <c r="E12" s="454" t="s">
         <v>27</v>
       </c>
@@ -21124,26 +21149,26 @@
     <row r="13" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="154"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="602"/>
-      <c r="D13" s="603"/>
-      <c r="E13" s="574" t="s">
+      <c r="C13" s="603"/>
+      <c r="D13" s="604"/>
+      <c r="E13" s="556" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="574"/>
-      <c r="G13" s="574" t="s">
+      <c r="F13" s="556"/>
+      <c r="G13" s="556" t="s">
         <v>252</v>
       </c>
-      <c r="H13" s="574"/>
-      <c r="I13" s="587" t="s">
+      <c r="H13" s="556"/>
+      <c r="I13" s="558" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="584"/>
-      <c r="K13" s="584"/>
-      <c r="L13" s="587" t="s">
+      <c r="J13" s="554"/>
+      <c r="K13" s="554"/>
+      <c r="L13" s="558" t="s">
         <v>34</v>
       </c>
-      <c r="M13" s="584"/>
-      <c r="N13" s="588"/>
+      <c r="M13" s="554"/>
+      <c r="N13" s="559"/>
     </row>
     <row r="14" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="344" t="s">
@@ -21190,7 +21215,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="576" t="s">
+      <c r="A15" s="575" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -21234,7 +21259,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="576"/>
+      <c r="A16" s="575"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -21276,7 +21301,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="576"/>
+      <c r="A17" s="575"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -21318,7 +21343,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="576"/>
+      <c r="A18" s="575"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -21360,7 +21385,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="576"/>
+      <c r="A19" s="575"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -21402,7 +21427,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="576"/>
+      <c r="A20" s="575"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -21444,7 +21469,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="576"/>
+      <c r="A21" s="575"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -21486,7 +21511,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="576"/>
+      <c r="A22" s="575"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -21528,7 +21553,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="576"/>
+      <c r="A23" s="575"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -21570,7 +21595,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="576"/>
+      <c r="A24" s="575"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -21612,7 +21637,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="576"/>
+      <c r="A25" s="575"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -21654,7 +21679,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="577"/>
+      <c r="A26" s="576"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -21736,7 +21761,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="576" t="s">
+      <c r="A28" s="575" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -21780,7 +21805,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="576"/>
+      <c r="A29" s="575"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -21822,7 +21847,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="576"/>
+      <c r="A30" s="575"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -21864,7 +21889,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="576"/>
+      <c r="A31" s="575"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -21906,7 +21931,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="576"/>
+      <c r="A32" s="575"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -21948,7 +21973,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="576"/>
+      <c r="A33" s="575"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -21990,7 +22015,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="576"/>
+      <c r="A34" s="575"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -22032,7 +22057,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="576"/>
+      <c r="A35" s="575"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -22074,7 +22099,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="576"/>
+      <c r="A36" s="575"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -22116,7 +22141,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="576"/>
+      <c r="A37" s="575"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -22158,7 +22183,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="576"/>
+      <c r="A38" s="575"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -22200,7 +22225,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="576"/>
+      <c r="A39" s="575"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -22282,7 +22307,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="575" t="s">
+      <c r="A41" s="574" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -22326,7 +22351,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="576"/>
+      <c r="A42" s="575"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -22368,7 +22393,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="576"/>
+      <c r="A43" s="575"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -22410,7 +22435,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="576"/>
+      <c r="A44" s="575"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -22452,7 +22477,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="576"/>
+      <c r="A45" s="575"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -22494,7 +22519,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="576"/>
+      <c r="A46" s="575"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -22536,7 +22561,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="576"/>
+      <c r="A47" s="575"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -22578,7 +22603,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="576"/>
+      <c r="A48" s="575"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -22620,7 +22645,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="576"/>
+      <c r="A49" s="575"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -22662,7 +22687,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="576"/>
+      <c r="A50" s="575"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -22704,7 +22729,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="576"/>
+      <c r="A51" s="575"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -22746,7 +22771,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="577"/>
+      <c r="A52" s="576"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -22828,7 +22853,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="575" t="s">
+      <c r="A54" s="574" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -22872,7 +22897,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="576"/>
+      <c r="A55" s="575"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -22914,7 +22939,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="576"/>
+      <c r="A56" s="575"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -22956,7 +22981,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="576"/>
+      <c r="A57" s="575"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -22998,7 +23023,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="576"/>
+      <c r="A58" s="575"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -23040,7 +23065,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="576"/>
+      <c r="A59" s="575"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -23082,7 +23107,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="576"/>
+      <c r="A60" s="575"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -23124,7 +23149,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="576"/>
+      <c r="A61" s="575"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -23166,7 +23191,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="576"/>
+      <c r="A62" s="575"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -23208,7 +23233,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="576"/>
+      <c r="A63" s="575"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -23250,7 +23275,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="576"/>
+      <c r="A64" s="575"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -23292,7 +23317,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="577"/>
+      <c r="A65" s="576"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -23374,7 +23399,7 @@
       </c>
     </row>
     <row r="67" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="575" t="s">
+      <c r="A67" s="574" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -23418,7 +23443,7 @@
       </c>
     </row>
     <row r="68" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="576"/>
+      <c r="A68" s="575"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -23460,7 +23485,7 @@
       </c>
     </row>
     <row r="69" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="576"/>
+      <c r="A69" s="575"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -23502,7 +23527,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="576"/>
+      <c r="A70" s="575"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -23544,7 +23569,7 @@
       </c>
     </row>
     <row r="71" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="576"/>
+      <c r="A71" s="575"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -23586,7 +23611,7 @@
       </c>
     </row>
     <row r="72" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="576"/>
+      <c r="A72" s="575"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -23628,7 +23653,7 @@
       </c>
     </row>
     <row r="73" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="576"/>
+      <c r="A73" s="575"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -23670,7 +23695,7 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="576"/>
+      <c r="A74" s="575"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -23712,7 +23737,7 @@
       </c>
     </row>
     <row r="75" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="576"/>
+      <c r="A75" s="575"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -23754,7 +23779,7 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="576"/>
+      <c r="A76" s="575"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -23796,7 +23821,7 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="576"/>
+      <c r="A77" s="575"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -23838,7 +23863,7 @@
       </c>
     </row>
     <row r="78" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="578"/>
+      <c r="A78" s="577"/>
       <c r="B78" s="156" t="s">
         <v>17</v>
       </c>
@@ -23946,10 +23971,10 @@
       </c>
     </row>
     <row r="84" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G84" s="556" t="s">
+      <c r="G84" s="585" t="s">
         <v>225</v>
       </c>
-      <c r="H84" s="557"/>
+      <c r="H84" s="586"/>
       <c r="I84" s="458" t="str">
         <f>IF(COUNT(E15:E26)=J81, CONCATENATE(ROUND(SUM(E15:E26)*J81/J81/SUM(C15:C26)*100, 2), " (", ROUND(SUM(E15:E26)*J81/J81/SUM(C15:C26)*100/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*J81/J81/SUM(C15:C26)*100*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -23976,10 +24001,10 @@
       </c>
     </row>
     <row r="85" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G85" s="558" t="s">
+      <c r="G85" s="587" t="s">
         <v>21</v>
       </c>
-      <c r="H85" s="559"/>
+      <c r="H85" s="588"/>
       <c r="I85" s="461" t="str">
         <f>IF(COUNT(E28:E39)=J81, CONCATENATE(ROUND(SUM(E28:E39)*J81/J81/SUM(C28:C39)*100, 2), " (", ROUND(SUM(E28:E39)*J81/J81/SUM(C28:C39)*100/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*J81/J81/SUM(C28:C39)*100*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -24006,10 +24031,10 @@
       </c>
     </row>
     <row r="86" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G86" s="558" t="s">
+      <c r="G86" s="587" t="s">
         <v>22</v>
       </c>
-      <c r="H86" s="559"/>
+      <c r="H86" s="588"/>
       <c r="I86" s="461" t="str">
         <f>IF(COUNT(E41:E52)=J81, CONCATENATE(ROUND(SUM(E41:E52)*J81/J81/SUM(C41:C52)*100, 2), " (", ROUND(SUM(E41:E52)*J81/J81/SUM(C41:C52)*100/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*J81/J81/SUM(C41:C52)*100*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -24036,10 +24061,10 @@
       </c>
     </row>
     <row r="87" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G87" s="558" t="s">
+      <c r="G87" s="587" t="s">
         <v>23</v>
       </c>
-      <c r="H87" s="559"/>
+      <c r="H87" s="588"/>
       <c r="I87" s="461" t="str">
         <f>IF(COUNT(E54:E65)=J81, CONCATENATE(ROUND(SUM(E54:E65)*J81/J81/SUM(C54:C65)*100, 2), " (", ROUND(SUM(E54:E65)*J81/J81/SUM(C54:C65)*100/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*J81/J81/SUM(C54:C65)*100*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -24066,10 +24091,10 @@
       </c>
     </row>
     <row r="88" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G88" s="558" t="s">
+      <c r="G88" s="587" t="s">
         <v>3</v>
       </c>
-      <c r="H88" s="559"/>
+      <c r="H88" s="588"/>
       <c r="I88" s="461" t="str">
         <f>IF(COUNT(E67:E78)=J81, CONCATENATE(ROUND(SUM(E67:E78)*J81/J81/SUM(C67:C78)*100, 2), " (", ROUND(SUM(E67:E78)*J81/J81/SUM(C67:C78)*100/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*J81/J81/SUM(C67:C78)*100*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -24096,10 +24121,10 @@
       </c>
     </row>
     <row r="89" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G89" s="554" t="s">
+      <c r="G89" s="583" t="s">
         <v>1</v>
       </c>
-      <c r="H89" s="594"/>
+      <c r="H89" s="590"/>
       <c r="I89" s="488" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$J$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -24132,15 +24157,6 @@
     <protectedRange sqref="I84:N89" name="Range1_1_2_2"/>
   </protectedRanges>
   <mergeCells count="24">
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="I82:K82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G82:H83"/>
     <mergeCell ref="A79:H79"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="C9:F9"/>
@@ -24156,6 +24172,15 @@
     <mergeCell ref="A41:A52"/>
     <mergeCell ref="A54:A65"/>
     <mergeCell ref="A67:A78"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="I82:K82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G82:H83"/>
   </mergeCells>
   <conditionalFormatting sqref="A41:B52 A54:B65 A67:B78 G11 A12:C12 G13 C1:H2 C3:G3 C4:H7 E11 E12:G12 A13:B39 E13 A1:A10 C9:C10 D8:H8 G9:H9">
     <cfRule type="containsErrors" dxfId="92" priority="37">
@@ -27981,7 +28006,7 @@
   </sheetPr>
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -28050,7 +28075,9 @@
       <c r="R4" s="22"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="35"/>
+      <c r="B5" s="632" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="6" spans="1:18" s="315" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="316" t="s">
@@ -29509,7 +29536,9 @@
     </row>
     <row r="5" spans="1:25" s="98" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54"/>
-      <c r="B5" s="181"/>
+      <c r="B5" s="633" t="s">
+        <v>303</v>
+      </c>
       <c r="C5" s="426"/>
       <c r="D5" s="426"/>
       <c r="E5" s="426"/>
@@ -30911,7 +30940,7 @@
   </sheetPr>
   <dimension ref="A1:AE90"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" topLeftCell="A55" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -31101,13 +31130,13 @@
         <v>226</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="583" t="str">
+      <c r="C9" s="582" t="str">
         <f>IF('W2'!G11+'W3'!$G$22&gt;0,"Yes","No. Please complete W2 or W3 first")</f>
         <v>No. Please complete W2 or W3 first</v>
       </c>
-      <c r="D9" s="583"/>
-      <c r="E9" s="583"/>
-      <c r="F9" s="583"/>
+      <c r="D9" s="582"/>
+      <c r="E9" s="582"/>
+      <c r="F9" s="582"/>
       <c r="G9" s="69"/>
       <c r="H9" s="69"/>
       <c r="I9" s="150"/>
@@ -31200,10 +31229,10 @@
     <row r="12" spans="1:31" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="428"/>
       <c r="B12" s="429"/>
-      <c r="C12" s="579" t="s">
+      <c r="C12" s="578" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="580"/>
+      <c r="D12" s="579"/>
       <c r="E12" s="8" t="s">
         <v>27</v>
       </c>
@@ -31247,58 +31276,58 @@
     <row r="13" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="154"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="581"/>
-      <c r="D13" s="582"/>
-      <c r="E13" s="574" t="s">
+      <c r="C13" s="580"/>
+      <c r="D13" s="581"/>
+      <c r="E13" s="556" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="574"/>
-      <c r="G13" s="574" t="s">
+      <c r="F13" s="556"/>
+      <c r="G13" s="556" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="574"/>
-      <c r="I13" s="587" t="s">
+      <c r="H13" s="556"/>
+      <c r="I13" s="558" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="584"/>
-      <c r="K13" s="584"/>
-      <c r="L13" s="587" t="s">
+      <c r="J13" s="554"/>
+      <c r="K13" s="554"/>
+      <c r="L13" s="558" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="584"/>
-      <c r="N13" s="588"/>
-      <c r="O13" s="584" t="s">
+      <c r="M13" s="554"/>
+      <c r="N13" s="559"/>
+      <c r="O13" s="554" t="s">
         <v>4</v>
       </c>
-      <c r="P13" s="584"/>
-      <c r="Q13" s="584" t="s">
+      <c r="P13" s="554"/>
+      <c r="Q13" s="554" t="s">
         <v>5</v>
       </c>
-      <c r="R13" s="585"/>
-      <c r="S13" s="584" t="s">
+      <c r="R13" s="555"/>
+      <c r="S13" s="554" t="s">
         <v>4</v>
       </c>
-      <c r="T13" s="584"/>
-      <c r="U13" s="584" t="s">
+      <c r="T13" s="554"/>
+      <c r="U13" s="554" t="s">
         <v>5</v>
       </c>
-      <c r="V13" s="584"/>
-      <c r="W13" s="586" t="s">
+      <c r="V13" s="554"/>
+      <c r="W13" s="557" t="s">
         <v>4</v>
       </c>
-      <c r="X13" s="584"/>
-      <c r="Y13" s="584" t="s">
+      <c r="X13" s="554"/>
+      <c r="Y13" s="554" t="s">
         <v>5</v>
       </c>
-      <c r="Z13" s="585"/>
-      <c r="AA13" s="584" t="s">
+      <c r="Z13" s="555"/>
+      <c r="AA13" s="554" t="s">
         <v>4</v>
       </c>
-      <c r="AB13" s="584"/>
-      <c r="AC13" s="584" t="s">
+      <c r="AB13" s="554"/>
+      <c r="AC13" s="554" t="s">
         <v>5</v>
       </c>
-      <c r="AD13" s="585"/>
+      <c r="AD13" s="555"/>
     </row>
     <row r="14" spans="1:31" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="344" t="s">
@@ -31393,7 +31422,7 @@
       </c>
     </row>
     <row r="15" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="576" t="s">
+      <c r="A15" s="575" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -31501,7 +31530,7 @@
       </c>
     </row>
     <row r="16" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="576"/>
+      <c r="A16" s="575"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -31607,7 +31636,7 @@
       </c>
     </row>
     <row r="17" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="576"/>
+      <c r="A17" s="575"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -31713,7 +31742,7 @@
       </c>
     </row>
     <row r="18" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="576"/>
+      <c r="A18" s="575"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -31819,7 +31848,7 @@
       </c>
     </row>
     <row r="19" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="576"/>
+      <c r="A19" s="575"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -31925,7 +31954,7 @@
       </c>
     </row>
     <row r="20" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="576"/>
+      <c r="A20" s="575"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -32031,7 +32060,7 @@
       </c>
     </row>
     <row r="21" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="576"/>
+      <c r="A21" s="575"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -32137,7 +32166,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="576"/>
+      <c r="A22" s="575"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -32243,7 +32272,7 @@
       </c>
     </row>
     <row r="23" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="576"/>
+      <c r="A23" s="575"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -32349,7 +32378,7 @@
       </c>
     </row>
     <row r="24" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="576"/>
+      <c r="A24" s="575"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -32455,7 +32484,7 @@
       </c>
     </row>
     <row r="25" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="576"/>
+      <c r="A25" s="575"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -32561,7 +32590,7 @@
       </c>
     </row>
     <row r="26" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="577"/>
+      <c r="A26" s="576"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -32755,7 +32784,7 @@
       </c>
     </row>
     <row r="28" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="576" t="s">
+      <c r="A28" s="575" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -32863,7 +32892,7 @@
       </c>
     </row>
     <row r="29" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="576"/>
+      <c r="A29" s="575"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -32969,7 +32998,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="576"/>
+      <c r="A30" s="575"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -33076,7 +33105,7 @@
       <c r="AE30" s="7"/>
     </row>
     <row r="31" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="576"/>
+      <c r="A31" s="575"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -33183,7 +33212,7 @@
       <c r="AE31" s="7"/>
     </row>
     <row r="32" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="576"/>
+      <c r="A32" s="575"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -33290,7 +33319,7 @@
       <c r="AE32" s="7"/>
     </row>
     <row r="33" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="576"/>
+      <c r="A33" s="575"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -33397,7 +33426,7 @@
       <c r="AE33" s="7"/>
     </row>
     <row r="34" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="576"/>
+      <c r="A34" s="575"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -33504,7 +33533,7 @@
       <c r="AE34" s="7"/>
     </row>
     <row r="35" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="576"/>
+      <c r="A35" s="575"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -33611,7 +33640,7 @@
       <c r="AE35" s="7"/>
     </row>
     <row r="36" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="576"/>
+      <c r="A36" s="575"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -33718,7 +33747,7 @@
       <c r="AE36" s="7"/>
     </row>
     <row r="37" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="576"/>
+      <c r="A37" s="575"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -33825,7 +33854,7 @@
       <c r="AE37" s="7"/>
     </row>
     <row r="38" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="576"/>
+      <c r="A38" s="575"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -33932,7 +33961,7 @@
       <c r="AE38" s="7"/>
     </row>
     <row r="39" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="576"/>
+      <c r="A39" s="575"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -34128,7 +34157,7 @@
       <c r="AE40" s="7"/>
     </row>
     <row r="41" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="575" t="s">
+      <c r="A41" s="574" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -34237,7 +34266,7 @@
       <c r="AE41" s="7"/>
     </row>
     <row r="42" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="576"/>
+      <c r="A42" s="575"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -34344,7 +34373,7 @@
       <c r="AE42" s="7"/>
     </row>
     <row r="43" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="576"/>
+      <c r="A43" s="575"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -34451,7 +34480,7 @@
       <c r="AE43" s="7"/>
     </row>
     <row r="44" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="576"/>
+      <c r="A44" s="575"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -34558,7 +34587,7 @@
       <c r="AE44" s="7"/>
     </row>
     <row r="45" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="576"/>
+      <c r="A45" s="575"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -34665,7 +34694,7 @@
       <c r="AE45" s="7"/>
     </row>
     <row r="46" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="576"/>
+      <c r="A46" s="575"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -34772,7 +34801,7 @@
       <c r="AE46" s="7"/>
     </row>
     <row r="47" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="576"/>
+      <c r="A47" s="575"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -34879,7 +34908,7 @@
       <c r="AE47" s="7"/>
     </row>
     <row r="48" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="576"/>
+      <c r="A48" s="575"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -34986,7 +35015,7 @@
       <c r="AE48" s="7"/>
     </row>
     <row r="49" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="576"/>
+      <c r="A49" s="575"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -35093,7 +35122,7 @@
       <c r="AE49" s="7"/>
     </row>
     <row r="50" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="576"/>
+      <c r="A50" s="575"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -35200,7 +35229,7 @@
       <c r="AE50" s="7"/>
     </row>
     <row r="51" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="576"/>
+      <c r="A51" s="575"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -35307,7 +35336,7 @@
       <c r="AE51" s="7"/>
     </row>
     <row r="52" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="577"/>
+      <c r="A52" s="576"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -35503,7 +35532,7 @@
       <c r="AE53" s="7"/>
     </row>
     <row r="54" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="575" t="s">
+      <c r="A54" s="574" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -35612,7 +35641,7 @@
       <c r="AE54" s="7"/>
     </row>
     <row r="55" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="576"/>
+      <c r="A55" s="575"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -35719,7 +35748,7 @@
       <c r="AE55" s="7"/>
     </row>
     <row r="56" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="576"/>
+      <c r="A56" s="575"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -35826,7 +35855,7 @@
       <c r="AE56" s="7"/>
     </row>
     <row r="57" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="576"/>
+      <c r="A57" s="575"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -35933,7 +35962,7 @@
       <c r="AE57" s="7"/>
     </row>
     <row r="58" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="576"/>
+      <c r="A58" s="575"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -36040,7 +36069,7 @@
       <c r="AE58" s="7"/>
     </row>
     <row r="59" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="576"/>
+      <c r="A59" s="575"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -36147,7 +36176,7 @@
       <c r="AE59" s="7"/>
     </row>
     <row r="60" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="576"/>
+      <c r="A60" s="575"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -36254,7 +36283,7 @@
       <c r="AE60" s="7"/>
     </row>
     <row r="61" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="576"/>
+      <c r="A61" s="575"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -36361,7 +36390,7 @@
       <c r="AE61" s="7"/>
     </row>
     <row r="62" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="576"/>
+      <c r="A62" s="575"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -36468,7 +36497,7 @@
       <c r="AE62" s="7"/>
     </row>
     <row r="63" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="576"/>
+      <c r="A63" s="575"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -36575,7 +36604,7 @@
       <c r="AE63" s="7"/>
     </row>
     <row r="64" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="576"/>
+      <c r="A64" s="575"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -36682,7 +36711,7 @@
       <c r="AE64" s="7"/>
     </row>
     <row r="65" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="577"/>
+      <c r="A65" s="576"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -36878,7 +36907,7 @@
       <c r="AE66" s="7"/>
     </row>
     <row r="67" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="575" t="s">
+      <c r="A67" s="574" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -36987,7 +37016,7 @@
       <c r="AE67" s="7"/>
     </row>
     <row r="68" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="576"/>
+      <c r="A68" s="575"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -37094,7 +37123,7 @@
       <c r="AE68" s="7"/>
     </row>
     <row r="69" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="576"/>
+      <c r="A69" s="575"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -37201,7 +37230,7 @@
       <c r="AE69" s="7"/>
     </row>
     <row r="70" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="576"/>
+      <c r="A70" s="575"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -37308,7 +37337,7 @@
       <c r="AE70" s="7"/>
     </row>
     <row r="71" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="576"/>
+      <c r="A71" s="575"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -37415,7 +37444,7 @@
       <c r="AE71" s="7"/>
     </row>
     <row r="72" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="576"/>
+      <c r="A72" s="575"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -37522,7 +37551,7 @@
       <c r="AE72" s="7"/>
     </row>
     <row r="73" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="576"/>
+      <c r="A73" s="575"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -37629,7 +37658,7 @@
       <c r="AE73" s="7"/>
     </row>
     <row r="74" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="576"/>
+      <c r="A74" s="575"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -37736,7 +37765,7 @@
       <c r="AE74" s="7"/>
     </row>
     <row r="75" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="576"/>
+      <c r="A75" s="575"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -37843,7 +37872,7 @@
       <c r="AE75" s="7"/>
     </row>
     <row r="76" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="576"/>
+      <c r="A76" s="575"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -37950,7 +37979,7 @@
       <c r="AE76" s="7"/>
     </row>
     <row r="77" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="576"/>
+      <c r="A77" s="575"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -38057,7 +38086,7 @@
       <c r="AE77" s="7"/>
     </row>
     <row r="78" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="578"/>
+      <c r="A78" s="577"/>
       <c r="B78" s="156" t="s">
         <v>17</v>
       </c>
@@ -38257,10 +38286,10 @@
       <c r="AE83" s="10"/>
     </row>
     <row r="84" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G84" s="556" t="s">
+      <c r="G84" s="585" t="s">
         <v>225</v>
       </c>
-      <c r="H84" s="557"/>
+      <c r="H84" s="586"/>
       <c r="I84" s="458" t="str">
         <f>IF(COUNT(E15:E26)=J81, CONCATENATE(ROUND(SUM(E15:E26)*J81/SUM(C15:C26)*1000, 2), " (", ROUND(SUM(E15:E26)*J81/SUM(C15:C26)*1000/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*J81/SUM(C15:C26)*1000*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -38294,10 +38323,10 @@
       <c r="AE84" s="10"/>
     </row>
     <row r="85" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G85" s="558" t="s">
+      <c r="G85" s="587" t="s">
         <v>21</v>
       </c>
-      <c r="H85" s="559"/>
+      <c r="H85" s="588"/>
       <c r="I85" s="461" t="str">
         <f>IF(COUNT(E28:E39)=J81, CONCATENATE(ROUND(SUM(E28:E39)*J81/SUM(C28:C39)*1000, 2), " (", ROUND(SUM(E28:E39)*J81/SUM(C28:C39)*1000/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*J81/SUM(C28:C39)*1000*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -38331,10 +38360,10 @@
       <c r="AE85" s="10"/>
     </row>
     <row r="86" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G86" s="558" t="s">
+      <c r="G86" s="587" t="s">
         <v>22</v>
       </c>
-      <c r="H86" s="559"/>
+      <c r="H86" s="588"/>
       <c r="I86" s="461" t="str">
         <f>IF(COUNT(E41:E52)=J81, CONCATENATE(ROUND(SUM(E41:E52)*J81/SUM(C41:C52)*1000, 2), " (", ROUND(SUM(E41:E52)*J81/SUM(C41:C52)*1000/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*J81/SUM(C41:C52)*1000*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -38368,10 +38397,10 @@
       <c r="AE86" s="10"/>
     </row>
     <row r="87" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G87" s="558" t="s">
+      <c r="G87" s="587" t="s">
         <v>23</v>
       </c>
-      <c r="H87" s="559"/>
+      <c r="H87" s="588"/>
       <c r="I87" s="461" t="str">
         <f>IF(COUNT(E54:E65)=J81, CONCATENATE(ROUND(SUM(E54:E65)*J81/SUM(C54:C65)*1000, 2), " (", ROUND(SUM(E54:E65)*J81/SUM(C54:C65)*1000/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*J81/SUM(C54:C65)*1000*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -38405,10 +38434,10 @@
       <c r="AE87" s="10"/>
     </row>
     <row r="88" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G88" s="558" t="s">
+      <c r="G88" s="587" t="s">
         <v>3</v>
       </c>
-      <c r="H88" s="559"/>
+      <c r="H88" s="588"/>
       <c r="I88" s="461" t="str">
         <f>IF(COUNT(E67:E78)=J81, CONCATENATE(ROUND(SUM(E67:E78)*J81/SUM(C67:C78)*1000, 2), " (", ROUND(SUM(E67:E78)*J81/SUM(C67:C78)*1000/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*J81/SUM(C67:C78)*1000*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -38442,10 +38471,10 @@
       <c r="AE88" s="10"/>
     </row>
     <row r="89" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G89" s="554" t="s">
+      <c r="G89" s="583" t="s">
         <v>1</v>
       </c>
-      <c r="H89" s="555"/>
+      <c r="H89" s="584"/>
       <c r="I89" s="487" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$J$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -38493,17 +38522,12 @@
     <protectedRange sqref="I15:N26 I41:N52 I54:N65 I67:N78 I28:N39 I84:N89" name="Range1_1_2"/>
   </protectedRanges>
   <mergeCells count="30">
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="I82:K82"/>
     <mergeCell ref="L82:N82"/>
@@ -38517,12 +38541,17 @@
     <mergeCell ref="A41:A52"/>
     <mergeCell ref="C12:D13"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
   </mergeCells>
   <conditionalFormatting sqref="A15:B39 AE30:AE78 A91:H1048576 A41:B52 A54:B65 A67:B78 W11:AE11 G11 A12:C12 A14:H14 G13 C1:H2 C3:G3 P3:V3 W10:AD10 O1:V2 O12:P12 R12:AD12 C4:H7 E11 E12:G12 A13:B13 E13 A1:A10 C9:C10 D8:H8 G9:H9 I82 L82 A80:G80 W1:XFD3 AE5:XFD5 O4:XFD4 O6:XFD9 H90 A81:F81 O80:P1048576 I83:N83 Q79:AE1048576 AF11:XFD1048576">
     <cfRule type="containsErrors" dxfId="466" priority="134">
@@ -38865,7 +38894,7 @@
   </sheetPr>
   <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -39049,15 +39078,15 @@
         <v>226</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="583" t="str">
+      <c r="C9" s="582" t="str">
         <f>IF('W2'!G11+'W3'!$G$22&gt;0,"Yes","No. Please complete W2 or W3 first")</f>
         <v>No. Please complete W2 or W3 first</v>
       </c>
-      <c r="D9" s="583"/>
-      <c r="E9" s="583"/>
-      <c r="F9" s="583"/>
-      <c r="G9" s="583"/>
-      <c r="H9" s="583"/>
+      <c r="D9" s="582"/>
+      <c r="E9" s="582"/>
+      <c r="F9" s="582"/>
+      <c r="G9" s="582"/>
+      <c r="H9" s="582"/>
       <c r="I9" s="69"/>
       <c r="J9" s="69"/>
       <c r="K9" s="150"/>
@@ -39098,14 +39127,14 @@
       <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E11" s="595" t="s">
+      <c r="E11" s="591" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="595"/>
-      <c r="G11" s="595"/>
-      <c r="H11" s="595"/>
-      <c r="I11" s="595"/>
-      <c r="J11" s="595"/>
+      <c r="F11" s="591"/>
+      <c r="G11" s="591"/>
+      <c r="H11" s="591"/>
+      <c r="I11" s="591"/>
+      <c r="J11" s="591"/>
       <c r="K11" s="9" t="s">
         <v>224</v>
       </c>
@@ -39122,15 +39151,15 @@
     <row r="12" spans="1:20" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="428"/>
       <c r="B12" s="429"/>
-      <c r="C12" s="579" t="s">
+      <c r="C12" s="578" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="580"/>
-      <c r="E12" s="596" t="s">
+      <c r="D12" s="579"/>
+      <c r="E12" s="592" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="596"/>
-      <c r="G12" s="596"/>
+      <c r="F12" s="592"/>
+      <c r="G12" s="592"/>
       <c r="H12" s="168"/>
       <c r="I12" s="168"/>
       <c r="J12" s="168"/>
@@ -39150,35 +39179,35 @@
     <row r="13" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="154"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="581"/>
-      <c r="D13" s="582"/>
-      <c r="E13" s="574" t="s">
+      <c r="C13" s="580"/>
+      <c r="D13" s="581"/>
+      <c r="E13" s="556" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="574"/>
-      <c r="G13" s="574" t="s">
+      <c r="F13" s="556"/>
+      <c r="G13" s="556" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="574"/>
-      <c r="I13" s="574" t="s">
+      <c r="H13" s="556"/>
+      <c r="I13" s="556" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="574"/>
-      <c r="K13" s="587" t="s">
+      <c r="J13" s="556"/>
+      <c r="K13" s="558" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="584"/>
-      <c r="M13" s="584"/>
-      <c r="N13" s="589" t="s">
+      <c r="L13" s="554"/>
+      <c r="M13" s="554"/>
+      <c r="N13" s="595" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="574"/>
-      <c r="P13" s="590"/>
-      <c r="Q13" s="587" t="s">
+      <c r="O13" s="556"/>
+      <c r="P13" s="596"/>
+      <c r="Q13" s="558" t="s">
         <v>32</v>
       </c>
-      <c r="R13" s="584"/>
-      <c r="S13" s="588"/>
+      <c r="R13" s="554"/>
+      <c r="S13" s="559"/>
     </row>
     <row r="14" spans="1:20" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="344" t="s">
@@ -39240,7 +39269,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="576" t="s">
+      <c r="A15" s="575" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -39298,7 +39327,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="576"/>
+      <c r="A16" s="575"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -39354,7 +39383,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="576"/>
+      <c r="A17" s="575"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -39410,7 +39439,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="576"/>
+      <c r="A18" s="575"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -39466,7 +39495,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="576"/>
+      <c r="A19" s="575"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -39522,7 +39551,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="576"/>
+      <c r="A20" s="575"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -39578,7 +39607,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="576"/>
+      <c r="A21" s="575"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -39634,7 +39663,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="576"/>
+      <c r="A22" s="575"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -39690,7 +39719,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="576"/>
+      <c r="A23" s="575"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -39746,7 +39775,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="576"/>
+      <c r="A24" s="575"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -39802,7 +39831,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="576"/>
+      <c r="A25" s="575"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -39858,7 +39887,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="577"/>
+      <c r="A26" s="576"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -39969,7 +39998,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="576" t="s">
+      <c r="A28" s="575" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -40027,7 +40056,7 @@
       </c>
     </row>
     <row r="29" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="576"/>
+      <c r="A29" s="575"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -40083,7 +40112,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="576"/>
+      <c r="A30" s="575"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -40140,7 +40169,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="576"/>
+      <c r="A31" s="575"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -40197,7 +40226,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="576"/>
+      <c r="A32" s="575"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -40254,7 +40283,7 @@
       <c r="T32" s="7"/>
     </row>
     <row r="33" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="576"/>
+      <c r="A33" s="575"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -40311,7 +40340,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="576"/>
+      <c r="A34" s="575"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -40368,7 +40397,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="576"/>
+      <c r="A35" s="575"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -40425,7 +40454,7 @@
       <c r="T35" s="7"/>
     </row>
     <row r="36" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="576"/>
+      <c r="A36" s="575"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -40482,7 +40511,7 @@
       <c r="T36" s="7"/>
     </row>
     <row r="37" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="576"/>
+      <c r="A37" s="575"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -40539,7 +40568,7 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="576"/>
+      <c r="A38" s="575"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -40596,7 +40625,7 @@
       <c r="T38" s="7"/>
     </row>
     <row r="39" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="576"/>
+      <c r="A39" s="575"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -40709,7 +40738,7 @@
       <c r="T40" s="7"/>
     </row>
     <row r="41" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="575" t="s">
+      <c r="A41" s="574" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -40768,7 +40797,7 @@
       <c r="T41" s="7"/>
     </row>
     <row r="42" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="576"/>
+      <c r="A42" s="575"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -40825,7 +40854,7 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="576"/>
+      <c r="A43" s="575"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -40882,7 +40911,7 @@
       <c r="T43" s="7"/>
     </row>
     <row r="44" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="576"/>
+      <c r="A44" s="575"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -40939,7 +40968,7 @@
       <c r="T44" s="7"/>
     </row>
     <row r="45" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="576"/>
+      <c r="A45" s="575"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -40996,7 +41025,7 @@
       <c r="T45" s="7"/>
     </row>
     <row r="46" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="576"/>
+      <c r="A46" s="575"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -41053,7 +41082,7 @@
       <c r="T46" s="7"/>
     </row>
     <row r="47" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="576"/>
+      <c r="A47" s="575"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -41110,7 +41139,7 @@
       <c r="T47" s="7"/>
     </row>
     <row r="48" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="576"/>
+      <c r="A48" s="575"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -41167,7 +41196,7 @@
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="576"/>
+      <c r="A49" s="575"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -41224,7 +41253,7 @@
       <c r="T49" s="7"/>
     </row>
     <row r="50" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="576"/>
+      <c r="A50" s="575"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -41281,7 +41310,7 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="576"/>
+      <c r="A51" s="575"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -41338,7 +41367,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="577"/>
+      <c r="A52" s="576"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -41451,7 +41480,7 @@
       <c r="T53" s="7"/>
     </row>
     <row r="54" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="575" t="s">
+      <c r="A54" s="574" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -41510,7 +41539,7 @@
       <c r="T54" s="7"/>
     </row>
     <row r="55" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="576"/>
+      <c r="A55" s="575"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -41567,7 +41596,7 @@
       <c r="T55" s="7"/>
     </row>
     <row r="56" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="576"/>
+      <c r="A56" s="575"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -41624,7 +41653,7 @@
       <c r="T56" s="7"/>
     </row>
     <row r="57" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="576"/>
+      <c r="A57" s="575"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -41681,7 +41710,7 @@
       <c r="T57" s="7"/>
     </row>
     <row r="58" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="576"/>
+      <c r="A58" s="575"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -41738,7 +41767,7 @@
       <c r="T58" s="7"/>
     </row>
     <row r="59" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="576"/>
+      <c r="A59" s="575"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -41795,7 +41824,7 @@
       <c r="T59" s="7"/>
     </row>
     <row r="60" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="576"/>
+      <c r="A60" s="575"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -41852,7 +41881,7 @@
       <c r="T60" s="7"/>
     </row>
     <row r="61" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="576"/>
+      <c r="A61" s="575"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -41909,7 +41938,7 @@
       <c r="T61" s="7"/>
     </row>
     <row r="62" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="576"/>
+      <c r="A62" s="575"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -41966,7 +41995,7 @@
       <c r="T62" s="7"/>
     </row>
     <row r="63" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="576"/>
+      <c r="A63" s="575"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -42023,7 +42052,7 @@
       <c r="T63" s="7"/>
     </row>
     <row r="64" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="576"/>
+      <c r="A64" s="575"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -42080,7 +42109,7 @@
       <c r="T64" s="7"/>
     </row>
     <row r="65" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="577"/>
+      <c r="A65" s="576"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -42193,7 +42222,7 @@
       <c r="T66" s="7"/>
     </row>
     <row r="67" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="575" t="s">
+      <c r="A67" s="574" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -42252,7 +42281,7 @@
       <c r="T67" s="7"/>
     </row>
     <row r="68" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="576"/>
+      <c r="A68" s="575"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -42309,7 +42338,7 @@
       <c r="T68" s="7"/>
     </row>
     <row r="69" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="576"/>
+      <c r="A69" s="575"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -42366,7 +42395,7 @@
       <c r="T69" s="7"/>
     </row>
     <row r="70" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="576"/>
+      <c r="A70" s="575"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -42423,7 +42452,7 @@
       <c r="T70" s="7"/>
     </row>
     <row r="71" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="576"/>
+      <c r="A71" s="575"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -42480,7 +42509,7 @@
       <c r="T71" s="7"/>
     </row>
     <row r="72" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="576"/>
+      <c r="A72" s="575"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -42537,7 +42566,7 @@
       <c r="T72" s="7"/>
     </row>
     <row r="73" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="576"/>
+      <c r="A73" s="575"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -42594,7 +42623,7 @@
       <c r="T73" s="7"/>
     </row>
     <row r="74" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="576"/>
+      <c r="A74" s="575"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -42651,7 +42680,7 @@
       <c r="T74" s="7"/>
     </row>
     <row r="75" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="576"/>
+      <c r="A75" s="575"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -42708,7 +42737,7 @@
       <c r="T75" s="7"/>
     </row>
     <row r="76" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="576"/>
+      <c r="A76" s="575"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -42765,7 +42794,7 @@
       <c r="T76" s="7"/>
     </row>
     <row r="77" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="576"/>
+      <c r="A77" s="575"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -42822,7 +42851,7 @@
       <c r="T77" s="7"/>
     </row>
     <row r="78" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="578"/>
+      <c r="A78" s="577"/>
       <c r="B78" s="156" t="s">
         <v>17</v>
       </c>
@@ -42990,10 +43019,10 @@
       <c r="T83" s="10"/>
     </row>
     <row r="84" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I84" s="591" t="s">
+      <c r="I84" s="593" t="s">
         <v>225</v>
       </c>
-      <c r="J84" s="592"/>
+      <c r="J84" s="594"/>
       <c r="K84" s="459" t="str">
         <f>IF(COUNT(E15:E26)=$L$81, CONCATENATE(ROUND(SUM(E15:E26)*$L$81/SUM(C15:C26)*1000, 2), " (", ROUND(SUM(E15:E26)*$L$81/SUM(C15:C26)*1000/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*$L$81/SUM(C15:C26)*1000*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -43033,10 +43062,10 @@
       <c r="T84" s="10"/>
     </row>
     <row r="85" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I85" s="558" t="s">
+      <c r="I85" s="587" t="s">
         <v>21</v>
       </c>
-      <c r="J85" s="593"/>
+      <c r="J85" s="589"/>
       <c r="K85" s="462" t="str">
         <f>IF(COUNT(E28:E39)=$L$81, CONCATENATE(ROUND(SUM(E28:E39)*$L$81/SUM(C28:C39)*1000, 2), " (", ROUND(SUM(E28:E39)*$L$81/SUM(C28:C39)*1000/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*$L$81/SUM(C28:C39)*1000*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -43076,10 +43105,10 @@
       <c r="T85" s="10"/>
     </row>
     <row r="86" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I86" s="558" t="s">
+      <c r="I86" s="587" t="s">
         <v>22</v>
       </c>
-      <c r="J86" s="593"/>
+      <c r="J86" s="589"/>
       <c r="K86" s="462" t="str">
         <f>IF(COUNT(E41:E52)=$L$81, CONCATENATE(ROUND(SUM(E41:E52)*$L$81/SUM(C41:C52)*1000, 2), " (", ROUND(SUM(E41:E52)*$L$81/SUM(C41:C52)*1000/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*$L$81/SUM(C41:C52)*1000*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -43119,10 +43148,10 @@
       <c r="T86" s="10"/>
     </row>
     <row r="87" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I87" s="558" t="s">
+      <c r="I87" s="587" t="s">
         <v>23</v>
       </c>
-      <c r="J87" s="593"/>
+      <c r="J87" s="589"/>
       <c r="K87" s="462" t="str">
         <f>IF(COUNT(E54:E65)=$L$81, CONCATENATE(ROUND(SUM(E54:E65)*$L$81/SUM(C54:C65)*1000, 2), " (", ROUND(SUM(E54:E65)*$L$81/SUM(C54:C65)*1000/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*$L$81/SUM(C54:C65)*1000*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -43162,10 +43191,10 @@
       <c r="T87" s="10"/>
     </row>
     <row r="88" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I88" s="558" t="s">
+      <c r="I88" s="587" t="s">
         <v>3</v>
       </c>
-      <c r="J88" s="593"/>
+      <c r="J88" s="589"/>
       <c r="K88" s="462" t="str">
         <f>IF(COUNT(E67:E78)=$L$81, CONCATENATE(ROUND(SUM(E67:E78)*$L$81/SUM(C67:C78)*1000, 2), " (", ROUND(SUM(E67:E78)*$L$81/SUM(C67:C78)*1000/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*$L$81/SUM(C67:C78)*1000*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -43205,10 +43234,10 @@
       <c r="T88" s="10"/>
     </row>
     <row r="89" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I89" s="554" t="s">
+      <c r="I89" s="583" t="s">
         <v>1</v>
       </c>
-      <c r="J89" s="594"/>
+      <c r="J89" s="590"/>
       <c r="K89" s="488" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$L$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*L81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*L81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*L81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -43266,6 +43295,25 @@
     <protectedRange sqref="K84:S89" name="Range1_1_2_2"/>
   </protectedRanges>
   <mergeCells count="27">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="K12:S12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="A41:A52"/>
+    <mergeCell ref="A54:A65"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="I82:J83"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="Q82:S82"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="N82:P82"/>
     <mergeCell ref="I86:J86"/>
     <mergeCell ref="I87:J87"/>
     <mergeCell ref="I88:J88"/>
@@ -43274,25 +43322,6 @@
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="I85:J85"/>
-    <mergeCell ref="A67:A78"/>
-    <mergeCell ref="I82:J83"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="Q82:S82"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="N82:P82"/>
-    <mergeCell ref="A15:A26"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="A41:A52"/>
-    <mergeCell ref="A54:A65"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="K12:S12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="Q13:S13"/>
   </mergeCells>
   <conditionalFormatting sqref="A91:J1048576 T11 A80:I80 T1:XFD9 J90 A81:H81 H12:I12 E12 K83:M83 Q83:S83 U11:XFD1048576 T30:T1048576">
     <cfRule type="containsErrors" dxfId="401" priority="178">
@@ -43781,13 +43810,13 @@
         <v>226</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="583" t="str">
+      <c r="C9" s="582" t="str">
         <f>IF('W2'!G11+'W3'!$G$22&gt;0,"Yes","No. Please complete W2 or W3 first")</f>
         <v>No. Please complete W2 or W3 first</v>
       </c>
-      <c r="D9" s="583"/>
-      <c r="E9" s="583"/>
-      <c r="F9" s="583"/>
+      <c r="D9" s="582"/>
+      <c r="E9" s="582"/>
+      <c r="F9" s="582"/>
       <c r="G9" s="150"/>
       <c r="H9" s="19"/>
       <c r="I9" s="12"/>
@@ -43824,10 +43853,10 @@
     <row r="12" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="428"/>
       <c r="B12" s="429"/>
-      <c r="C12" s="579" t="s">
+      <c r="C12" s="578" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="580"/>
+      <c r="D12" s="579"/>
       <c r="E12" s="454" t="s">
         <v>27</v>
       </c>
@@ -43842,17 +43871,17 @@
     <row r="13" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="154"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="581"/>
-      <c r="D13" s="582"/>
-      <c r="E13" s="574" t="s">
+      <c r="C13" s="580"/>
+      <c r="D13" s="581"/>
+      <c r="E13" s="556" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="574"/>
-      <c r="G13" s="589" t="s">
+      <c r="F13" s="556"/>
+      <c r="G13" s="595" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="574"/>
-      <c r="I13" s="590"/>
+      <c r="H13" s="556"/>
+      <c r="I13" s="596"/>
     </row>
     <row r="14" spans="1:10" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="344" t="s">
@@ -43884,7 +43913,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="576" t="s">
+      <c r="A15" s="575" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -43914,7 +43943,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="576"/>
+      <c r="A16" s="575"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -43942,7 +43971,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="576"/>
+      <c r="A17" s="575"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -43970,7 +43999,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="576"/>
+      <c r="A18" s="575"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -43998,7 +44027,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="576"/>
+      <c r="A19" s="575"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -44026,7 +44055,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="576"/>
+      <c r="A20" s="575"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -44054,7 +44083,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="576"/>
+      <c r="A21" s="575"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -44082,7 +44111,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="576"/>
+      <c r="A22" s="575"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -44110,7 +44139,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="576"/>
+      <c r="A23" s="575"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -44138,7 +44167,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="576"/>
+      <c r="A24" s="575"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -44166,7 +44195,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="576"/>
+      <c r="A25" s="575"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -44194,7 +44223,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="577"/>
+      <c r="A26" s="576"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -44247,7 +44276,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="576" t="s">
+      <c r="A28" s="575" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -44277,7 +44306,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="576"/>
+      <c r="A29" s="575"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -44305,7 +44334,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="576"/>
+      <c r="A30" s="575"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -44334,7 +44363,7 @@
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="576"/>
+      <c r="A31" s="575"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -44363,7 +44392,7 @@
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="576"/>
+      <c r="A32" s="575"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -44392,7 +44421,7 @@
       <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="576"/>
+      <c r="A33" s="575"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -44421,7 +44450,7 @@
       <c r="J33" s="7"/>
     </row>
     <row r="34" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="576"/>
+      <c r="A34" s="575"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -44450,7 +44479,7 @@
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="576"/>
+      <c r="A35" s="575"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -44479,7 +44508,7 @@
       <c r="J35" s="7"/>
     </row>
     <row r="36" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="576"/>
+      <c r="A36" s="575"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -44508,7 +44537,7 @@
       <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="576"/>
+      <c r="A37" s="575"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -44537,7 +44566,7 @@
       <c r="J37" s="7"/>
     </row>
     <row r="38" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="576"/>
+      <c r="A38" s="575"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -44566,7 +44595,7 @@
       <c r="J38" s="7"/>
     </row>
     <row r="39" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="576"/>
+      <c r="A39" s="575"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -44621,7 +44650,7 @@
       <c r="J40" s="7"/>
     </row>
     <row r="41" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="575" t="s">
+      <c r="A41" s="574" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -44652,7 +44681,7 @@
       <c r="J41" s="7"/>
     </row>
     <row r="42" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="576"/>
+      <c r="A42" s="575"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -44681,7 +44710,7 @@
       <c r="J42" s="7"/>
     </row>
     <row r="43" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="576"/>
+      <c r="A43" s="575"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -44710,7 +44739,7 @@
       <c r="J43" s="7"/>
     </row>
     <row r="44" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="576"/>
+      <c r="A44" s="575"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -44739,7 +44768,7 @@
       <c r="J44" s="7"/>
     </row>
     <row r="45" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="576"/>
+      <c r="A45" s="575"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -44768,7 +44797,7 @@
       <c r="J45" s="7"/>
     </row>
     <row r="46" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="576"/>
+      <c r="A46" s="575"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -44797,7 +44826,7 @@
       <c r="J46" s="7"/>
     </row>
     <row r="47" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="576"/>
+      <c r="A47" s="575"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -44826,7 +44855,7 @@
       <c r="J47" s="7"/>
     </row>
     <row r="48" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="576"/>
+      <c r="A48" s="575"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -44855,7 +44884,7 @@
       <c r="J48" s="7"/>
     </row>
     <row r="49" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="576"/>
+      <c r="A49" s="575"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -44884,7 +44913,7 @@
       <c r="J49" s="7"/>
     </row>
     <row r="50" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="576"/>
+      <c r="A50" s="575"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -44913,7 +44942,7 @@
       <c r="J50" s="7"/>
     </row>
     <row r="51" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="576"/>
+      <c r="A51" s="575"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -44942,7 +44971,7 @@
       <c r="J51" s="7"/>
     </row>
     <row r="52" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="577"/>
+      <c r="A52" s="576"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -44997,7 +45026,7 @@
       <c r="J53" s="7"/>
     </row>
     <row r="54" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="575" t="s">
+      <c r="A54" s="574" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -45028,7 +45057,7 @@
       <c r="J54" s="7"/>
     </row>
     <row r="55" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="576"/>
+      <c r="A55" s="575"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -45057,7 +45086,7 @@
       <c r="J55" s="7"/>
     </row>
     <row r="56" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="576"/>
+      <c r="A56" s="575"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -45086,7 +45115,7 @@
       <c r="J56" s="7"/>
     </row>
     <row r="57" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="576"/>
+      <c r="A57" s="575"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -45115,7 +45144,7 @@
       <c r="J57" s="7"/>
     </row>
     <row r="58" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="576"/>
+      <c r="A58" s="575"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -45144,7 +45173,7 @@
       <c r="J58" s="7"/>
     </row>
     <row r="59" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="576"/>
+      <c r="A59" s="575"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -45173,7 +45202,7 @@
       <c r="J59" s="7"/>
     </row>
     <row r="60" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="576"/>
+      <c r="A60" s="575"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -45202,7 +45231,7 @@
       <c r="J60" s="7"/>
     </row>
     <row r="61" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="576"/>
+      <c r="A61" s="575"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -45231,7 +45260,7 @@
       <c r="J61" s="7"/>
     </row>
     <row r="62" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="576"/>
+      <c r="A62" s="575"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -45260,7 +45289,7 @@
       <c r="J62" s="7"/>
     </row>
     <row r="63" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="576"/>
+      <c r="A63" s="575"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -45289,7 +45318,7 @@
       <c r="J63" s="7"/>
     </row>
     <row r="64" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="576"/>
+      <c r="A64" s="575"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -45318,7 +45347,7 @@
       <c r="J64" s="7"/>
     </row>
     <row r="65" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="577"/>
+      <c r="A65" s="576"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -45373,7 +45402,7 @@
       <c r="J66" s="7"/>
     </row>
     <row r="67" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="575" t="s">
+      <c r="A67" s="574" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -45404,7 +45433,7 @@
       <c r="J67" s="7"/>
     </row>
     <row r="68" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="576"/>
+      <c r="A68" s="575"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -45433,7 +45462,7 @@
       <c r="J68" s="7"/>
     </row>
     <row r="69" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="576"/>
+      <c r="A69" s="575"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -45462,7 +45491,7 @@
       <c r="J69" s="7"/>
     </row>
     <row r="70" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="576"/>
+      <c r="A70" s="575"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -45491,7 +45520,7 @@
       <c r="J70" s="7"/>
     </row>
     <row r="71" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="576"/>
+      <c r="A71" s="575"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -45520,7 +45549,7 @@
       <c r="J71" s="7"/>
     </row>
     <row r="72" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="576"/>
+      <c r="A72" s="575"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -45549,7 +45578,7 @@
       <c r="J72" s="7"/>
     </row>
     <row r="73" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="576"/>
+      <c r="A73" s="575"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -45578,7 +45607,7 @@
       <c r="J73" s="7"/>
     </row>
     <row r="74" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="576"/>
+      <c r="A74" s="575"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -45607,7 +45636,7 @@
       <c r="J74" s="7"/>
     </row>
     <row r="75" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="576"/>
+      <c r="A75" s="575"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -45636,7 +45665,7 @@
       <c r="J75" s="7"/>
     </row>
     <row r="76" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="576"/>
+      <c r="A76" s="575"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -45665,7 +45694,7 @@
       <c r="J76" s="7"/>
     </row>
     <row r="77" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="576"/>
+      <c r="A77" s="575"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -45694,7 +45723,7 @@
       <c r="J77" s="7"/>
     </row>
     <row r="78" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="578"/>
+      <c r="A78" s="577"/>
       <c r="B78" s="156" t="s">
         <v>17</v>
       </c>
@@ -45773,10 +45802,10 @@
       <c r="J83" s="10"/>
     </row>
     <row r="84" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E84" s="556" t="s">
+      <c r="E84" s="585" t="s">
         <v>225</v>
       </c>
-      <c r="F84" s="557"/>
+      <c r="F84" s="586"/>
       <c r="G84" s="458" t="str">
         <f>IF(COUNT(E15:E26)=H81, CONCATENATE(ROUND(SUM(E15:E26)*H81/SUM(C15:C26)*1000, 2), " (", ROUND(SUM(E15:E26)*H81/SUM(C15:C26)*1000/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*H81/SUM(C15:C26)*1000*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -45792,10 +45821,10 @@
       <c r="J84" s="10"/>
     </row>
     <row r="85" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E85" s="558" t="s">
+      <c r="E85" s="587" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="559"/>
+      <c r="F85" s="588"/>
       <c r="G85" s="461" t="str">
         <f>IF(COUNT(E28:E39)=H81, CONCATENATE(ROUND(SUM(E28:E39)*H81/SUM(C28:C39)*1000, 2), " (", ROUND(SUM(E28:E39)*H81/SUM(C28:C39)*1000/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*H81/SUM(C28:C39)*1000*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -45811,10 +45840,10 @@
       <c r="J85" s="10"/>
     </row>
     <row r="86" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E86" s="558" t="s">
+      <c r="E86" s="587" t="s">
         <v>22</v>
       </c>
-      <c r="F86" s="559"/>
+      <c r="F86" s="588"/>
       <c r="G86" s="461" t="str">
         <f>IF(COUNT(E41:E52)=H81, CONCATENATE(ROUND(SUM(E41:E52)*H81/SUM(C41:C52)*1000, 2), " (", ROUND(SUM(E41:E52)*H81/SUM(C41:C52)*1000/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*H81/SUM(C41:C52)*1000*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -45830,10 +45859,10 @@
       <c r="J86" s="10"/>
     </row>
     <row r="87" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E87" s="558" t="s">
+      <c r="E87" s="587" t="s">
         <v>23</v>
       </c>
-      <c r="F87" s="559"/>
+      <c r="F87" s="588"/>
       <c r="G87" s="461" t="str">
         <f>IF(COUNT(E54:E65)=H81, CONCATENATE(ROUND(SUM(E54:E65)*H81/SUM(C54:C65)*1000, 2), " (", ROUND(SUM(E54:E65)*H81/SUM(C54:C65)*1000/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*H81/SUM(C54:C65)*1000*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -45849,10 +45878,10 @@
       <c r="J87" s="10"/>
     </row>
     <row r="88" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E88" s="558" t="s">
+      <c r="E88" s="587" t="s">
         <v>3</v>
       </c>
-      <c r="F88" s="559"/>
+      <c r="F88" s="588"/>
       <c r="G88" s="461" t="str">
         <f>IF(COUNT(E67:E78)=H81, CONCATENATE(ROUND(SUM(E67:E78)*H81/SUM(C67:C78)*1000, 2), " (", ROUND(SUM(E67:E78)*H81/SUM(C67:C78)*1000/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*H81/SUM(C67:C78)*1000*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -45868,10 +45897,10 @@
       <c r="J88" s="10"/>
     </row>
     <row r="89" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E89" s="554" t="s">
+      <c r="E89" s="583" t="s">
         <v>1</v>
       </c>
-      <c r="F89" s="555"/>
+      <c r="F89" s="584"/>
       <c r="G89" s="487" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$H$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*H81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*H81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*H81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -45900,6 +45929,18 @@
     <protectedRange sqref="G41:I52 G54:I65 G67:I78 G28:I39 G84:I89 G15:I26" name="Range1_1_2"/>
   </protectedRanges>
   <mergeCells count="19">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="A41:A52"/>
+    <mergeCell ref="A54:A65"/>
     <mergeCell ref="E89:F89"/>
     <mergeCell ref="E82:F83"/>
     <mergeCell ref="E84:F84"/>
@@ -45907,18 +45948,6 @@
     <mergeCell ref="E86:F86"/>
     <mergeCell ref="E87:F87"/>
     <mergeCell ref="E88:F88"/>
-    <mergeCell ref="A67:A78"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="A15:A26"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="A41:A52"/>
-    <mergeCell ref="A54:A65"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:I13"/>
   </mergeCells>
   <conditionalFormatting sqref="A15:B39 A91:F1048576 A41:B52 A54:B65 A67:B78 A12:C12 A14:F14 C1:F7 E11 E12:F12 A13:B13 E13 A1:A10 C9:C10 D8:F8 G82 A80:F80 G83:I83 A81:D81 K11:XFD1048576 J11 J1:XFD9 J30:J1048576">
     <cfRule type="containsErrors" dxfId="330" priority="68">
@@ -46241,13 +46270,13 @@
         <v>226</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="583" t="str">
+      <c r="C9" s="582" t="str">
         <f>IF('W2'!G11+'W3'!$G$22&gt;0,"Yes","No. Please complete W2 or W3 first")</f>
         <v>No. Please complete W2 or W3 first</v>
       </c>
-      <c r="D9" s="583"/>
-      <c r="E9" s="583"/>
-      <c r="F9" s="583"/>
+      <c r="D9" s="582"/>
+      <c r="E9" s="582"/>
+      <c r="F9" s="582"/>
       <c r="G9" s="69"/>
       <c r="H9" s="69"/>
       <c r="I9" s="150"/>
@@ -46299,10 +46328,10 @@
     <row r="12" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="428"/>
       <c r="B12" s="429"/>
-      <c r="C12" s="579" t="s">
+      <c r="C12" s="578" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="580"/>
+      <c r="D12" s="579"/>
       <c r="E12" s="454" t="s">
         <v>27</v>
       </c>
@@ -46322,26 +46351,26 @@
     <row r="13" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="154"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="581"/>
-      <c r="D13" s="582"/>
-      <c r="E13" s="574" t="s">
+      <c r="C13" s="580"/>
+      <c r="D13" s="581"/>
+      <c r="E13" s="556" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="574"/>
-      <c r="G13" s="574" t="s">
+      <c r="F13" s="556"/>
+      <c r="G13" s="556" t="s">
         <v>252</v>
       </c>
-      <c r="H13" s="574"/>
-      <c r="I13" s="587" t="s">
+      <c r="H13" s="556"/>
+      <c r="I13" s="558" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="584"/>
-      <c r="K13" s="584"/>
-      <c r="L13" s="587" t="s">
+      <c r="J13" s="554"/>
+      <c r="K13" s="554"/>
+      <c r="L13" s="558" t="s">
         <v>34</v>
       </c>
-      <c r="M13" s="584"/>
-      <c r="N13" s="588"/>
+      <c r="M13" s="554"/>
+      <c r="N13" s="559"/>
     </row>
     <row r="14" spans="1:15" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="344" t="s">
@@ -46388,7 +46417,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="576" t="s">
+      <c r="A15" s="575" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -46432,7 +46461,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="576"/>
+      <c r="A16" s="575"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -46474,7 +46503,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="576"/>
+      <c r="A17" s="575"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -46516,7 +46545,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="576"/>
+      <c r="A18" s="575"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -46558,7 +46587,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="576"/>
+      <c r="A19" s="575"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -46600,7 +46629,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="576"/>
+      <c r="A20" s="575"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -46642,7 +46671,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="576"/>
+      <c r="A21" s="575"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -46684,7 +46713,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="576"/>
+      <c r="A22" s="575"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -46726,7 +46755,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="576"/>
+      <c r="A23" s="575"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -46768,7 +46797,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="576"/>
+      <c r="A24" s="575"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -46810,7 +46839,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="576"/>
+      <c r="A25" s="575"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -46852,7 +46881,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="577"/>
+      <c r="A26" s="576"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -46934,7 +46963,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="576" t="s">
+      <c r="A28" s="575" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -46978,7 +47007,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="576"/>
+      <c r="A29" s="575"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -47020,7 +47049,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="576"/>
+      <c r="A30" s="575"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -47063,7 +47092,7 @@
       <c r="O30" s="7"/>
     </row>
     <row r="31" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="576"/>
+      <c r="A31" s="575"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -47106,7 +47135,7 @@
       <c r="O31" s="7"/>
     </row>
     <row r="32" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="576"/>
+      <c r="A32" s="575"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -47149,7 +47178,7 @@
       <c r="O32" s="7"/>
     </row>
     <row r="33" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="576"/>
+      <c r="A33" s="575"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -47192,7 +47221,7 @@
       <c r="O33" s="7"/>
     </row>
     <row r="34" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="576"/>
+      <c r="A34" s="575"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -47235,7 +47264,7 @@
       <c r="O34" s="7"/>
     </row>
     <row r="35" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="576"/>
+      <c r="A35" s="575"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -47278,7 +47307,7 @@
       <c r="O35" s="7"/>
     </row>
     <row r="36" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="576"/>
+      <c r="A36" s="575"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -47321,7 +47350,7 @@
       <c r="O36" s="7"/>
     </row>
     <row r="37" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="576"/>
+      <c r="A37" s="575"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -47364,7 +47393,7 @@
       <c r="O37" s="7"/>
     </row>
     <row r="38" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="576"/>
+      <c r="A38" s="575"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -47407,7 +47436,7 @@
       <c r="O38" s="7"/>
     </row>
     <row r="39" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="576"/>
+      <c r="A39" s="575"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -47491,7 +47520,7 @@
       <c r="O40" s="7"/>
     </row>
     <row r="41" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="575" t="s">
+      <c r="A41" s="574" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -47536,7 +47565,7 @@
       <c r="O41" s="7"/>
     </row>
     <row r="42" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="576"/>
+      <c r="A42" s="575"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -47579,7 +47608,7 @@
       <c r="O42" s="7"/>
     </row>
     <row r="43" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="576"/>
+      <c r="A43" s="575"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -47622,7 +47651,7 @@
       <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="576"/>
+      <c r="A44" s="575"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -47665,7 +47694,7 @@
       <c r="O44" s="7"/>
     </row>
     <row r="45" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="576"/>
+      <c r="A45" s="575"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -47708,7 +47737,7 @@
       <c r="O45" s="7"/>
     </row>
     <row r="46" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="576"/>
+      <c r="A46" s="575"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -47751,7 +47780,7 @@
       <c r="O46" s="7"/>
     </row>
     <row r="47" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="576"/>
+      <c r="A47" s="575"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -47794,7 +47823,7 @@
       <c r="O47" s="7"/>
     </row>
     <row r="48" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="576"/>
+      <c r="A48" s="575"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -47837,7 +47866,7 @@
       <c r="O48" s="7"/>
     </row>
     <row r="49" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="576"/>
+      <c r="A49" s="575"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -47880,7 +47909,7 @@
       <c r="O49" s="7"/>
     </row>
     <row r="50" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="576"/>
+      <c r="A50" s="575"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -47923,7 +47952,7 @@
       <c r="O50" s="7"/>
     </row>
     <row r="51" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="576"/>
+      <c r="A51" s="575"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -47966,7 +47995,7 @@
       <c r="O51" s="7"/>
     </row>
     <row r="52" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="577"/>
+      <c r="A52" s="576"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -48050,7 +48079,7 @@
       <c r="O53" s="7"/>
     </row>
     <row r="54" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="575" t="s">
+      <c r="A54" s="574" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -48095,7 +48124,7 @@
       <c r="O54" s="7"/>
     </row>
     <row r="55" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="576"/>
+      <c r="A55" s="575"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -48138,7 +48167,7 @@
       <c r="O55" s="7"/>
     </row>
     <row r="56" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="576"/>
+      <c r="A56" s="575"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -48181,7 +48210,7 @@
       <c r="O56" s="7"/>
     </row>
     <row r="57" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="576"/>
+      <c r="A57" s="575"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -48224,7 +48253,7 @@
       <c r="O57" s="7"/>
     </row>
     <row r="58" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="576"/>
+      <c r="A58" s="575"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -48267,7 +48296,7 @@
       <c r="O58" s="7"/>
     </row>
     <row r="59" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="576"/>
+      <c r="A59" s="575"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -48310,7 +48339,7 @@
       <c r="O59" s="7"/>
     </row>
     <row r="60" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="576"/>
+      <c r="A60" s="575"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -48353,7 +48382,7 @@
       <c r="O60" s="7"/>
     </row>
     <row r="61" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="576"/>
+      <c r="A61" s="575"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -48396,7 +48425,7 @@
       <c r="O61" s="7"/>
     </row>
     <row r="62" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="576"/>
+      <c r="A62" s="575"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -48439,7 +48468,7 @@
       <c r="O62" s="7"/>
     </row>
     <row r="63" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="576"/>
+      <c r="A63" s="575"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -48482,7 +48511,7 @@
       <c r="O63" s="7"/>
     </row>
     <row r="64" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="576"/>
+      <c r="A64" s="575"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -48525,7 +48554,7 @@
       <c r="O64" s="7"/>
     </row>
     <row r="65" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="577"/>
+      <c r="A65" s="576"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -48609,7 +48638,7 @@
       <c r="O66" s="7"/>
     </row>
     <row r="67" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="575" t="s">
+      <c r="A67" s="574" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -48654,7 +48683,7 @@
       <c r="O67" s="7"/>
     </row>
     <row r="68" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="576"/>
+      <c r="A68" s="575"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -48697,7 +48726,7 @@
       <c r="O68" s="7"/>
     </row>
     <row r="69" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="576"/>
+      <c r="A69" s="575"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -48740,7 +48769,7 @@
       <c r="O69" s="7"/>
     </row>
     <row r="70" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="576"/>
+      <c r="A70" s="575"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -48783,7 +48812,7 @@
       <c r="O70" s="7"/>
     </row>
     <row r="71" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="576"/>
+      <c r="A71" s="575"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -48826,7 +48855,7 @@
       <c r="O71" s="7"/>
     </row>
     <row r="72" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="576"/>
+      <c r="A72" s="575"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -48869,7 +48898,7 @@
       <c r="O72" s="7"/>
     </row>
     <row r="73" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="576"/>
+      <c r="A73" s="575"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -48912,7 +48941,7 @@
       <c r="O73" s="7"/>
     </row>
     <row r="74" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="576"/>
+      <c r="A74" s="575"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -48955,7 +48984,7 @@
       <c r="O74" s="7"/>
     </row>
     <row r="75" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="576"/>
+      <c r="A75" s="575"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -48998,7 +49027,7 @@
       <c r="O75" s="7"/>
     </row>
     <row r="76" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="576"/>
+      <c r="A76" s="575"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -49041,7 +49070,7 @@
       <c r="O76" s="7"/>
     </row>
     <row r="77" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="576"/>
+      <c r="A77" s="575"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -49084,7 +49113,7 @@
       <c r="O77" s="7"/>
     </row>
     <row r="78" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="578"/>
+      <c r="A78" s="577"/>
       <c r="B78" s="156" t="s">
         <v>17</v>
       </c>
@@ -49208,10 +49237,10 @@
       <c r="O83" s="10"/>
     </row>
     <row r="84" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G84" s="556" t="s">
+      <c r="G84" s="585" t="s">
         <v>225</v>
       </c>
-      <c r="H84" s="557"/>
+      <c r="H84" s="586"/>
       <c r="I84" s="458" t="str">
         <f>IF(COUNT(E15:E26)=J81, CONCATENATE(ROUND(SUM(E15:E26)*J81/SUM(C15:C26)*1000, 2), " (", ROUND(SUM(E15:E26)*J81/SUM(C15:C26)*1000/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*J81/SUM(C15:C26)*1000*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -49239,10 +49268,10 @@
       <c r="O84" s="10"/>
     </row>
     <row r="85" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G85" s="558" t="s">
+      <c r="G85" s="587" t="s">
         <v>21</v>
       </c>
-      <c r="H85" s="559"/>
+      <c r="H85" s="588"/>
       <c r="I85" s="461" t="str">
         <f>IF(COUNT(E28:E39)=J81, CONCATENATE(ROUND(SUM(E28:E39)*J81/SUM(C28:C39)*1000, 2), " (", ROUND(SUM(E28:E39)*J81/SUM(C28:C39)*1000/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*J81/SUM(C28:C39)*1000*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -49270,10 +49299,10 @@
       <c r="O85" s="10"/>
     </row>
     <row r="86" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G86" s="558" t="s">
+      <c r="G86" s="587" t="s">
         <v>22</v>
       </c>
-      <c r="H86" s="559"/>
+      <c r="H86" s="588"/>
       <c r="I86" s="461" t="str">
         <f>IF(COUNT(E41:E52)=J81, CONCATENATE(ROUND(SUM(E41:E52)*J81/SUM(C41:C52)*1000, 2), " (", ROUND(SUM(E41:E52)*J81/SUM(C41:C52)*1000/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*J81/SUM(C41:C52)*1000*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -49301,10 +49330,10 @@
       <c r="O86" s="10"/>
     </row>
     <row r="87" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G87" s="558" t="s">
+      <c r="G87" s="587" t="s">
         <v>23</v>
       </c>
-      <c r="H87" s="559"/>
+      <c r="H87" s="588"/>
       <c r="I87" s="461" t="str">
         <f>IF(COUNT(E54:E65)=J81, CONCATENATE(ROUND(SUM(E54:E65)*J81/SUM(C54:C65)*1000, 2), " (", ROUND(SUM(E54:E65)*J81/SUM(C54:C65)*1000/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*J81/SUM(C54:C65)*1000*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -49332,10 +49361,10 @@
       <c r="O87" s="10"/>
     </row>
     <row r="88" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G88" s="558" t="s">
+      <c r="G88" s="587" t="s">
         <v>3</v>
       </c>
-      <c r="H88" s="559"/>
+      <c r="H88" s="588"/>
       <c r="I88" s="461" t="str">
         <f>IF(COUNT(E67:E78)=J81, CONCATENATE(ROUND(SUM(E67:E78)*J81/SUM(C67:C78)*1000, 2), " (", ROUND(SUM(E67:E78)*J81/SUM(C67:C78)*1000/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*J81/SUM(C67:C78)*1000*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -49363,10 +49392,10 @@
       <c r="O88" s="10"/>
     </row>
     <row r="89" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G89" s="554" t="s">
+      <c r="G89" s="583" t="s">
         <v>1</v>
       </c>
-      <c r="H89" s="555"/>
+      <c r="H89" s="584"/>
       <c r="I89" s="487" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$J$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -49408,12 +49437,14 @@
     <protectedRange sqref="I15:N26 I41:N52 I54:N65 I67:N78 I28:N39 I84:N89" name="Range1_1_2"/>
   </protectedRanges>
   <mergeCells count="23">
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="A67:A78"/>
-    <mergeCell ref="G82:H83"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
     <mergeCell ref="I82:K82"/>
     <mergeCell ref="L82:N82"/>
     <mergeCell ref="G84:H84"/>
@@ -49423,14 +49454,12 @@
     <mergeCell ref="A41:A52"/>
     <mergeCell ref="A54:A65"/>
     <mergeCell ref="A79:H79"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="G82:H83"/>
   </mergeCells>
   <conditionalFormatting sqref="A91:H1048576 A41:B52 A54:B65 A67:B78 G11 A12:C12 G13 C1:H2 C3:G3 C4:H7 E11 E12:G12 A13:B39 E13 A1:A10 C9:C10 D8:H8 G9:H9 I82 L82 A80:G80 H90 A81:F81 I83:N83 O11 O1:XFD9 O30:O1048576 P11:XFD1048576">
     <cfRule type="containsErrors" dxfId="300" priority="70">

--- a/Worksheets_BoDManual_YL.xlsx
+++ b/Worksheets_BoDManual_YL.xlsx
@@ -5066,6 +5066,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -5159,15 +5163,102 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5177,92 +5268,17 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5275,18 +5291,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -5298,21 +5302,21 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -5393,10 +5397,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -9100,7 +9100,7 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9132,26 +9132,26 @@
       <c r="A2" s="301"/>
     </row>
     <row r="3" spans="1:18" ht="357.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="526" t="s">
+      <c r="A3" s="528" t="s">
         <v>215</v>
       </c>
-      <c r="B3" s="527"/>
-      <c r="C3" s="527"/>
-      <c r="D3" s="527"/>
-      <c r="E3" s="527"/>
-      <c r="F3" s="527"/>
-      <c r="G3" s="527"/>
-      <c r="H3" s="527"/>
-      <c r="I3" s="527"/>
-      <c r="J3" s="527"/>
-      <c r="K3" s="527"/>
-      <c r="L3" s="527"/>
-      <c r="M3" s="527"/>
-      <c r="N3" s="527"/>
-      <c r="O3" s="527"/>
-      <c r="P3" s="527"/>
-      <c r="Q3" s="527"/>
-      <c r="R3" s="528"/>
+      <c r="B3" s="529"/>
+      <c r="C3" s="529"/>
+      <c r="D3" s="529"/>
+      <c r="E3" s="529"/>
+      <c r="F3" s="529"/>
+      <c r="G3" s="529"/>
+      <c r="H3" s="529"/>
+      <c r="I3" s="529"/>
+      <c r="J3" s="529"/>
+      <c r="K3" s="529"/>
+      <c r="L3" s="529"/>
+      <c r="M3" s="529"/>
+      <c r="N3" s="529"/>
+      <c r="O3" s="529"/>
+      <c r="P3" s="529"/>
+      <c r="Q3" s="529"/>
+      <c r="R3" s="530"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="302"/>
@@ -9453,25 +9453,25 @@
       </c>
     </row>
     <row r="3" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="535" t="s">
+      <c r="B3" s="537" t="s">
         <v>231</v>
       </c>
-      <c r="C3" s="535"/>
-      <c r="D3" s="535"/>
-      <c r="E3" s="535"/>
-      <c r="F3" s="535"/>
-      <c r="G3" s="535"/>
-      <c r="H3" s="535"/>
-      <c r="I3" s="535"/>
-      <c r="J3" s="535"/>
-      <c r="K3" s="535"/>
-      <c r="L3" s="535"/>
-      <c r="M3" s="535"/>
-      <c r="N3" s="535"/>
-      <c r="O3" s="535"/>
-      <c r="P3" s="535"/>
-      <c r="Q3" s="535"/>
-      <c r="R3" s="535"/>
+      <c r="C3" s="537"/>
+      <c r="D3" s="537"/>
+      <c r="E3" s="537"/>
+      <c r="F3" s="537"/>
+      <c r="G3" s="537"/>
+      <c r="H3" s="537"/>
+      <c r="I3" s="537"/>
+      <c r="J3" s="537"/>
+      <c r="K3" s="537"/>
+      <c r="L3" s="537"/>
+      <c r="M3" s="537"/>
+      <c r="N3" s="537"/>
+      <c r="O3" s="537"/>
+      <c r="P3" s="537"/>
+      <c r="Q3" s="537"/>
+      <c r="R3" s="537"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
@@ -9495,10 +9495,10 @@
       <c r="R4" s="22"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="599" t="s">
+      <c r="C6" s="601" t="s">
         <v>248</v>
       </c>
-      <c r="D6" s="599"/>
+      <c r="D6" s="601"/>
       <c r="E6" s="46"/>
       <c r="F6" s="46"/>
       <c r="G6" s="46"/>
@@ -9507,24 +9507,24 @@
       <c r="J6" s="46"/>
       <c r="K6" s="46"/>
       <c r="L6" s="46"/>
-      <c r="M6" s="536" t="s">
+      <c r="M6" s="538" t="s">
         <v>85</v>
       </c>
-      <c r="N6" s="536"/>
-      <c r="O6" s="536"/>
-      <c r="P6" s="536"/>
-      <c r="Q6" s="536"/>
-      <c r="R6" s="536"/>
+      <c r="N6" s="538"/>
+      <c r="O6" s="538"/>
+      <c r="P6" s="538"/>
+      <c r="Q6" s="538"/>
+      <c r="R6" s="538"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="45"/>
       <c r="C7" s="35"/>
-      <c r="M7" s="536"/>
-      <c r="N7" s="536"/>
-      <c r="O7" s="536"/>
-      <c r="P7" s="536"/>
-      <c r="Q7" s="536"/>
-      <c r="R7" s="536"/>
+      <c r="M7" s="538"/>
+      <c r="N7" s="538"/>
+      <c r="O7" s="538"/>
+      <c r="P7" s="538"/>
+      <c r="Q7" s="538"/>
+      <c r="R7" s="538"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="183" t="s">
@@ -9560,34 +9560,34 @@
       <c r="R9" s="182"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="537" t="s">
+      <c r="B10" s="539" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="532" t="s">
+      <c r="C10" s="534" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="533"/>
-      <c r="E10" s="533"/>
-      <c r="F10" s="533"/>
-      <c r="G10" s="534"/>
-      <c r="H10" s="532" t="s">
+      <c r="D10" s="535"/>
+      <c r="E10" s="535"/>
+      <c r="F10" s="535"/>
+      <c r="G10" s="536"/>
+      <c r="H10" s="534" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="533"/>
-      <c r="J10" s="533"/>
-      <c r="K10" s="533"/>
-      <c r="L10" s="534"/>
-      <c r="M10" s="532" t="s">
+      <c r="I10" s="535"/>
+      <c r="J10" s="535"/>
+      <c r="K10" s="535"/>
+      <c r="L10" s="536"/>
+      <c r="M10" s="534" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="533"/>
-      <c r="O10" s="533"/>
-      <c r="P10" s="533"/>
-      <c r="Q10" s="533"/>
-      <c r="R10" s="534"/>
+      <c r="N10" s="535"/>
+      <c r="O10" s="535"/>
+      <c r="P10" s="535"/>
+      <c r="Q10" s="535"/>
+      <c r="R10" s="536"/>
     </row>
     <row r="11" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="538"/>
+      <c r="B11" s="540"/>
       <c r="C11" s="49" t="s">
         <v>78</v>
       </c>
@@ -10348,11 +10348,11 @@
       <c r="N7" s="12"/>
     </row>
     <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="560" t="s">
+      <c r="A8" s="562" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="560"/>
-      <c r="C8" s="560"/>
+      <c r="B8" s="562"/>
+      <c r="C8" s="562"/>
       <c r="D8" s="68"/>
       <c r="E8" s="69"/>
       <c r="F8" s="69"/>
@@ -10370,13 +10370,13 @@
         <v>226</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="582" t="str">
+      <c r="C9" s="585" t="str">
         <f>IF('W8'!G8&gt;0,"Yes","No. Please complete W8 first")</f>
         <v>No. Please complete W8 first</v>
       </c>
-      <c r="D9" s="582"/>
-      <c r="E9" s="582"/>
-      <c r="F9" s="582"/>
+      <c r="D9" s="585"/>
+      <c r="E9" s="585"/>
+      <c r="F9" s="585"/>
       <c r="G9" s="69"/>
       <c r="H9" s="69"/>
       <c r="I9" s="150"/>
@@ -10418,11 +10418,11 @@
       <c r="F11" s="152"/>
       <c r="G11" s="153"/>
       <c r="H11" s="153"/>
-      <c r="I11" s="600" t="s">
+      <c r="I11" s="606" t="s">
         <v>224</v>
       </c>
-      <c r="J11" s="600"/>
-      <c r="K11" s="600"/>
+      <c r="J11" s="606"/>
+      <c r="K11" s="606"/>
       <c r="L11" s="338"/>
       <c r="M11" s="337"/>
       <c r="N11" s="455"/>
@@ -10430,48 +10430,48 @@
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="428"/>
       <c r="B12" s="429"/>
-      <c r="C12" s="601" t="s">
+      <c r="C12" s="602" t="s">
         <v>238</v>
       </c>
-      <c r="D12" s="602"/>
+      <c r="D12" s="603"/>
       <c r="E12" s="454" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="168"/>
       <c r="G12" s="168"/>
       <c r="H12" s="168"/>
-      <c r="I12" s="571" t="s">
+      <c r="I12" s="573" t="s">
         <v>242</v>
       </c>
-      <c r="J12" s="572"/>
-      <c r="K12" s="572"/>
-      <c r="L12" s="572"/>
-      <c r="M12" s="572"/>
-      <c r="N12" s="573"/>
+      <c r="J12" s="574"/>
+      <c r="K12" s="574"/>
+      <c r="L12" s="574"/>
+      <c r="M12" s="574"/>
+      <c r="N12" s="575"/>
     </row>
     <row r="13" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="154"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="603"/>
-      <c r="D13" s="604"/>
-      <c r="E13" s="556" t="s">
+      <c r="C13" s="604"/>
+      <c r="D13" s="605"/>
+      <c r="E13" s="576" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="556"/>
-      <c r="G13" s="556" t="s">
+      <c r="F13" s="576"/>
+      <c r="G13" s="576" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="556"/>
-      <c r="I13" s="558" t="s">
+      <c r="H13" s="576"/>
+      <c r="I13" s="589" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="554"/>
-      <c r="K13" s="554"/>
-      <c r="L13" s="558" t="s">
+      <c r="J13" s="586"/>
+      <c r="K13" s="586"/>
+      <c r="L13" s="589" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="554"/>
-      <c r="N13" s="559"/>
+      <c r="M13" s="586"/>
+      <c r="N13" s="590"/>
     </row>
     <row r="14" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="344" t="s">
@@ -10518,7 +10518,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="575" t="s">
+      <c r="A15" s="578" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -10562,7 +10562,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="575"/>
+      <c r="A16" s="578"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -10604,7 +10604,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="575"/>
+      <c r="A17" s="578"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -10646,7 +10646,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="575"/>
+      <c r="A18" s="578"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -10688,7 +10688,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="575"/>
+      <c r="A19" s="578"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -10730,7 +10730,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="575"/>
+      <c r="A20" s="578"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -10772,7 +10772,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="575"/>
+      <c r="A21" s="578"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -10814,7 +10814,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="575"/>
+      <c r="A22" s="578"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -10856,7 +10856,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="575"/>
+      <c r="A23" s="578"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -10898,7 +10898,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="575"/>
+      <c r="A24" s="578"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -10940,7 +10940,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="575"/>
+      <c r="A25" s="578"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -10982,7 +10982,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="576"/>
+      <c r="A26" s="579"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -11064,7 +11064,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="575" t="s">
+      <c r="A28" s="578" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -11108,7 +11108,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="575"/>
+      <c r="A29" s="578"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -11150,7 +11150,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="575"/>
+      <c r="A30" s="578"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -11192,7 +11192,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="575"/>
+      <c r="A31" s="578"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -11234,7 +11234,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="575"/>
+      <c r="A32" s="578"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -11276,7 +11276,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="575"/>
+      <c r="A33" s="578"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -11318,7 +11318,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="575"/>
+      <c r="A34" s="578"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -11360,7 +11360,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="575"/>
+      <c r="A35" s="578"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -11402,7 +11402,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="575"/>
+      <c r="A36" s="578"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -11444,7 +11444,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="575"/>
+      <c r="A37" s="578"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -11486,7 +11486,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="575"/>
+      <c r="A38" s="578"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -11528,7 +11528,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="575"/>
+      <c r="A39" s="578"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -11610,7 +11610,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="574" t="s">
+      <c r="A41" s="577" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -11654,7 +11654,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="575"/>
+      <c r="A42" s="578"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -11696,7 +11696,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="575"/>
+      <c r="A43" s="578"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -11738,7 +11738,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="575"/>
+      <c r="A44" s="578"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -11780,7 +11780,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="575"/>
+      <c r="A45" s="578"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -11822,7 +11822,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="575"/>
+      <c r="A46" s="578"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -11864,7 +11864,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="575"/>
+      <c r="A47" s="578"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -11906,7 +11906,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="575"/>
+      <c r="A48" s="578"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -11948,7 +11948,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="575"/>
+      <c r="A49" s="578"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -11990,7 +11990,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="575"/>
+      <c r="A50" s="578"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -12032,7 +12032,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="575"/>
+      <c r="A51" s="578"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -12074,7 +12074,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="576"/>
+      <c r="A52" s="579"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -12156,7 +12156,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="574" t="s">
+      <c r="A54" s="577" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -12200,7 +12200,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="575"/>
+      <c r="A55" s="578"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -12242,7 +12242,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="575"/>
+      <c r="A56" s="578"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -12284,7 +12284,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="575"/>
+      <c r="A57" s="578"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -12326,7 +12326,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="575"/>
+      <c r="A58" s="578"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -12368,7 +12368,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="575"/>
+      <c r="A59" s="578"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -12410,7 +12410,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="575"/>
+      <c r="A60" s="578"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -12452,7 +12452,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="575"/>
+      <c r="A61" s="578"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -12494,7 +12494,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="575"/>
+      <c r="A62" s="578"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -12536,7 +12536,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="575"/>
+      <c r="A63" s="578"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -12578,7 +12578,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="575"/>
+      <c r="A64" s="578"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -12620,7 +12620,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="576"/>
+      <c r="A65" s="579"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -12702,7 +12702,7 @@
       </c>
     </row>
     <row r="67" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="574" t="s">
+      <c r="A67" s="577" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -12746,7 +12746,7 @@
       </c>
     </row>
     <row r="68" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="575"/>
+      <c r="A68" s="578"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -12788,7 +12788,7 @@
       </c>
     </row>
     <row r="69" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="575"/>
+      <c r="A69" s="578"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -12830,7 +12830,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="575"/>
+      <c r="A70" s="578"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -12872,7 +12872,7 @@
       </c>
     </row>
     <row r="71" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="575"/>
+      <c r="A71" s="578"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -12914,7 +12914,7 @@
       </c>
     </row>
     <row r="72" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="575"/>
+      <c r="A72" s="578"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -12956,7 +12956,7 @@
       </c>
     </row>
     <row r="73" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="575"/>
+      <c r="A73" s="578"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -12998,7 +12998,7 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="575"/>
+      <c r="A74" s="578"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -13040,7 +13040,7 @@
       </c>
     </row>
     <row r="75" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="575"/>
+      <c r="A75" s="578"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -13082,7 +13082,7 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="575"/>
+      <c r="A76" s="578"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -13124,7 +13124,7 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="575"/>
+      <c r="A77" s="578"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -13166,7 +13166,7 @@
       </c>
     </row>
     <row r="78" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="577"/>
+      <c r="A78" s="580"/>
       <c r="B78" s="156" t="s">
         <v>17</v>
       </c>
@@ -13227,22 +13227,22 @@
       <c r="N81" s="483"/>
     </row>
     <row r="82" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G82" s="567"/>
-      <c r="H82" s="568"/>
-      <c r="I82" s="561" t="s">
+      <c r="G82" s="569"/>
+      <c r="H82" s="570"/>
+      <c r="I82" s="563" t="s">
         <v>4</v>
       </c>
-      <c r="J82" s="562"/>
-      <c r="K82" s="563"/>
-      <c r="L82" s="564" t="s">
+      <c r="J82" s="564"/>
+      <c r="K82" s="565"/>
+      <c r="L82" s="566" t="s">
         <v>5</v>
       </c>
-      <c r="M82" s="565"/>
-      <c r="N82" s="566"/>
+      <c r="M82" s="567"/>
+      <c r="N82" s="568"/>
     </row>
     <row r="83" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G83" s="569"/>
-      <c r="H83" s="570"/>
+      <c r="G83" s="571"/>
+      <c r="H83" s="572"/>
       <c r="I83" s="484" t="s">
         <v>2</v>
       </c>
@@ -13263,10 +13263,10 @@
       </c>
     </row>
     <row r="84" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G84" s="585" t="s">
+      <c r="G84" s="558" t="s">
         <v>225</v>
       </c>
-      <c r="H84" s="586"/>
+      <c r="H84" s="559"/>
       <c r="I84" s="458" t="str">
         <f>IF(COUNT(E15:E26)=J81, CONCATENATE(ROUND(SUM(E15:E26)*J81/J81/SUM(C15:C26)*100, 2), " (", ROUND(SUM(E15:E26)*J81/J81/SUM(C15:C26)*100/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*J81/J81/SUM(C15:C26)*100*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -13293,10 +13293,10 @@
       </c>
     </row>
     <row r="85" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G85" s="587" t="s">
+      <c r="G85" s="560" t="s">
         <v>21</v>
       </c>
-      <c r="H85" s="588"/>
+      <c r="H85" s="561"/>
       <c r="I85" s="461" t="str">
         <f>IF(COUNT(E28:E39)=J81, CONCATENATE(ROUND(SUM(E28:E39)*J81/J81/SUM(C28:C39)*100, 2), " (", ROUND(SUM(E28:E39)*J81/J81/SUM(C28:C39)*100/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*J81/J81/SUM(C28:C39)*100*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -13323,10 +13323,10 @@
       </c>
     </row>
     <row r="86" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G86" s="587" t="s">
+      <c r="G86" s="560" t="s">
         <v>22</v>
       </c>
-      <c r="H86" s="588"/>
+      <c r="H86" s="561"/>
       <c r="I86" s="461" t="str">
         <f>IF(COUNT(E41:E52)=J81, CONCATENATE(ROUND(SUM(E41:E52)*J81/J81/SUM(C41:C52)*100, 2), " (", ROUND(SUM(E41:E52)*J81/J81/SUM(C41:C52)*100/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*J81/J81/SUM(C41:C52)*100*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -13353,10 +13353,10 @@
       </c>
     </row>
     <row r="87" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G87" s="587" t="s">
+      <c r="G87" s="560" t="s">
         <v>23</v>
       </c>
-      <c r="H87" s="588"/>
+      <c r="H87" s="561"/>
       <c r="I87" s="461" t="str">
         <f>IF(COUNT(E54:E65)=J81, CONCATENATE(ROUND(SUM(E54:E65)*J81/J81/SUM(C54:C65)*100, 2), " (", ROUND(SUM(E54:E65)*J81/J81/SUM(C54:C65)*100/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*J81/J81/SUM(C54:C65)*100*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -13383,10 +13383,10 @@
       </c>
     </row>
     <row r="88" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G88" s="587" t="s">
+      <c r="G88" s="560" t="s">
         <v>3</v>
       </c>
-      <c r="H88" s="588"/>
+      <c r="H88" s="561"/>
       <c r="I88" s="461" t="str">
         <f>IF(COUNT(E67:E78)=J81, CONCATENATE(ROUND(SUM(E67:E78)*J81/J81/SUM(C67:C78)*100, 2), " (", ROUND(SUM(E67:E78)*J81/J81/SUM(C67:C78)*100/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*J81/J81/SUM(C67:C78)*100*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -13413,10 +13413,10 @@
       </c>
     </row>
     <row r="89" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G89" s="583" t="s">
+      <c r="G89" s="556" t="s">
         <v>1</v>
       </c>
-      <c r="H89" s="590"/>
+      <c r="H89" s="596"/>
       <c r="I89" s="488" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$J$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -13449,14 +13449,12 @@
     <protectedRange sqref="I84:N89" name="Range1_1_2_2"/>
   </protectedRanges>
   <mergeCells count="23">
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
     <mergeCell ref="G82:H83"/>
     <mergeCell ref="A67:A78"/>
     <mergeCell ref="I11:K11"/>
@@ -13466,12 +13464,14 @@
     <mergeCell ref="A28:A39"/>
     <mergeCell ref="A41:A52"/>
     <mergeCell ref="A54:A65"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
   </mergeCells>
   <conditionalFormatting sqref="A41:B52 A54:B65 A67:B78 G11 A12:C12 G13 C1:H2 C3:G3 C4:H7 E11 E12:G12 A13:B39 E13 A1:A10 C9:C10 D8:H8 G9:H9">
     <cfRule type="containsErrors" dxfId="238" priority="75">
@@ -13827,11 +13827,11 @@
       <c r="S7" s="12"/>
     </row>
     <row r="8" spans="1:20" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="560" t="s">
+      <c r="A8" s="562" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="560"/>
-      <c r="C8" s="560"/>
+      <c r="B8" s="562"/>
+      <c r="C8" s="562"/>
       <c r="D8" s="68"/>
       <c r="E8" s="69"/>
       <c r="F8" s="69"/>
@@ -13854,13 +13854,13 @@
         <v>226</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="582" t="str">
+      <c r="C9" s="585" t="str">
         <f>IF('W8'!G8&gt;0,"Yes","No. Please complete W8 first")</f>
         <v>No. Please complete W8 first</v>
       </c>
-      <c r="D9" s="582"/>
-      <c r="E9" s="582"/>
-      <c r="F9" s="582"/>
+      <c r="D9" s="585"/>
+      <c r="E9" s="585"/>
+      <c r="F9" s="585"/>
       <c r="G9" s="69"/>
       <c r="H9" s="69"/>
       <c r="I9" s="150"/>
@@ -13903,14 +13903,14 @@
       <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E11" s="591" t="s">
+      <c r="E11" s="597" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="591"/>
-      <c r="G11" s="591"/>
-      <c r="H11" s="591"/>
-      <c r="I11" s="591"/>
-      <c r="J11" s="591"/>
+      <c r="F11" s="597"/>
+      <c r="G11" s="597"/>
+      <c r="H11" s="597"/>
+      <c r="I11" s="597"/>
+      <c r="J11" s="597"/>
       <c r="K11" s="9" t="s">
         <v>224</v>
       </c>
@@ -13927,63 +13927,63 @@
     <row r="12" spans="1:20" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="428"/>
       <c r="B12" s="429"/>
-      <c r="C12" s="601" t="s">
+      <c r="C12" s="602" t="s">
         <v>238</v>
       </c>
-      <c r="D12" s="602"/>
-      <c r="E12" s="592" t="s">
+      <c r="D12" s="603"/>
+      <c r="E12" s="598" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="592"/>
-      <c r="G12" s="592"/>
+      <c r="F12" s="598"/>
+      <c r="G12" s="598"/>
       <c r="H12" s="168"/>
       <c r="I12" s="168"/>
       <c r="J12" s="168"/>
-      <c r="K12" s="571" t="s">
+      <c r="K12" s="573" t="s">
         <v>242</v>
       </c>
-      <c r="L12" s="572"/>
-      <c r="M12" s="572"/>
-      <c r="N12" s="572"/>
-      <c r="O12" s="572"/>
-      <c r="P12" s="572"/>
-      <c r="Q12" s="572"/>
-      <c r="R12" s="572"/>
-      <c r="S12" s="573"/>
+      <c r="L12" s="574"/>
+      <c r="M12" s="574"/>
+      <c r="N12" s="574"/>
+      <c r="O12" s="574"/>
+      <c r="P12" s="574"/>
+      <c r="Q12" s="574"/>
+      <c r="R12" s="574"/>
+      <c r="S12" s="575"/>
       <c r="T12" s="439"/>
     </row>
     <row r="13" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="154"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="603"/>
-      <c r="D13" s="604"/>
-      <c r="E13" s="556" t="s">
+      <c r="C13" s="604"/>
+      <c r="D13" s="605"/>
+      <c r="E13" s="576" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="556"/>
-      <c r="G13" s="556" t="s">
+      <c r="F13" s="576"/>
+      <c r="G13" s="576" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="556"/>
-      <c r="I13" s="556" t="s">
+      <c r="H13" s="576"/>
+      <c r="I13" s="576" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="556"/>
-      <c r="K13" s="558" t="s">
+      <c r="J13" s="576"/>
+      <c r="K13" s="589" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="554"/>
-      <c r="M13" s="554"/>
-      <c r="N13" s="595" t="s">
+      <c r="L13" s="586"/>
+      <c r="M13" s="586"/>
+      <c r="N13" s="591" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="556"/>
-      <c r="P13" s="596"/>
-      <c r="Q13" s="558" t="s">
+      <c r="O13" s="576"/>
+      <c r="P13" s="592"/>
+      <c r="Q13" s="589" t="s">
         <v>32</v>
       </c>
-      <c r="R13" s="554"/>
-      <c r="S13" s="559"/>
+      <c r="R13" s="586"/>
+      <c r="S13" s="590"/>
     </row>
     <row r="14" spans="1:20" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="344" t="s">
@@ -14045,7 +14045,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="575" t="s">
+      <c r="A15" s="578" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -14103,7 +14103,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="575"/>
+      <c r="A16" s="578"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -14159,7 +14159,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="575"/>
+      <c r="A17" s="578"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -14215,7 +14215,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="575"/>
+      <c r="A18" s="578"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -14271,7 +14271,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="575"/>
+      <c r="A19" s="578"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -14327,7 +14327,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="575"/>
+      <c r="A20" s="578"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -14383,7 +14383,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="575"/>
+      <c r="A21" s="578"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -14439,7 +14439,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="575"/>
+      <c r="A22" s="578"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -14495,7 +14495,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="575"/>
+      <c r="A23" s="578"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -14551,7 +14551,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="575"/>
+      <c r="A24" s="578"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -14607,7 +14607,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="575"/>
+      <c r="A25" s="578"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -14663,7 +14663,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="576"/>
+      <c r="A26" s="579"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -14774,7 +14774,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="575" t="s">
+      <c r="A28" s="578" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -14832,7 +14832,7 @@
       </c>
     </row>
     <row r="29" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="575"/>
+      <c r="A29" s="578"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -14888,7 +14888,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="575"/>
+      <c r="A30" s="578"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -14945,7 +14945,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="575"/>
+      <c r="A31" s="578"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -15002,7 +15002,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="575"/>
+      <c r="A32" s="578"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -15059,7 +15059,7 @@
       <c r="T32" s="7"/>
     </row>
     <row r="33" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="575"/>
+      <c r="A33" s="578"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -15116,7 +15116,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="575"/>
+      <c r="A34" s="578"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -15173,7 +15173,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="575"/>
+      <c r="A35" s="578"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -15230,7 +15230,7 @@
       <c r="T35" s="7"/>
     </row>
     <row r="36" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="575"/>
+      <c r="A36" s="578"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -15287,7 +15287,7 @@
       <c r="T36" s="7"/>
     </row>
     <row r="37" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="575"/>
+      <c r="A37" s="578"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -15344,7 +15344,7 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="575"/>
+      <c r="A38" s="578"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -15401,7 +15401,7 @@
       <c r="T38" s="7"/>
     </row>
     <row r="39" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="575"/>
+      <c r="A39" s="578"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -15514,7 +15514,7 @@
       <c r="T40" s="7"/>
     </row>
     <row r="41" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="574" t="s">
+      <c r="A41" s="577" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -15573,7 +15573,7 @@
       <c r="T41" s="7"/>
     </row>
     <row r="42" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="575"/>
+      <c r="A42" s="578"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -15630,7 +15630,7 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="575"/>
+      <c r="A43" s="578"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -15687,7 +15687,7 @@
       <c r="T43" s="7"/>
     </row>
     <row r="44" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="575"/>
+      <c r="A44" s="578"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -15744,7 +15744,7 @@
       <c r="T44" s="7"/>
     </row>
     <row r="45" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="575"/>
+      <c r="A45" s="578"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -15801,7 +15801,7 @@
       <c r="T45" s="7"/>
     </row>
     <row r="46" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="575"/>
+      <c r="A46" s="578"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -15858,7 +15858,7 @@
       <c r="T46" s="7"/>
     </row>
     <row r="47" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="575"/>
+      <c r="A47" s="578"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -15915,7 +15915,7 @@
       <c r="T47" s="7"/>
     </row>
     <row r="48" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="575"/>
+      <c r="A48" s="578"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -15972,7 +15972,7 @@
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="575"/>
+      <c r="A49" s="578"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -16029,7 +16029,7 @@
       <c r="T49" s="7"/>
     </row>
     <row r="50" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="575"/>
+      <c r="A50" s="578"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -16086,7 +16086,7 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="575"/>
+      <c r="A51" s="578"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -16143,7 +16143,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="576"/>
+      <c r="A52" s="579"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -16256,7 +16256,7 @@
       <c r="T53" s="7"/>
     </row>
     <row r="54" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="574" t="s">
+      <c r="A54" s="577" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -16315,7 +16315,7 @@
       <c r="T54" s="7"/>
     </row>
     <row r="55" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="575"/>
+      <c r="A55" s="578"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -16372,7 +16372,7 @@
       <c r="T55" s="7"/>
     </row>
     <row r="56" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="575"/>
+      <c r="A56" s="578"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -16429,7 +16429,7 @@
       <c r="T56" s="7"/>
     </row>
     <row r="57" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="575"/>
+      <c r="A57" s="578"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -16486,7 +16486,7 @@
       <c r="T57" s="7"/>
     </row>
     <row r="58" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="575"/>
+      <c r="A58" s="578"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -16543,7 +16543,7 @@
       <c r="T58" s="7"/>
     </row>
     <row r="59" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="575"/>
+      <c r="A59" s="578"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -16600,7 +16600,7 @@
       <c r="T59" s="7"/>
     </row>
     <row r="60" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="575"/>
+      <c r="A60" s="578"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -16657,7 +16657,7 @@
       <c r="T60" s="7"/>
     </row>
     <row r="61" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="575"/>
+      <c r="A61" s="578"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -16714,7 +16714,7 @@
       <c r="T61" s="7"/>
     </row>
     <row r="62" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="575"/>
+      <c r="A62" s="578"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -16771,7 +16771,7 @@
       <c r="T62" s="7"/>
     </row>
     <row r="63" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="575"/>
+      <c r="A63" s="578"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -16828,7 +16828,7 @@
       <c r="T63" s="7"/>
     </row>
     <row r="64" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="575"/>
+      <c r="A64" s="578"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -16885,7 +16885,7 @@
       <c r="T64" s="7"/>
     </row>
     <row r="65" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="576"/>
+      <c r="A65" s="579"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -16998,7 +16998,7 @@
       <c r="T66" s="7"/>
     </row>
     <row r="67" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="574" t="s">
+      <c r="A67" s="577" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -17057,7 +17057,7 @@
       <c r="T67" s="7"/>
     </row>
     <row r="68" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="575"/>
+      <c r="A68" s="578"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -17114,7 +17114,7 @@
       <c r="T68" s="7"/>
     </row>
     <row r="69" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="575"/>
+      <c r="A69" s="578"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -17171,7 +17171,7 @@
       <c r="T69" s="7"/>
     </row>
     <row r="70" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="575"/>
+      <c r="A70" s="578"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -17228,7 +17228,7 @@
       <c r="T70" s="7"/>
     </row>
     <row r="71" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="575"/>
+      <c r="A71" s="578"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -17285,7 +17285,7 @@
       <c r="T71" s="7"/>
     </row>
     <row r="72" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="575"/>
+      <c r="A72" s="578"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -17342,7 +17342,7 @@
       <c r="T72" s="7"/>
     </row>
     <row r="73" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="575"/>
+      <c r="A73" s="578"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -17399,7 +17399,7 @@
       <c r="T73" s="7"/>
     </row>
     <row r="74" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="575"/>
+      <c r="A74" s="578"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -17456,7 +17456,7 @@
       <c r="T74" s="7"/>
     </row>
     <row r="75" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="575"/>
+      <c r="A75" s="578"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -17513,7 +17513,7 @@
       <c r="T75" s="7"/>
     </row>
     <row r="76" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="575"/>
+      <c r="A76" s="578"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -17570,7 +17570,7 @@
       <c r="T76" s="7"/>
     </row>
     <row r="77" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="575"/>
+      <c r="A77" s="578"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -17627,7 +17627,7 @@
       <c r="T77" s="7"/>
     </row>
     <row r="78" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="577"/>
+      <c r="A78" s="580"/>
       <c r="B78" s="156" t="s">
         <v>17</v>
       </c>
@@ -17711,7 +17711,7 @@
       <c r="J81" s="480"/>
       <c r="K81" s="432"/>
       <c r="L81" s="481" t="str">
-        <f>IF('W2'!G11&gt;0, 'W2'!G11, IF('W3'!$G$22&gt;0, 'W3'!$G$22, ""))</f>
+        <f>IF('W8'!G8&gt;0, 'W8'!G8,  "")</f>
         <v/>
       </c>
       <c r="M81" s="454" t="s">
@@ -17726,28 +17726,28 @@
       <c r="T81" s="10"/>
     </row>
     <row r="82" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I82" s="567"/>
-      <c r="J82" s="568"/>
-      <c r="K82" s="561" t="s">
+      <c r="I82" s="569"/>
+      <c r="J82" s="570"/>
+      <c r="K82" s="563" t="s">
         <v>31</v>
       </c>
-      <c r="L82" s="562"/>
-      <c r="M82" s="563"/>
-      <c r="N82" s="561" t="s">
+      <c r="L82" s="564"/>
+      <c r="M82" s="565"/>
+      <c r="N82" s="563" t="s">
         <v>30</v>
       </c>
-      <c r="O82" s="562"/>
-      <c r="P82" s="563"/>
-      <c r="Q82" s="564" t="s">
+      <c r="O82" s="564"/>
+      <c r="P82" s="565"/>
+      <c r="Q82" s="566" t="s">
         <v>32</v>
       </c>
-      <c r="R82" s="565"/>
-      <c r="S82" s="566"/>
+      <c r="R82" s="567"/>
+      <c r="S82" s="568"/>
       <c r="T82" s="10"/>
     </row>
     <row r="83" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I83" s="569"/>
-      <c r="J83" s="570"/>
+      <c r="I83" s="571"/>
+      <c r="J83" s="572"/>
       <c r="K83" s="490" t="s">
         <v>2</v>
       </c>
@@ -17821,10 +17821,10 @@
       <c r="T84" s="10"/>
     </row>
     <row r="85" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I85" s="587" t="s">
+      <c r="I85" s="560" t="s">
         <v>21</v>
       </c>
-      <c r="J85" s="589"/>
+      <c r="J85" s="595"/>
       <c r="K85" s="462" t="str">
         <f>IF(COUNT(E28:E39)=$L$81, CONCATENATE(ROUND(SUM(E28:E39)*L81/L81/SUM(C28:C39)*100, 2), " (", ROUND(SUM(E28:E39)*L81/L81/SUM(C28:C39)*100/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*L81/L81/SUM(C28:C39)*100*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -17864,10 +17864,10 @@
       <c r="T85" s="10"/>
     </row>
     <row r="86" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I86" s="587" t="s">
+      <c r="I86" s="560" t="s">
         <v>22</v>
       </c>
-      <c r="J86" s="589"/>
+      <c r="J86" s="595"/>
       <c r="K86" s="462" t="str">
         <f>IF(COUNT(E41:E52)=$L$81, CONCATENATE(ROUND(SUM(E41:E52)*L81/L81/SUM(C41:C52)*100, 2), " (", ROUND(SUM(E41:E52)*L81/L81/SUM(C41:C52)*100/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*L81/L81/SUM(C41:C52)*100*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -17907,10 +17907,10 @@
       <c r="T86" s="10"/>
     </row>
     <row r="87" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I87" s="587" t="s">
+      <c r="I87" s="560" t="s">
         <v>23</v>
       </c>
-      <c r="J87" s="589"/>
+      <c r="J87" s="595"/>
       <c r="K87" s="462" t="str">
         <f>IF(COUNT(E54:E65)=$L$81, CONCATENATE(ROUND(SUM(E54:E65)*L81/L81/SUM(C54:C65)*100, 2), " (", ROUND(SUM(E54:E65)*L81/L81/SUM(C54:C65)*100/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*L81/L81/SUM(C54:C65)*100*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -17950,10 +17950,10 @@
       <c r="T87" s="10"/>
     </row>
     <row r="88" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I88" s="587" t="s">
+      <c r="I88" s="560" t="s">
         <v>3</v>
       </c>
-      <c r="J88" s="589"/>
+      <c r="J88" s="595"/>
       <c r="K88" s="462" t="str">
         <f>IF(COUNT(E67:E78)=$L$81, CONCATENATE(ROUND(SUM(E67:E78)*L81/L81/SUM(C67:C78)*100, 2), " (", ROUND(SUM(E67:E78)*L81/L81/SUM(C67:C78)*100/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*L81/L81/SUM(C67:C78)*100*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -17993,10 +17993,10 @@
       <c r="T88" s="10"/>
     </row>
     <row r="89" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I89" s="583" t="s">
+      <c r="I89" s="556" t="s">
         <v>1</v>
       </c>
-      <c r="J89" s="590"/>
+      <c r="J89" s="596"/>
       <c r="K89" s="488" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$L$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*L81/L81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*L81/L81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*L81/L81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -18053,16 +18053,11 @@
     <protectedRange sqref="K84:S89" name="Range1_1_2_2"/>
   </protectedRanges>
   <mergeCells count="27">
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="K12:S12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="I89:J89"/>
     <mergeCell ref="Q82:S82"/>
     <mergeCell ref="I84:J84"/>
     <mergeCell ref="N13:P13"/>
@@ -18075,11 +18070,16 @@
     <mergeCell ref="I82:J83"/>
     <mergeCell ref="K82:M82"/>
     <mergeCell ref="N82:P82"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="K12:S12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <conditionalFormatting sqref="A91:J1048576 T11 A80:I80 T1:XFD9 J90 A81:H81 H12:I12 E12 K83:M83 Q83:S83 U11:XFD1048576 T30:T1048576">
     <cfRule type="containsErrors" dxfId="201" priority="111">
@@ -18565,11 +18565,11 @@
       <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:10" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="560" t="s">
+      <c r="A8" s="562" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="560"/>
-      <c r="C8" s="560"/>
+      <c r="B8" s="562"/>
+      <c r="C8" s="562"/>
       <c r="D8" s="68"/>
       <c r="E8" s="69"/>
       <c r="F8" s="69"/>
@@ -18582,13 +18582,13 @@
         <v>226</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="582" t="str">
+      <c r="C9" s="585" t="str">
         <f>IF('W8'!G8&gt;0,"Yes","No. Please complete W8 first")</f>
         <v>No. Please complete W8 first</v>
       </c>
-      <c r="D9" s="582"/>
-      <c r="E9" s="582"/>
-      <c r="F9" s="582"/>
+      <c r="D9" s="585"/>
+      <c r="E9" s="585"/>
+      <c r="F9" s="585"/>
       <c r="G9" s="150"/>
       <c r="H9" s="19"/>
       <c r="I9" s="12"/>
@@ -18625,35 +18625,35 @@
     <row r="12" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="428"/>
       <c r="B12" s="429"/>
-      <c r="C12" s="601" t="s">
+      <c r="C12" s="602" t="s">
         <v>238</v>
       </c>
-      <c r="D12" s="602"/>
+      <c r="D12" s="603"/>
       <c r="E12" s="454" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="168"/>
-      <c r="G12" s="571" t="s">
+      <c r="G12" s="573" t="s">
         <v>242</v>
       </c>
-      <c r="H12" s="572"/>
-      <c r="I12" s="573"/>
+      <c r="H12" s="574"/>
+      <c r="I12" s="575"/>
       <c r="J12" s="439"/>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="154"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="603"/>
-      <c r="D13" s="604"/>
-      <c r="E13" s="556" t="s">
+      <c r="C13" s="604"/>
+      <c r="D13" s="605"/>
+      <c r="E13" s="576" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="556"/>
-      <c r="G13" s="595" t="s">
+      <c r="F13" s="576"/>
+      <c r="G13" s="591" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="556"/>
-      <c r="I13" s="596"/>
+      <c r="H13" s="576"/>
+      <c r="I13" s="592"/>
     </row>
     <row r="14" spans="1:10" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="344" t="s">
@@ -18685,7 +18685,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="575" t="s">
+      <c r="A15" s="578" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -18715,7 +18715,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="575"/>
+      <c r="A16" s="578"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -18743,7 +18743,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="575"/>
+      <c r="A17" s="578"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -18771,7 +18771,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="575"/>
+      <c r="A18" s="578"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -18799,7 +18799,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="575"/>
+      <c r="A19" s="578"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -18827,7 +18827,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="575"/>
+      <c r="A20" s="578"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -18855,7 +18855,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="575"/>
+      <c r="A21" s="578"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -18883,7 +18883,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="575"/>
+      <c r="A22" s="578"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -18911,7 +18911,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="575"/>
+      <c r="A23" s="578"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -18939,7 +18939,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="575"/>
+      <c r="A24" s="578"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -18967,7 +18967,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="575"/>
+      <c r="A25" s="578"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -18995,7 +18995,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="576"/>
+      <c r="A26" s="579"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -19048,7 +19048,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="575" t="s">
+      <c r="A28" s="578" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -19078,7 +19078,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="575"/>
+      <c r="A29" s="578"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -19106,7 +19106,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="575"/>
+      <c r="A30" s="578"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -19135,7 +19135,7 @@
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="575"/>
+      <c r="A31" s="578"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -19164,7 +19164,7 @@
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="575"/>
+      <c r="A32" s="578"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -19193,7 +19193,7 @@
       <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="575"/>
+      <c r="A33" s="578"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -19222,7 +19222,7 @@
       <c r="J33" s="7"/>
     </row>
     <row r="34" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="575"/>
+      <c r="A34" s="578"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -19251,7 +19251,7 @@
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="575"/>
+      <c r="A35" s="578"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -19280,7 +19280,7 @@
       <c r="J35" s="7"/>
     </row>
     <row r="36" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="575"/>
+      <c r="A36" s="578"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -19309,7 +19309,7 @@
       <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="575"/>
+      <c r="A37" s="578"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -19338,7 +19338,7 @@
       <c r="J37" s="7"/>
     </row>
     <row r="38" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="575"/>
+      <c r="A38" s="578"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -19367,7 +19367,7 @@
       <c r="J38" s="7"/>
     </row>
     <row r="39" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="575"/>
+      <c r="A39" s="578"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -19422,7 +19422,7 @@
       <c r="J40" s="7"/>
     </row>
     <row r="41" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="574" t="s">
+      <c r="A41" s="577" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -19453,7 +19453,7 @@
       <c r="J41" s="7"/>
     </row>
     <row r="42" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="575"/>
+      <c r="A42" s="578"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -19482,7 +19482,7 @@
       <c r="J42" s="7"/>
     </row>
     <row r="43" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="575"/>
+      <c r="A43" s="578"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -19511,7 +19511,7 @@
       <c r="J43" s="7"/>
     </row>
     <row r="44" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="575"/>
+      <c r="A44" s="578"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -19540,7 +19540,7 @@
       <c r="J44" s="7"/>
     </row>
     <row r="45" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="575"/>
+      <c r="A45" s="578"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -19569,7 +19569,7 @@
       <c r="J45" s="7"/>
     </row>
     <row r="46" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="575"/>
+      <c r="A46" s="578"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -19598,7 +19598,7 @@
       <c r="J46" s="7"/>
     </row>
     <row r="47" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="575"/>
+      <c r="A47" s="578"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -19627,7 +19627,7 @@
       <c r="J47" s="7"/>
     </row>
     <row r="48" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="575"/>
+      <c r="A48" s="578"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -19656,7 +19656,7 @@
       <c r="J48" s="7"/>
     </row>
     <row r="49" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="575"/>
+      <c r="A49" s="578"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -19685,7 +19685,7 @@
       <c r="J49" s="7"/>
     </row>
     <row r="50" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="575"/>
+      <c r="A50" s="578"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -19714,7 +19714,7 @@
       <c r="J50" s="7"/>
     </row>
     <row r="51" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="575"/>
+      <c r="A51" s="578"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -19743,7 +19743,7 @@
       <c r="J51" s="7"/>
     </row>
     <row r="52" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="576"/>
+      <c r="A52" s="579"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -19798,7 +19798,7 @@
       <c r="J53" s="7"/>
     </row>
     <row r="54" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="574" t="s">
+      <c r="A54" s="577" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -19829,7 +19829,7 @@
       <c r="J54" s="7"/>
     </row>
     <row r="55" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="575"/>
+      <c r="A55" s="578"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -19858,7 +19858,7 @@
       <c r="J55" s="7"/>
     </row>
     <row r="56" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="575"/>
+      <c r="A56" s="578"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -19887,7 +19887,7 @@
       <c r="J56" s="7"/>
     </row>
     <row r="57" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="575"/>
+      <c r="A57" s="578"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -19916,7 +19916,7 @@
       <c r="J57" s="7"/>
     </row>
     <row r="58" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="575"/>
+      <c r="A58" s="578"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -19945,7 +19945,7 @@
       <c r="J58" s="7"/>
     </row>
     <row r="59" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="575"/>
+      <c r="A59" s="578"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -19974,7 +19974,7 @@
       <c r="J59" s="7"/>
     </row>
     <row r="60" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="575"/>
+      <c r="A60" s="578"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -20003,7 +20003,7 @@
       <c r="J60" s="7"/>
     </row>
     <row r="61" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="575"/>
+      <c r="A61" s="578"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -20032,7 +20032,7 @@
       <c r="J61" s="7"/>
     </row>
     <row r="62" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="575"/>
+      <c r="A62" s="578"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -20061,7 +20061,7 @@
       <c r="J62" s="7"/>
     </row>
     <row r="63" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="575"/>
+      <c r="A63" s="578"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -20090,7 +20090,7 @@
       <c r="J63" s="7"/>
     </row>
     <row r="64" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="575"/>
+      <c r="A64" s="578"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -20119,7 +20119,7 @@
       <c r="J64" s="7"/>
     </row>
     <row r="65" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="576"/>
+      <c r="A65" s="579"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -20174,7 +20174,7 @@
       <c r="J66" s="7"/>
     </row>
     <row r="67" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="574" t="s">
+      <c r="A67" s="577" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -20205,7 +20205,7 @@
       <c r="J67" s="7"/>
     </row>
     <row r="68" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="575"/>
+      <c r="A68" s="578"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -20234,7 +20234,7 @@
       <c r="J68" s="7"/>
     </row>
     <row r="69" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="575"/>
+      <c r="A69" s="578"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -20263,7 +20263,7 @@
       <c r="J69" s="7"/>
     </row>
     <row r="70" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="575"/>
+      <c r="A70" s="578"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -20292,7 +20292,7 @@
       <c r="J70" s="7"/>
     </row>
     <row r="71" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="575"/>
+      <c r="A71" s="578"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -20321,7 +20321,7 @@
       <c r="J71" s="7"/>
     </row>
     <row r="72" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="575"/>
+      <c r="A72" s="578"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -20350,7 +20350,7 @@
       <c r="J72" s="7"/>
     </row>
     <row r="73" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="575"/>
+      <c r="A73" s="578"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -20379,7 +20379,7 @@
       <c r="J73" s="7"/>
     </row>
     <row r="74" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="575"/>
+      <c r="A74" s="578"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -20408,7 +20408,7 @@
       <c r="J74" s="7"/>
     </row>
     <row r="75" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="575"/>
+      <c r="A75" s="578"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -20437,7 +20437,7 @@
       <c r="J75" s="7"/>
     </row>
     <row r="76" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="575"/>
+      <c r="A76" s="578"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -20466,7 +20466,7 @@
       <c r="J76" s="7"/>
     </row>
     <row r="77" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="575"/>
+      <c r="A77" s="578"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -20495,7 +20495,7 @@
       <c r="J77" s="7"/>
     </row>
     <row r="78" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="577"/>
+      <c r="A78" s="580"/>
       <c r="B78" s="156" t="s">
         <v>17</v>
       </c>
@@ -20541,7 +20541,7 @@
       <c r="F81" s="480"/>
       <c r="G81" s="432"/>
       <c r="H81" s="481" t="str">
-        <f>IF('W2'!G11&gt;0, 'W2'!G11, IF('W3'!$G$22&gt;0, 'W3'!$G$22, ""))</f>
+        <f>IF('W8'!G8&gt;0, 'W8'!G8,  "")</f>
         <v/>
       </c>
       <c r="I81" s="455" t="s">
@@ -20550,18 +20550,18 @@
       <c r="J81" s="10"/>
     </row>
     <row r="82" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E82" s="567"/>
-      <c r="F82" s="568"/>
-      <c r="G82" s="561" t="s">
+      <c r="E82" s="569"/>
+      <c r="F82" s="570"/>
+      <c r="G82" s="563" t="s">
         <v>33</v>
       </c>
-      <c r="H82" s="562"/>
-      <c r="I82" s="563"/>
+      <c r="H82" s="564"/>
+      <c r="I82" s="565"/>
       <c r="J82" s="10"/>
     </row>
     <row r="83" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E83" s="569"/>
-      <c r="F83" s="570"/>
+      <c r="E83" s="571"/>
+      <c r="F83" s="572"/>
       <c r="G83" s="484" t="s">
         <v>2</v>
       </c>
@@ -20574,10 +20574,10 @@
       <c r="J83" s="10"/>
     </row>
     <row r="84" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E84" s="585" t="s">
+      <c r="E84" s="558" t="s">
         <v>225</v>
       </c>
-      <c r="F84" s="586"/>
+      <c r="F84" s="559"/>
       <c r="G84" s="458" t="str">
         <f>IF(COUNT(E15:E26)=H81, CONCATENATE(ROUND(SUM(E15:E26)*H81/H81/SUM(C15:C26)*100, 2), " (", ROUND(SUM(E15:E26)*H81/H81/SUM(C15:C26)*100/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*H81/H81/SUM(C15:C26)*100*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -20593,10 +20593,10 @@
       <c r="J84" s="10"/>
     </row>
     <row r="85" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E85" s="587" t="s">
+      <c r="E85" s="560" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="588"/>
+      <c r="F85" s="561"/>
       <c r="G85" s="461" t="str">
         <f>IF(COUNT(E28:E39)=H81, CONCATENATE(ROUND(SUM(E28:E39)*H81/H81/SUM(C28:C39)*100, 2), " (", ROUND(SUM(E28:E39)*H81/H81/SUM(C28:C39)*100/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*H81/H81/SUM(C28:C39)*100*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -20612,10 +20612,10 @@
       <c r="J85" s="10"/>
     </row>
     <row r="86" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E86" s="587" t="s">
+      <c r="E86" s="560" t="s">
         <v>22</v>
       </c>
-      <c r="F86" s="588"/>
+      <c r="F86" s="561"/>
       <c r="G86" s="461" t="str">
         <f>IF(COUNT(E41:E52)=H81, CONCATENATE(ROUND(SUM(E41:E52)*H81/H81/SUM(C41:C52)*100, 2), " (", ROUND(SUM(E41:E52)*H81/H81/SUM(C41:C52)*100/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*H81/H81/SUM(C41:C52)*100*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -20631,10 +20631,10 @@
       <c r="J86" s="10"/>
     </row>
     <row r="87" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E87" s="587" t="s">
+      <c r="E87" s="560" t="s">
         <v>23</v>
       </c>
-      <c r="F87" s="588"/>
+      <c r="F87" s="561"/>
       <c r="G87" s="461" t="str">
         <f>IF(COUNT(E54:E65)=H81, CONCATENATE(ROUND(SUM(E54:E65)*H81/H81/SUM(C54:C65)*100, 2), " (", ROUND(SUM(E54:E65)*H81/H81/SUM(C54:C65)*100/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*H81/H81/SUM(C54:C65)*100*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -20650,10 +20650,10 @@
       <c r="J87" s="10"/>
     </row>
     <row r="88" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E88" s="587" t="s">
+      <c r="E88" s="560" t="s">
         <v>3</v>
       </c>
-      <c r="F88" s="588"/>
+      <c r="F88" s="561"/>
       <c r="G88" s="461" t="str">
         <f>IF(COUNT(E67:E78)=H81, CONCATENATE(ROUND(SUM(E67:E78)*H81/H81/SUM(C67:C78)*100, 2), " (", ROUND(SUM(E67:E78)*H81/H81/SUM(C67:C78)*100/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*H81/H81/SUM(C67:C78)*100*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -20669,10 +20669,10 @@
       <c r="J88" s="10"/>
     </row>
     <row r="89" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E89" s="583" t="s">
+      <c r="E89" s="556" t="s">
         <v>1</v>
       </c>
-      <c r="F89" s="584"/>
+      <c r="F89" s="557"/>
       <c r="G89" s="487" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$H$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*H81/H81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*H81/H81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*H81/H81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -20701,17 +20701,6 @@
     <protectedRange sqref="G41:I52 G54:I65 G67:I78 G28:I39 G84:I89 G15:I26" name="Range1_1_2"/>
   </protectedRanges>
   <mergeCells count="19">
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A15:A26"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="A41:A52"/>
-    <mergeCell ref="A54:A65"/>
-    <mergeCell ref="A67:A78"/>
     <mergeCell ref="E89:F89"/>
     <mergeCell ref="G82:I82"/>
     <mergeCell ref="E84:F84"/>
@@ -20720,6 +20709,17 @@
     <mergeCell ref="E87:F87"/>
     <mergeCell ref="E88:F88"/>
     <mergeCell ref="E82:F83"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="A41:A52"/>
+    <mergeCell ref="A54:A65"/>
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:I13"/>
   </mergeCells>
   <conditionalFormatting sqref="A91:F1048576 A41:B52 A54:B65 A67:B78 C1:F7 E11 E12:F12 A12:B39 E13 A1 G82 A80:F80 G83:I83 A81:D81 K11:XFD1048576 J11 J1:XFD9 J30:J1048576 A7">
     <cfRule type="containsErrors" dxfId="127" priority="42">
@@ -21045,11 +21045,11 @@
       <c r="N7" s="12"/>
     </row>
     <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="560" t="s">
+      <c r="A8" s="562" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="560"/>
-      <c r="C8" s="560"/>
+      <c r="B8" s="562"/>
+      <c r="C8" s="562"/>
       <c r="D8" s="68"/>
       <c r="E8" s="69"/>
       <c r="F8" s="69"/>
@@ -21067,13 +21067,13 @@
         <v>226</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="582" t="str">
+      <c r="C9" s="585" t="str">
         <f>IF('W8'!G8&gt;0,"Yes","No. Please complete W8 first")</f>
         <v>No. Please complete W8 first</v>
       </c>
-      <c r="D9" s="582"/>
-      <c r="E9" s="582"/>
-      <c r="F9" s="582"/>
+      <c r="D9" s="585"/>
+      <c r="E9" s="585"/>
+      <c r="F9" s="585"/>
       <c r="G9" s="69"/>
       <c r="H9" s="69"/>
       <c r="I9" s="150"/>
@@ -21115,11 +21115,11 @@
       <c r="F11" s="152"/>
       <c r="G11" s="153"/>
       <c r="H11" s="153"/>
-      <c r="I11" s="600" t="s">
+      <c r="I11" s="606" t="s">
         <v>224</v>
       </c>
-      <c r="J11" s="600"/>
-      <c r="K11" s="600"/>
+      <c r="J11" s="606"/>
+      <c r="K11" s="606"/>
       <c r="L11" s="338"/>
       <c r="M11" s="337"/>
       <c r="N11" s="455"/>
@@ -21127,48 +21127,48 @@
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="428"/>
       <c r="B12" s="429"/>
-      <c r="C12" s="601" t="s">
+      <c r="C12" s="602" t="s">
         <v>238</v>
       </c>
-      <c r="D12" s="602"/>
+      <c r="D12" s="603"/>
       <c r="E12" s="454" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="168"/>
       <c r="G12" s="168"/>
       <c r="H12" s="168"/>
-      <c r="I12" s="571" t="s">
+      <c r="I12" s="573" t="s">
         <v>242</v>
       </c>
-      <c r="J12" s="572"/>
-      <c r="K12" s="572"/>
-      <c r="L12" s="572"/>
-      <c r="M12" s="572"/>
-      <c r="N12" s="573"/>
+      <c r="J12" s="574"/>
+      <c r="K12" s="574"/>
+      <c r="L12" s="574"/>
+      <c r="M12" s="574"/>
+      <c r="N12" s="575"/>
     </row>
     <row r="13" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="154"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="603"/>
-      <c r="D13" s="604"/>
-      <c r="E13" s="556" t="s">
+      <c r="C13" s="604"/>
+      <c r="D13" s="605"/>
+      <c r="E13" s="576" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="556"/>
-      <c r="G13" s="556" t="s">
+      <c r="F13" s="576"/>
+      <c r="G13" s="576" t="s">
         <v>252</v>
       </c>
-      <c r="H13" s="556"/>
-      <c r="I13" s="558" t="s">
+      <c r="H13" s="576"/>
+      <c r="I13" s="589" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="554"/>
-      <c r="K13" s="554"/>
-      <c r="L13" s="558" t="s">
+      <c r="J13" s="586"/>
+      <c r="K13" s="586"/>
+      <c r="L13" s="589" t="s">
         <v>34</v>
       </c>
-      <c r="M13" s="554"/>
-      <c r="N13" s="559"/>
+      <c r="M13" s="586"/>
+      <c r="N13" s="590"/>
     </row>
     <row r="14" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="344" t="s">
@@ -21215,7 +21215,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="575" t="s">
+      <c r="A15" s="578" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -21259,7 +21259,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="575"/>
+      <c r="A16" s="578"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -21301,7 +21301,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="575"/>
+      <c r="A17" s="578"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -21343,7 +21343,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="575"/>
+      <c r="A18" s="578"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -21385,7 +21385,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="575"/>
+      <c r="A19" s="578"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -21427,7 +21427,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="575"/>
+      <c r="A20" s="578"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -21469,7 +21469,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="575"/>
+      <c r="A21" s="578"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -21511,7 +21511,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="575"/>
+      <c r="A22" s="578"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -21553,7 +21553,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="575"/>
+      <c r="A23" s="578"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -21595,7 +21595,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="575"/>
+      <c r="A24" s="578"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -21637,7 +21637,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="575"/>
+      <c r="A25" s="578"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -21679,7 +21679,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="576"/>
+      <c r="A26" s="579"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -21761,7 +21761,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="575" t="s">
+      <c r="A28" s="578" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -21805,7 +21805,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="575"/>
+      <c r="A29" s="578"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -21847,7 +21847,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="575"/>
+      <c r="A30" s="578"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -21889,7 +21889,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="575"/>
+      <c r="A31" s="578"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -21931,7 +21931,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="575"/>
+      <c r="A32" s="578"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -21973,7 +21973,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="575"/>
+      <c r="A33" s="578"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -22015,7 +22015,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="575"/>
+      <c r="A34" s="578"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -22057,7 +22057,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="575"/>
+      <c r="A35" s="578"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -22099,7 +22099,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="575"/>
+      <c r="A36" s="578"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -22141,7 +22141,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="575"/>
+      <c r="A37" s="578"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -22183,7 +22183,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="575"/>
+      <c r="A38" s="578"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -22225,7 +22225,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="575"/>
+      <c r="A39" s="578"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -22307,7 +22307,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="574" t="s">
+      <c r="A41" s="577" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -22351,7 +22351,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="575"/>
+      <c r="A42" s="578"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -22393,7 +22393,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="575"/>
+      <c r="A43" s="578"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -22435,7 +22435,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="575"/>
+      <c r="A44" s="578"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -22477,7 +22477,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="575"/>
+      <c r="A45" s="578"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -22519,7 +22519,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="575"/>
+      <c r="A46" s="578"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -22561,7 +22561,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="575"/>
+      <c r="A47" s="578"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -22603,7 +22603,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="575"/>
+      <c r="A48" s="578"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -22645,7 +22645,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="575"/>
+      <c r="A49" s="578"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -22687,7 +22687,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="575"/>
+      <c r="A50" s="578"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -22729,7 +22729,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="575"/>
+      <c r="A51" s="578"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -22771,7 +22771,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="576"/>
+      <c r="A52" s="579"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -22853,7 +22853,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="574" t="s">
+      <c r="A54" s="577" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -22897,7 +22897,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="575"/>
+      <c r="A55" s="578"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -22939,7 +22939,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="575"/>
+      <c r="A56" s="578"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -22981,7 +22981,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="575"/>
+      <c r="A57" s="578"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -23023,7 +23023,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="575"/>
+      <c r="A58" s="578"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -23065,7 +23065,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="575"/>
+      <c r="A59" s="578"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -23107,7 +23107,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="575"/>
+      <c r="A60" s="578"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -23149,7 +23149,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="575"/>
+      <c r="A61" s="578"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -23191,7 +23191,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="575"/>
+      <c r="A62" s="578"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -23233,7 +23233,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="575"/>
+      <c r="A63" s="578"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -23275,7 +23275,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="575"/>
+      <c r="A64" s="578"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -23317,7 +23317,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="576"/>
+      <c r="A65" s="579"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -23399,7 +23399,7 @@
       </c>
     </row>
     <row r="67" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="574" t="s">
+      <c r="A67" s="577" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -23443,7 +23443,7 @@
       </c>
     </row>
     <row r="68" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="575"/>
+      <c r="A68" s="578"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -23485,7 +23485,7 @@
       </c>
     </row>
     <row r="69" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="575"/>
+      <c r="A69" s="578"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -23527,7 +23527,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="575"/>
+      <c r="A70" s="578"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -23569,7 +23569,7 @@
       </c>
     </row>
     <row r="71" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="575"/>
+      <c r="A71" s="578"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -23611,7 +23611,7 @@
       </c>
     </row>
     <row r="72" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="575"/>
+      <c r="A72" s="578"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -23653,7 +23653,7 @@
       </c>
     </row>
     <row r="73" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="575"/>
+      <c r="A73" s="578"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -23695,7 +23695,7 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="575"/>
+      <c r="A74" s="578"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -23737,7 +23737,7 @@
       </c>
     </row>
     <row r="75" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="575"/>
+      <c r="A75" s="578"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -23779,7 +23779,7 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="575"/>
+      <c r="A76" s="578"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -23821,7 +23821,7 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="575"/>
+      <c r="A77" s="578"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -23863,7 +23863,7 @@
       </c>
     </row>
     <row r="78" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="577"/>
+      <c r="A78" s="580"/>
       <c r="B78" s="156" t="s">
         <v>17</v>
       </c>
@@ -23905,16 +23905,16 @@
       </c>
     </row>
     <row r="79" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="597" t="s">
+      <c r="A79" s="599" t="s">
         <v>257</v>
       </c>
-      <c r="B79" s="597"/>
-      <c r="C79" s="597"/>
-      <c r="D79" s="597"/>
-      <c r="E79" s="597"/>
-      <c r="F79" s="597"/>
-      <c r="G79" s="597"/>
-      <c r="H79" s="597"/>
+      <c r="B79" s="599"/>
+      <c r="C79" s="599"/>
+      <c r="D79" s="599"/>
+      <c r="E79" s="599"/>
+      <c r="F79" s="599"/>
+      <c r="G79" s="599"/>
+      <c r="H79" s="599"/>
     </row>
     <row r="80" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="81" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23935,22 +23935,22 @@
       <c r="N81" s="483"/>
     </row>
     <row r="82" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G82" s="567"/>
-      <c r="H82" s="568"/>
-      <c r="I82" s="561" t="s">
+      <c r="G82" s="569"/>
+      <c r="H82" s="570"/>
+      <c r="I82" s="563" t="s">
         <v>35</v>
       </c>
-      <c r="J82" s="562"/>
-      <c r="K82" s="563"/>
-      <c r="L82" s="564" t="s">
+      <c r="J82" s="564"/>
+      <c r="K82" s="565"/>
+      <c r="L82" s="566" t="s">
         <v>34</v>
       </c>
-      <c r="M82" s="565"/>
-      <c r="N82" s="566"/>
+      <c r="M82" s="567"/>
+      <c r="N82" s="568"/>
     </row>
     <row r="83" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G83" s="569"/>
-      <c r="H83" s="570"/>
+      <c r="G83" s="571"/>
+      <c r="H83" s="572"/>
       <c r="I83" s="484" t="s">
         <v>2</v>
       </c>
@@ -23971,10 +23971,10 @@
       </c>
     </row>
     <row r="84" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G84" s="585" t="s">
+      <c r="G84" s="558" t="s">
         <v>225</v>
       </c>
-      <c r="H84" s="586"/>
+      <c r="H84" s="559"/>
       <c r="I84" s="458" t="str">
         <f>IF(COUNT(E15:E26)=J81, CONCATENATE(ROUND(SUM(E15:E26)*J81/J81/SUM(C15:C26)*100, 2), " (", ROUND(SUM(E15:E26)*J81/J81/SUM(C15:C26)*100/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*J81/J81/SUM(C15:C26)*100*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -24001,10 +24001,10 @@
       </c>
     </row>
     <row r="85" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G85" s="587" t="s">
+      <c r="G85" s="560" t="s">
         <v>21</v>
       </c>
-      <c r="H85" s="588"/>
+      <c r="H85" s="561"/>
       <c r="I85" s="461" t="str">
         <f>IF(COUNT(E28:E39)=J81, CONCATENATE(ROUND(SUM(E28:E39)*J81/J81/SUM(C28:C39)*100, 2), " (", ROUND(SUM(E28:E39)*J81/J81/SUM(C28:C39)*100/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*J81/J81/SUM(C28:C39)*100*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -24031,10 +24031,10 @@
       </c>
     </row>
     <row r="86" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G86" s="587" t="s">
+      <c r="G86" s="560" t="s">
         <v>22</v>
       </c>
-      <c r="H86" s="588"/>
+      <c r="H86" s="561"/>
       <c r="I86" s="461" t="str">
         <f>IF(COUNT(E41:E52)=J81, CONCATENATE(ROUND(SUM(E41:E52)*J81/J81/SUM(C41:C52)*100, 2), " (", ROUND(SUM(E41:E52)*J81/J81/SUM(C41:C52)*100/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*J81/J81/SUM(C41:C52)*100*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -24061,10 +24061,10 @@
       </c>
     </row>
     <row r="87" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G87" s="587" t="s">
+      <c r="G87" s="560" t="s">
         <v>23</v>
       </c>
-      <c r="H87" s="588"/>
+      <c r="H87" s="561"/>
       <c r="I87" s="461" t="str">
         <f>IF(COUNT(E54:E65)=J81, CONCATENATE(ROUND(SUM(E54:E65)*J81/J81/SUM(C54:C65)*100, 2), " (", ROUND(SUM(E54:E65)*J81/J81/SUM(C54:C65)*100/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*J81/J81/SUM(C54:C65)*100*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -24091,10 +24091,10 @@
       </c>
     </row>
     <row r="88" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G88" s="587" t="s">
+      <c r="G88" s="560" t="s">
         <v>3</v>
       </c>
-      <c r="H88" s="588"/>
+      <c r="H88" s="561"/>
       <c r="I88" s="461" t="str">
         <f>IF(COUNT(E67:E78)=J81, CONCATENATE(ROUND(SUM(E67:E78)*J81/J81/SUM(C67:C78)*100, 2), " (", ROUND(SUM(E67:E78)*J81/J81/SUM(C67:C78)*100/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*J81/J81/SUM(C67:C78)*100*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -24121,10 +24121,10 @@
       </c>
     </row>
     <row r="89" spans="7:14" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G89" s="583" t="s">
+      <c r="G89" s="556" t="s">
         <v>1</v>
       </c>
-      <c r="H89" s="590"/>
+      <c r="H89" s="596"/>
       <c r="I89" s="488" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$J$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*100*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -24157,6 +24157,15 @@
     <protectedRange sqref="I84:N89" name="Range1_1_2_2"/>
   </protectedRanges>
   <mergeCells count="24">
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="I82:K82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G82:H83"/>
     <mergeCell ref="A79:H79"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="C9:F9"/>
@@ -24172,15 +24181,6 @@
     <mergeCell ref="A41:A52"/>
     <mergeCell ref="A54:A65"/>
     <mergeCell ref="A67:A78"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="I82:K82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G82:H83"/>
   </mergeCells>
   <conditionalFormatting sqref="A41:B52 A54:B65 A67:B78 G11 A12:C12 G13 C1:H2 C3:G3 C4:H7 E11 E12:G12 A13:B39 E13 A1:A10 C9:C10 D8:H8 G9:H9">
     <cfRule type="containsErrors" dxfId="92" priority="37">
@@ -24583,7 +24583,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="598" t="s">
+      <c r="A9" s="600" t="s">
         <v>177</v>
       </c>
       <c r="B9" s="277" t="s">
@@ -24608,7 +24608,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="598"/>
+      <c r="A10" s="600"/>
       <c r="B10" s="276" t="s">
         <v>98</v>
       </c>
@@ -24633,7 +24633,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="598"/>
+      <c r="A11" s="600"/>
       <c r="B11" s="278" t="s">
         <v>99</v>
       </c>
@@ -24658,7 +24658,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="598"/>
+      <c r="A12" s="600"/>
       <c r="B12" s="278" t="s">
         <v>100</v>
       </c>
@@ -24683,7 +24683,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="598"/>
+      <c r="A13" s="600"/>
       <c r="B13" s="278" t="s">
         <v>101</v>
       </c>
@@ -24708,7 +24708,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="598"/>
+      <c r="A14" s="600"/>
       <c r="B14" s="278" t="s">
         <v>102</v>
       </c>
@@ -24844,7 +24844,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="598" t="s">
+      <c r="A18" s="600" t="s">
         <v>178</v>
       </c>
       <c r="B18" s="276" t="s">
@@ -24871,7 +24871,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="598"/>
+      <c r="A19" s="600"/>
       <c r="B19" s="276" t="s">
         <v>106</v>
       </c>
@@ -25262,40 +25262,40 @@
       <c r="G2" s="95"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="608" t="s">
+      <c r="A3" s="610" t="s">
         <v>269</v>
       </c>
-      <c r="B3" s="609"/>
-      <c r="C3" s="609"/>
-      <c r="D3" s="609"/>
-      <c r="E3" s="609"/>
-      <c r="F3" s="609"/>
-      <c r="G3" s="609"/>
-      <c r="H3" s="609"/>
-      <c r="I3" s="609"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="609"/>
-      <c r="L3" s="609"/>
-      <c r="M3" s="609"/>
-      <c r="N3" s="609"/>
+      <c r="B3" s="611"/>
+      <c r="C3" s="611"/>
+      <c r="D3" s="611"/>
+      <c r="E3" s="611"/>
+      <c r="F3" s="611"/>
+      <c r="G3" s="611"/>
+      <c r="H3" s="611"/>
+      <c r="I3" s="611"/>
+      <c r="J3" s="611"/>
+      <c r="K3" s="611"/>
+      <c r="L3" s="611"/>
+      <c r="M3" s="611"/>
+      <c r="N3" s="611"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="610" t="s">
+      <c r="A4" s="612" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="610"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="610"/>
-      <c r="E4" s="610"/>
-      <c r="F4" s="610"/>
-      <c r="G4" s="610"/>
-      <c r="H4" s="610"/>
-      <c r="I4" s="610"/>
-      <c r="J4" s="610"/>
-      <c r="K4" s="610"/>
-      <c r="L4" s="610"/>
-      <c r="M4" s="610"/>
-      <c r="N4" s="610"/>
+      <c r="B4" s="612"/>
+      <c r="C4" s="612"/>
+      <c r="D4" s="612"/>
+      <c r="E4" s="612"/>
+      <c r="F4" s="612"/>
+      <c r="G4" s="612"/>
+      <c r="H4" s="612"/>
+      <c r="I4" s="612"/>
+      <c r="J4" s="612"/>
+      <c r="K4" s="612"/>
+      <c r="L4" s="612"/>
+      <c r="M4" s="612"/>
+      <c r="N4" s="612"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="495"/>
@@ -25322,7 +25322,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="605" t="s">
+      <c r="A7" s="607" t="s">
         <v>267</v>
       </c>
       <c r="B7" s="498" t="s">
@@ -25339,7 +25339,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="606"/>
+      <c r="A8" s="608"/>
       <c r="B8" s="499" t="s">
         <v>266</v>
       </c>
@@ -25354,7 +25354,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="606"/>
+      <c r="A9" s="608"/>
       <c r="B9" s="501" t="s">
         <v>270</v>
       </c>
@@ -25384,7 +25384,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="606"/>
+      <c r="A10" s="608"/>
       <c r="B10" s="499" t="s">
         <v>271</v>
       </c>
@@ -25399,7 +25399,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="606"/>
+      <c r="A11" s="608"/>
       <c r="B11" s="499" t="s">
         <v>272</v>
       </c>
@@ -25414,7 +25414,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="607"/>
+      <c r="A12" s="609"/>
       <c r="B12" s="502" t="s">
         <v>273</v>
       </c>
@@ -25444,7 +25444,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="605" t="s">
+      <c r="A13" s="607" t="s">
         <v>268</v>
       </c>
       <c r="B13" s="500" t="s">
@@ -25461,7 +25461,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="606"/>
+      <c r="A14" s="608"/>
       <c r="B14" s="499" t="s">
         <v>275</v>
       </c>
@@ -25476,7 +25476,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="606"/>
+      <c r="A15" s="608"/>
       <c r="B15" s="501" t="s">
         <v>276</v>
       </c>
@@ -25506,7 +25506,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="606"/>
+      <c r="A16" s="608"/>
       <c r="B16" s="499" t="s">
         <v>277</v>
       </c>
@@ -25521,7 +25521,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="606"/>
+      <c r="A17" s="608"/>
       <c r="B17" s="499" t="s">
         <v>278</v>
       </c>
@@ -25536,7 +25536,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="606"/>
+      <c r="A18" s="608"/>
       <c r="B18" s="501" t="s">
         <v>279</v>
       </c>
@@ -25566,7 +25566,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="606"/>
+      <c r="A19" s="608"/>
       <c r="B19" s="499" t="s">
         <v>280</v>
       </c>
@@ -25581,7 +25581,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="606"/>
+      <c r="A20" s="608"/>
       <c r="B20" s="499" t="s">
         <v>281</v>
       </c>
@@ -25596,7 +25596,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="607"/>
+      <c r="A21" s="609"/>
       <c r="B21" s="502" t="s">
         <v>282</v>
       </c>
@@ -25626,7 +25626,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="605" t="s">
+      <c r="A22" s="607" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="500" t="s">
@@ -25643,7 +25643,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="606"/>
+      <c r="A23" s="608"/>
       <c r="B23" s="499" t="s">
         <v>284</v>
       </c>
@@ -25658,7 +25658,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="607"/>
+      <c r="A24" s="609"/>
       <c r="B24" s="502" t="s">
         <v>285</v>
       </c>
@@ -25688,7 +25688,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="605" t="s">
+      <c r="A25" s="607" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="503" t="s">
@@ -25705,7 +25705,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="606"/>
+      <c r="A26" s="608"/>
       <c r="B26" s="499" t="s">
         <v>287</v>
       </c>
@@ -25720,7 +25720,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="606"/>
+      <c r="A27" s="608"/>
       <c r="B27" s="501" t="s">
         <v>288</v>
       </c>
@@ -25750,7 +25750,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="606"/>
+      <c r="A28" s="608"/>
       <c r="B28" s="499" t="s">
         <v>289</v>
       </c>
@@ -25765,7 +25765,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="606"/>
+      <c r="A29" s="608"/>
       <c r="B29" s="499" t="s">
         <v>290</v>
       </c>
@@ -25780,7 +25780,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="607"/>
+      <c r="A30" s="609"/>
       <c r="B30" s="502" t="s">
         <v>291</v>
       </c>
@@ -25989,14 +25989,14 @@
     </row>
     <row r="3" spans="1:16" s="95" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="92"/>
-      <c r="C3" s="611" t="s">
+      <c r="C3" s="613" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="612"/>
-      <c r="E3" s="612"/>
-      <c r="F3" s="612"/>
-      <c r="G3" s="612"/>
-      <c r="H3" s="613"/>
+      <c r="D3" s="614"/>
+      <c r="E3" s="614"/>
+      <c r="F3" s="614"/>
+      <c r="G3" s="614"/>
+      <c r="H3" s="615"/>
       <c r="P3" s="96"/>
     </row>
     <row r="4" spans="1:16" s="95" customFormat="1" x14ac:dyDescent="0.25">
@@ -26095,10 +26095,10 @@
       <c r="I10" s="82"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="614" t="s">
+      <c r="A11" s="616" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="617">
+      <c r="B11" s="619">
         <v>1</v>
       </c>
       <c r="C11" s="164" t="s">
@@ -26118,8 +26118,8 @@
       <c r="I11" s="85"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="615"/>
-      <c r="B12" s="618"/>
+      <c r="A12" s="617"/>
+      <c r="B12" s="620"/>
       <c r="C12" s="86" t="s">
         <v>30</v>
       </c>
@@ -26137,8 +26137,8 @@
       <c r="I12" s="85"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="615"/>
-      <c r="B13" s="618"/>
+      <c r="A13" s="617"/>
+      <c r="B13" s="620"/>
       <c r="C13" s="84" t="s">
         <v>116</v>
       </c>
@@ -26156,8 +26156,8 @@
       <c r="I13" s="85"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="615"/>
-      <c r="B14" s="618">
+      <c r="A14" s="617"/>
+      <c r="B14" s="620">
         <v>2</v>
       </c>
       <c r="C14" s="84" t="s">
@@ -26177,8 +26177,8 @@
       <c r="I14" s="85"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="615"/>
-      <c r="B15" s="618"/>
+      <c r="A15" s="617"/>
+      <c r="B15" s="620"/>
       <c r="C15" s="86" t="s">
         <v>30</v>
       </c>
@@ -26196,8 +26196,8 @@
       <c r="I15" s="85"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="615"/>
-      <c r="B16" s="618"/>
+      <c r="A16" s="617"/>
+      <c r="B16" s="620"/>
       <c r="C16" s="84" t="s">
         <v>116</v>
       </c>
@@ -26215,8 +26215,8 @@
       <c r="I16" s="85"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="615"/>
-      <c r="B17" s="618">
+      <c r="A17" s="617"/>
+      <c r="B17" s="620">
         <v>3</v>
       </c>
       <c r="C17" s="84" t="s">
@@ -26236,8 +26236,8 @@
       <c r="I17" s="85"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="615"/>
-      <c r="B18" s="618"/>
+      <c r="A18" s="617"/>
+      <c r="B18" s="620"/>
       <c r="C18" s="86" t="s">
         <v>30</v>
       </c>
@@ -26255,8 +26255,8 @@
       <c r="I18" s="85"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="615"/>
-      <c r="B19" s="618"/>
+      <c r="A19" s="617"/>
+      <c r="B19" s="620"/>
       <c r="C19" s="84" t="s">
         <v>116</v>
       </c>
@@ -26274,8 +26274,8 @@
       <c r="I19" s="85"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="615"/>
-      <c r="B20" s="618">
+      <c r="A20" s="617"/>
+      <c r="B20" s="620">
         <v>4</v>
       </c>
       <c r="C20" s="84" t="s">
@@ -26295,8 +26295,8 @@
       <c r="I20" s="85"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="615"/>
-      <c r="B21" s="618"/>
+      <c r="A21" s="617"/>
+      <c r="B21" s="620"/>
       <c r="C21" s="86" t="s">
         <v>30</v>
       </c>
@@ -26314,8 +26314,8 @@
       <c r="I21" s="85"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="615"/>
-      <c r="B22" s="618"/>
+      <c r="A22" s="617"/>
+      <c r="B22" s="620"/>
       <c r="C22" s="84" t="s">
         <v>116</v>
       </c>
@@ -26333,8 +26333,8 @@
       <c r="I22" s="85"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="615"/>
-      <c r="B23" s="618">
+      <c r="A23" s="617"/>
+      <c r="B23" s="620">
         <v>5</v>
       </c>
       <c r="C23" s="84" t="s">
@@ -26354,8 +26354,8 @@
       <c r="I23" s="85"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="615"/>
-      <c r="B24" s="618"/>
+      <c r="A24" s="617"/>
+      <c r="B24" s="620"/>
       <c r="C24" s="86" t="s">
         <v>30</v>
       </c>
@@ -26373,8 +26373,8 @@
       <c r="I24" s="85"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="615"/>
-      <c r="B25" s="618"/>
+      <c r="A25" s="617"/>
+      <c r="B25" s="620"/>
       <c r="C25" s="84" t="s">
         <v>116</v>
       </c>
@@ -26392,8 +26392,8 @@
       <c r="I25" s="85"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="615"/>
-      <c r="B26" s="618">
+      <c r="A26" s="617"/>
+      <c r="B26" s="620">
         <v>6</v>
       </c>
       <c r="C26" s="84" t="s">
@@ -26413,8 +26413,8 @@
       <c r="I26" s="85"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="615"/>
-      <c r="B27" s="618"/>
+      <c r="A27" s="617"/>
+      <c r="B27" s="620"/>
       <c r="C27" s="86" t="s">
         <v>30</v>
       </c>
@@ -26432,8 +26432,8 @@
       <c r="I27" s="85"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="615"/>
-      <c r="B28" s="618"/>
+      <c r="A28" s="617"/>
+      <c r="B28" s="620"/>
       <c r="C28" s="84" t="s">
         <v>116</v>
       </c>
@@ -26451,8 +26451,8 @@
       <c r="I28" s="85"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="615"/>
-      <c r="B29" s="618">
+      <c r="A29" s="617"/>
+      <c r="B29" s="620">
         <v>7</v>
       </c>
       <c r="C29" s="84" t="s">
@@ -26472,8 +26472,8 @@
       <c r="I29" s="85"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="615"/>
-      <c r="B30" s="618"/>
+      <c r="A30" s="617"/>
+      <c r="B30" s="620"/>
       <c r="C30" s="86" t="s">
         <v>30</v>
       </c>
@@ -26491,8 +26491,8 @@
       <c r="I30" s="85"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="615"/>
-      <c r="B31" s="618"/>
+      <c r="A31" s="617"/>
+      <c r="B31" s="620"/>
       <c r="C31" s="84" t="s">
         <v>116</v>
       </c>
@@ -26510,8 +26510,8 @@
       <c r="I31" s="85"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="615"/>
-      <c r="B32" s="618">
+      <c r="A32" s="617"/>
+      <c r="B32" s="620">
         <v>8</v>
       </c>
       <c r="C32" s="84" t="s">
@@ -26531,8 +26531,8 @@
       <c r="I32" s="85"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="615"/>
-      <c r="B33" s="618"/>
+      <c r="A33" s="617"/>
+      <c r="B33" s="620"/>
       <c r="C33" s="86" t="s">
         <v>30</v>
       </c>
@@ -26550,8 +26550,8 @@
       <c r="I33" s="85"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="615"/>
-      <c r="B34" s="618"/>
+      <c r="A34" s="617"/>
+      <c r="B34" s="620"/>
       <c r="C34" s="84" t="s">
         <v>116</v>
       </c>
@@ -26569,8 +26569,8 @@
       <c r="I34" s="85"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="615"/>
-      <c r="B35" s="618">
+      <c r="A35" s="617"/>
+      <c r="B35" s="620">
         <v>9</v>
       </c>
       <c r="C35" s="84" t="s">
@@ -26590,8 +26590,8 @@
       <c r="I35" s="85"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="615"/>
-      <c r="B36" s="618"/>
+      <c r="A36" s="617"/>
+      <c r="B36" s="620"/>
       <c r="C36" s="86" t="s">
         <v>30</v>
       </c>
@@ -26609,8 +26609,8 @@
       <c r="I36" s="85"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="615"/>
-      <c r="B37" s="618"/>
+      <c r="A37" s="617"/>
+      <c r="B37" s="620"/>
       <c r="C37" s="84" t="s">
         <v>116</v>
       </c>
@@ -26628,8 +26628,8 @@
       <c r="I37" s="85"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="615"/>
-      <c r="B38" s="618">
+      <c r="A38" s="617"/>
+      <c r="B38" s="620">
         <v>10</v>
       </c>
       <c r="C38" s="84" t="s">
@@ -26649,8 +26649,8 @@
       <c r="I38" s="85"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="615"/>
-      <c r="B39" s="618"/>
+      <c r="A39" s="617"/>
+      <c r="B39" s="620"/>
       <c r="C39" s="86" t="s">
         <v>30</v>
       </c>
@@ -26668,8 +26668,8 @@
       <c r="I39" s="85"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="615"/>
-      <c r="B40" s="618"/>
+      <c r="A40" s="617"/>
+      <c r="B40" s="620"/>
       <c r="C40" s="84" t="s">
         <v>116</v>
       </c>
@@ -26687,8 +26687,8 @@
       <c r="I40" s="85"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="615"/>
-      <c r="B41" s="618">
+      <c r="A41" s="617"/>
+      <c r="B41" s="620">
         <v>11</v>
       </c>
       <c r="C41" s="84" t="s">
@@ -26708,8 +26708,8 @@
       <c r="I41" s="85"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="615"/>
-      <c r="B42" s="618"/>
+      <c r="A42" s="617"/>
+      <c r="B42" s="620"/>
       <c r="C42" s="86" t="s">
         <v>30</v>
       </c>
@@ -26727,8 +26727,8 @@
       <c r="I42" s="85"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="615"/>
-      <c r="B43" s="618"/>
+      <c r="A43" s="617"/>
+      <c r="B43" s="620"/>
       <c r="C43" s="84" t="s">
         <v>116</v>
       </c>
@@ -26746,8 +26746,8 @@
       <c r="I43" s="85"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="615"/>
-      <c r="B44" s="618">
+      <c r="A44" s="617"/>
+      <c r="B44" s="620">
         <v>12</v>
       </c>
       <c r="C44" s="84" t="s">
@@ -26767,8 +26767,8 @@
       <c r="I44" s="85"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="615"/>
-      <c r="B45" s="618"/>
+      <c r="A45" s="617"/>
+      <c r="B45" s="620"/>
       <c r="C45" s="86" t="s">
         <v>30</v>
       </c>
@@ -26786,8 +26786,8 @@
       <c r="I45" s="85"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="616"/>
-      <c r="B46" s="619"/>
+      <c r="A46" s="618"/>
+      <c r="B46" s="621"/>
       <c r="C46" s="130" t="s">
         <v>116</v>
       </c>
@@ -26914,11 +26914,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="349" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="620" t="s">
+      <c r="A1" s="622" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="621"/>
-      <c r="C1" s="622"/>
+      <c r="B1" s="623"/>
+      <c r="C1" s="624"/>
     </row>
     <row r="2" spans="1:17" s="349" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="350"/>
@@ -27050,11 +27050,11 @@
       <c r="D15" s="89"/>
     </row>
     <row r="16" spans="1:17" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="623" t="s">
+      <c r="A16" s="625" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="624"/>
-      <c r="C16" s="625"/>
+      <c r="B16" s="626"/>
+      <c r="C16" s="627"/>
       <c r="D16" s="89"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -27203,7 +27203,7 @@
       <c r="D29" s="89"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="626" t="s">
+      <c r="A30" s="628" t="s">
         <v>139</v>
       </c>
       <c r="B30" s="355" t="s">
@@ -27213,7 +27213,7 @@
       <c r="D30" s="89"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="627"/>
+      <c r="A31" s="629"/>
       <c r="B31" s="109" t="s">
         <v>141</v>
       </c>
@@ -27221,7 +27221,7 @@
       <c r="D31" s="88"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="627"/>
+      <c r="A32" s="629"/>
       <c r="B32" s="109" t="s">
         <v>142</v>
       </c>
@@ -27232,21 +27232,21 @@
       <c r="D32" s="89"/>
     </row>
     <row r="33" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="627"/>
-      <c r="B33" s="628" t="s">
+      <c r="A33" s="629"/>
+      <c r="B33" s="630" t="s">
         <v>143</v>
       </c>
-      <c r="C33" s="629"/>
+      <c r="C33" s="631"/>
       <c r="D33" s="89"/>
     </row>
     <row r="34" spans="1:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="274" t="s">
         <v>187</v>
       </c>
-      <c r="B34" s="630" t="s">
+      <c r="B34" s="632" t="s">
         <v>186</v>
       </c>
-      <c r="C34" s="631"/>
+      <c r="C34" s="633"/>
       <c r="D34" s="89"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -27371,40 +27371,40 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="95"/>
-      <c r="B3" s="608" t="s">
+      <c r="B3" s="610" t="s">
         <v>292</v>
       </c>
-      <c r="C3" s="609"/>
-      <c r="D3" s="609"/>
-      <c r="E3" s="609"/>
-      <c r="F3" s="609"/>
-      <c r="G3" s="609"/>
-      <c r="H3" s="609"/>
-      <c r="I3" s="609"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="609"/>
-      <c r="L3" s="609"/>
-      <c r="M3" s="609"/>
-      <c r="N3" s="609"/>
-      <c r="O3" s="609"/>
+      <c r="C3" s="611"/>
+      <c r="D3" s="611"/>
+      <c r="E3" s="611"/>
+      <c r="F3" s="611"/>
+      <c r="G3" s="611"/>
+      <c r="H3" s="611"/>
+      <c r="I3" s="611"/>
+      <c r="J3" s="611"/>
+      <c r="K3" s="611"/>
+      <c r="L3" s="611"/>
+      <c r="M3" s="611"/>
+      <c r="N3" s="611"/>
+      <c r="O3" s="611"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="610" t="s">
+      <c r="B4" s="612" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="610"/>
-      <c r="D4" s="610"/>
-      <c r="E4" s="610"/>
-      <c r="F4" s="610"/>
-      <c r="G4" s="610"/>
-      <c r="H4" s="610"/>
-      <c r="I4" s="610"/>
-      <c r="J4" s="610"/>
-      <c r="K4" s="610"/>
-      <c r="L4" s="610"/>
-      <c r="M4" s="610"/>
-      <c r="N4" s="610"/>
-      <c r="O4" s="610"/>
+      <c r="C4" s="612"/>
+      <c r="D4" s="612"/>
+      <c r="E4" s="612"/>
+      <c r="F4" s="612"/>
+      <c r="G4" s="612"/>
+      <c r="H4" s="612"/>
+      <c r="I4" s="612"/>
+      <c r="J4" s="612"/>
+      <c r="K4" s="612"/>
+      <c r="L4" s="612"/>
+      <c r="M4" s="612"/>
+      <c r="N4" s="612"/>
+      <c r="O4" s="612"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="495"/>
@@ -27446,7 +27446,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="605" t="s">
+      <c r="A8" s="607" t="s">
         <v>267</v>
       </c>
       <c r="B8" s="498" t="s">
@@ -27463,7 +27463,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="606"/>
+      <c r="A9" s="608"/>
       <c r="B9" s="501" t="s">
         <v>294</v>
       </c>
@@ -27493,7 +27493,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="606"/>
+      <c r="A10" s="608"/>
       <c r="B10" s="499" t="s">
         <v>272</v>
       </c>
@@ -27508,7 +27508,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="607"/>
+      <c r="A11" s="609"/>
       <c r="B11" s="502" t="s">
         <v>295</v>
       </c>
@@ -27538,7 +27538,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="605" t="s">
+      <c r="A12" s="607" t="s">
         <v>268</v>
       </c>
       <c r="B12" s="500" t="s">
@@ -27555,7 +27555,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="606"/>
+      <c r="A13" s="608"/>
       <c r="B13" s="501" t="s">
         <v>296</v>
       </c>
@@ -27585,7 +27585,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="606"/>
+      <c r="A14" s="608"/>
       <c r="B14" s="499" t="s">
         <v>277</v>
       </c>
@@ -27600,7 +27600,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="606"/>
+      <c r="A15" s="608"/>
       <c r="B15" s="501" t="s">
         <v>297</v>
       </c>
@@ -27630,7 +27630,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="606"/>
+      <c r="A16" s="608"/>
       <c r="B16" s="499" t="s">
         <v>280</v>
       </c>
@@ -27645,7 +27645,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="607"/>
+      <c r="A17" s="609"/>
       <c r="B17" s="502" t="s">
         <v>298</v>
       </c>
@@ -27675,7 +27675,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="605" t="s">
+      <c r="A18" s="607" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="500" t="s">
@@ -27692,7 +27692,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="607"/>
+      <c r="A19" s="609"/>
       <c r="B19" s="502" t="s">
         <v>299</v>
       </c>
@@ -27722,7 +27722,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="605" t="s">
+      <c r="A20" s="607" t="s">
         <v>35</v>
       </c>
       <c r="B20" s="503" t="s">
@@ -27739,7 +27739,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="606"/>
+      <c r="A21" s="608"/>
       <c r="B21" s="501" t="s">
         <v>300</v>
       </c>
@@ -27769,7 +27769,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="606"/>
+      <c r="A22" s="608"/>
       <c r="B22" s="499" t="s">
         <v>289</v>
       </c>
@@ -27784,7 +27784,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="607"/>
+      <c r="A23" s="609"/>
       <c r="B23" s="502" t="s">
         <v>301</v>
       </c>
@@ -28033,25 +28033,25 @@
       </c>
     </row>
     <row r="3" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="535" t="s">
+      <c r="B3" s="537" t="s">
         <v>208</v>
       </c>
-      <c r="C3" s="535"/>
-      <c r="D3" s="535"/>
-      <c r="E3" s="535"/>
-      <c r="F3" s="535"/>
-      <c r="G3" s="535"/>
-      <c r="H3" s="535"/>
-      <c r="I3" s="535"/>
-      <c r="J3" s="535"/>
-      <c r="K3" s="535"/>
-      <c r="L3" s="535"/>
-      <c r="M3" s="535"/>
-      <c r="N3" s="535"/>
-      <c r="O3" s="535"/>
-      <c r="P3" s="535"/>
-      <c r="Q3" s="535"/>
-      <c r="R3" s="535"/>
+      <c r="C3" s="537"/>
+      <c r="D3" s="537"/>
+      <c r="E3" s="537"/>
+      <c r="F3" s="537"/>
+      <c r="G3" s="537"/>
+      <c r="H3" s="537"/>
+      <c r="I3" s="537"/>
+      <c r="J3" s="537"/>
+      <c r="K3" s="537"/>
+      <c r="L3" s="537"/>
+      <c r="M3" s="537"/>
+      <c r="N3" s="537"/>
+      <c r="O3" s="537"/>
+      <c r="P3" s="537"/>
+      <c r="Q3" s="537"/>
+      <c r="R3" s="537"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
@@ -28075,7 +28075,7 @@
       <c r="R4" s="22"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="632" t="s">
+      <c r="B5" s="526" t="s">
         <v>302</v>
       </c>
     </row>
@@ -28101,25 +28101,25 @@
       <c r="R6" s="317"/>
     </row>
     <row r="7" spans="1:18" s="33" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="539" t="s">
+      <c r="B7" s="541" t="s">
         <v>194</v>
       </c>
-      <c r="C7" s="539"/>
-      <c r="D7" s="539"/>
-      <c r="E7" s="539"/>
-      <c r="F7" s="539"/>
-      <c r="G7" s="539"/>
-      <c r="H7" s="539"/>
-      <c r="I7" s="539"/>
-      <c r="J7" s="539"/>
-      <c r="K7" s="539"/>
-      <c r="L7" s="539"/>
-      <c r="M7" s="539"/>
-      <c r="N7" s="539"/>
-      <c r="O7" s="539"/>
-      <c r="P7" s="539"/>
-      <c r="Q7" s="539"/>
-      <c r="R7" s="539"/>
+      <c r="C7" s="541"/>
+      <c r="D7" s="541"/>
+      <c r="E7" s="541"/>
+      <c r="F7" s="541"/>
+      <c r="G7" s="541"/>
+      <c r="H7" s="541"/>
+      <c r="I7" s="541"/>
+      <c r="J7" s="541"/>
+      <c r="K7" s="541"/>
+      <c r="L7" s="541"/>
+      <c r="M7" s="541"/>
+      <c r="N7" s="541"/>
+      <c r="O7" s="541"/>
+      <c r="P7" s="541"/>
+      <c r="Q7" s="541"/>
+      <c r="R7" s="541"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="47" t="s">
@@ -28134,26 +28134,26 @@
       <c r="J9" s="46"/>
       <c r="K9" s="46"/>
       <c r="L9" s="46"/>
-      <c r="M9" s="536" t="s">
+      <c r="M9" s="538" t="s">
         <v>85</v>
       </c>
-      <c r="N9" s="536"/>
-      <c r="O9" s="536"/>
-      <c r="P9" s="536"/>
-      <c r="Q9" s="536"/>
-      <c r="R9" s="536"/>
+      <c r="N9" s="538"/>
+      <c r="O9" s="538"/>
+      <c r="P9" s="538"/>
+      <c r="Q9" s="538"/>
+      <c r="R9" s="538"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="45"/>
       <c r="C10" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="M10" s="536"/>
-      <c r="N10" s="536"/>
-      <c r="O10" s="536"/>
-      <c r="P10" s="536"/>
-      <c r="Q10" s="536"/>
-      <c r="R10" s="536"/>
+      <c r="M10" s="538"/>
+      <c r="N10" s="538"/>
+      <c r="O10" s="538"/>
+      <c r="P10" s="538"/>
+      <c r="Q10" s="538"/>
+      <c r="R10" s="538"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="183" t="s">
@@ -28189,34 +28189,34 @@
       <c r="R12" s="182"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="537" t="s">
+      <c r="B13" s="539" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="532" t="s">
+      <c r="C13" s="534" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="533"/>
-      <c r="E13" s="533"/>
-      <c r="F13" s="533"/>
-      <c r="G13" s="534"/>
-      <c r="H13" s="532" t="s">
+      <c r="D13" s="535"/>
+      <c r="E13" s="535"/>
+      <c r="F13" s="535"/>
+      <c r="G13" s="536"/>
+      <c r="H13" s="534" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="533"/>
-      <c r="J13" s="533"/>
-      <c r="K13" s="533"/>
-      <c r="L13" s="534"/>
-      <c r="M13" s="532" t="s">
+      <c r="I13" s="535"/>
+      <c r="J13" s="535"/>
+      <c r="K13" s="535"/>
+      <c r="L13" s="536"/>
+      <c r="M13" s="534" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="533"/>
-      <c r="O13" s="533"/>
-      <c r="P13" s="533"/>
-      <c r="Q13" s="533"/>
-      <c r="R13" s="534"/>
+      <c r="N13" s="535"/>
+      <c r="O13" s="535"/>
+      <c r="P13" s="535"/>
+      <c r="Q13" s="535"/>
+      <c r="R13" s="536"/>
     </row>
     <row r="14" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="538"/>
+      <c r="B14" s="540"/>
       <c r="C14" s="49" t="s">
         <v>78</v>
       </c>
@@ -28907,31 +28907,31 @@
       <c r="I36" s="26"/>
     </row>
     <row r="37" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="540" t="s">
+      <c r="C37" s="542" t="s">
         <v>218</v>
       </c>
-      <c r="D37" s="540"/>
-      <c r="E37" s="540"/>
-      <c r="F37" s="540"/>
-      <c r="G37" s="540"/>
-      <c r="H37" s="540"/>
-      <c r="I37" s="540"/>
+      <c r="D37" s="542"/>
+      <c r="E37" s="542"/>
+      <c r="F37" s="542"/>
+      <c r="G37" s="542"/>
+      <c r="H37" s="542"/>
+      <c r="I37" s="542"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C38" s="541"/>
-      <c r="D38" s="541"/>
-      <c r="E38" s="541"/>
-      <c r="F38" s="541"/>
-      <c r="G38" s="541"/>
-      <c r="H38" s="541"/>
-      <c r="I38" s="541"/>
+      <c r="C38" s="543"/>
+      <c r="D38" s="543"/>
+      <c r="E38" s="543"/>
+      <c r="F38" s="543"/>
+      <c r="G38" s="543"/>
+      <c r="H38" s="543"/>
+      <c r="I38" s="543"/>
       <c r="J38" s="37"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="530" t="s">
+      <c r="B39" s="532" t="s">
         <v>219</v>
       </c>
-      <c r="C39" s="529" t="s">
+      <c r="C39" s="531" t="s">
         <v>221</v>
       </c>
       <c r="D39" s="199" t="s">
@@ -28955,8 +28955,8 @@
       <c r="J39" s="37"/>
     </row>
     <row r="40" spans="2:10" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="531"/>
-      <c r="C40" s="529"/>
+      <c r="B40" s="533"/>
+      <c r="C40" s="531"/>
       <c r="D40" s="201" t="s">
         <v>46</v>
       </c>
@@ -29536,7 +29536,7 @@
     </row>
     <row r="5" spans="1:25" s="98" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54"/>
-      <c r="B5" s="633" t="s">
+      <c r="B5" s="527" t="s">
         <v>303</v>
       </c>
       <c r="C5" s="426"/>
@@ -29587,15 +29587,15 @@
     </row>
     <row r="8" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54"/>
-      <c r="B8" s="542" t="s">
+      <c r="B8" s="544" t="s">
         <v>244</v>
       </c>
-      <c r="C8" s="542"/>
-      <c r="D8" s="542"/>
-      <c r="E8" s="542"/>
-      <c r="F8" s="542"/>
-      <c r="G8" s="542"/>
-      <c r="H8" s="542"/>
+      <c r="C8" s="544"/>
+      <c r="D8" s="544"/>
+      <c r="E8" s="544"/>
+      <c r="F8" s="544"/>
+      <c r="G8" s="544"/>
+      <c r="H8" s="544"/>
       <c r="I8" s="55"/>
       <c r="J8" s="55"/>
       <c r="K8" s="55"/>
@@ -29616,13 +29616,13 @@
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="57"/>
-      <c r="B9" s="542"/>
-      <c r="C9" s="542"/>
-      <c r="D9" s="542"/>
-      <c r="E9" s="542"/>
-      <c r="F9" s="542"/>
-      <c r="G9" s="542"/>
-      <c r="H9" s="542"/>
+      <c r="B9" s="544"/>
+      <c r="C9" s="544"/>
+      <c r="D9" s="544"/>
+      <c r="E9" s="544"/>
+      <c r="F9" s="544"/>
+      <c r="G9" s="544"/>
+      <c r="H9" s="544"/>
       <c r="I9" s="120"/>
       <c r="J9" s="120"/>
       <c r="K9" s="120"/>
@@ -29678,7 +29678,7 @@
       <c r="H11" s="61"/>
     </row>
     <row r="12" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="543"/>
+      <c r="A12" s="545"/>
       <c r="B12" s="320" t="s">
         <v>175</v>
       </c>
@@ -29689,7 +29689,7 @@
       <c r="G12" s="205"/>
     </row>
     <row r="13" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="543"/>
+      <c r="A13" s="545"/>
       <c r="B13" s="321" t="s">
         <v>176</v>
       </c>
@@ -29700,7 +29700,7 @@
       <c r="G13" s="208"/>
     </row>
     <row r="14" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="543"/>
+      <c r="A14" s="545"/>
       <c r="B14" s="119" t="s">
         <v>204</v>
       </c>
@@ -29708,7 +29708,7 @@
       <c r="I14" s="61"/>
     </row>
     <row r="15" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="543"/>
+      <c r="A15" s="545"/>
       <c r="B15" s="492" t="s">
         <v>38</v>
       </c>
@@ -29717,7 +29717,7 @@
       <c r="I15" s="61"/>
     </row>
     <row r="16" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="543"/>
+      <c r="A16" s="545"/>
       <c r="B16" s="61" t="s">
         <v>39</v>
       </c>
@@ -29725,7 +29725,7 @@
       <c r="I16" s="61"/>
     </row>
     <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="543"/>
+      <c r="A17" s="545"/>
       <c r="B17" s="61" t="s">
         <v>40</v>
       </c>
@@ -29733,7 +29733,7 @@
       <c r="I17" s="61"/>
     </row>
     <row r="18" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="543"/>
+      <c r="A18" s="545"/>
       <c r="B18" s="61" t="s">
         <v>41</v>
       </c>
@@ -29741,7 +29741,7 @@
       <c r="I18" s="61"/>
     </row>
     <row r="19" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="543"/>
+      <c r="A19" s="545"/>
       <c r="B19" s="61" t="s">
         <v>42</v>
       </c>
@@ -29749,7 +29749,7 @@
       <c r="I19" s="61"/>
     </row>
     <row r="20" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="543"/>
+      <c r="A20" s="545"/>
       <c r="B20" s="61" t="s">
         <v>43</v>
       </c>
@@ -29757,13 +29757,13 @@
       <c r="I20" s="61"/>
     </row>
     <row r="21" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="543"/>
+      <c r="A21" s="545"/>
       <c r="B21" s="61"/>
       <c r="C21" s="98"/>
       <c r="I21" s="61"/>
     </row>
     <row r="22" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="543"/>
+      <c r="A22" s="545"/>
       <c r="B22" s="183" t="s">
         <v>180</v>
       </c>
@@ -29779,7 +29779,7 @@
       <c r="I22" s="61"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="544"/>
+      <c r="A23" s="546"/>
       <c r="B23" s="209"/>
       <c r="C23" s="210"/>
       <c r="D23" s="210"/>
@@ -29791,35 +29791,35 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="544"/>
-      <c r="B24" s="551" t="s">
+      <c r="A24" s="546"/>
+      <c r="B24" s="553" t="s">
         <v>174</v>
       </c>
-      <c r="C24" s="552"/>
-      <c r="D24" s="552"/>
-      <c r="E24" s="552"/>
-      <c r="F24" s="552"/>
-      <c r="G24" s="552"/>
-      <c r="H24" s="553"/>
+      <c r="C24" s="554"/>
+      <c r="D24" s="554"/>
+      <c r="E24" s="554"/>
+      <c r="F24" s="554"/>
+      <c r="G24" s="554"/>
+      <c r="H24" s="555"/>
       <c r="I24" s="61"/>
     </row>
     <row r="25" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="544"/>
-      <c r="B25" s="545" t="s">
+      <c r="A25" s="546"/>
+      <c r="B25" s="547" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="548" t="s">
+      <c r="C25" s="550" t="s">
         <v>157</v>
       </c>
-      <c r="D25" s="549"/>
-      <c r="E25" s="549"/>
-      <c r="F25" s="549"/>
-      <c r="G25" s="549"/>
-      <c r="H25" s="550"/>
+      <c r="D25" s="551"/>
+      <c r="E25" s="551"/>
+      <c r="F25" s="551"/>
+      <c r="G25" s="551"/>
+      <c r="H25" s="552"/>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="544"/>
-      <c r="B26" s="546"/>
+      <c r="A26" s="546"/>
+      <c r="B26" s="548"/>
       <c r="C26" s="212" t="s">
         <v>78</v>
       </c>
@@ -29840,8 +29840,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" s="61" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A27" s="544"/>
-      <c r="B27" s="547"/>
+      <c r="A27" s="546"/>
+      <c r="B27" s="549"/>
       <c r="C27" s="371" t="s">
         <v>214</v>
       </c>
@@ -29862,7 +29862,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="544"/>
+      <c r="A28" s="546"/>
       <c r="B28" s="216">
         <v>1</v>
       </c>
@@ -29889,7 +29889,7 @@
       <c r="H28" s="220"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="544"/>
+      <c r="A29" s="546"/>
       <c r="B29" s="221">
         <v>2</v>
       </c>
@@ -29916,7 +29916,7 @@
       <c r="H29" s="225"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="544"/>
+      <c r="A30" s="546"/>
       <c r="B30" s="221">
         <v>3</v>
       </c>
@@ -29943,7 +29943,7 @@
       <c r="H30" s="225"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="544"/>
+      <c r="A31" s="546"/>
       <c r="B31" s="221">
         <v>4</v>
       </c>
@@ -29970,7 +29970,7 @@
       <c r="H31" s="225"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="544"/>
+      <c r="A32" s="546"/>
       <c r="B32" s="221">
         <v>5</v>
       </c>
@@ -29997,7 +29997,7 @@
       <c r="H32" s="225"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="544"/>
+      <c r="A33" s="546"/>
       <c r="B33" s="221">
         <v>6</v>
       </c>
@@ -30226,7 +30226,7 @@
       <c r="Y42" s="117"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B43" s="545" t="s">
+      <c r="B43" s="547" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="236" t="s">
@@ -30245,7 +30245,7 @@
       <c r="L43" s="239"/>
     </row>
     <row r="44" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="B44" s="546"/>
+      <c r="B44" s="548"/>
       <c r="C44" s="240" t="s">
         <v>78</v>
       </c>
@@ -30278,7 +30278,7 @@
       </c>
     </row>
     <row r="45" spans="1:25" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="547"/>
+      <c r="B45" s="549"/>
       <c r="C45" s="328" t="s">
         <v>158</v>
       </c>
@@ -31105,11 +31105,11 @@
       <c r="Q7" s="70"/>
     </row>
     <row r="8" spans="1:31" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="560" t="s">
+      <c r="A8" s="562" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="560"/>
-      <c r="C8" s="560"/>
+      <c r="B8" s="562"/>
+      <c r="C8" s="562"/>
       <c r="D8" s="68"/>
       <c r="E8" s="69"/>
       <c r="F8" s="69"/>
@@ -31130,13 +31130,13 @@
         <v>226</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="582" t="str">
+      <c r="C9" s="585" t="str">
         <f>IF('W2'!G11+'W3'!$G$22&gt;0,"Yes","No. Please complete W2 or W3 first")</f>
         <v>No. Please complete W2 or W3 first</v>
       </c>
-      <c r="D9" s="582"/>
-      <c r="E9" s="582"/>
-      <c r="F9" s="582"/>
+      <c r="D9" s="585"/>
+      <c r="E9" s="585"/>
+      <c r="F9" s="585"/>
       <c r="G9" s="69"/>
       <c r="H9" s="69"/>
       <c r="I9" s="150"/>
@@ -31229,24 +31229,24 @@
     <row r="12" spans="1:31" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="428"/>
       <c r="B12" s="429"/>
-      <c r="C12" s="578" t="s">
+      <c r="C12" s="581" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="579"/>
+      <c r="D12" s="582"/>
       <c r="E12" s="8" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="97"/>
       <c r="G12" s="97"/>
       <c r="H12" s="97"/>
-      <c r="I12" s="571" t="s">
+      <c r="I12" s="573" t="s">
         <v>201</v>
       </c>
-      <c r="J12" s="572"/>
-      <c r="K12" s="572"/>
-      <c r="L12" s="572"/>
-      <c r="M12" s="572"/>
-      <c r="N12" s="573"/>
+      <c r="J12" s="574"/>
+      <c r="K12" s="574"/>
+      <c r="L12" s="574"/>
+      <c r="M12" s="574"/>
+      <c r="N12" s="575"/>
       <c r="O12" s="376" t="s">
         <v>75</v>
       </c>
@@ -31276,58 +31276,58 @@
     <row r="13" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="154"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="580"/>
-      <c r="D13" s="581"/>
-      <c r="E13" s="556" t="s">
+      <c r="C13" s="583"/>
+      <c r="D13" s="584"/>
+      <c r="E13" s="576" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="556"/>
-      <c r="G13" s="556" t="s">
+      <c r="F13" s="576"/>
+      <c r="G13" s="576" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="556"/>
-      <c r="I13" s="558" t="s">
+      <c r="H13" s="576"/>
+      <c r="I13" s="589" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="554"/>
-      <c r="K13" s="554"/>
-      <c r="L13" s="558" t="s">
+      <c r="J13" s="586"/>
+      <c r="K13" s="586"/>
+      <c r="L13" s="589" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="554"/>
-      <c r="N13" s="559"/>
-      <c r="O13" s="554" t="s">
+      <c r="M13" s="586"/>
+      <c r="N13" s="590"/>
+      <c r="O13" s="586" t="s">
         <v>4</v>
       </c>
-      <c r="P13" s="554"/>
-      <c r="Q13" s="554" t="s">
+      <c r="P13" s="586"/>
+      <c r="Q13" s="586" t="s">
         <v>5</v>
       </c>
-      <c r="R13" s="555"/>
-      <c r="S13" s="554" t="s">
+      <c r="R13" s="587"/>
+      <c r="S13" s="586" t="s">
         <v>4</v>
       </c>
-      <c r="T13" s="554"/>
-      <c r="U13" s="554" t="s">
+      <c r="T13" s="586"/>
+      <c r="U13" s="586" t="s">
         <v>5</v>
       </c>
-      <c r="V13" s="554"/>
-      <c r="W13" s="557" t="s">
+      <c r="V13" s="586"/>
+      <c r="W13" s="588" t="s">
         <v>4</v>
       </c>
-      <c r="X13" s="554"/>
-      <c r="Y13" s="554" t="s">
+      <c r="X13" s="586"/>
+      <c r="Y13" s="586" t="s">
         <v>5</v>
       </c>
-      <c r="Z13" s="555"/>
-      <c r="AA13" s="554" t="s">
+      <c r="Z13" s="587"/>
+      <c r="AA13" s="586" t="s">
         <v>4</v>
       </c>
-      <c r="AB13" s="554"/>
-      <c r="AC13" s="554" t="s">
+      <c r="AB13" s="586"/>
+      <c r="AC13" s="586" t="s">
         <v>5</v>
       </c>
-      <c r="AD13" s="555"/>
+      <c r="AD13" s="587"/>
     </row>
     <row r="14" spans="1:31" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="344" t="s">
@@ -31422,7 +31422,7 @@
       </c>
     </row>
     <row r="15" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="575" t="s">
+      <c r="A15" s="578" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -31530,7 +31530,7 @@
       </c>
     </row>
     <row r="16" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="575"/>
+      <c r="A16" s="578"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -31636,7 +31636,7 @@
       </c>
     </row>
     <row r="17" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="575"/>
+      <c r="A17" s="578"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -31742,7 +31742,7 @@
       </c>
     </row>
     <row r="18" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="575"/>
+      <c r="A18" s="578"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -31848,7 +31848,7 @@
       </c>
     </row>
     <row r="19" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="575"/>
+      <c r="A19" s="578"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -31954,7 +31954,7 @@
       </c>
     </row>
     <row r="20" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="575"/>
+      <c r="A20" s="578"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -32060,7 +32060,7 @@
       </c>
     </row>
     <row r="21" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="575"/>
+      <c r="A21" s="578"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -32166,7 +32166,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="575"/>
+      <c r="A22" s="578"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -32272,7 +32272,7 @@
       </c>
     </row>
     <row r="23" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="575"/>
+      <c r="A23" s="578"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -32378,7 +32378,7 @@
       </c>
     </row>
     <row r="24" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="575"/>
+      <c r="A24" s="578"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -32484,7 +32484,7 @@
       </c>
     </row>
     <row r="25" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="575"/>
+      <c r="A25" s="578"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -32590,7 +32590,7 @@
       </c>
     </row>
     <row r="26" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="576"/>
+      <c r="A26" s="579"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -32784,7 +32784,7 @@
       </c>
     </row>
     <row r="28" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="575" t="s">
+      <c r="A28" s="578" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -32892,7 +32892,7 @@
       </c>
     </row>
     <row r="29" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="575"/>
+      <c r="A29" s="578"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -32998,7 +32998,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="575"/>
+      <c r="A30" s="578"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -33105,7 +33105,7 @@
       <c r="AE30" s="7"/>
     </row>
     <row r="31" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="575"/>
+      <c r="A31" s="578"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -33212,7 +33212,7 @@
       <c r="AE31" s="7"/>
     </row>
     <row r="32" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="575"/>
+      <c r="A32" s="578"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -33319,7 +33319,7 @@
       <c r="AE32" s="7"/>
     </row>
     <row r="33" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="575"/>
+      <c r="A33" s="578"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -33426,7 +33426,7 @@
       <c r="AE33" s="7"/>
     </row>
     <row r="34" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="575"/>
+      <c r="A34" s="578"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -33533,7 +33533,7 @@
       <c r="AE34" s="7"/>
     </row>
     <row r="35" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="575"/>
+      <c r="A35" s="578"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -33640,7 +33640,7 @@
       <c r="AE35" s="7"/>
     </row>
     <row r="36" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="575"/>
+      <c r="A36" s="578"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -33747,7 +33747,7 @@
       <c r="AE36" s="7"/>
     </row>
     <row r="37" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="575"/>
+      <c r="A37" s="578"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -33854,7 +33854,7 @@
       <c r="AE37" s="7"/>
     </row>
     <row r="38" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="575"/>
+      <c r="A38" s="578"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -33961,7 +33961,7 @@
       <c r="AE38" s="7"/>
     </row>
     <row r="39" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="575"/>
+      <c r="A39" s="578"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -34157,7 +34157,7 @@
       <c r="AE40" s="7"/>
     </row>
     <row r="41" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="574" t="s">
+      <c r="A41" s="577" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -34266,7 +34266,7 @@
       <c r="AE41" s="7"/>
     </row>
     <row r="42" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="575"/>
+      <c r="A42" s="578"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -34373,7 +34373,7 @@
       <c r="AE42" s="7"/>
     </row>
     <row r="43" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="575"/>
+      <c r="A43" s="578"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -34480,7 +34480,7 @@
       <c r="AE43" s="7"/>
     </row>
     <row r="44" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="575"/>
+      <c r="A44" s="578"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -34587,7 +34587,7 @@
       <c r="AE44" s="7"/>
     </row>
     <row r="45" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="575"/>
+      <c r="A45" s="578"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -34694,7 +34694,7 @@
       <c r="AE45" s="7"/>
     </row>
     <row r="46" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="575"/>
+      <c r="A46" s="578"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -34801,7 +34801,7 @@
       <c r="AE46" s="7"/>
     </row>
     <row r="47" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="575"/>
+      <c r="A47" s="578"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -34908,7 +34908,7 @@
       <c r="AE47" s="7"/>
     </row>
     <row r="48" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="575"/>
+      <c r="A48" s="578"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -35015,7 +35015,7 @@
       <c r="AE48" s="7"/>
     </row>
     <row r="49" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="575"/>
+      <c r="A49" s="578"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -35122,7 +35122,7 @@
       <c r="AE49" s="7"/>
     </row>
     <row r="50" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="575"/>
+      <c r="A50" s="578"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -35229,7 +35229,7 @@
       <c r="AE50" s="7"/>
     </row>
     <row r="51" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="575"/>
+      <c r="A51" s="578"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -35336,7 +35336,7 @@
       <c r="AE51" s="7"/>
     </row>
     <row r="52" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="576"/>
+      <c r="A52" s="579"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -35532,7 +35532,7 @@
       <c r="AE53" s="7"/>
     </row>
     <row r="54" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="574" t="s">
+      <c r="A54" s="577" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -35641,7 +35641,7 @@
       <c r="AE54" s="7"/>
     </row>
     <row r="55" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="575"/>
+      <c r="A55" s="578"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -35748,7 +35748,7 @@
       <c r="AE55" s="7"/>
     </row>
     <row r="56" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="575"/>
+      <c r="A56" s="578"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -35855,7 +35855,7 @@
       <c r="AE56" s="7"/>
     </row>
     <row r="57" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="575"/>
+      <c r="A57" s="578"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -35962,7 +35962,7 @@
       <c r="AE57" s="7"/>
     </row>
     <row r="58" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="575"/>
+      <c r="A58" s="578"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -36069,7 +36069,7 @@
       <c r="AE58" s="7"/>
     </row>
     <row r="59" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="575"/>
+      <c r="A59" s="578"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -36176,7 +36176,7 @@
       <c r="AE59" s="7"/>
     </row>
     <row r="60" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="575"/>
+      <c r="A60" s="578"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -36283,7 +36283,7 @@
       <c r="AE60" s="7"/>
     </row>
     <row r="61" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="575"/>
+      <c r="A61" s="578"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -36390,7 +36390,7 @@
       <c r="AE61" s="7"/>
     </row>
     <row r="62" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="575"/>
+      <c r="A62" s="578"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -36497,7 +36497,7 @@
       <c r="AE62" s="7"/>
     </row>
     <row r="63" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="575"/>
+      <c r="A63" s="578"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -36604,7 +36604,7 @@
       <c r="AE63" s="7"/>
     </row>
     <row r="64" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="575"/>
+      <c r="A64" s="578"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -36711,7 +36711,7 @@
       <c r="AE64" s="7"/>
     </row>
     <row r="65" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="576"/>
+      <c r="A65" s="579"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -36907,7 +36907,7 @@
       <c r="AE66" s="7"/>
     </row>
     <row r="67" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="574" t="s">
+      <c r="A67" s="577" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -37016,7 +37016,7 @@
       <c r="AE67" s="7"/>
     </row>
     <row r="68" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="575"/>
+      <c r="A68" s="578"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -37123,7 +37123,7 @@
       <c r="AE68" s="7"/>
     </row>
     <row r="69" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="575"/>
+      <c r="A69" s="578"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -37230,7 +37230,7 @@
       <c r="AE69" s="7"/>
     </row>
     <row r="70" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="575"/>
+      <c r="A70" s="578"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -37337,7 +37337,7 @@
       <c r="AE70" s="7"/>
     </row>
     <row r="71" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="575"/>
+      <c r="A71" s="578"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -37444,7 +37444,7 @@
       <c r="AE71" s="7"/>
     </row>
     <row r="72" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="575"/>
+      <c r="A72" s="578"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -37551,7 +37551,7 @@
       <c r="AE72" s="7"/>
     </row>
     <row r="73" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="575"/>
+      <c r="A73" s="578"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -37658,7 +37658,7 @@
       <c r="AE73" s="7"/>
     </row>
     <row r="74" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="575"/>
+      <c r="A74" s="578"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -37765,7 +37765,7 @@
       <c r="AE74" s="7"/>
     </row>
     <row r="75" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="575"/>
+      <c r="A75" s="578"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -37872,7 +37872,7 @@
       <c r="AE75" s="7"/>
     </row>
     <row r="76" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="575"/>
+      <c r="A76" s="578"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -37979,7 +37979,7 @@
       <c r="AE76" s="7"/>
     </row>
     <row r="77" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="575"/>
+      <c r="A77" s="578"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -38086,7 +38086,7 @@
       <c r="AE77" s="7"/>
     </row>
     <row r="78" spans="1:31" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="577"/>
+      <c r="A78" s="580"/>
       <c r="B78" s="156" t="s">
         <v>17</v>
       </c>
@@ -38236,18 +38236,18 @@
       <c r="AE81" s="10"/>
     </row>
     <row r="82" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G82" s="567"/>
-      <c r="H82" s="568"/>
-      <c r="I82" s="561" t="s">
+      <c r="G82" s="569"/>
+      <c r="H82" s="570"/>
+      <c r="I82" s="563" t="s">
         <v>4</v>
       </c>
-      <c r="J82" s="562"/>
-      <c r="K82" s="563"/>
-      <c r="L82" s="564" t="s">
+      <c r="J82" s="564"/>
+      <c r="K82" s="565"/>
+      <c r="L82" s="566" t="s">
         <v>5</v>
       </c>
-      <c r="M82" s="565"/>
-      <c r="N82" s="566"/>
+      <c r="M82" s="567"/>
+      <c r="N82" s="568"/>
       <c r="O82" s="16"/>
       <c r="P82" s="16"/>
       <c r="AA82" s="10"/>
@@ -38257,8 +38257,8 @@
       <c r="AE82" s="10"/>
     </row>
     <row r="83" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G83" s="569"/>
-      <c r="H83" s="570"/>
+      <c r="G83" s="571"/>
+      <c r="H83" s="572"/>
       <c r="I83" s="484" t="s">
         <v>2</v>
       </c>
@@ -38286,10 +38286,10 @@
       <c r="AE83" s="10"/>
     </row>
     <row r="84" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G84" s="585" t="s">
+      <c r="G84" s="558" t="s">
         <v>225</v>
       </c>
-      <c r="H84" s="586"/>
+      <c r="H84" s="559"/>
       <c r="I84" s="458" t="str">
         <f>IF(COUNT(E15:E26)=J81, CONCATENATE(ROUND(SUM(E15:E26)*J81/SUM(C15:C26)*1000, 2), " (", ROUND(SUM(E15:E26)*J81/SUM(C15:C26)*1000/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*J81/SUM(C15:C26)*1000*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -38323,10 +38323,10 @@
       <c r="AE84" s="10"/>
     </row>
     <row r="85" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G85" s="587" t="s">
+      <c r="G85" s="560" t="s">
         <v>21</v>
       </c>
-      <c r="H85" s="588"/>
+      <c r="H85" s="561"/>
       <c r="I85" s="461" t="str">
         <f>IF(COUNT(E28:E39)=J81, CONCATENATE(ROUND(SUM(E28:E39)*J81/SUM(C28:C39)*1000, 2), " (", ROUND(SUM(E28:E39)*J81/SUM(C28:C39)*1000/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*J81/SUM(C28:C39)*1000*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -38360,10 +38360,10 @@
       <c r="AE85" s="10"/>
     </row>
     <row r="86" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G86" s="587" t="s">
+      <c r="G86" s="560" t="s">
         <v>22</v>
       </c>
-      <c r="H86" s="588"/>
+      <c r="H86" s="561"/>
       <c r="I86" s="461" t="str">
         <f>IF(COUNT(E41:E52)=J81, CONCATENATE(ROUND(SUM(E41:E52)*J81/SUM(C41:C52)*1000, 2), " (", ROUND(SUM(E41:E52)*J81/SUM(C41:C52)*1000/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*J81/SUM(C41:C52)*1000*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -38397,10 +38397,10 @@
       <c r="AE86" s="10"/>
     </row>
     <row r="87" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G87" s="587" t="s">
+      <c r="G87" s="560" t="s">
         <v>23</v>
       </c>
-      <c r="H87" s="588"/>
+      <c r="H87" s="561"/>
       <c r="I87" s="461" t="str">
         <f>IF(COUNT(E54:E65)=J81, CONCATENATE(ROUND(SUM(E54:E65)*J81/SUM(C54:C65)*1000, 2), " (", ROUND(SUM(E54:E65)*J81/SUM(C54:C65)*1000/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*J81/SUM(C54:C65)*1000*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -38434,10 +38434,10 @@
       <c r="AE87" s="10"/>
     </row>
     <row r="88" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G88" s="587" t="s">
+      <c r="G88" s="560" t="s">
         <v>3</v>
       </c>
-      <c r="H88" s="588"/>
+      <c r="H88" s="561"/>
       <c r="I88" s="461" t="str">
         <f>IF(COUNT(E67:E78)=J81, CONCATENATE(ROUND(SUM(E67:E78)*J81/SUM(C67:C78)*1000, 2), " (", ROUND(SUM(E67:E78)*J81/SUM(C67:C78)*1000/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*J81/SUM(C67:C78)*1000*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -38471,10 +38471,10 @@
       <c r="AE88" s="10"/>
     </row>
     <row r="89" spans="1:31" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G89" s="583" t="s">
+      <c r="G89" s="556" t="s">
         <v>1</v>
       </c>
-      <c r="H89" s="584"/>
+      <c r="H89" s="557"/>
       <c r="I89" s="487" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$J$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -38522,12 +38522,17 @@
     <protectedRange sqref="I15:N26 I41:N52 I54:N65 I67:N78 I28:N39 I84:N89" name="Range1_1_2"/>
   </protectedRanges>
   <mergeCells count="30">
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="I82:K82"/>
     <mergeCell ref="L82:N82"/>
@@ -38541,17 +38546,12 @@
     <mergeCell ref="A41:A52"/>
     <mergeCell ref="C12:D13"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
   </mergeCells>
   <conditionalFormatting sqref="A15:B39 AE30:AE78 A91:H1048576 A41:B52 A54:B65 A67:B78 W11:AE11 G11 A12:C12 A14:H14 G13 C1:H2 C3:G3 P3:V3 W10:AD10 O1:V2 O12:P12 R12:AD12 C4:H7 E11 E12:G12 A13:B13 E13 A1:A10 C9:C10 D8:H8 G9:H9 I82 L82 A80:G80 W1:XFD3 AE5:XFD5 O4:XFD4 O6:XFD9 H90 A81:F81 O80:P1048576 I83:N83 Q79:AE1048576 AF11:XFD1048576">
     <cfRule type="containsErrors" dxfId="466" priority="134">
@@ -39051,11 +39051,11 @@
       <c r="S7" s="12"/>
     </row>
     <row r="8" spans="1:20" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="560" t="s">
+      <c r="A8" s="562" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="560"/>
-      <c r="C8" s="560"/>
+      <c r="B8" s="562"/>
+      <c r="C8" s="562"/>
       <c r="D8" s="68"/>
       <c r="E8" s="68"/>
       <c r="F8" s="68"/>
@@ -39078,15 +39078,15 @@
         <v>226</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="582" t="str">
+      <c r="C9" s="585" t="str">
         <f>IF('W2'!G11+'W3'!$G$22&gt;0,"Yes","No. Please complete W2 or W3 first")</f>
         <v>No. Please complete W2 or W3 first</v>
       </c>
-      <c r="D9" s="582"/>
-      <c r="E9" s="582"/>
-      <c r="F9" s="582"/>
-      <c r="G9" s="582"/>
-      <c r="H9" s="582"/>
+      <c r="D9" s="585"/>
+      <c r="E9" s="585"/>
+      <c r="F9" s="585"/>
+      <c r="G9" s="585"/>
+      <c r="H9" s="585"/>
       <c r="I9" s="69"/>
       <c r="J9" s="69"/>
       <c r="K9" s="150"/>
@@ -39127,14 +39127,14 @@
       <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E11" s="591" t="s">
+      <c r="E11" s="597" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="591"/>
-      <c r="G11" s="591"/>
-      <c r="H11" s="591"/>
-      <c r="I11" s="591"/>
-      <c r="J11" s="591"/>
+      <c r="F11" s="597"/>
+      <c r="G11" s="597"/>
+      <c r="H11" s="597"/>
+      <c r="I11" s="597"/>
+      <c r="J11" s="597"/>
       <c r="K11" s="9" t="s">
         <v>224</v>
       </c>
@@ -39151,63 +39151,63 @@
     <row r="12" spans="1:20" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="428"/>
       <c r="B12" s="429"/>
-      <c r="C12" s="578" t="s">
+      <c r="C12" s="581" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="579"/>
-      <c r="E12" s="592" t="s">
+      <c r="D12" s="582"/>
+      <c r="E12" s="598" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="592"/>
-      <c r="G12" s="592"/>
+      <c r="F12" s="598"/>
+      <c r="G12" s="598"/>
       <c r="H12" s="168"/>
       <c r="I12" s="168"/>
       <c r="J12" s="168"/>
-      <c r="K12" s="571" t="s">
+      <c r="K12" s="573" t="s">
         <v>201</v>
       </c>
-      <c r="L12" s="572"/>
-      <c r="M12" s="572"/>
-      <c r="N12" s="572"/>
-      <c r="O12" s="572"/>
-      <c r="P12" s="572"/>
-      <c r="Q12" s="572"/>
-      <c r="R12" s="572"/>
-      <c r="S12" s="573"/>
+      <c r="L12" s="574"/>
+      <c r="M12" s="574"/>
+      <c r="N12" s="574"/>
+      <c r="O12" s="574"/>
+      <c r="P12" s="574"/>
+      <c r="Q12" s="574"/>
+      <c r="R12" s="574"/>
+      <c r="S12" s="575"/>
       <c r="T12" s="439"/>
     </row>
     <row r="13" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="154"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="580"/>
-      <c r="D13" s="581"/>
-      <c r="E13" s="556" t="s">
+      <c r="C13" s="583"/>
+      <c r="D13" s="584"/>
+      <c r="E13" s="576" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="556"/>
-      <c r="G13" s="556" t="s">
+      <c r="F13" s="576"/>
+      <c r="G13" s="576" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="556"/>
-      <c r="I13" s="556" t="s">
+      <c r="H13" s="576"/>
+      <c r="I13" s="576" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="556"/>
-      <c r="K13" s="558" t="s">
+      <c r="J13" s="576"/>
+      <c r="K13" s="589" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="554"/>
-      <c r="M13" s="554"/>
-      <c r="N13" s="595" t="s">
+      <c r="L13" s="586"/>
+      <c r="M13" s="586"/>
+      <c r="N13" s="591" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="556"/>
-      <c r="P13" s="596"/>
-      <c r="Q13" s="558" t="s">
+      <c r="O13" s="576"/>
+      <c r="P13" s="592"/>
+      <c r="Q13" s="589" t="s">
         <v>32</v>
       </c>
-      <c r="R13" s="554"/>
-      <c r="S13" s="559"/>
+      <c r="R13" s="586"/>
+      <c r="S13" s="590"/>
     </row>
     <row r="14" spans="1:20" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="344" t="s">
@@ -39269,7 +39269,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="575" t="s">
+      <c r="A15" s="578" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -39327,7 +39327,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="575"/>
+      <c r="A16" s="578"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -39383,7 +39383,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="575"/>
+      <c r="A17" s="578"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -39439,7 +39439,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="575"/>
+      <c r="A18" s="578"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -39495,7 +39495,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="575"/>
+      <c r="A19" s="578"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -39551,7 +39551,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="575"/>
+      <c r="A20" s="578"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -39607,7 +39607,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="575"/>
+      <c r="A21" s="578"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -39663,7 +39663,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="575"/>
+      <c r="A22" s="578"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -39719,7 +39719,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="575"/>
+      <c r="A23" s="578"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -39775,7 +39775,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="575"/>
+      <c r="A24" s="578"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -39831,7 +39831,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="575"/>
+      <c r="A25" s="578"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -39887,7 +39887,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="576"/>
+      <c r="A26" s="579"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -39998,7 +39998,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="575" t="s">
+      <c r="A28" s="578" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -40056,7 +40056,7 @@
       </c>
     </row>
     <row r="29" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="575"/>
+      <c r="A29" s="578"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -40112,7 +40112,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="575"/>
+      <c r="A30" s="578"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -40169,7 +40169,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="575"/>
+      <c r="A31" s="578"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -40226,7 +40226,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="575"/>
+      <c r="A32" s="578"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -40283,7 +40283,7 @@
       <c r="T32" s="7"/>
     </row>
     <row r="33" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="575"/>
+      <c r="A33" s="578"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -40340,7 +40340,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="575"/>
+      <c r="A34" s="578"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -40397,7 +40397,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="575"/>
+      <c r="A35" s="578"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -40454,7 +40454,7 @@
       <c r="T35" s="7"/>
     </row>
     <row r="36" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="575"/>
+      <c r="A36" s="578"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -40511,7 +40511,7 @@
       <c r="T36" s="7"/>
     </row>
     <row r="37" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="575"/>
+      <c r="A37" s="578"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -40568,7 +40568,7 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="575"/>
+      <c r="A38" s="578"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -40625,7 +40625,7 @@
       <c r="T38" s="7"/>
     </row>
     <row r="39" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="575"/>
+      <c r="A39" s="578"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -40738,7 +40738,7 @@
       <c r="T40" s="7"/>
     </row>
     <row r="41" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="574" t="s">
+      <c r="A41" s="577" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -40797,7 +40797,7 @@
       <c r="T41" s="7"/>
     </row>
     <row r="42" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="575"/>
+      <c r="A42" s="578"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -40854,7 +40854,7 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="575"/>
+      <c r="A43" s="578"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -40911,7 +40911,7 @@
       <c r="T43" s="7"/>
     </row>
     <row r="44" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="575"/>
+      <c r="A44" s="578"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -40968,7 +40968,7 @@
       <c r="T44" s="7"/>
     </row>
     <row r="45" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="575"/>
+      <c r="A45" s="578"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -41025,7 +41025,7 @@
       <c r="T45" s="7"/>
     </row>
     <row r="46" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="575"/>
+      <c r="A46" s="578"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -41082,7 +41082,7 @@
       <c r="T46" s="7"/>
     </row>
     <row r="47" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="575"/>
+      <c r="A47" s="578"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -41139,7 +41139,7 @@
       <c r="T47" s="7"/>
     </row>
     <row r="48" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="575"/>
+      <c r="A48" s="578"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -41196,7 +41196,7 @@
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="575"/>
+      <c r="A49" s="578"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -41253,7 +41253,7 @@
       <c r="T49" s="7"/>
     </row>
     <row r="50" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="575"/>
+      <c r="A50" s="578"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -41310,7 +41310,7 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="575"/>
+      <c r="A51" s="578"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -41367,7 +41367,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="576"/>
+      <c r="A52" s="579"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -41480,7 +41480,7 @@
       <c r="T53" s="7"/>
     </row>
     <row r="54" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="574" t="s">
+      <c r="A54" s="577" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -41539,7 +41539,7 @@
       <c r="T54" s="7"/>
     </row>
     <row r="55" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="575"/>
+      <c r="A55" s="578"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -41596,7 +41596,7 @@
       <c r="T55" s="7"/>
     </row>
     <row r="56" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="575"/>
+      <c r="A56" s="578"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -41653,7 +41653,7 @@
       <c r="T56" s="7"/>
     </row>
     <row r="57" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="575"/>
+      <c r="A57" s="578"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -41710,7 +41710,7 @@
       <c r="T57" s="7"/>
     </row>
     <row r="58" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="575"/>
+      <c r="A58" s="578"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -41767,7 +41767,7 @@
       <c r="T58" s="7"/>
     </row>
     <row r="59" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="575"/>
+      <c r="A59" s="578"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -41824,7 +41824,7 @@
       <c r="T59" s="7"/>
     </row>
     <row r="60" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="575"/>
+      <c r="A60" s="578"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -41881,7 +41881,7 @@
       <c r="T60" s="7"/>
     </row>
     <row r="61" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="575"/>
+      <c r="A61" s="578"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -41938,7 +41938,7 @@
       <c r="T61" s="7"/>
     </row>
     <row r="62" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="575"/>
+      <c r="A62" s="578"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -41995,7 +41995,7 @@
       <c r="T62" s="7"/>
     </row>
     <row r="63" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="575"/>
+      <c r="A63" s="578"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -42052,7 +42052,7 @@
       <c r="T63" s="7"/>
     </row>
     <row r="64" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="575"/>
+      <c r="A64" s="578"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -42109,7 +42109,7 @@
       <c r="T64" s="7"/>
     </row>
     <row r="65" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="576"/>
+      <c r="A65" s="579"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -42222,7 +42222,7 @@
       <c r="T66" s="7"/>
     </row>
     <row r="67" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="574" t="s">
+      <c r="A67" s="577" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -42281,7 +42281,7 @@
       <c r="T67" s="7"/>
     </row>
     <row r="68" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="575"/>
+      <c r="A68" s="578"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -42338,7 +42338,7 @@
       <c r="T68" s="7"/>
     </row>
     <row r="69" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="575"/>
+      <c r="A69" s="578"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -42395,7 +42395,7 @@
       <c r="T69" s="7"/>
     </row>
     <row r="70" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="575"/>
+      <c r="A70" s="578"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -42452,7 +42452,7 @@
       <c r="T70" s="7"/>
     </row>
     <row r="71" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="575"/>
+      <c r="A71" s="578"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -42509,7 +42509,7 @@
       <c r="T71" s="7"/>
     </row>
     <row r="72" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="575"/>
+      <c r="A72" s="578"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -42566,7 +42566,7 @@
       <c r="T72" s="7"/>
     </row>
     <row r="73" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="575"/>
+      <c r="A73" s="578"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -42623,7 +42623,7 @@
       <c r="T73" s="7"/>
     </row>
     <row r="74" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="575"/>
+      <c r="A74" s="578"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -42680,7 +42680,7 @@
       <c r="T74" s="7"/>
     </row>
     <row r="75" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="575"/>
+      <c r="A75" s="578"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -42737,7 +42737,7 @@
       <c r="T75" s="7"/>
     </row>
     <row r="76" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="575"/>
+      <c r="A76" s="578"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -42794,7 +42794,7 @@
       <c r="T76" s="7"/>
     </row>
     <row r="77" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="575"/>
+      <c r="A77" s="578"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -42851,7 +42851,7 @@
       <c r="T77" s="7"/>
     </row>
     <row r="78" spans="1:20" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="577"/>
+      <c r="A78" s="580"/>
       <c r="B78" s="156" t="s">
         <v>17</v>
       </c>
@@ -42967,28 +42967,28 @@
       <c r="T81" s="10"/>
     </row>
     <row r="82" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I82" s="567"/>
-      <c r="J82" s="568"/>
-      <c r="K82" s="561" t="s">
+      <c r="I82" s="569"/>
+      <c r="J82" s="570"/>
+      <c r="K82" s="563" t="s">
         <v>31</v>
       </c>
-      <c r="L82" s="562"/>
-      <c r="M82" s="563"/>
-      <c r="N82" s="561" t="s">
+      <c r="L82" s="564"/>
+      <c r="M82" s="565"/>
+      <c r="N82" s="563" t="s">
         <v>30</v>
       </c>
-      <c r="O82" s="562"/>
-      <c r="P82" s="563"/>
-      <c r="Q82" s="564" t="s">
+      <c r="O82" s="564"/>
+      <c r="P82" s="565"/>
+      <c r="Q82" s="566" t="s">
         <v>32</v>
       </c>
-      <c r="R82" s="565"/>
-      <c r="S82" s="566"/>
+      <c r="R82" s="567"/>
+      <c r="S82" s="568"/>
       <c r="T82" s="10"/>
     </row>
     <row r="83" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I83" s="569"/>
-      <c r="J83" s="570"/>
+      <c r="I83" s="571"/>
+      <c r="J83" s="572"/>
       <c r="K83" s="490" t="s">
         <v>2</v>
       </c>
@@ -43062,10 +43062,10 @@
       <c r="T84" s="10"/>
     </row>
     <row r="85" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I85" s="587" t="s">
+      <c r="I85" s="560" t="s">
         <v>21</v>
       </c>
-      <c r="J85" s="589"/>
+      <c r="J85" s="595"/>
       <c r="K85" s="462" t="str">
         <f>IF(COUNT(E28:E39)=$L$81, CONCATENATE(ROUND(SUM(E28:E39)*$L$81/SUM(C28:C39)*1000, 2), " (", ROUND(SUM(E28:E39)*$L$81/SUM(C28:C39)*1000/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*$L$81/SUM(C28:C39)*1000*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -43105,10 +43105,10 @@
       <c r="T85" s="10"/>
     </row>
     <row r="86" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I86" s="587" t="s">
+      <c r="I86" s="560" t="s">
         <v>22</v>
       </c>
-      <c r="J86" s="589"/>
+      <c r="J86" s="595"/>
       <c r="K86" s="462" t="str">
         <f>IF(COUNT(E41:E52)=$L$81, CONCATENATE(ROUND(SUM(E41:E52)*$L$81/SUM(C41:C52)*1000, 2), " (", ROUND(SUM(E41:E52)*$L$81/SUM(C41:C52)*1000/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*$L$81/SUM(C41:C52)*1000*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -43148,10 +43148,10 @@
       <c r="T86" s="10"/>
     </row>
     <row r="87" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I87" s="587" t="s">
+      <c r="I87" s="560" t="s">
         <v>23</v>
       </c>
-      <c r="J87" s="589"/>
+      <c r="J87" s="595"/>
       <c r="K87" s="462" t="str">
         <f>IF(COUNT(E54:E65)=$L$81, CONCATENATE(ROUND(SUM(E54:E65)*$L$81/SUM(C54:C65)*1000, 2), " (", ROUND(SUM(E54:E65)*$L$81/SUM(C54:C65)*1000/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*$L$81/SUM(C54:C65)*1000*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -43191,10 +43191,10 @@
       <c r="T87" s="10"/>
     </row>
     <row r="88" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I88" s="587" t="s">
+      <c r="I88" s="560" t="s">
         <v>3</v>
       </c>
-      <c r="J88" s="589"/>
+      <c r="J88" s="595"/>
       <c r="K88" s="462" t="str">
         <f>IF(COUNT(E67:E78)=$L$81, CONCATENATE(ROUND(SUM(E67:E78)*$L$81/SUM(C67:C78)*1000, 2), " (", ROUND(SUM(E67:E78)*$L$81/SUM(C67:C78)*1000/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*$L$81/SUM(C67:C78)*1000*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -43234,10 +43234,10 @@
       <c r="T88" s="10"/>
     </row>
     <row r="89" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I89" s="583" t="s">
+      <c r="I89" s="556" t="s">
         <v>1</v>
       </c>
-      <c r="J89" s="590"/>
+      <c r="J89" s="596"/>
       <c r="K89" s="488" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$L$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*L81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*L81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*L81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -43295,6 +43295,25 @@
     <protectedRange sqref="K84:S89" name="Range1_1_2_2"/>
   </protectedRanges>
   <mergeCells count="27">
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="I82:J83"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="Q82:S82"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="N82:P82"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="A41:A52"/>
+    <mergeCell ref="A54:A65"/>
+    <mergeCell ref="N13:P13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C12:D13"/>
@@ -43303,25 +43322,6 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:M13"/>
     <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A15:A26"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="A41:A52"/>
-    <mergeCell ref="A54:A65"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="A67:A78"/>
-    <mergeCell ref="I82:J83"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="Q82:S82"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="N82:P82"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="I85:J85"/>
   </mergeCells>
   <conditionalFormatting sqref="A91:J1048576 T11 A80:I80 T1:XFD9 J90 A81:H81 H12:I12 E12 K83:M83 Q83:S83 U11:XFD1048576 T30:T1048576">
     <cfRule type="containsErrors" dxfId="401" priority="178">
@@ -43793,11 +43793,11 @@
       <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:10" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="560" t="s">
+      <c r="A8" s="562" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="560"/>
-      <c r="C8" s="560"/>
+      <c r="B8" s="562"/>
+      <c r="C8" s="562"/>
       <c r="D8" s="68"/>
       <c r="E8" s="69"/>
       <c r="F8" s="69"/>
@@ -43810,13 +43810,13 @@
         <v>226</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="582" t="str">
+      <c r="C9" s="585" t="str">
         <f>IF('W2'!G11+'W3'!$G$22&gt;0,"Yes","No. Please complete W2 or W3 first")</f>
         <v>No. Please complete W2 or W3 first</v>
       </c>
-      <c r="D9" s="582"/>
-      <c r="E9" s="582"/>
-      <c r="F9" s="582"/>
+      <c r="D9" s="585"/>
+      <c r="E9" s="585"/>
+      <c r="F9" s="585"/>
       <c r="G9" s="150"/>
       <c r="H9" s="19"/>
       <c r="I9" s="12"/>
@@ -43853,35 +43853,35 @@
     <row r="12" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="428"/>
       <c r="B12" s="429"/>
-      <c r="C12" s="578" t="s">
+      <c r="C12" s="581" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="579"/>
+      <c r="D12" s="582"/>
       <c r="E12" s="454" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="168"/>
-      <c r="G12" s="571" t="s">
+      <c r="G12" s="573" t="s">
         <v>201</v>
       </c>
-      <c r="H12" s="572"/>
-      <c r="I12" s="573"/>
+      <c r="H12" s="574"/>
+      <c r="I12" s="575"/>
       <c r="J12" s="439"/>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="154"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="580"/>
-      <c r="D13" s="581"/>
-      <c r="E13" s="556" t="s">
+      <c r="C13" s="583"/>
+      <c r="D13" s="584"/>
+      <c r="E13" s="576" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="556"/>
-      <c r="G13" s="595" t="s">
+      <c r="F13" s="576"/>
+      <c r="G13" s="591" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="556"/>
-      <c r="I13" s="596"/>
+      <c r="H13" s="576"/>
+      <c r="I13" s="592"/>
     </row>
     <row r="14" spans="1:10" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="344" t="s">
@@ -43913,7 +43913,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="575" t="s">
+      <c r="A15" s="578" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -43943,7 +43943,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="575"/>
+      <c r="A16" s="578"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -43971,7 +43971,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="575"/>
+      <c r="A17" s="578"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -43999,7 +43999,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="575"/>
+      <c r="A18" s="578"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -44027,7 +44027,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="575"/>
+      <c r="A19" s="578"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -44055,7 +44055,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="575"/>
+      <c r="A20" s="578"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -44083,7 +44083,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="575"/>
+      <c r="A21" s="578"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -44111,7 +44111,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="575"/>
+      <c r="A22" s="578"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -44139,7 +44139,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="575"/>
+      <c r="A23" s="578"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -44167,7 +44167,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="575"/>
+      <c r="A24" s="578"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -44195,7 +44195,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="575"/>
+      <c r="A25" s="578"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -44223,7 +44223,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="576"/>
+      <c r="A26" s="579"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -44276,7 +44276,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="575" t="s">
+      <c r="A28" s="578" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -44306,7 +44306,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="575"/>
+      <c r="A29" s="578"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -44334,7 +44334,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="575"/>
+      <c r="A30" s="578"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -44363,7 +44363,7 @@
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="575"/>
+      <c r="A31" s="578"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -44392,7 +44392,7 @@
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="575"/>
+      <c r="A32" s="578"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -44421,7 +44421,7 @@
       <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="575"/>
+      <c r="A33" s="578"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -44450,7 +44450,7 @@
       <c r="J33" s="7"/>
     </row>
     <row r="34" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="575"/>
+      <c r="A34" s="578"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -44479,7 +44479,7 @@
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="575"/>
+      <c r="A35" s="578"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -44508,7 +44508,7 @@
       <c r="J35" s="7"/>
     </row>
     <row r="36" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="575"/>
+      <c r="A36" s="578"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -44537,7 +44537,7 @@
       <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="575"/>
+      <c r="A37" s="578"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -44566,7 +44566,7 @@
       <c r="J37" s="7"/>
     </row>
     <row r="38" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="575"/>
+      <c r="A38" s="578"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -44595,7 +44595,7 @@
       <c r="J38" s="7"/>
     </row>
     <row r="39" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="575"/>
+      <c r="A39" s="578"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -44650,7 +44650,7 @@
       <c r="J40" s="7"/>
     </row>
     <row r="41" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="574" t="s">
+      <c r="A41" s="577" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -44681,7 +44681,7 @@
       <c r="J41" s="7"/>
     </row>
     <row r="42" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="575"/>
+      <c r="A42" s="578"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -44710,7 +44710,7 @@
       <c r="J42" s="7"/>
     </row>
     <row r="43" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="575"/>
+      <c r="A43" s="578"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -44739,7 +44739,7 @@
       <c r="J43" s="7"/>
     </row>
     <row r="44" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="575"/>
+      <c r="A44" s="578"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -44768,7 +44768,7 @@
       <c r="J44" s="7"/>
     </row>
     <row r="45" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="575"/>
+      <c r="A45" s="578"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -44797,7 +44797,7 @@
       <c r="J45" s="7"/>
     </row>
     <row r="46" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="575"/>
+      <c r="A46" s="578"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -44826,7 +44826,7 @@
       <c r="J46" s="7"/>
     </row>
     <row r="47" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="575"/>
+      <c r="A47" s="578"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -44855,7 +44855,7 @@
       <c r="J47" s="7"/>
     </row>
     <row r="48" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="575"/>
+      <c r="A48" s="578"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -44884,7 +44884,7 @@
       <c r="J48" s="7"/>
     </row>
     <row r="49" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="575"/>
+      <c r="A49" s="578"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -44913,7 +44913,7 @@
       <c r="J49" s="7"/>
     </row>
     <row r="50" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="575"/>
+      <c r="A50" s="578"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -44942,7 +44942,7 @@
       <c r="J50" s="7"/>
     </row>
     <row r="51" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="575"/>
+      <c r="A51" s="578"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -44971,7 +44971,7 @@
       <c r="J51" s="7"/>
     </row>
     <row r="52" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="576"/>
+      <c r="A52" s="579"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -45026,7 +45026,7 @@
       <c r="J53" s="7"/>
     </row>
     <row r="54" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="574" t="s">
+      <c r="A54" s="577" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -45057,7 +45057,7 @@
       <c r="J54" s="7"/>
     </row>
     <row r="55" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="575"/>
+      <c r="A55" s="578"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -45086,7 +45086,7 @@
       <c r="J55" s="7"/>
     </row>
     <row r="56" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="575"/>
+      <c r="A56" s="578"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -45115,7 +45115,7 @@
       <c r="J56" s="7"/>
     </row>
     <row r="57" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="575"/>
+      <c r="A57" s="578"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -45144,7 +45144,7 @@
       <c r="J57" s="7"/>
     </row>
     <row r="58" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="575"/>
+      <c r="A58" s="578"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -45173,7 +45173,7 @@
       <c r="J58" s="7"/>
     </row>
     <row r="59" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="575"/>
+      <c r="A59" s="578"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -45202,7 +45202,7 @@
       <c r="J59" s="7"/>
     </row>
     <row r="60" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="575"/>
+      <c r="A60" s="578"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -45231,7 +45231,7 @@
       <c r="J60" s="7"/>
     </row>
     <row r="61" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="575"/>
+      <c r="A61" s="578"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -45260,7 +45260,7 @@
       <c r="J61" s="7"/>
     </row>
     <row r="62" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="575"/>
+      <c r="A62" s="578"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -45289,7 +45289,7 @@
       <c r="J62" s="7"/>
     </row>
     <row r="63" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="575"/>
+      <c r="A63" s="578"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -45318,7 +45318,7 @@
       <c r="J63" s="7"/>
     </row>
     <row r="64" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="575"/>
+      <c r="A64" s="578"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -45347,7 +45347,7 @@
       <c r="J64" s="7"/>
     </row>
     <row r="65" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="576"/>
+      <c r="A65" s="579"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -45402,7 +45402,7 @@
       <c r="J66" s="7"/>
     </row>
     <row r="67" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="574" t="s">
+      <c r="A67" s="577" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -45433,7 +45433,7 @@
       <c r="J67" s="7"/>
     </row>
     <row r="68" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="575"/>
+      <c r="A68" s="578"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -45462,7 +45462,7 @@
       <c r="J68" s="7"/>
     </row>
     <row r="69" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="575"/>
+      <c r="A69" s="578"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -45491,7 +45491,7 @@
       <c r="J69" s="7"/>
     </row>
     <row r="70" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="575"/>
+      <c r="A70" s="578"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -45520,7 +45520,7 @@
       <c r="J70" s="7"/>
     </row>
     <row r="71" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="575"/>
+      <c r="A71" s="578"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -45549,7 +45549,7 @@
       <c r="J71" s="7"/>
     </row>
     <row r="72" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="575"/>
+      <c r="A72" s="578"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -45578,7 +45578,7 @@
       <c r="J72" s="7"/>
     </row>
     <row r="73" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="575"/>
+      <c r="A73" s="578"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -45607,7 +45607,7 @@
       <c r="J73" s="7"/>
     </row>
     <row r="74" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="575"/>
+      <c r="A74" s="578"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -45636,7 +45636,7 @@
       <c r="J74" s="7"/>
     </row>
     <row r="75" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="575"/>
+      <c r="A75" s="578"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -45665,7 +45665,7 @@
       <c r="J75" s="7"/>
     </row>
     <row r="76" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="575"/>
+      <c r="A76" s="578"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -45694,7 +45694,7 @@
       <c r="J76" s="7"/>
     </row>
     <row r="77" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="575"/>
+      <c r="A77" s="578"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -45723,7 +45723,7 @@
       <c r="J77" s="7"/>
     </row>
     <row r="78" spans="1:10" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="577"/>
+      <c r="A78" s="580"/>
       <c r="B78" s="156" t="s">
         <v>17</v>
       </c>
@@ -45778,18 +45778,18 @@
       <c r="J81" s="10"/>
     </row>
     <row r="82" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E82" s="567"/>
-      <c r="F82" s="568"/>
-      <c r="G82" s="561" t="s">
+      <c r="E82" s="569"/>
+      <c r="F82" s="570"/>
+      <c r="G82" s="563" t="s">
         <v>33</v>
       </c>
-      <c r="H82" s="562"/>
-      <c r="I82" s="563"/>
+      <c r="H82" s="564"/>
+      <c r="I82" s="565"/>
       <c r="J82" s="10"/>
     </row>
     <row r="83" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E83" s="569"/>
-      <c r="F83" s="570"/>
+      <c r="E83" s="571"/>
+      <c r="F83" s="572"/>
       <c r="G83" s="484" t="s">
         <v>2</v>
       </c>
@@ -45802,10 +45802,10 @@
       <c r="J83" s="10"/>
     </row>
     <row r="84" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E84" s="585" t="s">
+      <c r="E84" s="558" t="s">
         <v>225</v>
       </c>
-      <c r="F84" s="586"/>
+      <c r="F84" s="559"/>
       <c r="G84" s="458" t="str">
         <f>IF(COUNT(E15:E26)=H81, CONCATENATE(ROUND(SUM(E15:E26)*H81/SUM(C15:C26)*1000, 2), " (", ROUND(SUM(E15:E26)*H81/SUM(C15:C26)*1000/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*H81/SUM(C15:C26)*1000*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -45821,10 +45821,10 @@
       <c r="J84" s="10"/>
     </row>
     <row r="85" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E85" s="587" t="s">
+      <c r="E85" s="560" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="588"/>
+      <c r="F85" s="561"/>
       <c r="G85" s="461" t="str">
         <f>IF(COUNT(E28:E39)=H81, CONCATENATE(ROUND(SUM(E28:E39)*H81/SUM(C28:C39)*1000, 2), " (", ROUND(SUM(E28:E39)*H81/SUM(C28:C39)*1000/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*H81/SUM(C28:C39)*1000*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -45840,10 +45840,10 @@
       <c r="J85" s="10"/>
     </row>
     <row r="86" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E86" s="587" t="s">
+      <c r="E86" s="560" t="s">
         <v>22</v>
       </c>
-      <c r="F86" s="588"/>
+      <c r="F86" s="561"/>
       <c r="G86" s="461" t="str">
         <f>IF(COUNT(E41:E52)=H81, CONCATENATE(ROUND(SUM(E41:E52)*H81/SUM(C41:C52)*1000, 2), " (", ROUND(SUM(E41:E52)*H81/SUM(C41:C52)*1000/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*H81/SUM(C41:C52)*1000*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -45859,10 +45859,10 @@
       <c r="J86" s="10"/>
     </row>
     <row r="87" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E87" s="587" t="s">
+      <c r="E87" s="560" t="s">
         <v>23</v>
       </c>
-      <c r="F87" s="588"/>
+      <c r="F87" s="561"/>
       <c r="G87" s="461" t="str">
         <f>IF(COUNT(E54:E65)=H81, CONCATENATE(ROUND(SUM(E54:E65)*H81/SUM(C54:C65)*1000, 2), " (", ROUND(SUM(E54:E65)*H81/SUM(C54:C65)*1000/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*H81/SUM(C54:C65)*1000*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -45878,10 +45878,10 @@
       <c r="J87" s="10"/>
     </row>
     <row r="88" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E88" s="587" t="s">
+      <c r="E88" s="560" t="s">
         <v>3</v>
       </c>
-      <c r="F88" s="588"/>
+      <c r="F88" s="561"/>
       <c r="G88" s="461" t="str">
         <f>IF(COUNT(E67:E78)=H81, CONCATENATE(ROUND(SUM(E67:E78)*H81/SUM(C67:C78)*1000, 2), " (", ROUND(SUM(E67:E78)*H81/SUM(C67:C78)*1000/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*H81/SUM(C67:C78)*1000*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -45897,10 +45897,10 @@
       <c r="J88" s="10"/>
     </row>
     <row r="89" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E89" s="583" t="s">
+      <c r="E89" s="556" t="s">
         <v>1</v>
       </c>
-      <c r="F89" s="584"/>
+      <c r="F89" s="557"/>
       <c r="G89" s="487" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$H$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*H81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*H81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*H81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -45929,18 +45929,6 @@
     <protectedRange sqref="G41:I52 G54:I65 G67:I78 G28:I39 G84:I89 G15:I26" name="Range1_1_2"/>
   </protectedRanges>
   <mergeCells count="19">
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A67:A78"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="A15:A26"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="A41:A52"/>
-    <mergeCell ref="A54:A65"/>
     <mergeCell ref="E89:F89"/>
     <mergeCell ref="E82:F83"/>
     <mergeCell ref="E84:F84"/>
@@ -45948,6 +45936,18 @@
     <mergeCell ref="E86:F86"/>
     <mergeCell ref="E87:F87"/>
     <mergeCell ref="E88:F88"/>
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="A41:A52"/>
+    <mergeCell ref="A54:A65"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:I13"/>
   </mergeCells>
   <conditionalFormatting sqref="A15:B39 A91:F1048576 A41:B52 A54:B65 A67:B78 A12:C12 A14:F14 C1:F7 E11 E12:F12 A13:B13 E13 A1:A10 C9:C10 D8:F8 G82 A80:F80 G83:I83 A81:D81 K11:XFD1048576 J11 J1:XFD9 J30:J1048576">
     <cfRule type="containsErrors" dxfId="330" priority="68">
@@ -46248,11 +46248,11 @@
       <c r="N7" s="12"/>
     </row>
     <row r="8" spans="1:15" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="560" t="s">
+      <c r="A8" s="562" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="560"/>
-      <c r="C8" s="560"/>
+      <c r="B8" s="562"/>
+      <c r="C8" s="562"/>
       <c r="D8" s="68"/>
       <c r="E8" s="69"/>
       <c r="F8" s="69"/>
@@ -46270,13 +46270,13 @@
         <v>226</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="582" t="str">
+      <c r="C9" s="585" t="str">
         <f>IF('W2'!G11+'W3'!$G$22&gt;0,"Yes","No. Please complete W2 or W3 first")</f>
         <v>No. Please complete W2 or W3 first</v>
       </c>
-      <c r="D9" s="582"/>
-      <c r="E9" s="582"/>
-      <c r="F9" s="582"/>
+      <c r="D9" s="585"/>
+      <c r="E9" s="585"/>
+      <c r="F9" s="585"/>
       <c r="G9" s="69"/>
       <c r="H9" s="69"/>
       <c r="I9" s="150"/>
@@ -46328,49 +46328,49 @@
     <row r="12" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="428"/>
       <c r="B12" s="429"/>
-      <c r="C12" s="578" t="s">
+      <c r="C12" s="581" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="579"/>
+      <c r="D12" s="582"/>
       <c r="E12" s="454" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="168"/>
       <c r="G12" s="168"/>
       <c r="H12" s="168"/>
-      <c r="I12" s="571" t="s">
+      <c r="I12" s="573" t="s">
         <v>201</v>
       </c>
-      <c r="J12" s="572"/>
-      <c r="K12" s="572"/>
-      <c r="L12" s="572"/>
-      <c r="M12" s="572"/>
-      <c r="N12" s="573"/>
+      <c r="J12" s="574"/>
+      <c r="K12" s="574"/>
+      <c r="L12" s="574"/>
+      <c r="M12" s="574"/>
+      <c r="N12" s="575"/>
       <c r="O12" s="439"/>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="154"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="580"/>
-      <c r="D13" s="581"/>
-      <c r="E13" s="556" t="s">
+      <c r="C13" s="583"/>
+      <c r="D13" s="584"/>
+      <c r="E13" s="576" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="556"/>
-      <c r="G13" s="556" t="s">
+      <c r="F13" s="576"/>
+      <c r="G13" s="576" t="s">
         <v>252</v>
       </c>
-      <c r="H13" s="556"/>
-      <c r="I13" s="558" t="s">
+      <c r="H13" s="576"/>
+      <c r="I13" s="589" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="554"/>
-      <c r="K13" s="554"/>
-      <c r="L13" s="558" t="s">
+      <c r="J13" s="586"/>
+      <c r="K13" s="586"/>
+      <c r="L13" s="589" t="s">
         <v>34</v>
       </c>
-      <c r="M13" s="554"/>
-      <c r="N13" s="559"/>
+      <c r="M13" s="586"/>
+      <c r="N13" s="590"/>
     </row>
     <row r="14" spans="1:15" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="344" t="s">
@@ -46417,7 +46417,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="575" t="s">
+      <c r="A15" s="578" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -46461,7 +46461,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="575"/>
+      <c r="A16" s="578"/>
       <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
@@ -46503,7 +46503,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="575"/>
+      <c r="A17" s="578"/>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
@@ -46545,7 +46545,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="575"/>
+      <c r="A18" s="578"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -46587,7 +46587,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="575"/>
+      <c r="A19" s="578"/>
       <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
@@ -46629,7 +46629,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="575"/>
+      <c r="A20" s="578"/>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
@@ -46671,7 +46671,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="575"/>
+      <c r="A21" s="578"/>
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
@@ -46713,7 +46713,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="575"/>
+      <c r="A22" s="578"/>
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -46755,7 +46755,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="575"/>
+      <c r="A23" s="578"/>
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -46797,7 +46797,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="575"/>
+      <c r="A24" s="578"/>
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -46839,7 +46839,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="575"/>
+      <c r="A25" s="578"/>
       <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
@@ -46881,7 +46881,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="576"/>
+      <c r="A26" s="579"/>
       <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
@@ -46963,7 +46963,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="575" t="s">
+      <c r="A28" s="578" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -47007,7 +47007,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="575"/>
+      <c r="A29" s="578"/>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
@@ -47049,7 +47049,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="575"/>
+      <c r="A30" s="578"/>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
@@ -47092,7 +47092,7 @@
       <c r="O30" s="7"/>
     </row>
     <row r="31" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="575"/>
+      <c r="A31" s="578"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
@@ -47135,7 +47135,7 @@
       <c r="O31" s="7"/>
     </row>
     <row r="32" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="575"/>
+      <c r="A32" s="578"/>
       <c r="B32" s="14" t="s">
         <v>10</v>
       </c>
@@ -47178,7 +47178,7 @@
       <c r="O32" s="7"/>
     </row>
     <row r="33" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="575"/>
+      <c r="A33" s="578"/>
       <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
@@ -47221,7 +47221,7 @@
       <c r="O33" s="7"/>
     </row>
     <row r="34" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="575"/>
+      <c r="A34" s="578"/>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
@@ -47264,7 +47264,7 @@
       <c r="O34" s="7"/>
     </row>
     <row r="35" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="575"/>
+      <c r="A35" s="578"/>
       <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
@@ -47307,7 +47307,7 @@
       <c r="O35" s="7"/>
     </row>
     <row r="36" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="575"/>
+      <c r="A36" s="578"/>
       <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
@@ -47350,7 +47350,7 @@
       <c r="O36" s="7"/>
     </row>
     <row r="37" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="575"/>
+      <c r="A37" s="578"/>
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
@@ -47393,7 +47393,7 @@
       <c r="O37" s="7"/>
     </row>
     <row r="38" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="575"/>
+      <c r="A38" s="578"/>
       <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
@@ -47436,7 +47436,7 @@
       <c r="O38" s="7"/>
     </row>
     <row r="39" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="575"/>
+      <c r="A39" s="578"/>
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -47520,7 +47520,7 @@
       <c r="O40" s="7"/>
     </row>
     <row r="41" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="574" t="s">
+      <c r="A41" s="577" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -47565,7 +47565,7 @@
       <c r="O41" s="7"/>
     </row>
     <row r="42" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="575"/>
+      <c r="A42" s="578"/>
       <c r="B42" s="14" t="s">
         <v>7</v>
       </c>
@@ -47608,7 +47608,7 @@
       <c r="O42" s="7"/>
     </row>
     <row r="43" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="575"/>
+      <c r="A43" s="578"/>
       <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
@@ -47651,7 +47651,7 @@
       <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="575"/>
+      <c r="A44" s="578"/>
       <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
@@ -47694,7 +47694,7 @@
       <c r="O44" s="7"/>
     </row>
     <row r="45" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="575"/>
+      <c r="A45" s="578"/>
       <c r="B45" s="14" t="s">
         <v>10</v>
       </c>
@@ -47737,7 +47737,7 @@
       <c r="O45" s="7"/>
     </row>
     <row r="46" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="575"/>
+      <c r="A46" s="578"/>
       <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
@@ -47780,7 +47780,7 @@
       <c r="O46" s="7"/>
     </row>
     <row r="47" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="575"/>
+      <c r="A47" s="578"/>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
@@ -47823,7 +47823,7 @@
       <c r="O47" s="7"/>
     </row>
     <row r="48" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="575"/>
+      <c r="A48" s="578"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
@@ -47866,7 +47866,7 @@
       <c r="O48" s="7"/>
     </row>
     <row r="49" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="575"/>
+      <c r="A49" s="578"/>
       <c r="B49" s="14" t="s">
         <v>14</v>
       </c>
@@ -47909,7 +47909,7 @@
       <c r="O49" s="7"/>
     </row>
     <row r="50" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="575"/>
+      <c r="A50" s="578"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -47952,7 +47952,7 @@
       <c r="O50" s="7"/>
     </row>
     <row r="51" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="575"/>
+      <c r="A51" s="578"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -47995,7 +47995,7 @@
       <c r="O51" s="7"/>
     </row>
     <row r="52" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="576"/>
+      <c r="A52" s="579"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -48079,7 +48079,7 @@
       <c r="O53" s="7"/>
     </row>
     <row r="54" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="574" t="s">
+      <c r="A54" s="577" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -48124,7 +48124,7 @@
       <c r="O54" s="7"/>
     </row>
     <row r="55" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="575"/>
+      <c r="A55" s="578"/>
       <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
@@ -48167,7 +48167,7 @@
       <c r="O55" s="7"/>
     </row>
     <row r="56" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="575"/>
+      <c r="A56" s="578"/>
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
@@ -48210,7 +48210,7 @@
       <c r="O56" s="7"/>
     </row>
     <row r="57" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="575"/>
+      <c r="A57" s="578"/>
       <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
@@ -48253,7 +48253,7 @@
       <c r="O57" s="7"/>
     </row>
     <row r="58" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="575"/>
+      <c r="A58" s="578"/>
       <c r="B58" s="14" t="s">
         <v>10</v>
       </c>
@@ -48296,7 +48296,7 @@
       <c r="O58" s="7"/>
     </row>
     <row r="59" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="575"/>
+      <c r="A59" s="578"/>
       <c r="B59" s="14" t="s">
         <v>11</v>
       </c>
@@ -48339,7 +48339,7 @@
       <c r="O59" s="7"/>
     </row>
     <row r="60" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="575"/>
+      <c r="A60" s="578"/>
       <c r="B60" s="14" t="s">
         <v>12</v>
       </c>
@@ -48382,7 +48382,7 @@
       <c r="O60" s="7"/>
     </row>
     <row r="61" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="575"/>
+      <c r="A61" s="578"/>
       <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
@@ -48425,7 +48425,7 @@
       <c r="O61" s="7"/>
     </row>
     <row r="62" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="575"/>
+      <c r="A62" s="578"/>
       <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
@@ -48468,7 +48468,7 @@
       <c r="O62" s="7"/>
     </row>
     <row r="63" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="575"/>
+      <c r="A63" s="578"/>
       <c r="B63" s="14" t="s">
         <v>15</v>
       </c>
@@ -48511,7 +48511,7 @@
       <c r="O63" s="7"/>
     </row>
     <row r="64" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="575"/>
+      <c r="A64" s="578"/>
       <c r="B64" s="14" t="s">
         <v>16</v>
       </c>
@@ -48554,7 +48554,7 @@
       <c r="O64" s="7"/>
     </row>
     <row r="65" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="576"/>
+      <c r="A65" s="579"/>
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -48638,7 +48638,7 @@
       <c r="O66" s="7"/>
     </row>
     <row r="67" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="574" t="s">
+      <c r="A67" s="577" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -48683,7 +48683,7 @@
       <c r="O67" s="7"/>
     </row>
     <row r="68" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="575"/>
+      <c r="A68" s="578"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -48726,7 +48726,7 @@
       <c r="O68" s="7"/>
     </row>
     <row r="69" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="575"/>
+      <c r="A69" s="578"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -48769,7 +48769,7 @@
       <c r="O69" s="7"/>
     </row>
     <row r="70" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="575"/>
+      <c r="A70" s="578"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -48812,7 +48812,7 @@
       <c r="O70" s="7"/>
     </row>
     <row r="71" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="575"/>
+      <c r="A71" s="578"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -48855,7 +48855,7 @@
       <c r="O71" s="7"/>
     </row>
     <row r="72" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="575"/>
+      <c r="A72" s="578"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -48898,7 +48898,7 @@
       <c r="O72" s="7"/>
     </row>
     <row r="73" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="575"/>
+      <c r="A73" s="578"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -48941,7 +48941,7 @@
       <c r="O73" s="7"/>
     </row>
     <row r="74" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="575"/>
+      <c r="A74" s="578"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -48984,7 +48984,7 @@
       <c r="O74" s="7"/>
     </row>
     <row r="75" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="575"/>
+      <c r="A75" s="578"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -49027,7 +49027,7 @@
       <c r="O75" s="7"/>
     </row>
     <row r="76" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="575"/>
+      <c r="A76" s="578"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -49070,7 +49070,7 @@
       <c r="O76" s="7"/>
     </row>
     <row r="77" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="575"/>
+      <c r="A77" s="578"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -49113,7 +49113,7 @@
       <c r="O77" s="7"/>
     </row>
     <row r="78" spans="1:15" s="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="577"/>
+      <c r="A78" s="580"/>
       <c r="B78" s="156" t="s">
         <v>17</v>
       </c>
@@ -49156,16 +49156,16 @@
       <c r="O78" s="7"/>
     </row>
     <row r="79" spans="1:15" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="597" t="s">
+      <c r="A79" s="599" t="s">
         <v>256</v>
       </c>
-      <c r="B79" s="597"/>
-      <c r="C79" s="597"/>
-      <c r="D79" s="597"/>
-      <c r="E79" s="597"/>
-      <c r="F79" s="597"/>
-      <c r="G79" s="597"/>
-      <c r="H79" s="597"/>
+      <c r="B79" s="599"/>
+      <c r="C79" s="599"/>
+      <c r="D79" s="599"/>
+      <c r="E79" s="599"/>
+      <c r="F79" s="599"/>
+      <c r="G79" s="599"/>
+      <c r="H79" s="599"/>
       <c r="I79" s="19"/>
       <c r="J79" s="19"/>
       <c r="K79" s="11"/>
@@ -49199,23 +49199,23 @@
       <c r="O81" s="10"/>
     </row>
     <row r="82" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G82" s="567"/>
-      <c r="H82" s="568"/>
-      <c r="I82" s="561" t="s">
+      <c r="G82" s="569"/>
+      <c r="H82" s="570"/>
+      <c r="I82" s="563" t="s">
         <v>35</v>
       </c>
-      <c r="J82" s="562"/>
-      <c r="K82" s="563"/>
-      <c r="L82" s="564" t="s">
+      <c r="J82" s="564"/>
+      <c r="K82" s="565"/>
+      <c r="L82" s="566" t="s">
         <v>34</v>
       </c>
-      <c r="M82" s="565"/>
-      <c r="N82" s="566"/>
+      <c r="M82" s="567"/>
+      <c r="N82" s="568"/>
       <c r="O82" s="10"/>
     </row>
     <row r="83" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G83" s="569"/>
-      <c r="H83" s="570"/>
+      <c r="G83" s="571"/>
+      <c r="H83" s="572"/>
       <c r="I83" s="484" t="s">
         <v>2</v>
       </c>
@@ -49237,10 +49237,10 @@
       <c r="O83" s="10"/>
     </row>
     <row r="84" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G84" s="585" t="s">
+      <c r="G84" s="558" t="s">
         <v>225</v>
       </c>
-      <c r="H84" s="586"/>
+      <c r="H84" s="559"/>
       <c r="I84" s="458" t="str">
         <f>IF(COUNT(E15:E26)=J81, CONCATENATE(ROUND(SUM(E15:E26)*J81/SUM(C15:C26)*1000, 2), " (", ROUND(SUM(E15:E26)*J81/SUM(C15:C26)*1000/EXP(1.96/SQRT(SUM(E15:E26))), 2),"-",ROUND(SUM(E15:E26)*J81/SUM(C15:C26)*1000*EXP(1.96/SQRT(SUM(E15:E26))), 2),")"),"")</f>
         <v/>
@@ -49268,10 +49268,10 @@
       <c r="O84" s="10"/>
     </row>
     <row r="85" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G85" s="587" t="s">
+      <c r="G85" s="560" t="s">
         <v>21</v>
       </c>
-      <c r="H85" s="588"/>
+      <c r="H85" s="561"/>
       <c r="I85" s="461" t="str">
         <f>IF(COUNT(E28:E39)=J81, CONCATENATE(ROUND(SUM(E28:E39)*J81/SUM(C28:C39)*1000, 2), " (", ROUND(SUM(E28:E39)*J81/SUM(C28:C39)*1000/EXP(1.96/SQRT(SUM(E28:E39))), 2),"-",ROUND(SUM(E28:E39)*J81/SUM(C28:C39)*1000*EXP(1.96/SQRT(SUM(E28:E39))), 2),")"),"")</f>
         <v/>
@@ -49299,10 +49299,10 @@
       <c r="O85" s="10"/>
     </row>
     <row r="86" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G86" s="587" t="s">
+      <c r="G86" s="560" t="s">
         <v>22</v>
       </c>
-      <c r="H86" s="588"/>
+      <c r="H86" s="561"/>
       <c r="I86" s="461" t="str">
         <f>IF(COUNT(E41:E52)=J81, CONCATENATE(ROUND(SUM(E41:E52)*J81/SUM(C41:C52)*1000, 2), " (", ROUND(SUM(E41:E52)*J81/SUM(C41:C52)*1000/EXP(1.96/SQRT(SUM(E41:E52))), 2),"-",ROUND(SUM(E41:E52)*J81/SUM(C41:C52)*1000*EXP(1.96/SQRT(SUM(E41:E52))), 2),")"),"")</f>
         <v/>
@@ -49330,10 +49330,10 @@
       <c r="O86" s="10"/>
     </row>
     <row r="87" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G87" s="587" t="s">
+      <c r="G87" s="560" t="s">
         <v>23</v>
       </c>
-      <c r="H87" s="588"/>
+      <c r="H87" s="561"/>
       <c r="I87" s="461" t="str">
         <f>IF(COUNT(E54:E65)=J81, CONCATENATE(ROUND(SUM(E54:E65)*J81/SUM(C54:C65)*1000, 2), " (", ROUND(SUM(E54:E65)*J81/SUM(C54:C65)*1000/EXP(1.96/SQRT(SUM(E54:E65))), 2),"-",ROUND(SUM(E54:E65)*J81/SUM(C54:C65)*1000*EXP(1.96/SQRT(SUM(E54:E65))), 2),")"),"")</f>
         <v/>
@@ -49361,10 +49361,10 @@
       <c r="O87" s="10"/>
     </row>
     <row r="88" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G88" s="587" t="s">
+      <c r="G88" s="560" t="s">
         <v>3</v>
       </c>
-      <c r="H88" s="588"/>
+      <c r="H88" s="561"/>
       <c r="I88" s="461" t="str">
         <f>IF(COUNT(E67:E78)=J81, CONCATENATE(ROUND(SUM(E67:E78)*J81/SUM(C67:C78)*1000, 2), " (", ROUND(SUM(E67:E78)*J81/SUM(C67:C78)*1000/EXP(1.96/SQRT(SUM(E67:E78))), 2),"-",ROUND(SUM(E67:E78)*J81/SUM(C67:C78)*1000*EXP(1.96/SQRT(SUM(E67:E78))), 2),")"),"")</f>
         <v/>
@@ -49392,10 +49392,10 @@
       <c r="O88" s="10"/>
     </row>
     <row r="89" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G89" s="583" t="s">
+      <c r="G89" s="556" t="s">
         <v>1</v>
       </c>
-      <c r="H89" s="584"/>
+      <c r="H89" s="557"/>
       <c r="I89" s="487" t="str">
         <f>IF(COUNT(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)/5=$J$81, CONCATENATE(ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000, 2), " (", ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000/EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),"-",ROUND(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78)*J81/SUM(C15:C26,C28:C39,C41:C52,C54:C65,C67:C78)*1000*EXP(1.96/SQRT(SUM(E15:E26,E28:E39,E41:E52,E54:E65,E67:E78))), 2),")"),"")</f>
         <v/>
@@ -49437,14 +49437,12 @@
     <protectedRange sqref="I15:N26 I41:N52 I54:N65 I67:N78 I28:N39 I84:N89" name="Range1_1_2"/>
   </protectedRanges>
   <mergeCells count="23">
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="G82:H83"/>
     <mergeCell ref="I82:K82"/>
     <mergeCell ref="L82:N82"/>
     <mergeCell ref="G84:H84"/>
@@ -49454,12 +49452,14 @@
     <mergeCell ref="A41:A52"/>
     <mergeCell ref="A54:A65"/>
     <mergeCell ref="A79:H79"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="A67:A78"/>
-    <mergeCell ref="G82:H83"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
   </mergeCells>
   <conditionalFormatting sqref="A91:H1048576 A41:B52 A54:B65 A67:B78 G11 A12:C12 G13 C1:H2 C3:G3 C4:H7 E11 E12:G12 A13:B39 E13 A1:A10 C9:C10 D8:H8 G9:H9 I82 L82 A80:G80 H90 A81:F81 I83:N83 O11 O1:XFD9 O30:O1048576 P11:XFD1048576">
     <cfRule type="containsErrors" dxfId="300" priority="70">
@@ -49816,7 +49816,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="598" t="s">
+      <c r="A9" s="600" t="s">
         <v>177</v>
       </c>
       <c r="B9" s="277" t="s">
@@ -49841,7 +49841,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="598"/>
+      <c r="A10" s="600"/>
       <c r="B10" s="276" t="s">
         <v>98</v>
       </c>
@@ -49866,7 +49866,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="598"/>
+      <c r="A11" s="600"/>
       <c r="B11" s="278" t="s">
         <v>99</v>
       </c>
@@ -49891,7 +49891,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="598"/>
+      <c r="A12" s="600"/>
       <c r="B12" s="278" t="s">
         <v>100</v>
       </c>
@@ -49916,7 +49916,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="598"/>
+      <c r="A13" s="600"/>
       <c r="B13" s="278" t="s">
         <v>101</v>
       </c>
@@ -49941,7 +49941,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="598"/>
+      <c r="A14" s="600"/>
       <c r="B14" s="278" t="s">
         <v>102</v>
       </c>
@@ -50077,7 +50077,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="598" t="s">
+      <c r="A18" s="600" t="s">
         <v>178</v>
       </c>
       <c r="B18" s="276" t="s">
@@ -50104,7 +50104,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="598"/>
+      <c r="A19" s="600"/>
       <c r="B19" s="276" t="s">
         <v>106</v>
       </c>
